--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +662,231 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5404300</v>
+        <v>4069400</v>
       </c>
       <c r="E8" s="3">
-        <v>5492600</v>
+        <v>5016900</v>
       </c>
       <c r="F8" s="3">
-        <v>4782800</v>
+        <v>4863900</v>
       </c>
       <c r="G8" s="3">
-        <v>5494300</v>
+        <v>4943300</v>
       </c>
       <c r="H8" s="3">
-        <v>5362800</v>
+        <v>4304500</v>
       </c>
       <c r="I8" s="3">
+        <v>4944900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4826500</v>
+      </c>
+      <c r="K8" s="3">
         <v>9488900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4392800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4916200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4263900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4208300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4278900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4393300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3372100</v>
+        <v>3047400</v>
       </c>
       <c r="E9" s="3">
-        <v>3364000</v>
+        <v>3312900</v>
       </c>
       <c r="F9" s="3">
-        <v>3070200</v>
+        <v>3034900</v>
       </c>
       <c r="G9" s="3">
-        <v>3582800</v>
+        <v>3027600</v>
       </c>
       <c r="H9" s="3">
-        <v>3186800</v>
+        <v>2763200</v>
       </c>
       <c r="I9" s="3">
+        <v>3224500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2868100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5581200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2654000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3118400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2808700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2952200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2926600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3202400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2032200</v>
+        <v>1022000</v>
       </c>
       <c r="E10" s="3">
-        <v>2128600</v>
+        <v>1704100</v>
       </c>
       <c r="F10" s="3">
-        <v>1712500</v>
+        <v>1829000</v>
       </c>
       <c r="G10" s="3">
-        <v>1911500</v>
+        <v>1915700</v>
       </c>
       <c r="H10" s="3">
-        <v>2176000</v>
+        <v>1541300</v>
       </c>
       <c r="I10" s="3">
+        <v>1720300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1958400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3907700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1738700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1797800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1455200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1256100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1352300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1190900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +903,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>17500</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
-        <v>74300</v>
+        <v>107000</v>
       </c>
       <c r="F12" s="3">
-        <v>18400</v>
+        <v>15700</v>
       </c>
       <c r="G12" s="3">
-        <v>58000</v>
+        <v>66900</v>
       </c>
       <c r="H12" s="3">
-        <v>301800</v>
+        <v>16600</v>
       </c>
       <c r="I12" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>271600</v>
+      </c>
+      <c r="K12" s="3">
         <v>56400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>21200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>292200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>103900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>24700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>96800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,96 +999,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>11600</v>
+        <v>335200</v>
       </c>
       <c r="E14" s="3">
-        <v>6400</v>
+        <v>194800</v>
       </c>
       <c r="F14" s="3">
-        <v>4600</v>
+        <v>10400</v>
       </c>
       <c r="G14" s="3">
-        <v>171900</v>
+        <v>5700</v>
       </c>
       <c r="H14" s="3">
-        <v>-29200</v>
+        <v>4100</v>
       </c>
       <c r="I14" s="3">
+        <v>154700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-14700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-34600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-556400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>7900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-12900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>244000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>11900</v>
+        <v>20700</v>
       </c>
       <c r="E15" s="3">
-        <v>12500</v>
+        <v>47700</v>
       </c>
       <c r="F15" s="3">
-        <v>6000</v>
+        <v>10700</v>
       </c>
       <c r="G15" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="P15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>16400</v>
+      </c>
+      <c r="R15" s="3">
         <v>9000</v>
       </c>
-      <c r="H15" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>8700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10900</v>
-      </c>
-      <c r="N15" s="3">
-        <v>13300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>16400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3690800</v>
+        <v>3664900</v>
       </c>
       <c r="E17" s="3">
-        <v>3705300</v>
+        <v>3993900</v>
       </c>
       <c r="F17" s="3">
-        <v>3295800</v>
+        <v>3321700</v>
       </c>
       <c r="G17" s="3">
-        <v>4145900</v>
+        <v>3334800</v>
       </c>
       <c r="H17" s="3">
-        <v>3667000</v>
+        <v>2966200</v>
       </c>
       <c r="I17" s="3">
+        <v>3731300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3300300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6019600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2838800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3111000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3200600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3162600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3223200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3854400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1713500</v>
+        <v>404500</v>
       </c>
       <c r="E18" s="3">
-        <v>1787300</v>
+        <v>1023100</v>
       </c>
       <c r="F18" s="3">
-        <v>1487000</v>
+        <v>1542100</v>
       </c>
       <c r="G18" s="3">
-        <v>1348300</v>
+        <v>1608600</v>
       </c>
       <c r="H18" s="3">
-        <v>1695800</v>
+        <v>1338300</v>
       </c>
       <c r="I18" s="3">
+        <v>1213500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1526200</v>
+      </c>
+      <c r="K18" s="3">
         <v>3469300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1554000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1805100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1063300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1045700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1055600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>538900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,228 +1240,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-35300</v>
+        <v>-48800</v>
       </c>
       <c r="E20" s="3">
-        <v>48300</v>
+        <v>83100</v>
       </c>
       <c r="F20" s="3">
-        <v>68100</v>
+        <v>-31700</v>
       </c>
       <c r="G20" s="3">
-        <v>96000</v>
+        <v>43400</v>
       </c>
       <c r="H20" s="3">
-        <v>21500</v>
+        <v>61300</v>
       </c>
       <c r="I20" s="3">
+        <v>86400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K20" s="3">
         <v>45700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>26900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>18100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-58800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>117200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-111000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>291700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2340000</v>
+        <v>957700</v>
       </c>
       <c r="E21" s="3">
-        <v>2463600</v>
+        <v>1721200</v>
       </c>
       <c r="F21" s="3">
-        <v>2152300</v>
+        <v>2106000</v>
       </c>
       <c r="G21" s="3">
-        <v>2017800</v>
+        <v>2217200</v>
       </c>
       <c r="H21" s="3">
-        <v>2338400</v>
+        <v>1937100</v>
       </c>
       <c r="I21" s="3">
+        <v>1816000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2104600</v>
+      </c>
+      <c r="K21" s="3">
         <v>4627400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2118200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2411200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1718300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1846200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1604900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1464900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>142300</v>
+        <v>131100</v>
       </c>
       <c r="E22" s="3">
-        <v>143900</v>
+        <v>131900</v>
       </c>
       <c r="F22" s="3">
-        <v>135600</v>
+        <v>128100</v>
       </c>
       <c r="G22" s="3">
-        <v>211300</v>
+        <v>129500</v>
       </c>
       <c r="H22" s="3">
-        <v>160600</v>
+        <v>122000</v>
       </c>
       <c r="I22" s="3">
+        <v>190200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K22" s="3">
         <v>347900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>171800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>206800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>198200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>153300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>205200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>226800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1535900</v>
+        <v>224700</v>
       </c>
       <c r="E23" s="3">
-        <v>1691600</v>
+        <v>974300</v>
       </c>
       <c r="F23" s="3">
-        <v>1419500</v>
+        <v>1382300</v>
       </c>
       <c r="G23" s="3">
-        <v>1233000</v>
+        <v>1522500</v>
       </c>
       <c r="H23" s="3">
-        <v>1556600</v>
+        <v>1277600</v>
       </c>
       <c r="I23" s="3">
+        <v>1109700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1401000</v>
+      </c>
+      <c r="K23" s="3">
         <v>3167100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1409100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1616500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>806300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1009600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>739400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>603800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>531000</v>
+        <v>95000</v>
       </c>
       <c r="E24" s="3">
-        <v>561600</v>
+        <v>-194000</v>
       </c>
       <c r="F24" s="3">
-        <v>502000</v>
+        <v>477900</v>
       </c>
       <c r="G24" s="3">
-        <v>350100</v>
+        <v>505400</v>
       </c>
       <c r="H24" s="3">
-        <v>654500</v>
+        <v>451800</v>
       </c>
       <c r="I24" s="3">
+        <v>315100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>589000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1192000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>564000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>457200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>414600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>535100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>396300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>485600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1005000</v>
+        <v>129600</v>
       </c>
       <c r="E26" s="3">
-        <v>1130100</v>
+        <v>1168400</v>
       </c>
       <c r="F26" s="3">
-        <v>917500</v>
+        <v>904500</v>
       </c>
       <c r="G26" s="3">
-        <v>882900</v>
+        <v>1017100</v>
       </c>
       <c r="H26" s="3">
-        <v>902100</v>
+        <v>825800</v>
       </c>
       <c r="I26" s="3">
+        <v>794600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>811900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1975100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>845100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1159300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>391700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>474500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>343200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>118200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>903300</v>
+        <v>35900</v>
       </c>
       <c r="E27" s="3">
-        <v>1046200</v>
+        <v>1082400</v>
       </c>
       <c r="F27" s="3">
-        <v>823400</v>
+        <v>813000</v>
       </c>
       <c r="G27" s="3">
-        <v>794200</v>
+        <v>941500</v>
       </c>
       <c r="H27" s="3">
-        <v>832500</v>
+        <v>741000</v>
       </c>
       <c r="I27" s="3">
+        <v>714800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>749200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1840300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>784400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1096500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>321100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>417500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>283500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>61400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1736,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>35300</v>
+        <v>48800</v>
       </c>
       <c r="E32" s="3">
-        <v>-48300</v>
+        <v>-83100</v>
       </c>
       <c r="F32" s="3">
-        <v>-68100</v>
+        <v>31700</v>
       </c>
       <c r="G32" s="3">
-        <v>-96000</v>
+        <v>-43400</v>
       </c>
       <c r="H32" s="3">
-        <v>-21500</v>
+        <v>-61300</v>
       </c>
       <c r="I32" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-45700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-26900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-18100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>58800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-117200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>111000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-291700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>903300</v>
+        <v>35900</v>
       </c>
       <c r="E33" s="3">
-        <v>1046200</v>
+        <v>1082400</v>
       </c>
       <c r="F33" s="3">
-        <v>823400</v>
+        <v>813000</v>
       </c>
       <c r="G33" s="3">
-        <v>794200</v>
+        <v>941500</v>
       </c>
       <c r="H33" s="3">
-        <v>832500</v>
+        <v>741000</v>
       </c>
       <c r="I33" s="3">
+        <v>714800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>749200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1840300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>784400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1096500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>321100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>417500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>283500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>61400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>903300</v>
+        <v>35900</v>
       </c>
       <c r="E35" s="3">
-        <v>1046200</v>
+        <v>1082400</v>
       </c>
       <c r="F35" s="3">
-        <v>823400</v>
+        <v>813000</v>
       </c>
       <c r="G35" s="3">
-        <v>794200</v>
+        <v>941500</v>
       </c>
       <c r="H35" s="3">
-        <v>832500</v>
+        <v>741000</v>
       </c>
       <c r="I35" s="3">
+        <v>714800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>749200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1840300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>784400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1096500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>321100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>417500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>283500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>61400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,404 +2135,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2718400</v>
+        <v>2375200</v>
       </c>
       <c r="E41" s="3">
-        <v>1657200</v>
+        <v>1910500</v>
       </c>
       <c r="F41" s="3">
-        <v>2681400</v>
+        <v>2446500</v>
       </c>
       <c r="G41" s="3">
-        <v>1893500</v>
+        <v>1491500</v>
       </c>
       <c r="H41" s="3">
-        <v>2136200</v>
+        <v>2413200</v>
       </c>
       <c r="I41" s="3">
+        <v>1704200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1922600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1901200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2359900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1755700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1832500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1501600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1561700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1095700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>735600</v>
+        <v>257200</v>
       </c>
       <c r="E42" s="3">
-        <v>1007400</v>
+        <v>477600</v>
       </c>
       <c r="F42" s="3">
-        <v>1499000</v>
+        <v>662000</v>
       </c>
       <c r="G42" s="3">
-        <v>1596300</v>
+        <v>906600</v>
       </c>
       <c r="H42" s="3">
-        <v>2269000</v>
+        <v>1349100</v>
       </c>
       <c r="I42" s="3">
+        <v>1436700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2042100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1878800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1325000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1736700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1560200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1118400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3310400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3450900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2277600</v>
+        <v>1876400</v>
       </c>
       <c r="E43" s="3">
-        <v>2927700</v>
+        <v>2213500</v>
       </c>
       <c r="F43" s="3">
-        <v>3028600</v>
+        <v>2049800</v>
       </c>
       <c r="G43" s="3">
-        <v>2929300</v>
+        <v>2634900</v>
       </c>
       <c r="H43" s="3">
-        <v>2611700</v>
+        <v>2725700</v>
       </c>
       <c r="I43" s="3">
+        <v>2636300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2350500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2628100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2269200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2341000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1978600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1905300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1705700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2007700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1772000</v>
+        <v>1569200</v>
       </c>
       <c r="E44" s="3">
-        <v>1756200</v>
+        <v>1527700</v>
       </c>
       <c r="F44" s="3">
-        <v>1643400</v>
+        <v>1594800</v>
       </c>
       <c r="G44" s="3">
-        <v>1530100</v>
+        <v>1580600</v>
       </c>
       <c r="H44" s="3">
-        <v>1623900</v>
+        <v>1479100</v>
       </c>
       <c r="I44" s="3">
+        <v>1377100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1461500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1641500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1478800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1472400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1512100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1366100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1385800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1267800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>218100</v>
+        <v>316300</v>
       </c>
       <c r="E45" s="3">
-        <v>160400</v>
+        <v>179200</v>
       </c>
       <c r="F45" s="3">
-        <v>163000</v>
+        <v>196300</v>
       </c>
       <c r="G45" s="3">
-        <v>159900</v>
+        <v>144400</v>
       </c>
       <c r="H45" s="3">
-        <v>145600</v>
+        <v>146700</v>
       </c>
       <c r="I45" s="3">
+        <v>143900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>131000</v>
+      </c>
+      <c r="K45" s="3">
         <v>125000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>131300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>125800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>180600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>191400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>169900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>140500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7721600</v>
+        <v>6394300</v>
       </c>
       <c r="E46" s="3">
-        <v>7508900</v>
+        <v>6308400</v>
       </c>
       <c r="F46" s="3">
-        <v>9015400</v>
+        <v>6949500</v>
       </c>
       <c r="G46" s="3">
-        <v>8109200</v>
+        <v>6758000</v>
       </c>
       <c r="H46" s="3">
-        <v>8786400</v>
+        <v>8113900</v>
       </c>
       <c r="I46" s="3">
+        <v>7298300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7907800</v>
+      </c>
+      <c r="K46" s="3">
         <v>8174700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7564200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7431700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7064000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6082800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8133400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7962600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2173800</v>
+        <v>1705800</v>
       </c>
       <c r="E47" s="3">
-        <v>1937000</v>
+        <v>1994500</v>
       </c>
       <c r="F47" s="3">
-        <v>1483800</v>
+        <v>1956400</v>
       </c>
       <c r="G47" s="3">
-        <v>1628000</v>
+        <v>1743300</v>
       </c>
       <c r="H47" s="3">
-        <v>1702100</v>
+        <v>1335500</v>
       </c>
       <c r="I47" s="3">
+        <v>1465200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1531900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1627300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1929500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1815500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1384000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1419900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1466400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1205600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>26919000</v>
+        <v>27621600</v>
       </c>
       <c r="E48" s="3">
-        <v>25791100</v>
+        <v>25306800</v>
       </c>
       <c r="F48" s="3">
-        <v>25650100</v>
+        <v>24227100</v>
       </c>
       <c r="G48" s="3">
-        <v>25753700</v>
+        <v>23212000</v>
       </c>
       <c r="H48" s="3">
-        <v>24576500</v>
+        <v>23085100</v>
       </c>
       <c r="I48" s="3">
+        <v>23178300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>22118800</v>
+      </c>
+      <c r="K48" s="3">
         <v>24635700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24041100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>26453800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>25781800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>26507600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>26236200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>27921300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>394800</v>
+        <v>412700</v>
       </c>
       <c r="E49" s="3">
-        <v>394400</v>
+        <v>378700</v>
       </c>
       <c r="F49" s="3">
-        <v>401700</v>
+        <v>355300</v>
       </c>
       <c r="G49" s="3">
-        <v>399100</v>
+        <v>354900</v>
       </c>
       <c r="H49" s="3">
-        <v>393700</v>
+        <v>361500</v>
       </c>
       <c r="I49" s="3">
+        <v>359200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>354300</v>
+      </c>
+      <c r="K49" s="3">
         <v>383600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>384100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>415900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>404900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>375200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>380300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>393200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2089500</v>
+        <v>3429900</v>
       </c>
       <c r="E52" s="3">
-        <v>1904100</v>
+        <v>2582500</v>
       </c>
       <c r="F52" s="3">
-        <v>1901200</v>
+        <v>1880600</v>
       </c>
       <c r="G52" s="3">
-        <v>1982200</v>
+        <v>1713700</v>
       </c>
       <c r="H52" s="3">
-        <v>1705900</v>
+        <v>1711100</v>
       </c>
       <c r="I52" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1535300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1653700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1652100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2499000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2571300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2636600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2342900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2548600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>39298800</v>
+        <v>39564200</v>
       </c>
       <c r="E54" s="3">
-        <v>37535300</v>
+        <v>36571000</v>
       </c>
       <c r="F54" s="3">
-        <v>38452300</v>
+        <v>35368900</v>
       </c>
       <c r="G54" s="3">
-        <v>37872200</v>
+        <v>33781800</v>
       </c>
       <c r="H54" s="3">
-        <v>37164600</v>
+        <v>34607100</v>
       </c>
       <c r="I54" s="3">
+        <v>34085000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>33448100</v>
+      </c>
+      <c r="K54" s="3">
         <v>36475000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>35571100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>38615900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>37205900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>37022200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>38559200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>40031400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2875,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2136700</v>
+        <v>1821200</v>
       </c>
       <c r="E57" s="3">
-        <v>2025600</v>
+        <v>2191100</v>
       </c>
       <c r="F57" s="3">
-        <v>1842900</v>
+        <v>1923100</v>
       </c>
       <c r="G57" s="3">
-        <v>2063600</v>
+        <v>1823000</v>
       </c>
       <c r="H57" s="3">
-        <v>1854500</v>
+        <v>1658600</v>
       </c>
       <c r="I57" s="3">
+        <v>1857200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1669000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1569200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1386700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1628500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1347100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1319700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1235200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1540900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1357400</v>
+        <v>1654300</v>
       </c>
       <c r="E58" s="3">
-        <v>1226500</v>
+        <v>1353300</v>
       </c>
       <c r="F58" s="3">
-        <v>1212800</v>
+        <v>1221700</v>
       </c>
       <c r="G58" s="3">
-        <v>1206000</v>
+        <v>1103800</v>
       </c>
       <c r="H58" s="3">
-        <v>2410300</v>
+        <v>1091500</v>
       </c>
       <c r="I58" s="3">
+        <v>1085400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2169300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1703100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1479900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1646200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1636800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1254200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1310400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1361600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2164800</v>
+        <v>4330500</v>
       </c>
       <c r="E59" s="3">
-        <v>2715800</v>
+        <v>2326100</v>
       </c>
       <c r="F59" s="3">
-        <v>4979500</v>
+        <v>1948300</v>
       </c>
       <c r="G59" s="3">
-        <v>2077900</v>
+        <v>2444200</v>
       </c>
       <c r="H59" s="3">
-        <v>2318100</v>
+        <v>4481500</v>
       </c>
       <c r="I59" s="3">
+        <v>1870100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2086300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2384800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3290800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2116200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2184600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2070100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2920300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2505200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5659000</v>
+        <v>7806100</v>
       </c>
       <c r="E60" s="3">
-        <v>5967800</v>
+        <v>5870400</v>
       </c>
       <c r="F60" s="3">
-        <v>8035200</v>
+        <v>5093100</v>
       </c>
       <c r="G60" s="3">
-        <v>5347400</v>
+        <v>5371000</v>
       </c>
       <c r="H60" s="3">
-        <v>6582900</v>
+        <v>7231700</v>
       </c>
       <c r="I60" s="3">
+        <v>4812600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5924600</v>
+      </c>
+      <c r="K60" s="3">
         <v>5657100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6157300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5390900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5168500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4644100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5465900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5407800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10764600</v>
+        <v>10888500</v>
       </c>
       <c r="E61" s="3">
-        <v>10013800</v>
+        <v>8971300</v>
       </c>
       <c r="F61" s="3">
-        <v>10105500</v>
+        <v>9688200</v>
       </c>
       <c r="G61" s="3">
-        <v>10212800</v>
+        <v>9012400</v>
       </c>
       <c r="H61" s="3">
-        <v>9556900</v>
+        <v>9095000</v>
       </c>
       <c r="I61" s="3">
+        <v>9191500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8601200</v>
+      </c>
+      <c r="K61" s="3">
         <v>10695600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10807900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>12289100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>12638500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>13502000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>14821200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>15871600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4466100</v>
+        <v>5647100</v>
       </c>
       <c r="E62" s="3">
-        <v>4473500</v>
+        <v>5436400</v>
       </c>
       <c r="F62" s="3">
-        <v>4511500</v>
+        <v>4019500</v>
       </c>
       <c r="G62" s="3">
-        <v>4520700</v>
+        <v>4026100</v>
       </c>
       <c r="H62" s="3">
-        <v>4473900</v>
+        <v>4060300</v>
       </c>
       <c r="I62" s="3">
+        <v>4068600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4026500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4451000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4256600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5005900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4070100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3843000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3738900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3796500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>21535600</v>
+        <v>25369000</v>
       </c>
       <c r="E66" s="3">
-        <v>21113800</v>
+        <v>21339600</v>
       </c>
       <c r="F66" s="3">
-        <v>23248000</v>
+        <v>19382000</v>
       </c>
       <c r="G66" s="3">
-        <v>20708100</v>
+        <v>19002400</v>
       </c>
       <c r="H66" s="3">
-        <v>21154400</v>
+        <v>20923200</v>
       </c>
       <c r="I66" s="3">
+        <v>18637300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>19039000</v>
+      </c>
+      <c r="K66" s="3">
         <v>21376300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21713500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>23288300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22436200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>22579500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>24545600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>25619100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5332500</v>
+        <v>2978700</v>
       </c>
       <c r="E72" s="3">
-        <v>4429100</v>
+        <v>4941100</v>
       </c>
       <c r="F72" s="3">
-        <v>3382900</v>
+        <v>4799200</v>
       </c>
       <c r="G72" s="3">
-        <v>5335100</v>
+        <v>3986200</v>
       </c>
       <c r="H72" s="3">
-        <v>4540900</v>
+        <v>3044700</v>
       </c>
       <c r="I72" s="3">
+        <v>4801600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4086800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3708300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2652600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3163800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2067600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1746600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1329000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1390300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>17763200</v>
+        <v>14195200</v>
       </c>
       <c r="E76" s="3">
-        <v>16421600</v>
+        <v>15231300</v>
       </c>
       <c r="F76" s="3">
-        <v>15204300</v>
+        <v>15986900</v>
       </c>
       <c r="G76" s="3">
-        <v>17164100</v>
+        <v>14779400</v>
       </c>
       <c r="H76" s="3">
-        <v>16010200</v>
+        <v>13683900</v>
       </c>
       <c r="I76" s="3">
+        <v>15447700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14409100</v>
+      </c>
+      <c r="K76" s="3">
         <v>15098700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13857600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15327600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14769700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14442700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14013600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14412400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>903300</v>
+        <v>35900</v>
       </c>
       <c r="E81" s="3">
-        <v>1046200</v>
+        <v>1082400</v>
       </c>
       <c r="F81" s="3">
-        <v>823400</v>
+        <v>813000</v>
       </c>
       <c r="G81" s="3">
-        <v>794200</v>
+        <v>941500</v>
       </c>
       <c r="H81" s="3">
-        <v>832500</v>
+        <v>741000</v>
       </c>
       <c r="I81" s="3">
+        <v>714800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>749200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1840300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>784400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1096500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>321100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>417500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>283500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>61400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>661800</v>
+        <v>602000</v>
       </c>
       <c r="E83" s="3">
-        <v>628000</v>
+        <v>615000</v>
       </c>
       <c r="F83" s="3">
-        <v>597200</v>
+        <v>595600</v>
       </c>
       <c r="G83" s="3">
-        <v>573500</v>
+        <v>565200</v>
       </c>
       <c r="H83" s="3">
-        <v>621100</v>
+        <v>537500</v>
       </c>
       <c r="I83" s="3">
+        <v>516100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>559000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1112400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>537300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>588000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>713800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>683300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>660300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>634300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2792800</v>
+        <v>694600</v>
       </c>
       <c r="E89" s="3">
-        <v>1801000</v>
+        <v>2042500</v>
       </c>
       <c r="F89" s="3">
-        <v>1450300</v>
+        <v>2513500</v>
       </c>
       <c r="G89" s="3">
-        <v>1357400</v>
+        <v>1620900</v>
       </c>
       <c r="H89" s="3">
-        <v>2566200</v>
+        <v>1305300</v>
       </c>
       <c r="I89" s="3">
+        <v>1221700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2309500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2794100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1401900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2033100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1494000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>478900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1425500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1328000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-360400</v>
+        <v>-222200</v>
       </c>
       <c r="E91" s="3">
-        <v>-218500</v>
+        <v>-400500</v>
       </c>
       <c r="F91" s="3">
-        <v>-179900</v>
+        <v>-324300</v>
       </c>
       <c r="G91" s="3">
-        <v>-413100</v>
+        <v>-196700</v>
       </c>
       <c r="H91" s="3">
-        <v>-244800</v>
+        <v>-161900</v>
       </c>
       <c r="I91" s="3">
+        <v>-371700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-220300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-333000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-133100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-305300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-160000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-90800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-743300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-791800</v>
+        <v>-233300</v>
       </c>
       <c r="E94" s="3">
-        <v>-528000</v>
+        <v>-1228500</v>
       </c>
       <c r="F94" s="3">
-        <v>-326000</v>
+        <v>-712600</v>
       </c>
       <c r="G94" s="3">
-        <v>150100</v>
+        <v>-475200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1081400</v>
+        <v>-293400</v>
       </c>
       <c r="I94" s="3">
+        <v>135100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-973300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-623200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1472300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-834500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,52 +4610,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-924500</v>
+        <v>-115000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1992800</v>
+        <v>-1028700</v>
       </c>
       <c r="F96" s="3">
-        <v>-99800</v>
+        <v>-832000</v>
       </c>
       <c r="G96" s="3">
-        <v>-42100</v>
+        <v>-1793500</v>
       </c>
       <c r="H96" s="3">
-        <v>-549600</v>
+        <v>-89800</v>
       </c>
       <c r="I96" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-494600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-736600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-73500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-63900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-53900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-327100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-36600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-105500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1060100</v>
+        <v>-277000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2330900</v>
+        <v>-1309800</v>
       </c>
       <c r="F100" s="3">
-        <v>-304800</v>
+        <v>-954100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1874600</v>
+        <v>-2097800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1307400</v>
+        <v>-274300</v>
       </c>
       <c r="I100" s="3">
+        <v>-1687200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1176600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-273900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-877700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-278100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-294000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-314200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>120200</v>
+        <v>280500</v>
       </c>
       <c r="E101" s="3">
-        <v>33800</v>
+        <v>-40300</v>
       </c>
       <c r="F101" s="3">
-        <v>-31700</v>
+        <v>108200</v>
       </c>
       <c r="G101" s="3">
-        <v>124500</v>
+        <v>30500</v>
       </c>
       <c r="H101" s="3">
-        <v>57500</v>
+        <v>-28500</v>
       </c>
       <c r="I101" s="3">
+        <v>112000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-60100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-72400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>9800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-78800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>69600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-93500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>51000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1061100</v>
+        <v>464800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1024100</v>
+        <v>-536100</v>
       </c>
       <c r="F102" s="3">
-        <v>787800</v>
+        <v>955000</v>
       </c>
       <c r="G102" s="3">
-        <v>-242600</v>
+        <v>-921700</v>
       </c>
       <c r="H102" s="3">
-        <v>234900</v>
+        <v>709100</v>
       </c>
       <c r="I102" s="3">
+        <v>-218400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>211400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-482500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-23800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>30000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>513900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-613900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-78600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>230300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +662,244 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4069400</v>
+        <v>2194800</v>
       </c>
       <c r="E8" s="3">
-        <v>5016900</v>
+        <v>3918700</v>
       </c>
       <c r="F8" s="3">
-        <v>4863900</v>
+        <v>4831100</v>
       </c>
       <c r="G8" s="3">
-        <v>4943300</v>
+        <v>4683700</v>
       </c>
       <c r="H8" s="3">
-        <v>4304500</v>
+        <v>4760200</v>
       </c>
       <c r="I8" s="3">
-        <v>4944900</v>
+        <v>4145100</v>
       </c>
       <c r="J8" s="3">
+        <v>4761700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4826500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9488900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4392800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4916200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4263900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4208300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4278900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4393300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3047400</v>
+        <v>1980000</v>
       </c>
       <c r="E9" s="3">
-        <v>3312900</v>
+        <v>2934600</v>
       </c>
       <c r="F9" s="3">
-        <v>3034900</v>
+        <v>3190200</v>
       </c>
       <c r="G9" s="3">
-        <v>3027600</v>
+        <v>2922500</v>
       </c>
       <c r="H9" s="3">
-        <v>2763200</v>
+        <v>2915500</v>
       </c>
       <c r="I9" s="3">
-        <v>3224500</v>
+        <v>2660900</v>
       </c>
       <c r="J9" s="3">
+        <v>3105100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2868100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5581200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2654000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3118400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2808700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2952200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2926600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3202400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1022000</v>
+        <v>214800</v>
       </c>
       <c r="E10" s="3">
-        <v>1704100</v>
+        <v>984100</v>
       </c>
       <c r="F10" s="3">
-        <v>1829000</v>
+        <v>1641000</v>
       </c>
       <c r="G10" s="3">
-        <v>1915700</v>
+        <v>1761200</v>
       </c>
       <c r="H10" s="3">
-        <v>1541300</v>
+        <v>1844800</v>
       </c>
       <c r="I10" s="3">
-        <v>1720300</v>
+        <v>1484200</v>
       </c>
       <c r="J10" s="3">
+        <v>1656600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1958400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3907700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1738700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1797800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1455200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1256100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1352300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1190900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +918,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10200</v>
+        <v>36400</v>
       </c>
       <c r="E12" s="3">
-        <v>107000</v>
+        <v>9800</v>
       </c>
       <c r="F12" s="3">
-        <v>15700</v>
+        <v>103000</v>
       </c>
       <c r="G12" s="3">
-        <v>66900</v>
+        <v>15200</v>
       </c>
       <c r="H12" s="3">
-        <v>16600</v>
+        <v>64400</v>
       </c>
       <c r="I12" s="3">
-        <v>52200</v>
+        <v>16000</v>
       </c>
       <c r="J12" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K12" s="3">
         <v>271600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>56400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>292200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>103900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>96800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,108 +1022,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>335200</v>
+        <v>-356200</v>
       </c>
       <c r="E14" s="3">
-        <v>194800</v>
+        <v>314200</v>
       </c>
       <c r="F14" s="3">
-        <v>10400</v>
+        <v>187600</v>
       </c>
       <c r="G14" s="3">
-        <v>5700</v>
+        <v>10000</v>
       </c>
       <c r="H14" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="I14" s="3">
-        <v>154700</v>
+        <v>3900</v>
       </c>
       <c r="J14" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-26200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-14700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-34600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-556400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-12900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>244000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>20700</v>
+        <v>14000</v>
       </c>
       <c r="E15" s="3">
-        <v>47700</v>
+        <v>20000</v>
       </c>
       <c r="F15" s="3">
-        <v>10700</v>
+        <v>46000</v>
       </c>
       <c r="G15" s="3">
-        <v>11200</v>
+        <v>10300</v>
       </c>
       <c r="H15" s="3">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="I15" s="3">
-        <v>8100</v>
+        <v>5200</v>
       </c>
       <c r="J15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K15" s="3">
         <v>4500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>16400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3664900</v>
+        <v>1979600</v>
       </c>
       <c r="E17" s="3">
-        <v>3993900</v>
+        <v>3529200</v>
       </c>
       <c r="F17" s="3">
-        <v>3321700</v>
+        <v>3845900</v>
       </c>
       <c r="G17" s="3">
-        <v>3334800</v>
+        <v>3198700</v>
       </c>
       <c r="H17" s="3">
-        <v>2966200</v>
+        <v>3211300</v>
       </c>
       <c r="I17" s="3">
-        <v>3731300</v>
+        <v>2856300</v>
       </c>
       <c r="J17" s="3">
+        <v>3593200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3300300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6019600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2838800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3111000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3162600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3223200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3854400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>404500</v>
+        <v>215200</v>
       </c>
       <c r="E18" s="3">
-        <v>1023100</v>
+        <v>389600</v>
       </c>
       <c r="F18" s="3">
-        <v>1542100</v>
+        <v>985200</v>
       </c>
       <c r="G18" s="3">
-        <v>1608600</v>
+        <v>1485000</v>
       </c>
       <c r="H18" s="3">
-        <v>1338300</v>
+        <v>1549000</v>
       </c>
       <c r="I18" s="3">
-        <v>1213500</v>
+        <v>1288800</v>
       </c>
       <c r="J18" s="3">
+        <v>1168600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1526200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3469300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1554000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1805100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1063300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1045700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1055600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>538900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,258 +1275,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-48800</v>
+        <v>34200</v>
       </c>
       <c r="E20" s="3">
-        <v>83100</v>
+        <v>-47000</v>
       </c>
       <c r="F20" s="3">
-        <v>-31700</v>
+        <v>80100</v>
       </c>
       <c r="G20" s="3">
-        <v>43400</v>
+        <v>-30600</v>
       </c>
       <c r="H20" s="3">
-        <v>61300</v>
+        <v>41800</v>
       </c>
       <c r="I20" s="3">
-        <v>86400</v>
+        <v>59000</v>
       </c>
       <c r="J20" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K20" s="3">
         <v>19300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>45700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>26900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-58800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>117200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>291700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>957700</v>
+        <v>844600</v>
       </c>
       <c r="E21" s="3">
-        <v>1721200</v>
+        <v>922300</v>
       </c>
       <c r="F21" s="3">
-        <v>2106000</v>
+        <v>1657500</v>
       </c>
       <c r="G21" s="3">
-        <v>2217200</v>
+        <v>2028000</v>
       </c>
       <c r="H21" s="3">
-        <v>1937100</v>
+        <v>2135100</v>
       </c>
       <c r="I21" s="3">
-        <v>1816000</v>
+        <v>1865400</v>
       </c>
       <c r="J21" s="3">
+        <v>1748700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2104600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4627400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2118200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2411200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1718300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1846200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1604900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1464900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>131100</v>
+        <v>169800</v>
       </c>
       <c r="E22" s="3">
-        <v>131900</v>
+        <v>126200</v>
       </c>
       <c r="F22" s="3">
-        <v>128100</v>
+        <v>127000</v>
       </c>
       <c r="G22" s="3">
-        <v>129500</v>
+        <v>123300</v>
       </c>
       <c r="H22" s="3">
-        <v>122000</v>
+        <v>124700</v>
       </c>
       <c r="I22" s="3">
-        <v>190200</v>
+        <v>117500</v>
       </c>
       <c r="J22" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K22" s="3">
         <v>144600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>347900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>171800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>206800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>198200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>153300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>205200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>226800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>224700</v>
+        <v>79600</v>
       </c>
       <c r="E23" s="3">
-        <v>974300</v>
+        <v>216300</v>
       </c>
       <c r="F23" s="3">
-        <v>1382300</v>
+        <v>938200</v>
       </c>
       <c r="G23" s="3">
-        <v>1522500</v>
+        <v>1331100</v>
       </c>
       <c r="H23" s="3">
-        <v>1277600</v>
+        <v>1466100</v>
       </c>
       <c r="I23" s="3">
-        <v>1109700</v>
+        <v>1230300</v>
       </c>
       <c r="J23" s="3">
+        <v>1068600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1401000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3167100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1409100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1616500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>806300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1009600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>739400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>603800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>95000</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>-194000</v>
+        <v>91500</v>
       </c>
       <c r="F24" s="3">
-        <v>477900</v>
+        <v>-186900</v>
       </c>
       <c r="G24" s="3">
-        <v>505400</v>
+        <v>460200</v>
       </c>
       <c r="H24" s="3">
-        <v>451800</v>
+        <v>486700</v>
       </c>
       <c r="I24" s="3">
-        <v>315100</v>
+        <v>435100</v>
       </c>
       <c r="J24" s="3">
+        <v>303400</v>
+      </c>
+      <c r="K24" s="3">
         <v>589000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1192000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>564000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>457200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>414600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>535100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>396300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>485600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>129600</v>
+        <v>78400</v>
       </c>
       <c r="E26" s="3">
-        <v>1168400</v>
+        <v>124800</v>
       </c>
       <c r="F26" s="3">
-        <v>904500</v>
+        <v>1125100</v>
       </c>
       <c r="G26" s="3">
-        <v>1017100</v>
+        <v>871000</v>
       </c>
       <c r="H26" s="3">
-        <v>825800</v>
+        <v>979400</v>
       </c>
       <c r="I26" s="3">
-        <v>794600</v>
+        <v>795200</v>
       </c>
       <c r="J26" s="3">
+        <v>765200</v>
+      </c>
+      <c r="K26" s="3">
         <v>811900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1975100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>845100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1159300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>391700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>474500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>343200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>118200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>35900</v>
+        <v>6500</v>
       </c>
       <c r="E27" s="3">
-        <v>1082400</v>
+        <v>34600</v>
       </c>
       <c r="F27" s="3">
-        <v>813000</v>
+        <v>1042300</v>
       </c>
       <c r="G27" s="3">
-        <v>941500</v>
+        <v>782900</v>
       </c>
       <c r="H27" s="3">
-        <v>741000</v>
+        <v>906700</v>
       </c>
       <c r="I27" s="3">
-        <v>714800</v>
+        <v>713600</v>
       </c>
       <c r="J27" s="3">
+        <v>688300</v>
+      </c>
+      <c r="K27" s="3">
         <v>749200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1840300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>784400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1096500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>321100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>417500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>283500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>61400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>48800</v>
+        <v>-34200</v>
       </c>
       <c r="E32" s="3">
-        <v>-83100</v>
+        <v>47000</v>
       </c>
       <c r="F32" s="3">
-        <v>31700</v>
+        <v>-80100</v>
       </c>
       <c r="G32" s="3">
-        <v>-43400</v>
+        <v>30600</v>
       </c>
       <c r="H32" s="3">
-        <v>-61300</v>
+        <v>-41800</v>
       </c>
       <c r="I32" s="3">
-        <v>-86400</v>
+        <v>-59000</v>
       </c>
       <c r="J32" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-45700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-26900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>58800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-117200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>111000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-291700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>35900</v>
+        <v>6500</v>
       </c>
       <c r="E33" s="3">
-        <v>1082400</v>
+        <v>34600</v>
       </c>
       <c r="F33" s="3">
-        <v>813000</v>
+        <v>1042300</v>
       </c>
       <c r="G33" s="3">
-        <v>941500</v>
+        <v>782900</v>
       </c>
       <c r="H33" s="3">
-        <v>741000</v>
+        <v>906700</v>
       </c>
       <c r="I33" s="3">
-        <v>714800</v>
+        <v>713600</v>
       </c>
       <c r="J33" s="3">
+        <v>688300</v>
+      </c>
+      <c r="K33" s="3">
         <v>749200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1840300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>784400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1096500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>321100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>417500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>283500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>35900</v>
+        <v>6500</v>
       </c>
       <c r="E35" s="3">
-        <v>1082400</v>
+        <v>34600</v>
       </c>
       <c r="F35" s="3">
-        <v>813000</v>
+        <v>1042300</v>
       </c>
       <c r="G35" s="3">
-        <v>941500</v>
+        <v>782900</v>
       </c>
       <c r="H35" s="3">
-        <v>741000</v>
+        <v>906700</v>
       </c>
       <c r="I35" s="3">
-        <v>714800</v>
+        <v>713600</v>
       </c>
       <c r="J35" s="3">
+        <v>688300</v>
+      </c>
+      <c r="K35" s="3">
         <v>749200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1840300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>784400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1096500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>321100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>417500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>283500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,458 +2223,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2375200</v>
+        <v>2404500</v>
       </c>
       <c r="E41" s="3">
-        <v>1910500</v>
+        <v>2287300</v>
       </c>
       <c r="F41" s="3">
-        <v>2446500</v>
+        <v>1839700</v>
       </c>
       <c r="G41" s="3">
-        <v>1491500</v>
+        <v>2355900</v>
       </c>
       <c r="H41" s="3">
-        <v>2413200</v>
+        <v>1436300</v>
       </c>
       <c r="I41" s="3">
-        <v>1704200</v>
+        <v>2323800</v>
       </c>
       <c r="J41" s="3">
+        <v>1641100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1922600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1901200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2359900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1755700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1832500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1501600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1561700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1095700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>257200</v>
+        <v>1083100</v>
       </c>
       <c r="E42" s="3">
-        <v>477600</v>
+        <v>247600</v>
       </c>
       <c r="F42" s="3">
-        <v>662000</v>
+        <v>459900</v>
       </c>
       <c r="G42" s="3">
-        <v>906600</v>
+        <v>637500</v>
       </c>
       <c r="H42" s="3">
-        <v>1349100</v>
+        <v>873100</v>
       </c>
       <c r="I42" s="3">
-        <v>1436700</v>
+        <v>1299200</v>
       </c>
       <c r="J42" s="3">
+        <v>1383500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2042100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1878800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1325000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1736700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1560200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1118400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3310400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3450900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1876400</v>
+        <v>2231100</v>
       </c>
       <c r="E43" s="3">
-        <v>2213500</v>
+        <v>1806900</v>
       </c>
       <c r="F43" s="3">
-        <v>2049800</v>
+        <v>2131500</v>
       </c>
       <c r="G43" s="3">
-        <v>2634900</v>
+        <v>1973900</v>
       </c>
       <c r="H43" s="3">
-        <v>2725700</v>
+        <v>2537300</v>
       </c>
       <c r="I43" s="3">
-        <v>2636300</v>
+        <v>2624800</v>
       </c>
       <c r="J43" s="3">
+        <v>2538700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2350500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2628100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2269200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2341000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1978600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1905300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1705700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2007700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1569200</v>
+        <v>1309100</v>
       </c>
       <c r="E44" s="3">
-        <v>1527700</v>
+        <v>1511100</v>
       </c>
       <c r="F44" s="3">
-        <v>1594800</v>
+        <v>1471100</v>
       </c>
       <c r="G44" s="3">
-        <v>1580600</v>
+        <v>1535700</v>
       </c>
       <c r="H44" s="3">
-        <v>1479100</v>
+        <v>1522000</v>
       </c>
       <c r="I44" s="3">
-        <v>1377100</v>
+        <v>1424300</v>
       </c>
       <c r="J44" s="3">
+        <v>1326100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1461500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1641500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1478800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1472400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1512100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1366100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1385800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1267800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>316300</v>
+        <v>235000</v>
       </c>
       <c r="E45" s="3">
-        <v>179200</v>
+        <v>304500</v>
       </c>
       <c r="F45" s="3">
-        <v>196300</v>
+        <v>172500</v>
       </c>
       <c r="G45" s="3">
-        <v>144400</v>
+        <v>189000</v>
       </c>
       <c r="H45" s="3">
-        <v>146700</v>
+        <v>139000</v>
       </c>
       <c r="I45" s="3">
-        <v>143900</v>
+        <v>141300</v>
       </c>
       <c r="J45" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K45" s="3">
         <v>131000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>125000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>125800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>180600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>191400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>169900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>140500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>6394300</v>
+        <v>7262700</v>
       </c>
       <c r="E46" s="3">
-        <v>6308400</v>
+        <v>6157500</v>
       </c>
       <c r="F46" s="3">
-        <v>6949500</v>
+        <v>6074800</v>
       </c>
       <c r="G46" s="3">
-        <v>6758000</v>
+        <v>6692100</v>
       </c>
       <c r="H46" s="3">
-        <v>8113900</v>
+        <v>6507700</v>
       </c>
       <c r="I46" s="3">
-        <v>7298300</v>
+        <v>7813400</v>
       </c>
       <c r="J46" s="3">
+        <v>7028000</v>
+      </c>
+      <c r="K46" s="3">
         <v>7907800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8174700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7564200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7431700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7064000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6082800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8133400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7962600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1705800</v>
+        <v>1572000</v>
       </c>
       <c r="E47" s="3">
-        <v>1994500</v>
+        <v>1642600</v>
       </c>
       <c r="F47" s="3">
-        <v>1956400</v>
+        <v>1920700</v>
       </c>
       <c r="G47" s="3">
-        <v>1743300</v>
+        <v>1884000</v>
       </c>
       <c r="H47" s="3">
-        <v>1335500</v>
+        <v>1678700</v>
       </c>
       <c r="I47" s="3">
-        <v>1465200</v>
+        <v>1286000</v>
       </c>
       <c r="J47" s="3">
+        <v>1410900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1531900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1627300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1929500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1815500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1384000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1419900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1466400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1205600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>27621600</v>
+        <v>25975900</v>
       </c>
       <c r="E48" s="3">
-        <v>25306800</v>
+        <v>26598600</v>
       </c>
       <c r="F48" s="3">
-        <v>24227100</v>
+        <v>24369500</v>
       </c>
       <c r="G48" s="3">
-        <v>23212000</v>
+        <v>23329800</v>
       </c>
       <c r="H48" s="3">
-        <v>23085100</v>
+        <v>22352200</v>
       </c>
       <c r="I48" s="3">
-        <v>23178300</v>
+        <v>22230100</v>
       </c>
       <c r="J48" s="3">
+        <v>22319900</v>
+      </c>
+      <c r="K48" s="3">
         <v>22118800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24635700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24041100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26453800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25781800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26507600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26236200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27921300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>412700</v>
+        <v>387000</v>
       </c>
       <c r="E49" s="3">
-        <v>378700</v>
+        <v>397400</v>
       </c>
       <c r="F49" s="3">
-        <v>355300</v>
+        <v>364700</v>
       </c>
       <c r="G49" s="3">
-        <v>354900</v>
+        <v>342200</v>
       </c>
       <c r="H49" s="3">
-        <v>361500</v>
+        <v>341800</v>
       </c>
       <c r="I49" s="3">
-        <v>359200</v>
+        <v>348200</v>
       </c>
       <c r="J49" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K49" s="3">
         <v>354300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>383600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>384100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>415900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>404900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>375200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>380300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>393200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3429900</v>
+        <v>3061300</v>
       </c>
       <c r="E52" s="3">
-        <v>2582500</v>
+        <v>3302800</v>
       </c>
       <c r="F52" s="3">
-        <v>1880600</v>
+        <v>2486900</v>
       </c>
       <c r="G52" s="3">
-        <v>1713700</v>
+        <v>1810900</v>
       </c>
       <c r="H52" s="3">
-        <v>1711100</v>
+        <v>1650200</v>
       </c>
       <c r="I52" s="3">
-        <v>1784000</v>
+        <v>1647700</v>
       </c>
       <c r="J52" s="3">
+        <v>1717900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1535300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1653700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1652100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2499000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2571300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2636600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2342900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2548600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>39564200</v>
+        <v>38258900</v>
       </c>
       <c r="E54" s="3">
-        <v>36571000</v>
+        <v>38098900</v>
       </c>
       <c r="F54" s="3">
-        <v>35368900</v>
+        <v>35216500</v>
       </c>
       <c r="G54" s="3">
-        <v>33781800</v>
+        <v>34059000</v>
       </c>
       <c r="H54" s="3">
-        <v>34607100</v>
+        <v>32530600</v>
       </c>
       <c r="I54" s="3">
-        <v>34085000</v>
+        <v>33325300</v>
       </c>
       <c r="J54" s="3">
+        <v>32822600</v>
+      </c>
+      <c r="K54" s="3">
         <v>33448100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36475000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35571100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38615900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37205900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37022200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38559200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40031400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1821200</v>
+        <v>1225400</v>
       </c>
       <c r="E57" s="3">
-        <v>2191100</v>
+        <v>1753800</v>
       </c>
       <c r="F57" s="3">
-        <v>1923100</v>
+        <v>2109900</v>
       </c>
       <c r="G57" s="3">
-        <v>1823000</v>
+        <v>1851800</v>
       </c>
       <c r="H57" s="3">
-        <v>1658600</v>
+        <v>1755500</v>
       </c>
       <c r="I57" s="3">
-        <v>1857200</v>
+        <v>1597200</v>
       </c>
       <c r="J57" s="3">
+        <v>1788400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1669000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1569200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1386700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1628500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1347100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1319700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1235200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1540900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1654300</v>
+        <v>2472000</v>
       </c>
       <c r="E58" s="3">
-        <v>1353300</v>
+        <v>1593000</v>
       </c>
       <c r="F58" s="3">
-        <v>1221700</v>
+        <v>1303200</v>
       </c>
       <c r="G58" s="3">
-        <v>1103800</v>
+        <v>1176400</v>
       </c>
       <c r="H58" s="3">
-        <v>1091500</v>
+        <v>1062900</v>
       </c>
       <c r="I58" s="3">
-        <v>1085400</v>
+        <v>1051100</v>
       </c>
       <c r="J58" s="3">
+        <v>1045200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2169300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1703100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1479900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1646200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1636800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1254200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1310400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1361600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4330500</v>
+        <v>3223500</v>
       </c>
       <c r="E59" s="3">
-        <v>2326100</v>
+        <v>4170100</v>
       </c>
       <c r="F59" s="3">
-        <v>1948300</v>
+        <v>2239900</v>
       </c>
       <c r="G59" s="3">
-        <v>2444200</v>
+        <v>1876200</v>
       </c>
       <c r="H59" s="3">
-        <v>4481500</v>
+        <v>2353700</v>
       </c>
       <c r="I59" s="3">
-        <v>1870100</v>
+        <v>4315600</v>
       </c>
       <c r="J59" s="3">
+        <v>1800800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2086300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2384800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3290800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2116200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2184600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2070100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2920300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2505200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>7806100</v>
+        <v>6920800</v>
       </c>
       <c r="E60" s="3">
-        <v>5870400</v>
+        <v>7517000</v>
       </c>
       <c r="F60" s="3">
-        <v>5093100</v>
+        <v>5653000</v>
       </c>
       <c r="G60" s="3">
-        <v>5371000</v>
+        <v>4904400</v>
       </c>
       <c r="H60" s="3">
-        <v>7231700</v>
+        <v>5172100</v>
       </c>
       <c r="I60" s="3">
-        <v>4812600</v>
+        <v>6963800</v>
       </c>
       <c r="J60" s="3">
+        <v>4634400</v>
+      </c>
+      <c r="K60" s="3">
         <v>5924600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5657100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6157300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5390900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5168500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4644100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5465900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5407800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10888500</v>
+        <v>11482100</v>
       </c>
       <c r="E61" s="3">
-        <v>8971300</v>
+        <v>10485200</v>
       </c>
       <c r="F61" s="3">
-        <v>9688200</v>
+        <v>8639000</v>
       </c>
       <c r="G61" s="3">
-        <v>9012400</v>
+        <v>9329400</v>
       </c>
       <c r="H61" s="3">
-        <v>9095000</v>
+        <v>8678600</v>
       </c>
       <c r="I61" s="3">
-        <v>9191500</v>
+        <v>8758100</v>
       </c>
       <c r="J61" s="3">
+        <v>8851100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8601200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10695600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10807900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12289100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12638500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13502000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14821200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15871600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>5647100</v>
+        <v>5390400</v>
       </c>
       <c r="E62" s="3">
-        <v>5436400</v>
+        <v>5437900</v>
       </c>
       <c r="F62" s="3">
-        <v>4019500</v>
+        <v>5235000</v>
       </c>
       <c r="G62" s="3">
-        <v>4026100</v>
+        <v>3870600</v>
       </c>
       <c r="H62" s="3">
-        <v>4060300</v>
+        <v>3877000</v>
       </c>
       <c r="I62" s="3">
-        <v>4068600</v>
+        <v>3909900</v>
       </c>
       <c r="J62" s="3">
+        <v>3917900</v>
+      </c>
+      <c r="K62" s="3">
         <v>4026500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4451000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4256600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5005900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4070100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3843000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3738900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3796500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>25369000</v>
+        <v>24829700</v>
       </c>
       <c r="E66" s="3">
-        <v>21339600</v>
+        <v>24429400</v>
       </c>
       <c r="F66" s="3">
-        <v>19382000</v>
+        <v>20549300</v>
       </c>
       <c r="G66" s="3">
-        <v>19002400</v>
+        <v>18664200</v>
       </c>
       <c r="H66" s="3">
-        <v>20923200</v>
+        <v>18298600</v>
       </c>
       <c r="I66" s="3">
-        <v>18637300</v>
+        <v>20148300</v>
       </c>
       <c r="J66" s="3">
+        <v>17947000</v>
+      </c>
+      <c r="K66" s="3">
         <v>19039000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21376300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21713500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23288300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22436200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22579500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24545600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25619100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2978700</v>
+        <v>2874900</v>
       </c>
       <c r="E72" s="3">
-        <v>4941100</v>
+        <v>2868400</v>
       </c>
       <c r="F72" s="3">
-        <v>4799200</v>
+        <v>4758100</v>
       </c>
       <c r="G72" s="3">
-        <v>3986200</v>
+        <v>4621500</v>
       </c>
       <c r="H72" s="3">
-        <v>3044700</v>
+        <v>3838600</v>
       </c>
       <c r="I72" s="3">
-        <v>4801600</v>
+        <v>2931900</v>
       </c>
       <c r="J72" s="3">
+        <v>4623800</v>
+      </c>
+      <c r="K72" s="3">
         <v>4086800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3708300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2652600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3163800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2067600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1746600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1329000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1390300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>14195200</v>
+        <v>13429200</v>
       </c>
       <c r="E76" s="3">
-        <v>15231300</v>
+        <v>13669400</v>
       </c>
       <c r="F76" s="3">
-        <v>15986900</v>
+        <v>14667200</v>
       </c>
       <c r="G76" s="3">
-        <v>14779400</v>
+        <v>15394800</v>
       </c>
       <c r="H76" s="3">
-        <v>13683900</v>
+        <v>14232000</v>
       </c>
       <c r="I76" s="3">
-        <v>15447700</v>
+        <v>13177100</v>
       </c>
       <c r="J76" s="3">
+        <v>14875500</v>
+      </c>
+      <c r="K76" s="3">
         <v>14409100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15098700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13857600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15327600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14769700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14442700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14013600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14412400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>35900</v>
+        <v>6500</v>
       </c>
       <c r="E81" s="3">
-        <v>1082400</v>
+        <v>34600</v>
       </c>
       <c r="F81" s="3">
-        <v>813000</v>
+        <v>1042300</v>
       </c>
       <c r="G81" s="3">
-        <v>941500</v>
+        <v>782900</v>
       </c>
       <c r="H81" s="3">
-        <v>741000</v>
+        <v>906700</v>
       </c>
       <c r="I81" s="3">
-        <v>714800</v>
+        <v>713600</v>
       </c>
       <c r="J81" s="3">
+        <v>688300</v>
+      </c>
+      <c r="K81" s="3">
         <v>749200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1840300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>784400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1096500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>321100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>417500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>283500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>602000</v>
+        <v>595300</v>
       </c>
       <c r="E83" s="3">
-        <v>615000</v>
+        <v>579700</v>
       </c>
       <c r="F83" s="3">
-        <v>595600</v>
+        <v>592200</v>
       </c>
       <c r="G83" s="3">
-        <v>565200</v>
+        <v>573600</v>
       </c>
       <c r="H83" s="3">
-        <v>537500</v>
+        <v>544300</v>
       </c>
       <c r="I83" s="3">
-        <v>516100</v>
+        <v>517600</v>
       </c>
       <c r="J83" s="3">
+        <v>497000</v>
+      </c>
+      <c r="K83" s="3">
         <v>559000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1112400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>537300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>588000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>713800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>683300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>660300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>634300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>694600</v>
+        <v>-584400</v>
       </c>
       <c r="E89" s="3">
-        <v>2042500</v>
+        <v>668800</v>
       </c>
       <c r="F89" s="3">
-        <v>2513500</v>
+        <v>1966900</v>
       </c>
       <c r="G89" s="3">
-        <v>1620900</v>
+        <v>2420400</v>
       </c>
       <c r="H89" s="3">
-        <v>1305300</v>
+        <v>1560800</v>
       </c>
       <c r="I89" s="3">
-        <v>1221700</v>
+        <v>1256900</v>
       </c>
       <c r="J89" s="3">
+        <v>1176500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2309500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2794100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1401900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2033100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1494000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>478900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1425500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1328000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-222200</v>
+        <v>-301500</v>
       </c>
       <c r="E91" s="3">
-        <v>-400500</v>
+        <v>-214000</v>
       </c>
       <c r="F91" s="3">
-        <v>-324300</v>
+        <v>-385700</v>
       </c>
       <c r="G91" s="3">
-        <v>-196700</v>
+        <v>-312300</v>
       </c>
       <c r="H91" s="3">
-        <v>-161900</v>
+        <v>-189400</v>
       </c>
       <c r="I91" s="3">
-        <v>-371700</v>
+        <v>-155900</v>
       </c>
       <c r="J91" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-220300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-333000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-133100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-305300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-160000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-90800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-743300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-233300</v>
+        <v>-1375900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1228500</v>
+        <v>-224600</v>
       </c>
       <c r="F94" s="3">
-        <v>-712600</v>
+        <v>-1183000</v>
       </c>
       <c r="G94" s="3">
-        <v>-475200</v>
+        <v>-686200</v>
       </c>
       <c r="H94" s="3">
-        <v>-293400</v>
+        <v>-457600</v>
       </c>
       <c r="I94" s="3">
-        <v>135100</v>
+        <v>-282500</v>
       </c>
       <c r="J94" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-973300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-623200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1472300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-834500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,58 +4845,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-115000</v>
+        <v>-496800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1028700</v>
+        <v>-110700</v>
       </c>
       <c r="F96" s="3">
-        <v>-832000</v>
+        <v>-990600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1793500</v>
+        <v>-801200</v>
       </c>
       <c r="H96" s="3">
-        <v>-89800</v>
+        <v>-1727100</v>
       </c>
       <c r="I96" s="3">
-        <v>-37900</v>
+        <v>-86500</v>
       </c>
       <c r="J96" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-494600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-736600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-73500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-63900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-53900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-327100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-105500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-277000</v>
+        <v>2233600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1309800</v>
+        <v>-266700</v>
       </c>
       <c r="F100" s="3">
-        <v>-954100</v>
+        <v>-1261300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2097800</v>
+        <v>-918700</v>
       </c>
       <c r="H100" s="3">
-        <v>-274300</v>
+        <v>-2020100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1687200</v>
+        <v>-264100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1624700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-273900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-877700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-278100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-294000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-314200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>280500</v>
+        <v>-156200</v>
       </c>
       <c r="E101" s="3">
-        <v>-40300</v>
+        <v>270100</v>
       </c>
       <c r="F101" s="3">
-        <v>108200</v>
+        <v>-38800</v>
       </c>
       <c r="G101" s="3">
-        <v>30500</v>
+        <v>104200</v>
       </c>
       <c r="H101" s="3">
-        <v>-28500</v>
+        <v>29300</v>
       </c>
       <c r="I101" s="3">
-        <v>112000</v>
+        <v>-27500</v>
       </c>
       <c r="J101" s="3">
+        <v>107900</v>
+      </c>
+      <c r="K101" s="3">
         <v>51800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-60100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-72400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-78800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>69600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-93500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>51000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>464800</v>
+        <v>117200</v>
       </c>
       <c r="E102" s="3">
-        <v>-536100</v>
+        <v>447600</v>
       </c>
       <c r="F102" s="3">
-        <v>955000</v>
+        <v>-516200</v>
       </c>
       <c r="G102" s="3">
-        <v>-921700</v>
+        <v>919700</v>
       </c>
       <c r="H102" s="3">
-        <v>709100</v>
+        <v>-887600</v>
       </c>
       <c r="I102" s="3">
-        <v>-218400</v>
+        <v>682800</v>
       </c>
       <c r="J102" s="3">
+        <v>-210300</v>
+      </c>
+      <c r="K102" s="3">
         <v>211400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-482500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>513900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-613900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-78600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>230300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +662,257 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2194800</v>
+        <v>3450400</v>
       </c>
       <c r="E8" s="3">
-        <v>3918700</v>
+        <v>2363700</v>
       </c>
       <c r="F8" s="3">
-        <v>4831100</v>
+        <v>4220200</v>
       </c>
       <c r="G8" s="3">
-        <v>4683700</v>
+        <v>5202800</v>
       </c>
       <c r="H8" s="3">
-        <v>4760200</v>
+        <v>5044000</v>
       </c>
       <c r="I8" s="3">
-        <v>4145100</v>
+        <v>5126400</v>
       </c>
       <c r="J8" s="3">
+        <v>4463900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4761700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4826500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9488900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4392800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4916200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4263900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4208300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4278900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4393300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1980000</v>
+        <v>2336200</v>
       </c>
       <c r="E9" s="3">
-        <v>2934600</v>
+        <v>2132300</v>
       </c>
       <c r="F9" s="3">
-        <v>3190200</v>
+        <v>3160300</v>
       </c>
       <c r="G9" s="3">
-        <v>2922500</v>
+        <v>3435600</v>
       </c>
       <c r="H9" s="3">
-        <v>2915500</v>
+        <v>3147300</v>
       </c>
       <c r="I9" s="3">
-        <v>2660900</v>
+        <v>3139700</v>
       </c>
       <c r="J9" s="3">
+        <v>2865600</v>
+      </c>
+      <c r="K9" s="3">
         <v>3105100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2868100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5581200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2654000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3118400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2808700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2952200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2926600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3202400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>214800</v>
+        <v>1114100</v>
       </c>
       <c r="E10" s="3">
-        <v>984100</v>
+        <v>231400</v>
       </c>
       <c r="F10" s="3">
-        <v>1641000</v>
+        <v>1059800</v>
       </c>
       <c r="G10" s="3">
-        <v>1761200</v>
+        <v>1767200</v>
       </c>
       <c r="H10" s="3">
-        <v>1844800</v>
+        <v>1896700</v>
       </c>
       <c r="I10" s="3">
-        <v>1484200</v>
+        <v>1986700</v>
       </c>
       <c r="J10" s="3">
+        <v>1598400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1656600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1958400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3907700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1738700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1797800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1455200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1256100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1352300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1190900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,61 +932,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36400</v>
+        <v>27800</v>
       </c>
       <c r="E12" s="3">
-        <v>9800</v>
+        <v>39200</v>
       </c>
       <c r="F12" s="3">
-        <v>103000</v>
+        <v>10500</v>
       </c>
       <c r="G12" s="3">
-        <v>15200</v>
+        <v>110900</v>
       </c>
       <c r="H12" s="3">
-        <v>64400</v>
+        <v>16300</v>
       </c>
       <c r="I12" s="3">
-        <v>16000</v>
+        <v>69300</v>
       </c>
       <c r="J12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K12" s="3">
         <v>50300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>271600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>56400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>292200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>103900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>96800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,114 +1042,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-356200</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>314200</v>
+        <v>-383600</v>
       </c>
       <c r="F14" s="3">
-        <v>187600</v>
+        <v>338400</v>
       </c>
       <c r="G14" s="3">
-        <v>10000</v>
+        <v>202000</v>
       </c>
       <c r="H14" s="3">
-        <v>5500</v>
+        <v>10800</v>
       </c>
       <c r="I14" s="3">
-        <v>3900</v>
+        <v>6000</v>
       </c>
       <c r="J14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K14" s="3">
         <v>149000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-26200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-14700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-34600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-556400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>244000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>14000</v>
+        <v>3600</v>
       </c>
       <c r="E15" s="3">
-        <v>20000</v>
+        <v>15100</v>
       </c>
       <c r="F15" s="3">
-        <v>46000</v>
+        <v>21500</v>
       </c>
       <c r="G15" s="3">
-        <v>10300</v>
+        <v>49500</v>
       </c>
       <c r="H15" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="I15" s="3">
-        <v>5200</v>
+        <v>11600</v>
       </c>
       <c r="J15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K15" s="3">
         <v>7800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>16400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1979600</v>
+        <v>2706400</v>
       </c>
       <c r="E17" s="3">
-        <v>3529200</v>
+        <v>2131900</v>
       </c>
       <c r="F17" s="3">
-        <v>3845900</v>
+        <v>3800600</v>
       </c>
       <c r="G17" s="3">
-        <v>3198700</v>
+        <v>4141800</v>
       </c>
       <c r="H17" s="3">
-        <v>3211300</v>
+        <v>3444700</v>
       </c>
       <c r="I17" s="3">
-        <v>2856300</v>
+        <v>3458300</v>
       </c>
       <c r="J17" s="3">
+        <v>3076000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3593200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6019600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2838800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3111000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3162600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3223200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3854400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>215200</v>
+        <v>744000</v>
       </c>
       <c r="E18" s="3">
-        <v>389600</v>
+        <v>231800</v>
       </c>
       <c r="F18" s="3">
-        <v>985200</v>
+        <v>419500</v>
       </c>
       <c r="G18" s="3">
-        <v>1485000</v>
+        <v>1061000</v>
       </c>
       <c r="H18" s="3">
-        <v>1549000</v>
+        <v>1599300</v>
       </c>
       <c r="I18" s="3">
-        <v>1288800</v>
+        <v>1668100</v>
       </c>
       <c r="J18" s="3">
+        <v>1387900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1168600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1526200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3469300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1554000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1805100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1063300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1045700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1055600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>538900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,273 +1309,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>34200</v>
+        <v>-82300</v>
       </c>
       <c r="E20" s="3">
-        <v>-47000</v>
+        <v>36800</v>
       </c>
       <c r="F20" s="3">
-        <v>80100</v>
+        <v>-50600</v>
       </c>
       <c r="G20" s="3">
-        <v>-30600</v>
+        <v>86200</v>
       </c>
       <c r="H20" s="3">
-        <v>41800</v>
+        <v>-32900</v>
       </c>
       <c r="I20" s="3">
-        <v>59000</v>
+        <v>45100</v>
       </c>
       <c r="J20" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K20" s="3">
         <v>83200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>45700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>26900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-58800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>117200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-111000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>291700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>844600</v>
+        <v>1305400</v>
       </c>
       <c r="E21" s="3">
-        <v>922300</v>
+        <v>909600</v>
       </c>
       <c r="F21" s="3">
-        <v>1657500</v>
+        <v>993200</v>
       </c>
       <c r="G21" s="3">
-        <v>2028000</v>
+        <v>1785000</v>
       </c>
       <c r="H21" s="3">
-        <v>2135100</v>
+        <v>2184000</v>
       </c>
       <c r="I21" s="3">
-        <v>1865400</v>
+        <v>2299300</v>
       </c>
       <c r="J21" s="3">
+        <v>2008900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1748700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2104600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4627400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2118200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2411200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1718300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1846200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1604900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1464900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>169800</v>
+        <v>181300</v>
       </c>
       <c r="E22" s="3">
-        <v>126200</v>
+        <v>182800</v>
       </c>
       <c r="F22" s="3">
-        <v>127000</v>
+        <v>135900</v>
       </c>
       <c r="G22" s="3">
-        <v>123300</v>
+        <v>136800</v>
       </c>
       <c r="H22" s="3">
-        <v>124700</v>
+        <v>132800</v>
       </c>
       <c r="I22" s="3">
-        <v>117500</v>
+        <v>134300</v>
       </c>
       <c r="J22" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K22" s="3">
         <v>183100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>144600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>347900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>171800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>206800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>198200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>153300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>205200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>226800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>79600</v>
+        <v>480400</v>
       </c>
       <c r="E23" s="3">
-        <v>216300</v>
+        <v>85700</v>
       </c>
       <c r="F23" s="3">
-        <v>938200</v>
+        <v>233000</v>
       </c>
       <c r="G23" s="3">
-        <v>1331100</v>
+        <v>1010400</v>
       </c>
       <c r="H23" s="3">
-        <v>1466100</v>
+        <v>1433500</v>
       </c>
       <c r="I23" s="3">
-        <v>1230300</v>
+        <v>1578900</v>
       </c>
       <c r="J23" s="3">
+        <v>1324900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1068600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1401000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3167100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1409100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1616500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>806300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1009600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>739400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>603800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1100</v>
+        <v>160000</v>
       </c>
       <c r="E24" s="3">
-        <v>91500</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="3">
-        <v>-186900</v>
+        <v>98500</v>
       </c>
       <c r="G24" s="3">
-        <v>460200</v>
+        <v>-201200</v>
       </c>
       <c r="H24" s="3">
-        <v>486700</v>
+        <v>495600</v>
       </c>
       <c r="I24" s="3">
-        <v>435100</v>
+        <v>524100</v>
       </c>
       <c r="J24" s="3">
+        <v>468500</v>
+      </c>
+      <c r="K24" s="3">
         <v>303400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>589000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1192000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>564000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>457200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>414600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>535100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>396300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>485600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>78400</v>
+        <v>320400</v>
       </c>
       <c r="E26" s="3">
-        <v>124800</v>
+        <v>84500</v>
       </c>
       <c r="F26" s="3">
-        <v>1125100</v>
+        <v>134400</v>
       </c>
       <c r="G26" s="3">
-        <v>871000</v>
+        <v>1211600</v>
       </c>
       <c r="H26" s="3">
-        <v>979400</v>
+        <v>938000</v>
       </c>
       <c r="I26" s="3">
-        <v>795200</v>
+        <v>1054700</v>
       </c>
       <c r="J26" s="3">
+        <v>856400</v>
+      </c>
+      <c r="K26" s="3">
         <v>765200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>811900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1975100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>845100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1159300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>391700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>474500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>343200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>118200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>6500</v>
+        <v>239400</v>
       </c>
       <c r="E27" s="3">
-        <v>34600</v>
+        <v>7000</v>
       </c>
       <c r="F27" s="3">
-        <v>1042300</v>
+        <v>37200</v>
       </c>
       <c r="G27" s="3">
-        <v>782900</v>
+        <v>1122500</v>
       </c>
       <c r="H27" s="3">
-        <v>906700</v>
+        <v>843100</v>
       </c>
       <c r="I27" s="3">
-        <v>713600</v>
+        <v>976400</v>
       </c>
       <c r="J27" s="3">
+        <v>768500</v>
+      </c>
+      <c r="K27" s="3">
         <v>688300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>749200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1840300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>784400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1096500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>321100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>417500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>283500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-34200</v>
+        <v>82300</v>
       </c>
       <c r="E32" s="3">
-        <v>47000</v>
+        <v>-36800</v>
       </c>
       <c r="F32" s="3">
-        <v>-80100</v>
+        <v>50600</v>
       </c>
       <c r="G32" s="3">
-        <v>30600</v>
+        <v>-86200</v>
       </c>
       <c r="H32" s="3">
-        <v>-41800</v>
+        <v>32900</v>
       </c>
       <c r="I32" s="3">
-        <v>-59000</v>
+        <v>-45100</v>
       </c>
       <c r="J32" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-83200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-45700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-26900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>58800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-117200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>111000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-291700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>6500</v>
+        <v>239400</v>
       </c>
       <c r="E33" s="3">
-        <v>34600</v>
+        <v>7000</v>
       </c>
       <c r="F33" s="3">
-        <v>1042300</v>
+        <v>37200</v>
       </c>
       <c r="G33" s="3">
-        <v>782900</v>
+        <v>1122500</v>
       </c>
       <c r="H33" s="3">
-        <v>906700</v>
+        <v>843100</v>
       </c>
       <c r="I33" s="3">
-        <v>713600</v>
+        <v>976400</v>
       </c>
       <c r="J33" s="3">
+        <v>768500</v>
+      </c>
+      <c r="K33" s="3">
         <v>688300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>749200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1840300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>784400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1096500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>321100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>417500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>283500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>6500</v>
+        <v>239400</v>
       </c>
       <c r="E35" s="3">
-        <v>34600</v>
+        <v>7000</v>
       </c>
       <c r="F35" s="3">
-        <v>1042300</v>
+        <v>37200</v>
       </c>
       <c r="G35" s="3">
-        <v>782900</v>
+        <v>1122500</v>
       </c>
       <c r="H35" s="3">
-        <v>906700</v>
+        <v>843100</v>
       </c>
       <c r="I35" s="3">
-        <v>713600</v>
+        <v>976400</v>
       </c>
       <c r="J35" s="3">
+        <v>768500</v>
+      </c>
+      <c r="K35" s="3">
         <v>688300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>749200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1840300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>784400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1096500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>321100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>417500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>283500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,485 +2310,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2404500</v>
+        <v>2192000</v>
       </c>
       <c r="E41" s="3">
-        <v>2287300</v>
+        <v>2589400</v>
       </c>
       <c r="F41" s="3">
-        <v>1839700</v>
+        <v>2463200</v>
       </c>
       <c r="G41" s="3">
-        <v>2355900</v>
+        <v>1981200</v>
       </c>
       <c r="H41" s="3">
-        <v>1436300</v>
+        <v>2537100</v>
       </c>
       <c r="I41" s="3">
-        <v>2323800</v>
+        <v>1546800</v>
       </c>
       <c r="J41" s="3">
+        <v>2502600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1641100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1922600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1901200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2359900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1755700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1832500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1501600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1561700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1095700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1083100</v>
+        <v>979000</v>
       </c>
       <c r="E42" s="3">
-        <v>247600</v>
+        <v>1166500</v>
       </c>
       <c r="F42" s="3">
-        <v>459900</v>
+        <v>266700</v>
       </c>
       <c r="G42" s="3">
-        <v>637500</v>
+        <v>495300</v>
       </c>
       <c r="H42" s="3">
-        <v>873100</v>
+        <v>686600</v>
       </c>
       <c r="I42" s="3">
-        <v>1299200</v>
+        <v>940200</v>
       </c>
       <c r="J42" s="3">
+        <v>1399100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1383500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2042100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1878800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1325000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1736700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1560200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1118400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3310400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3450900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2231100</v>
+        <v>2447500</v>
       </c>
       <c r="E43" s="3">
-        <v>1806900</v>
+        <v>2402700</v>
       </c>
       <c r="F43" s="3">
-        <v>2131500</v>
+        <v>1945900</v>
       </c>
       <c r="G43" s="3">
-        <v>1973900</v>
+        <v>2295500</v>
       </c>
       <c r="H43" s="3">
-        <v>2537300</v>
+        <v>2125800</v>
       </c>
       <c r="I43" s="3">
-        <v>2624800</v>
+        <v>2732500</v>
       </c>
       <c r="J43" s="3">
+        <v>2826700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2538700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2350500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2628100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2269200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2341000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1978600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1905300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1705700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2007700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1309100</v>
+        <v>1542900</v>
       </c>
       <c r="E44" s="3">
-        <v>1511100</v>
+        <v>1409800</v>
       </c>
       <c r="F44" s="3">
-        <v>1471100</v>
+        <v>1627300</v>
       </c>
       <c r="G44" s="3">
-        <v>1535700</v>
+        <v>1584300</v>
       </c>
       <c r="H44" s="3">
-        <v>1522000</v>
+        <v>1653800</v>
       </c>
       <c r="I44" s="3">
-        <v>1424300</v>
+        <v>1639100</v>
       </c>
       <c r="J44" s="3">
+        <v>1533900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1326100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1461500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1641500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1478800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1472400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1512100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1366100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1385800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1267800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>235000</v>
+        <v>330000</v>
       </c>
       <c r="E45" s="3">
-        <v>304500</v>
+        <v>253000</v>
       </c>
       <c r="F45" s="3">
-        <v>172500</v>
+        <v>328000</v>
       </c>
       <c r="G45" s="3">
-        <v>189000</v>
+        <v>185800</v>
       </c>
       <c r="H45" s="3">
-        <v>139000</v>
+        <v>203600</v>
       </c>
       <c r="I45" s="3">
-        <v>141300</v>
+        <v>149700</v>
       </c>
       <c r="J45" s="3">
+        <v>152200</v>
+      </c>
+      <c r="K45" s="3">
         <v>138600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>125000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>125800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>180600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>191400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>169900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>140500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7262700</v>
+        <v>7491400</v>
       </c>
       <c r="E46" s="3">
-        <v>6157500</v>
+        <v>7821400</v>
       </c>
       <c r="F46" s="3">
-        <v>6074800</v>
+        <v>6631100</v>
       </c>
       <c r="G46" s="3">
-        <v>6692100</v>
+        <v>6542000</v>
       </c>
       <c r="H46" s="3">
-        <v>6507700</v>
+        <v>7206900</v>
       </c>
       <c r="I46" s="3">
-        <v>7813400</v>
+        <v>7008300</v>
       </c>
       <c r="J46" s="3">
+        <v>8414400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7028000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7907800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8174700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7564200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7431700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7064000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6082800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8133400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7962600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1572000</v>
+        <v>1410400</v>
       </c>
       <c r="E47" s="3">
-        <v>1642600</v>
+        <v>1692900</v>
       </c>
       <c r="F47" s="3">
-        <v>1920700</v>
+        <v>1769000</v>
       </c>
       <c r="G47" s="3">
-        <v>1884000</v>
+        <v>2068400</v>
       </c>
       <c r="H47" s="3">
-        <v>1678700</v>
+        <v>2028900</v>
       </c>
       <c r="I47" s="3">
-        <v>1286000</v>
+        <v>1807900</v>
       </c>
       <c r="J47" s="3">
+        <v>1384900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1410900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1531900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1627300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1929500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1815500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1384000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1419900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1466400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1205600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>25975900</v>
+        <v>28107800</v>
       </c>
       <c r="E48" s="3">
-        <v>26598600</v>
+        <v>27974100</v>
       </c>
       <c r="F48" s="3">
-        <v>24369500</v>
+        <v>28644600</v>
       </c>
       <c r="G48" s="3">
-        <v>23329800</v>
+        <v>26244100</v>
       </c>
       <c r="H48" s="3">
-        <v>22352200</v>
+        <v>25124400</v>
       </c>
       <c r="I48" s="3">
-        <v>22230100</v>
+        <v>24071700</v>
       </c>
       <c r="J48" s="3">
+        <v>23940100</v>
+      </c>
+      <c r="K48" s="3">
         <v>22319900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22118800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24635700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24041100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26453800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25781800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26507600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26236200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27921300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>387000</v>
+        <v>537700</v>
       </c>
       <c r="E49" s="3">
-        <v>397400</v>
+        <v>416800</v>
       </c>
       <c r="F49" s="3">
-        <v>364700</v>
+        <v>428000</v>
       </c>
       <c r="G49" s="3">
-        <v>342200</v>
+        <v>392700</v>
       </c>
       <c r="H49" s="3">
-        <v>341800</v>
+        <v>368500</v>
       </c>
       <c r="I49" s="3">
-        <v>348200</v>
+        <v>368100</v>
       </c>
       <c r="J49" s="3">
+        <v>374900</v>
+      </c>
+      <c r="K49" s="3">
         <v>345800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>354300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>383600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>384100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>415900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>404900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>375200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>380300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>393200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3061300</v>
+        <v>3411200</v>
       </c>
       <c r="E52" s="3">
-        <v>3302800</v>
+        <v>3296800</v>
       </c>
       <c r="F52" s="3">
-        <v>2486900</v>
+        <v>3556900</v>
       </c>
       <c r="G52" s="3">
-        <v>1810900</v>
+        <v>2678200</v>
       </c>
       <c r="H52" s="3">
-        <v>1650200</v>
+        <v>1950200</v>
       </c>
       <c r="I52" s="3">
-        <v>1647700</v>
+        <v>1777100</v>
       </c>
       <c r="J52" s="3">
+        <v>1774400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1717900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1535300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1653700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1652100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2499000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2571300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2636600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2342900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2548600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>38258900</v>
+        <v>40958600</v>
       </c>
       <c r="E54" s="3">
-        <v>38098900</v>
+        <v>41201900</v>
       </c>
       <c r="F54" s="3">
-        <v>35216500</v>
+        <v>41029600</v>
       </c>
       <c r="G54" s="3">
-        <v>34059000</v>
+        <v>37925400</v>
       </c>
       <c r="H54" s="3">
-        <v>32530600</v>
+        <v>36678900</v>
       </c>
       <c r="I54" s="3">
-        <v>33325300</v>
+        <v>35033000</v>
       </c>
       <c r="J54" s="3">
+        <v>35888800</v>
+      </c>
+      <c r="K54" s="3">
         <v>32822600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33448100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36475000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35571100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38615900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37205900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37022200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38559200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40031400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,326 +3138,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1225400</v>
+        <v>1507500</v>
       </c>
       <c r="E57" s="3">
-        <v>1753800</v>
+        <v>1319600</v>
       </c>
       <c r="F57" s="3">
-        <v>2109900</v>
+        <v>1888700</v>
       </c>
       <c r="G57" s="3">
-        <v>1851800</v>
+        <v>2272200</v>
       </c>
       <c r="H57" s="3">
-        <v>1755500</v>
+        <v>1994300</v>
       </c>
       <c r="I57" s="3">
-        <v>1597200</v>
+        <v>1890500</v>
       </c>
       <c r="J57" s="3">
+        <v>1720100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1788400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1669000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1569200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1386700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1628500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1347100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1319700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1235200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1540900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2472000</v>
+        <v>1747500</v>
       </c>
       <c r="E58" s="3">
-        <v>1593000</v>
+        <v>2662200</v>
       </c>
       <c r="F58" s="3">
-        <v>1303200</v>
+        <v>1715600</v>
       </c>
       <c r="G58" s="3">
-        <v>1176400</v>
+        <v>1403400</v>
       </c>
       <c r="H58" s="3">
-        <v>1062900</v>
+        <v>1266900</v>
       </c>
       <c r="I58" s="3">
-        <v>1051100</v>
+        <v>1144700</v>
       </c>
       <c r="J58" s="3">
+        <v>1131900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1045200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2169300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1703100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1479900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1646200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1636800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1254200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1310400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1361600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3223500</v>
+        <v>2716000</v>
       </c>
       <c r="E59" s="3">
-        <v>4170100</v>
+        <v>3471400</v>
       </c>
       <c r="F59" s="3">
-        <v>2239900</v>
+        <v>4490900</v>
       </c>
       <c r="G59" s="3">
-        <v>1876200</v>
+        <v>2412200</v>
       </c>
       <c r="H59" s="3">
-        <v>2353700</v>
+        <v>2020500</v>
       </c>
       <c r="I59" s="3">
-        <v>4315600</v>
+        <v>2534700</v>
       </c>
       <c r="J59" s="3">
+        <v>4647500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1800800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2086300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2384800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3290800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2116200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2184600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2070100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2920300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2505200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6920800</v>
+        <v>5970900</v>
       </c>
       <c r="E60" s="3">
-        <v>7517000</v>
+        <v>7453200</v>
       </c>
       <c r="F60" s="3">
-        <v>5653000</v>
+        <v>8095200</v>
       </c>
       <c r="G60" s="3">
-        <v>4904400</v>
+        <v>6087800</v>
       </c>
       <c r="H60" s="3">
-        <v>5172100</v>
+        <v>5281700</v>
       </c>
       <c r="I60" s="3">
-        <v>6963800</v>
+        <v>5569900</v>
       </c>
       <c r="J60" s="3">
+        <v>7499500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4634400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5924600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5657100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6157300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5390900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5168500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4644100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5465900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5407800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>11482100</v>
+        <v>13225500</v>
       </c>
       <c r="E61" s="3">
-        <v>10485200</v>
+        <v>12365400</v>
       </c>
       <c r="F61" s="3">
-        <v>8639000</v>
+        <v>11291800</v>
       </c>
       <c r="G61" s="3">
-        <v>9329400</v>
+        <v>9303600</v>
       </c>
       <c r="H61" s="3">
-        <v>8678600</v>
+        <v>10047000</v>
       </c>
       <c r="I61" s="3">
-        <v>8758100</v>
+        <v>9346200</v>
       </c>
       <c r="J61" s="3">
+        <v>9431800</v>
+      </c>
+      <c r="K61" s="3">
         <v>8851100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8601200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10695600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10807900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12289100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12638500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13502000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14821200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15871600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>5390400</v>
+        <v>5753600</v>
       </c>
       <c r="E62" s="3">
-        <v>5437900</v>
+        <v>5805100</v>
       </c>
       <c r="F62" s="3">
-        <v>5235000</v>
+        <v>5856200</v>
       </c>
       <c r="G62" s="3">
-        <v>3870600</v>
+        <v>5637700</v>
       </c>
       <c r="H62" s="3">
-        <v>3877000</v>
+        <v>4168400</v>
       </c>
       <c r="I62" s="3">
-        <v>3909900</v>
+        <v>4175300</v>
       </c>
       <c r="J62" s="3">
+        <v>4210700</v>
+      </c>
+      <c r="K62" s="3">
         <v>3917900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4026500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4451000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4256600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5005900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4070100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3843000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3738900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3796500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>24829700</v>
+        <v>26001600</v>
       </c>
       <c r="E66" s="3">
-        <v>24429400</v>
+        <v>26739700</v>
       </c>
       <c r="F66" s="3">
-        <v>20549300</v>
+        <v>26308600</v>
       </c>
       <c r="G66" s="3">
-        <v>18664200</v>
+        <v>22130000</v>
       </c>
       <c r="H66" s="3">
-        <v>18298600</v>
+        <v>20099900</v>
       </c>
       <c r="I66" s="3">
-        <v>20148300</v>
+        <v>19706200</v>
       </c>
       <c r="J66" s="3">
+        <v>21698100</v>
+      </c>
+      <c r="K66" s="3">
         <v>17947000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19039000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21376300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21713500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23288300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22436200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22579500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24545600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25619100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2874900</v>
+        <v>3335500</v>
       </c>
       <c r="E72" s="3">
-        <v>2868400</v>
+        <v>3096100</v>
       </c>
       <c r="F72" s="3">
-        <v>4758100</v>
+        <v>3089000</v>
       </c>
       <c r="G72" s="3">
-        <v>4621500</v>
+        <v>5124100</v>
       </c>
       <c r="H72" s="3">
-        <v>3838600</v>
+        <v>4977000</v>
       </c>
       <c r="I72" s="3">
-        <v>2931900</v>
+        <v>4133800</v>
       </c>
       <c r="J72" s="3">
+        <v>3157400</v>
+      </c>
+      <c r="K72" s="3">
         <v>4623800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4086800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3708300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2652600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3163800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2067600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1746600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1329000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1390300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>13429200</v>
+        <v>14957000</v>
       </c>
       <c r="E76" s="3">
-        <v>13669400</v>
+        <v>14462200</v>
       </c>
       <c r="F76" s="3">
-        <v>14667200</v>
+        <v>14720900</v>
       </c>
       <c r="G76" s="3">
-        <v>15394800</v>
+        <v>15795500</v>
       </c>
       <c r="H76" s="3">
-        <v>14232000</v>
+        <v>16579000</v>
       </c>
       <c r="I76" s="3">
-        <v>13177100</v>
+        <v>15326800</v>
       </c>
       <c r="J76" s="3">
+        <v>14190700</v>
+      </c>
+      <c r="K76" s="3">
         <v>14875500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14409100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15098700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13857600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15327600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14769700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14442700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14013600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14412400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>6500</v>
+        <v>239400</v>
       </c>
       <c r="E81" s="3">
-        <v>34600</v>
+        <v>7000</v>
       </c>
       <c r="F81" s="3">
-        <v>1042300</v>
+        <v>37200</v>
       </c>
       <c r="G81" s="3">
-        <v>782900</v>
+        <v>1122500</v>
       </c>
       <c r="H81" s="3">
-        <v>906700</v>
+        <v>843100</v>
       </c>
       <c r="I81" s="3">
-        <v>713600</v>
+        <v>976400</v>
       </c>
       <c r="J81" s="3">
+        <v>768500</v>
+      </c>
+      <c r="K81" s="3">
         <v>688300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>749200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1840300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>784400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1096500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>321100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>417500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>283500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>595300</v>
+        <v>643700</v>
       </c>
       <c r="E83" s="3">
-        <v>579700</v>
+        <v>641100</v>
       </c>
       <c r="F83" s="3">
-        <v>592200</v>
+        <v>624300</v>
       </c>
       <c r="G83" s="3">
-        <v>573600</v>
+        <v>637800</v>
       </c>
       <c r="H83" s="3">
-        <v>544300</v>
+        <v>617700</v>
       </c>
       <c r="I83" s="3">
-        <v>517600</v>
+        <v>586200</v>
       </c>
       <c r="J83" s="3">
+        <v>557400</v>
+      </c>
+      <c r="K83" s="3">
         <v>497000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>559000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1112400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>537300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>588000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>713800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>683300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>660300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>634300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-584400</v>
+        <v>987500</v>
       </c>
       <c r="E89" s="3">
-        <v>668800</v>
+        <v>-629400</v>
       </c>
       <c r="F89" s="3">
-        <v>1966900</v>
+        <v>720300</v>
       </c>
       <c r="G89" s="3">
-        <v>2420400</v>
+        <v>2118200</v>
       </c>
       <c r="H89" s="3">
-        <v>1560800</v>
+        <v>2606600</v>
       </c>
       <c r="I89" s="3">
-        <v>1256900</v>
+        <v>1680900</v>
       </c>
       <c r="J89" s="3">
+        <v>1353600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1176500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2309500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2794100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1401900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2033100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1494000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>478900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1425500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1328000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-301500</v>
+        <v>-374300</v>
       </c>
       <c r="E91" s="3">
-        <v>-214000</v>
+        <v>-324700</v>
       </c>
       <c r="F91" s="3">
-        <v>-385700</v>
+        <v>-230400</v>
       </c>
       <c r="G91" s="3">
-        <v>-312300</v>
+        <v>-415400</v>
       </c>
       <c r="H91" s="3">
-        <v>-189400</v>
+        <v>-336400</v>
       </c>
       <c r="I91" s="3">
-        <v>-155900</v>
+        <v>-203900</v>
       </c>
       <c r="J91" s="3">
+        <v>-167900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-358000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-220300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-333000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-133100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-305300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-160000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-90800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-743300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1375900</v>
+        <v>-47600</v>
       </c>
       <c r="E94" s="3">
-        <v>-224600</v>
+        <v>-1481700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1183000</v>
+        <v>-241900</v>
       </c>
       <c r="G94" s="3">
-        <v>-686200</v>
+        <v>-1274000</v>
       </c>
       <c r="H94" s="3">
-        <v>-457600</v>
+        <v>-739000</v>
       </c>
       <c r="I94" s="3">
-        <v>-282500</v>
+        <v>-492800</v>
       </c>
       <c r="J94" s="3">
+        <v>-304200</v>
+      </c>
+      <c r="K94" s="3">
         <v>130100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-973300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-623200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1472300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-834500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,61 +5079,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-496800</v>
+        <v>-814900</v>
       </c>
       <c r="E96" s="3">
-        <v>-110700</v>
+        <v>-535000</v>
       </c>
       <c r="F96" s="3">
-        <v>-990600</v>
+        <v>-119200</v>
       </c>
       <c r="G96" s="3">
-        <v>-801200</v>
+        <v>-1066800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1727100</v>
+        <v>-862900</v>
       </c>
       <c r="I96" s="3">
-        <v>-86500</v>
+        <v>-1859900</v>
       </c>
       <c r="J96" s="3">
+        <v>-93200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-36500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-494600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-736600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-73500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-63900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-53900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-327100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-36600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-105500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>2233600</v>
+        <v>-1340400</v>
       </c>
       <c r="E100" s="3">
-        <v>-266700</v>
+        <v>2405500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1261300</v>
+        <v>-287300</v>
       </c>
       <c r="G100" s="3">
-        <v>-918700</v>
+        <v>-1358300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2020100</v>
+        <v>-989400</v>
       </c>
       <c r="I100" s="3">
-        <v>-264100</v>
+        <v>-2175500</v>
       </c>
       <c r="J100" s="3">
+        <v>-284400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-273900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-877700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-278100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-294000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-314200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-156200</v>
+        <v>3100</v>
       </c>
       <c r="E101" s="3">
-        <v>270100</v>
+        <v>-168200</v>
       </c>
       <c r="F101" s="3">
-        <v>-38800</v>
+        <v>290900</v>
       </c>
       <c r="G101" s="3">
-        <v>104200</v>
+        <v>-41800</v>
       </c>
       <c r="H101" s="3">
-        <v>29300</v>
+        <v>112200</v>
       </c>
       <c r="I101" s="3">
-        <v>-27500</v>
+        <v>31600</v>
       </c>
       <c r="J101" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K101" s="3">
         <v>107900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>51800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-60100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-72400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-78800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>69600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-93500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>51000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>117200</v>
+        <v>-397400</v>
       </c>
       <c r="E102" s="3">
-        <v>447600</v>
+        <v>126200</v>
       </c>
       <c r="F102" s="3">
-        <v>-516200</v>
+        <v>482000</v>
       </c>
       <c r="G102" s="3">
-        <v>919700</v>
+        <v>-555900</v>
       </c>
       <c r="H102" s="3">
-        <v>-887600</v>
+        <v>990400</v>
       </c>
       <c r="I102" s="3">
-        <v>682800</v>
+        <v>-955800</v>
       </c>
       <c r="J102" s="3">
+        <v>735300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-210300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>211400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-482500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>30000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>513900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-613900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-78600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>230300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -749,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3450400</v>
+        <v>3327200</v>
       </c>
       <c r="E8" s="3">
-        <v>2363700</v>
+        <v>2279300</v>
       </c>
       <c r="F8" s="3">
-        <v>4220200</v>
+        <v>4069400</v>
       </c>
       <c r="G8" s="3">
-        <v>5202800</v>
+        <v>5016900</v>
       </c>
       <c r="H8" s="3">
-        <v>5044000</v>
+        <v>4863900</v>
       </c>
       <c r="I8" s="3">
-        <v>5126400</v>
+        <v>4943300</v>
       </c>
       <c r="J8" s="3">
-        <v>4463900</v>
+        <v>4304500</v>
       </c>
       <c r="K8" s="3">
         <v>4761700</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2336200</v>
+        <v>2252800</v>
       </c>
       <c r="E9" s="3">
-        <v>2132300</v>
+        <v>2056100</v>
       </c>
       <c r="F9" s="3">
-        <v>3160300</v>
+        <v>3047400</v>
       </c>
       <c r="G9" s="3">
-        <v>3435600</v>
+        <v>3312900</v>
       </c>
       <c r="H9" s="3">
-        <v>3147300</v>
+        <v>3034900</v>
       </c>
       <c r="I9" s="3">
-        <v>3139700</v>
+        <v>3027600</v>
       </c>
       <c r="J9" s="3">
-        <v>2865600</v>
+        <v>2763200</v>
       </c>
       <c r="K9" s="3">
         <v>3105100</v>
@@ -861,25 +861,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1114100</v>
+        <v>1074400</v>
       </c>
       <c r="E10" s="3">
-        <v>231400</v>
+        <v>223100</v>
       </c>
       <c r="F10" s="3">
-        <v>1059800</v>
+        <v>1022000</v>
       </c>
       <c r="G10" s="3">
-        <v>1767200</v>
+        <v>1704100</v>
       </c>
       <c r="H10" s="3">
-        <v>1896700</v>
+        <v>1829000</v>
       </c>
       <c r="I10" s="3">
-        <v>1986700</v>
+        <v>1915700</v>
       </c>
       <c r="J10" s="3">
-        <v>1598400</v>
+        <v>1541300</v>
       </c>
       <c r="K10" s="3">
         <v>1656600</v>
@@ -939,25 +939,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>27800</v>
+        <v>26800</v>
       </c>
       <c r="E12" s="3">
-        <v>39200</v>
+        <v>37800</v>
       </c>
       <c r="F12" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="G12" s="3">
-        <v>110900</v>
+        <v>107000</v>
       </c>
       <c r="H12" s="3">
-        <v>16300</v>
+        <v>15700</v>
       </c>
       <c r="I12" s="3">
-        <v>69300</v>
+        <v>66900</v>
       </c>
       <c r="J12" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="K12" s="3">
         <v>50300</v>
@@ -1054,22 +1054,22 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>-383600</v>
+        <v>-369900</v>
       </c>
       <c r="F14" s="3">
-        <v>338400</v>
+        <v>326300</v>
       </c>
       <c r="G14" s="3">
-        <v>202000</v>
+        <v>194800</v>
       </c>
       <c r="H14" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="I14" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J14" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K14" s="3">
         <v>149000</v>
@@ -1107,25 +1107,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E15" s="3">
-        <v>15100</v>
+        <v>14500</v>
       </c>
       <c r="F15" s="3">
-        <v>21500</v>
+        <v>20700</v>
       </c>
       <c r="G15" s="3">
-        <v>49500</v>
+        <v>47700</v>
       </c>
       <c r="H15" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="I15" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="J15" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K15" s="3">
         <v>7800</v>
@@ -1182,25 +1182,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2706400</v>
+        <v>2609800</v>
       </c>
       <c r="E17" s="3">
-        <v>2131900</v>
+        <v>2055800</v>
       </c>
       <c r="F17" s="3">
-        <v>3800600</v>
+        <v>3664900</v>
       </c>
       <c r="G17" s="3">
-        <v>4141800</v>
+        <v>3993900</v>
       </c>
       <c r="H17" s="3">
-        <v>3444700</v>
+        <v>3321700</v>
       </c>
       <c r="I17" s="3">
-        <v>3458300</v>
+        <v>3334800</v>
       </c>
       <c r="J17" s="3">
-        <v>3076000</v>
+        <v>2966200</v>
       </c>
       <c r="K17" s="3">
         <v>3593200</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>744000</v>
+        <v>717400</v>
       </c>
       <c r="E18" s="3">
-        <v>231800</v>
+        <v>223500</v>
       </c>
       <c r="F18" s="3">
-        <v>419500</v>
+        <v>404500</v>
       </c>
       <c r="G18" s="3">
-        <v>1061000</v>
+        <v>1023100</v>
       </c>
       <c r="H18" s="3">
-        <v>1599300</v>
+        <v>1542100</v>
       </c>
       <c r="I18" s="3">
-        <v>1668100</v>
+        <v>1608600</v>
       </c>
       <c r="J18" s="3">
-        <v>1387900</v>
+        <v>1338300</v>
       </c>
       <c r="K18" s="3">
         <v>1168600</v>
@@ -1316,25 +1316,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-82300</v>
+        <v>-79400</v>
       </c>
       <c r="E20" s="3">
-        <v>36800</v>
+        <v>35500</v>
       </c>
       <c r="F20" s="3">
-        <v>-50600</v>
+        <v>-48800</v>
       </c>
       <c r="G20" s="3">
-        <v>86200</v>
+        <v>83100</v>
       </c>
       <c r="H20" s="3">
-        <v>-32900</v>
+        <v>-31700</v>
       </c>
       <c r="I20" s="3">
-        <v>45100</v>
+        <v>43400</v>
       </c>
       <c r="J20" s="3">
-        <v>63600</v>
+        <v>61300</v>
       </c>
       <c r="K20" s="3">
         <v>83200</v>
@@ -1372,25 +1372,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1305400</v>
+        <v>1258700</v>
       </c>
       <c r="E21" s="3">
-        <v>909600</v>
+        <v>877100</v>
       </c>
       <c r="F21" s="3">
-        <v>993200</v>
+        <v>957700</v>
       </c>
       <c r="G21" s="3">
-        <v>1785000</v>
+        <v>1721200</v>
       </c>
       <c r="H21" s="3">
-        <v>2184000</v>
+        <v>2106000</v>
       </c>
       <c r="I21" s="3">
-        <v>2299300</v>
+        <v>2217200</v>
       </c>
       <c r="J21" s="3">
-        <v>2008900</v>
+        <v>1937100</v>
       </c>
       <c r="K21" s="3">
         <v>1748700</v>
@@ -1428,25 +1428,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>181300</v>
+        <v>174800</v>
       </c>
       <c r="E22" s="3">
-        <v>182800</v>
+        <v>176300</v>
       </c>
       <c r="F22" s="3">
-        <v>135900</v>
+        <v>131100</v>
       </c>
       <c r="G22" s="3">
-        <v>136800</v>
+        <v>131900</v>
       </c>
       <c r="H22" s="3">
-        <v>132800</v>
+        <v>128100</v>
       </c>
       <c r="I22" s="3">
-        <v>134300</v>
+        <v>129500</v>
       </c>
       <c r="J22" s="3">
-        <v>126500</v>
+        <v>122000</v>
       </c>
       <c r="K22" s="3">
         <v>183100</v>
@@ -1484,25 +1484,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>480400</v>
+        <v>463200</v>
       </c>
       <c r="E23" s="3">
-        <v>85700</v>
+        <v>82700</v>
       </c>
       <c r="F23" s="3">
-        <v>233000</v>
+        <v>224700</v>
       </c>
       <c r="G23" s="3">
-        <v>1010400</v>
+        <v>974300</v>
       </c>
       <c r="H23" s="3">
-        <v>1433500</v>
+        <v>1382300</v>
       </c>
       <c r="I23" s="3">
-        <v>1578900</v>
+        <v>1522500</v>
       </c>
       <c r="J23" s="3">
-        <v>1324900</v>
+        <v>1277600</v>
       </c>
       <c r="K23" s="3">
         <v>1068600</v>
@@ -1540,25 +1540,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>160000</v>
+        <v>154200</v>
       </c>
       <c r="E24" s="3">
         <v>1200</v>
       </c>
       <c r="F24" s="3">
-        <v>98500</v>
+        <v>95000</v>
       </c>
       <c r="G24" s="3">
-        <v>-201200</v>
+        <v>-194000</v>
       </c>
       <c r="H24" s="3">
-        <v>495600</v>
+        <v>477900</v>
       </c>
       <c r="I24" s="3">
-        <v>524100</v>
+        <v>505400</v>
       </c>
       <c r="J24" s="3">
-        <v>468500</v>
+        <v>451800</v>
       </c>
       <c r="K24" s="3">
         <v>303400</v>
@@ -1652,25 +1652,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>320400</v>
+        <v>309000</v>
       </c>
       <c r="E26" s="3">
-        <v>84500</v>
+        <v>81500</v>
       </c>
       <c r="F26" s="3">
-        <v>134400</v>
+        <v>129600</v>
       </c>
       <c r="G26" s="3">
-        <v>1211600</v>
+        <v>1168400</v>
       </c>
       <c r="H26" s="3">
-        <v>938000</v>
+        <v>904500</v>
       </c>
       <c r="I26" s="3">
-        <v>1054700</v>
+        <v>1017100</v>
       </c>
       <c r="J26" s="3">
-        <v>856400</v>
+        <v>825800</v>
       </c>
       <c r="K26" s="3">
         <v>765200</v>
@@ -1708,25 +1708,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>239400</v>
+        <v>230900</v>
       </c>
       <c r="E27" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="F27" s="3">
-        <v>37200</v>
+        <v>35900</v>
       </c>
       <c r="G27" s="3">
-        <v>1122500</v>
+        <v>1082400</v>
       </c>
       <c r="H27" s="3">
-        <v>843100</v>
+        <v>813000</v>
       </c>
       <c r="I27" s="3">
-        <v>976400</v>
+        <v>941500</v>
       </c>
       <c r="J27" s="3">
-        <v>768500</v>
+        <v>741000</v>
       </c>
       <c r="K27" s="3">
         <v>688300</v>
@@ -1988,25 +1988,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>82300</v>
+        <v>79400</v>
       </c>
       <c r="E32" s="3">
-        <v>-36800</v>
+        <v>-35500</v>
       </c>
       <c r="F32" s="3">
-        <v>50600</v>
+        <v>48800</v>
       </c>
       <c r="G32" s="3">
-        <v>-86200</v>
+        <v>-83100</v>
       </c>
       <c r="H32" s="3">
-        <v>32900</v>
+        <v>31700</v>
       </c>
       <c r="I32" s="3">
-        <v>-45100</v>
+        <v>-43400</v>
       </c>
       <c r="J32" s="3">
-        <v>-63600</v>
+        <v>-61300</v>
       </c>
       <c r="K32" s="3">
         <v>-83200</v>
@@ -2044,25 +2044,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>239400</v>
+        <v>230900</v>
       </c>
       <c r="E33" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="F33" s="3">
-        <v>37200</v>
+        <v>35900</v>
       </c>
       <c r="G33" s="3">
-        <v>1122500</v>
+        <v>1082400</v>
       </c>
       <c r="H33" s="3">
-        <v>843100</v>
+        <v>813000</v>
       </c>
       <c r="I33" s="3">
-        <v>976400</v>
+        <v>941500</v>
       </c>
       <c r="J33" s="3">
-        <v>768500</v>
+        <v>741000</v>
       </c>
       <c r="K33" s="3">
         <v>688300</v>
@@ -2156,25 +2156,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>239400</v>
+        <v>230900</v>
       </c>
       <c r="E35" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="F35" s="3">
-        <v>37200</v>
+        <v>35900</v>
       </c>
       <c r="G35" s="3">
-        <v>1122500</v>
+        <v>1082400</v>
       </c>
       <c r="H35" s="3">
-        <v>843100</v>
+        <v>813000</v>
       </c>
       <c r="I35" s="3">
-        <v>976400</v>
+        <v>941500</v>
       </c>
       <c r="J35" s="3">
-        <v>768500</v>
+        <v>741000</v>
       </c>
       <c r="K35" s="3">
         <v>688300</v>
@@ -2317,25 +2317,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2192000</v>
+        <v>2113700</v>
       </c>
       <c r="E41" s="3">
-        <v>2589400</v>
+        <v>2496900</v>
       </c>
       <c r="F41" s="3">
-        <v>2463200</v>
+        <v>2375200</v>
       </c>
       <c r="G41" s="3">
-        <v>1981200</v>
+        <v>1910500</v>
       </c>
       <c r="H41" s="3">
-        <v>2537100</v>
+        <v>2446500</v>
       </c>
       <c r="I41" s="3">
-        <v>1546800</v>
+        <v>1491500</v>
       </c>
       <c r="J41" s="3">
-        <v>2502600</v>
+        <v>2413200</v>
       </c>
       <c r="K41" s="3">
         <v>1641100</v>
@@ -2373,25 +2373,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>979000</v>
+        <v>944000</v>
       </c>
       <c r="E42" s="3">
-        <v>1166500</v>
+        <v>1124800</v>
       </c>
       <c r="F42" s="3">
-        <v>266700</v>
+        <v>257200</v>
       </c>
       <c r="G42" s="3">
-        <v>495300</v>
+        <v>477600</v>
       </c>
       <c r="H42" s="3">
-        <v>686600</v>
+        <v>662000</v>
       </c>
       <c r="I42" s="3">
-        <v>940200</v>
+        <v>906600</v>
       </c>
       <c r="J42" s="3">
-        <v>1399100</v>
+        <v>1349100</v>
       </c>
       <c r="K42" s="3">
         <v>1383500</v>
@@ -2429,25 +2429,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2447500</v>
+        <v>2360100</v>
       </c>
       <c r="E43" s="3">
-        <v>2402700</v>
+        <v>2316900</v>
       </c>
       <c r="F43" s="3">
-        <v>1945900</v>
+        <v>1876400</v>
       </c>
       <c r="G43" s="3">
-        <v>2295500</v>
+        <v>2213500</v>
       </c>
       <c r="H43" s="3">
-        <v>2125800</v>
+        <v>2049800</v>
       </c>
       <c r="I43" s="3">
-        <v>2732500</v>
+        <v>2634900</v>
       </c>
       <c r="J43" s="3">
-        <v>2826700</v>
+        <v>2725700</v>
       </c>
       <c r="K43" s="3">
         <v>2538700</v>
@@ -2485,25 +2485,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1542900</v>
+        <v>1487800</v>
       </c>
       <c r="E44" s="3">
-        <v>1409800</v>
+        <v>1359400</v>
       </c>
       <c r="F44" s="3">
-        <v>1627300</v>
+        <v>1569200</v>
       </c>
       <c r="G44" s="3">
-        <v>1584300</v>
+        <v>1527700</v>
       </c>
       <c r="H44" s="3">
-        <v>1653800</v>
+        <v>1594800</v>
       </c>
       <c r="I44" s="3">
-        <v>1639100</v>
+        <v>1580600</v>
       </c>
       <c r="J44" s="3">
-        <v>1533900</v>
+        <v>1479100</v>
       </c>
       <c r="K44" s="3">
         <v>1326100</v>
@@ -2541,25 +2541,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>330000</v>
+        <v>318200</v>
       </c>
       <c r="E45" s="3">
-        <v>253000</v>
+        <v>244000</v>
       </c>
       <c r="F45" s="3">
-        <v>328000</v>
+        <v>316300</v>
       </c>
       <c r="G45" s="3">
-        <v>185800</v>
+        <v>179200</v>
       </c>
       <c r="H45" s="3">
-        <v>203600</v>
+        <v>196300</v>
       </c>
       <c r="I45" s="3">
-        <v>149700</v>
+        <v>144400</v>
       </c>
       <c r="J45" s="3">
-        <v>152200</v>
+        <v>146700</v>
       </c>
       <c r="K45" s="3">
         <v>138600</v>
@@ -2597,25 +2597,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7491400</v>
+        <v>7223900</v>
       </c>
       <c r="E46" s="3">
-        <v>7821400</v>
+        <v>7542100</v>
       </c>
       <c r="F46" s="3">
-        <v>6631100</v>
+        <v>6394300</v>
       </c>
       <c r="G46" s="3">
-        <v>6542000</v>
+        <v>6308400</v>
       </c>
       <c r="H46" s="3">
-        <v>7206900</v>
+        <v>6949500</v>
       </c>
       <c r="I46" s="3">
-        <v>7008300</v>
+        <v>6758000</v>
       </c>
       <c r="J46" s="3">
-        <v>8414400</v>
+        <v>8113900</v>
       </c>
       <c r="K46" s="3">
         <v>7028000</v>
@@ -2653,25 +2653,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1410400</v>
+        <v>1360100</v>
       </c>
       <c r="E47" s="3">
-        <v>1692900</v>
+        <v>1632500</v>
       </c>
       <c r="F47" s="3">
-        <v>1769000</v>
+        <v>1705800</v>
       </c>
       <c r="G47" s="3">
-        <v>2068400</v>
+        <v>1994500</v>
       </c>
       <c r="H47" s="3">
-        <v>2028900</v>
+        <v>1956400</v>
       </c>
       <c r="I47" s="3">
-        <v>1807900</v>
+        <v>1743300</v>
       </c>
       <c r="J47" s="3">
-        <v>1384900</v>
+        <v>1335500</v>
       </c>
       <c r="K47" s="3">
         <v>1410900</v>
@@ -2709,25 +2709,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>28107800</v>
+        <v>27103900</v>
       </c>
       <c r="E48" s="3">
-        <v>27974100</v>
+        <v>26975000</v>
       </c>
       <c r="F48" s="3">
-        <v>28644600</v>
+        <v>27621600</v>
       </c>
       <c r="G48" s="3">
-        <v>26244100</v>
+        <v>25306800</v>
       </c>
       <c r="H48" s="3">
-        <v>25124400</v>
+        <v>24227100</v>
       </c>
       <c r="I48" s="3">
-        <v>24071700</v>
+        <v>23212000</v>
       </c>
       <c r="J48" s="3">
-        <v>23940100</v>
+        <v>23085100</v>
       </c>
       <c r="K48" s="3">
         <v>22319900</v>
@@ -2765,25 +2765,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>537700</v>
+        <v>518500</v>
       </c>
       <c r="E49" s="3">
-        <v>416800</v>
+        <v>401900</v>
       </c>
       <c r="F49" s="3">
-        <v>428000</v>
+        <v>412700</v>
       </c>
       <c r="G49" s="3">
-        <v>392700</v>
+        <v>378700</v>
       </c>
       <c r="H49" s="3">
-        <v>368500</v>
+        <v>355300</v>
       </c>
       <c r="I49" s="3">
-        <v>368100</v>
+        <v>354900</v>
       </c>
       <c r="J49" s="3">
-        <v>374900</v>
+        <v>361500</v>
       </c>
       <c r="K49" s="3">
         <v>345800</v>
@@ -2933,25 +2933,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3411200</v>
+        <v>3289400</v>
       </c>
       <c r="E52" s="3">
-        <v>3296800</v>
+        <v>3179000</v>
       </c>
       <c r="F52" s="3">
-        <v>3556900</v>
+        <v>3429900</v>
       </c>
       <c r="G52" s="3">
-        <v>2678200</v>
+        <v>2582500</v>
       </c>
       <c r="H52" s="3">
-        <v>1950200</v>
+        <v>1880600</v>
       </c>
       <c r="I52" s="3">
-        <v>1777100</v>
+        <v>1713700</v>
       </c>
       <c r="J52" s="3">
-        <v>1774400</v>
+        <v>1711100</v>
       </c>
       <c r="K52" s="3">
         <v>1717900</v>
@@ -3045,25 +3045,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>40958600</v>
+        <v>39495800</v>
       </c>
       <c r="E54" s="3">
-        <v>41201900</v>
+        <v>39730400</v>
       </c>
       <c r="F54" s="3">
-        <v>41029600</v>
+        <v>39564200</v>
       </c>
       <c r="G54" s="3">
-        <v>37925400</v>
+        <v>36571000</v>
       </c>
       <c r="H54" s="3">
-        <v>36678900</v>
+        <v>35368900</v>
       </c>
       <c r="I54" s="3">
-        <v>35033000</v>
+        <v>33781800</v>
       </c>
       <c r="J54" s="3">
-        <v>35888800</v>
+        <v>34607100</v>
       </c>
       <c r="K54" s="3">
         <v>32822600</v>
@@ -3145,25 +3145,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1507500</v>
+        <v>1453700</v>
       </c>
       <c r="E57" s="3">
-        <v>1319600</v>
+        <v>1272500</v>
       </c>
       <c r="F57" s="3">
-        <v>1888700</v>
+        <v>1821200</v>
       </c>
       <c r="G57" s="3">
-        <v>2272200</v>
+        <v>2191100</v>
       </c>
       <c r="H57" s="3">
-        <v>1994300</v>
+        <v>1923100</v>
       </c>
       <c r="I57" s="3">
-        <v>1890500</v>
+        <v>1823000</v>
       </c>
       <c r="J57" s="3">
-        <v>1720100</v>
+        <v>1658600</v>
       </c>
       <c r="K57" s="3">
         <v>1788400</v>
@@ -3201,25 +3201,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1747500</v>
+        <v>1685000</v>
       </c>
       <c r="E58" s="3">
-        <v>2662200</v>
+        <v>2567100</v>
       </c>
       <c r="F58" s="3">
-        <v>1715600</v>
+        <v>1654300</v>
       </c>
       <c r="G58" s="3">
-        <v>1403400</v>
+        <v>1353300</v>
       </c>
       <c r="H58" s="3">
-        <v>1266900</v>
+        <v>1221700</v>
       </c>
       <c r="I58" s="3">
-        <v>1144700</v>
+        <v>1103800</v>
       </c>
       <c r="J58" s="3">
-        <v>1131900</v>
+        <v>1091500</v>
       </c>
       <c r="K58" s="3">
         <v>1045200</v>
@@ -3257,25 +3257,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2716000</v>
+        <v>2619000</v>
       </c>
       <c r="E59" s="3">
-        <v>3471400</v>
+        <v>3347400</v>
       </c>
       <c r="F59" s="3">
-        <v>4490900</v>
+        <v>4330500</v>
       </c>
       <c r="G59" s="3">
-        <v>2412200</v>
+        <v>2326100</v>
       </c>
       <c r="H59" s="3">
-        <v>2020500</v>
+        <v>1948300</v>
       </c>
       <c r="I59" s="3">
-        <v>2534700</v>
+        <v>2444200</v>
       </c>
       <c r="J59" s="3">
-        <v>4647500</v>
+        <v>4481500</v>
       </c>
       <c r="K59" s="3">
         <v>1800800</v>
@@ -3313,25 +3313,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5970900</v>
+        <v>5757700</v>
       </c>
       <c r="E60" s="3">
-        <v>7453200</v>
+        <v>7187000</v>
       </c>
       <c r="F60" s="3">
-        <v>8095200</v>
+        <v>7806100</v>
       </c>
       <c r="G60" s="3">
-        <v>6087800</v>
+        <v>5870400</v>
       </c>
       <c r="H60" s="3">
-        <v>5281700</v>
+        <v>5093100</v>
       </c>
       <c r="I60" s="3">
-        <v>5569900</v>
+        <v>5371000</v>
       </c>
       <c r="J60" s="3">
-        <v>7499500</v>
+        <v>7231700</v>
       </c>
       <c r="K60" s="3">
         <v>4634400</v>
@@ -3369,25 +3369,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>13225500</v>
+        <v>12753200</v>
       </c>
       <c r="E61" s="3">
-        <v>12365400</v>
+        <v>11923700</v>
       </c>
       <c r="F61" s="3">
-        <v>11291800</v>
+        <v>10888500</v>
       </c>
       <c r="G61" s="3">
-        <v>9303600</v>
+        <v>8971300</v>
       </c>
       <c r="H61" s="3">
-        <v>10047000</v>
+        <v>9688200</v>
       </c>
       <c r="I61" s="3">
-        <v>9346200</v>
+        <v>9012400</v>
       </c>
       <c r="J61" s="3">
-        <v>9431800</v>
+        <v>9095000</v>
       </c>
       <c r="K61" s="3">
         <v>8851100</v>
@@ -3425,25 +3425,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>5753600</v>
+        <v>5548100</v>
       </c>
       <c r="E62" s="3">
-        <v>5805100</v>
+        <v>5597800</v>
       </c>
       <c r="F62" s="3">
-        <v>5856200</v>
+        <v>5647100</v>
       </c>
       <c r="G62" s="3">
-        <v>5637700</v>
+        <v>5436400</v>
       </c>
       <c r="H62" s="3">
-        <v>4168400</v>
+        <v>4019500</v>
       </c>
       <c r="I62" s="3">
-        <v>4175300</v>
+        <v>4026100</v>
       </c>
       <c r="J62" s="3">
-        <v>4210700</v>
+        <v>4060300</v>
       </c>
       <c r="K62" s="3">
         <v>3917900</v>
@@ -3649,25 +3649,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>26001600</v>
+        <v>25073000</v>
       </c>
       <c r="E66" s="3">
-        <v>26739700</v>
+        <v>25784700</v>
       </c>
       <c r="F66" s="3">
-        <v>26308600</v>
+        <v>25369000</v>
       </c>
       <c r="G66" s="3">
-        <v>22130000</v>
+        <v>21339600</v>
       </c>
       <c r="H66" s="3">
-        <v>20099900</v>
+        <v>19382000</v>
       </c>
       <c r="I66" s="3">
-        <v>19706200</v>
+        <v>19002400</v>
       </c>
       <c r="J66" s="3">
-        <v>21698100</v>
+        <v>20923200</v>
       </c>
       <c r="K66" s="3">
         <v>17947000</v>
@@ -3951,25 +3951,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3335500</v>
+        <v>3216400</v>
       </c>
       <c r="E72" s="3">
-        <v>3096100</v>
+        <v>2985500</v>
       </c>
       <c r="F72" s="3">
-        <v>3089000</v>
+        <v>2978700</v>
       </c>
       <c r="G72" s="3">
-        <v>5124100</v>
+        <v>4941100</v>
       </c>
       <c r="H72" s="3">
-        <v>4977000</v>
+        <v>4799200</v>
       </c>
       <c r="I72" s="3">
-        <v>4133800</v>
+        <v>3986200</v>
       </c>
       <c r="J72" s="3">
-        <v>3157400</v>
+        <v>3044700</v>
       </c>
       <c r="K72" s="3">
         <v>4623800</v>
@@ -4175,25 +4175,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>14957000</v>
+        <v>14422800</v>
       </c>
       <c r="E76" s="3">
-        <v>14462200</v>
+        <v>13945700</v>
       </c>
       <c r="F76" s="3">
-        <v>14720900</v>
+        <v>14195200</v>
       </c>
       <c r="G76" s="3">
-        <v>15795500</v>
+        <v>15231300</v>
       </c>
       <c r="H76" s="3">
-        <v>16579000</v>
+        <v>15986900</v>
       </c>
       <c r="I76" s="3">
-        <v>15326800</v>
+        <v>14779400</v>
       </c>
       <c r="J76" s="3">
-        <v>14190700</v>
+        <v>13683900</v>
       </c>
       <c r="K76" s="3">
         <v>14875500</v>
@@ -4348,25 +4348,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>239400</v>
+        <v>230900</v>
       </c>
       <c r="E81" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="F81" s="3">
-        <v>37200</v>
+        <v>35900</v>
       </c>
       <c r="G81" s="3">
-        <v>1122500</v>
+        <v>1082400</v>
       </c>
       <c r="H81" s="3">
-        <v>843100</v>
+        <v>813000</v>
       </c>
       <c r="I81" s="3">
-        <v>976400</v>
+        <v>941500</v>
       </c>
       <c r="J81" s="3">
-        <v>768500</v>
+        <v>741000</v>
       </c>
       <c r="K81" s="3">
         <v>688300</v>
@@ -4426,25 +4426,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>643700</v>
+        <v>620700</v>
       </c>
       <c r="E83" s="3">
-        <v>641100</v>
+        <v>618200</v>
       </c>
       <c r="F83" s="3">
-        <v>624300</v>
+        <v>602000</v>
       </c>
       <c r="G83" s="3">
-        <v>637800</v>
+        <v>615000</v>
       </c>
       <c r="H83" s="3">
-        <v>617700</v>
+        <v>595600</v>
       </c>
       <c r="I83" s="3">
-        <v>586200</v>
+        <v>565200</v>
       </c>
       <c r="J83" s="3">
-        <v>557400</v>
+        <v>537500</v>
       </c>
       <c r="K83" s="3">
         <v>497000</v>
@@ -4762,25 +4762,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>987500</v>
+        <v>952200</v>
       </c>
       <c r="E89" s="3">
-        <v>-629400</v>
+        <v>-606900</v>
       </c>
       <c r="F89" s="3">
-        <v>720300</v>
+        <v>694600</v>
       </c>
       <c r="G89" s="3">
-        <v>2118200</v>
+        <v>2042500</v>
       </c>
       <c r="H89" s="3">
-        <v>2606600</v>
+        <v>2513500</v>
       </c>
       <c r="I89" s="3">
-        <v>1680900</v>
+        <v>1620900</v>
       </c>
       <c r="J89" s="3">
-        <v>1353600</v>
+        <v>1305300</v>
       </c>
       <c r="K89" s="3">
         <v>1176500</v>
@@ -4840,25 +4840,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-374300</v>
+        <v>-360900</v>
       </c>
       <c r="E91" s="3">
-        <v>-324700</v>
+        <v>-313100</v>
       </c>
       <c r="F91" s="3">
-        <v>-230400</v>
+        <v>-222200</v>
       </c>
       <c r="G91" s="3">
-        <v>-415400</v>
+        <v>-400500</v>
       </c>
       <c r="H91" s="3">
-        <v>-336400</v>
+        <v>-324300</v>
       </c>
       <c r="I91" s="3">
-        <v>-203900</v>
+        <v>-196700</v>
       </c>
       <c r="J91" s="3">
-        <v>-167900</v>
+        <v>-161900</v>
       </c>
       <c r="K91" s="3">
         <v>-358000</v>
@@ -5008,25 +5008,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-47600</v>
+        <v>-45900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1481700</v>
+        <v>-1428800</v>
       </c>
       <c r="F94" s="3">
-        <v>-241900</v>
+        <v>-233300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1274000</v>
+        <v>-1228500</v>
       </c>
       <c r="H94" s="3">
-        <v>-739000</v>
+        <v>-712600</v>
       </c>
       <c r="I94" s="3">
-        <v>-492800</v>
+        <v>-475200</v>
       </c>
       <c r="J94" s="3">
-        <v>-304200</v>
+        <v>-293400</v>
       </c>
       <c r="K94" s="3">
         <v>130100</v>
@@ -5086,25 +5086,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-814900</v>
+        <v>-785800</v>
       </c>
       <c r="E96" s="3">
-        <v>-535000</v>
+        <v>-515900</v>
       </c>
       <c r="F96" s="3">
-        <v>-119200</v>
+        <v>-115000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1066800</v>
+        <v>-1028700</v>
       </c>
       <c r="H96" s="3">
-        <v>-862900</v>
+        <v>-832000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1859900</v>
+        <v>-1793500</v>
       </c>
       <c r="J96" s="3">
-        <v>-93200</v>
+        <v>-89800</v>
       </c>
       <c r="K96" s="3">
         <v>-36500</v>
@@ -5310,25 +5310,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1340400</v>
+        <v>-1292500</v>
       </c>
       <c r="E100" s="3">
-        <v>2405500</v>
+        <v>2319600</v>
       </c>
       <c r="F100" s="3">
-        <v>-287300</v>
+        <v>-277000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1358300</v>
+        <v>-1309800</v>
       </c>
       <c r="H100" s="3">
-        <v>-989400</v>
+        <v>-954100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2175500</v>
+        <v>-2097800</v>
       </c>
       <c r="J100" s="3">
-        <v>-284400</v>
+        <v>-274300</v>
       </c>
       <c r="K100" s="3">
         <v>-1624700</v>
@@ -5366,25 +5366,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-168200</v>
+        <v>-162200</v>
       </c>
       <c r="F101" s="3">
-        <v>290900</v>
+        <v>280500</v>
       </c>
       <c r="G101" s="3">
-        <v>-41800</v>
+        <v>-40300</v>
       </c>
       <c r="H101" s="3">
-        <v>112200</v>
+        <v>108200</v>
       </c>
       <c r="I101" s="3">
-        <v>31600</v>
+        <v>30500</v>
       </c>
       <c r="J101" s="3">
-        <v>-29600</v>
+        <v>-28500</v>
       </c>
       <c r="K101" s="3">
         <v>107900</v>
@@ -5422,25 +5422,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-397400</v>
+        <v>-383200</v>
       </c>
       <c r="E102" s="3">
-        <v>126200</v>
+        <v>121700</v>
       </c>
       <c r="F102" s="3">
-        <v>482000</v>
+        <v>464800</v>
       </c>
       <c r="G102" s="3">
-        <v>-555900</v>
+        <v>-536100</v>
       </c>
       <c r="H102" s="3">
-        <v>990400</v>
+        <v>955000</v>
       </c>
       <c r="I102" s="3">
-        <v>-955800</v>
+        <v>-921700</v>
       </c>
       <c r="J102" s="3">
-        <v>735300</v>
+        <v>709100</v>
       </c>
       <c r="K102" s="3">
         <v>-210300</v>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,257 +662,282 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4645600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3831300</v>
+      </c>
+      <c r="F8" s="3">
         <v>3327200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2279300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4069400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5016900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4863900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4943300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4304500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4761700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4826500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9488900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4392800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4916200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4263900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4208300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4278900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4393300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2838200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2782800</v>
+      </c>
+      <c r="F9" s="3">
         <v>2252800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2056100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3047400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3312900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3034900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3027600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2763200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3105100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2868100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5581200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2654000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3118400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2808700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2952200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2926600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3202400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1807400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1048500</v>
+      </c>
+      <c r="F10" s="3">
         <v>1074400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>223100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1022000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1704100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1829000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1915700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1541300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1656600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1958400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3907700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1738700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1797800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1455200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1256100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1352300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1190900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,64 +958,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>111300</v>
+      </c>
+      <c r="F12" s="3">
         <v>26800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>37800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>107000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>15700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>66900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>50300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>271600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>56400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>21200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>292200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>103900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>24700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>8600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>96800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,120 +1078,138 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-149800</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-369900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>326300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>194800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>10400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>149000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-26200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-14700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-34600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-556400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>7900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-12900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>244000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F15" s="3">
         <v>3500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>14500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>20700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>47700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>10700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>11200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>5400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>4500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>11500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>6100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>8700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>15000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>10900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>13300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>16400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1227,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3157000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3283400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2609800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2055800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3664900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3993900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3321700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3334800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2966200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3593200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3300300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6019600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2838800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3111000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3200600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3162600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3223200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3854400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1488600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>547900</v>
+      </c>
+      <c r="F18" s="3">
         <v>717400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>223500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>404500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1023100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1542100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1608600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1338300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1168600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1526200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3469300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1554000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1805100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1063300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1045700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1055600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>538900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,288 +1375,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>90300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-79400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>35500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-48800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>83100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-31700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>43400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>61300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>83200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>19300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>45700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>26900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>18100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>117200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-111000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>291700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2099400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1310900</v>
+      </c>
+      <c r="F21" s="3">
         <v>1258700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>877100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>957700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1721200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2106000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2217200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1937100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1748700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2104600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4627400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2118200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2411200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1718300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1846200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1604900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1464900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>161600</v>
+      </c>
+      <c r="F22" s="3">
         <v>174800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>176300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>131100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>131900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>128100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>129500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>122000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>183100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>144600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>347900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>171800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>206800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>198200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>153300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>205200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>226800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>476600</v>
+      </c>
+      <c r="F23" s="3">
         <v>463200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>82700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>224700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>974300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1382300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1522500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1277600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1068600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1401000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3167100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1409100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1616500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>806300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1009600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>739400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>603800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>414900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>229300</v>
+      </c>
+      <c r="F24" s="3">
         <v>154200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>95000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-194000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>477900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>505400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>451800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>303400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>589000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1192000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>564000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>457200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>414600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>535100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>396300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>485600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,120 +1743,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>912000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>247300</v>
+      </c>
+      <c r="F26" s="3">
         <v>309000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>81500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>129600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1168400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>904500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1017100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>825800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>765200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>811900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1975100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>845100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1159300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>391700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>474500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>343200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>118200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>833200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>182300</v>
+      </c>
+      <c r="F27" s="3">
         <v>230900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>35900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1082400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>813000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>941500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>741000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>688300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>749200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1840300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>784400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1096500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>321100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>417500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>283500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>61400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,8 +1929,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1870,8 +1991,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +2053,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1982,120 +2115,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-90300</v>
+      </c>
+      <c r="F32" s="3">
         <v>79400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-35500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>48800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-83100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>31700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-43400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-61300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-83200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-19300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-45700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-26900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-18100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>58800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-117200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>111000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-291700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>833200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>182300</v>
+      </c>
+      <c r="F33" s="3">
         <v>230900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>35900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1082400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>813000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>941500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>741000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>688300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>749200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1840300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>784400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1096500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>321100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>417500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>283500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>61400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2150,125 +2301,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>833200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>182300</v>
+      </c>
+      <c r="F35" s="3">
         <v>230900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>35900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1082400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>813000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>941500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>741000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>688300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>749200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1840300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>784400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1096500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>321100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>417500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>283500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>61400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2458,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2311,512 +2482,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1805600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1372200</v>
+      </c>
+      <c r="F41" s="3">
         <v>2113700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2496900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2375200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1910500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2446500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1491500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2413200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1641100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1922600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1901200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2359900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1755700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1832500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1501600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1561700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1095700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>651500</v>
+      </c>
+      <c r="F42" s="3">
         <v>944000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1124800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>257200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>477600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>662000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>906600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1349100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1383500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2042100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1878800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1325000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1736700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1560200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1118400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>3310400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>3450900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>3285100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2520900</v>
+      </c>
+      <c r="F43" s="3">
         <v>2360100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2316900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1876400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2213500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2049800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2634900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2725700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2538700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2350500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2628100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2269200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2341000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1978600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1905300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1705700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2007700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1730100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1364600</v>
+      </c>
+      <c r="F44" s="3">
         <v>1487800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1359400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1569200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1527700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1594800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1580600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1479100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1326100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1461500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1641500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1478800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1472400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1512100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1366100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1385800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1267800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>288100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>256100</v>
+      </c>
+      <c r="F45" s="3">
         <v>318200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>244000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>316300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>179200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>196300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>144400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>146700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>138600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>131000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>125000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>131300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>125800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>180600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>191400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>169900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>140500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7310500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6165300</v>
+      </c>
+      <c r="F46" s="3">
         <v>7223900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7542100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6394300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6308400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6949500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6758000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8113900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7028000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7907800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8174700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7564200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7431700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7064000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6082800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8133400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7962600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>1305200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1276600</v>
+      </c>
+      <c r="F47" s="3">
         <v>1360100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1632500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1705800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1994500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1956400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1743300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1335500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1410900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1531900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1627300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1929500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1815500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1384000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1419900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1466400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1205600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>27417600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>26681500</v>
+      </c>
+      <c r="F48" s="3">
         <v>27103900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26975000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>27621600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>25306800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>24227100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>23212000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>23085100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>22319900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>22118800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>24635700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>24041100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>26453800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>25781800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>26507600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>26236200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>27921300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>517800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>515400</v>
+      </c>
+      <c r="F49" s="3">
         <v>518500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>401900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>412700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>378700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>355300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>354900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>361500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>345800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>354300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>383600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>384100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>415900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>404900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>375200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>380300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>393200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2871,8 +3098,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2927,64 +3160,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3120700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3003800</v>
+      </c>
+      <c r="F52" s="3">
         <v>3289400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3179000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3429900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2582500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1880600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1713700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1711100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1717900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1535300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1653700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1652100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2499000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2571300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2636600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2342900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2548600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3039,64 +3284,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>39671800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>37642600</v>
+      </c>
+      <c r="F54" s="3">
         <v>39495800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>39730400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>39564200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>36571000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>35368900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>33781800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>34607100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>32822600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>33448100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>36475000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>35571100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>38615900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>37205900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>37022200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>38559200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>40031400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3117,8 +3374,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3139,344 +3398,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1813300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1752800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1453700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1272500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1821200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2191100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1923100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1823000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1658600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1788400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1669000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1569200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1386700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1628500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1347100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1319700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1235200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1540900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1405900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1329300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1685000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2567100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1654300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1353300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1221700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1103800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1091500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1045200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2169300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1703100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1479900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1646200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1636800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1254200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1310400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1361600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2170900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1854100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2619000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3347400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4330500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2326100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1948300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2444200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4481500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2086300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2384800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3290800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2116200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2184600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2070100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2920300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2505200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>5390100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4936300</v>
+      </c>
+      <c r="F60" s="3">
         <v>5757700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7187000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7806100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5870400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5093100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5371000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7231700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4634400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5924600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5657100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6157300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5390900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5168500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4644100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5465900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5407800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>12065500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>11288300</v>
+      </c>
+      <c r="F61" s="3">
         <v>12753200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>11923700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10888500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8971300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9688200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9012400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9095000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8851100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8601200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10695600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>10807900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>12289100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12638500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>13502000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>14821200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>15871600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6515200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6346900</v>
+      </c>
+      <c r="F62" s="3">
         <v>5548100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5597800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5647100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5436400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4019500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4026100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4060300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3917900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4026500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4451000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4256600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5005900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4070100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3843000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3738900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3796500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3531,8 +3828,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3890,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,64 +3952,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>24950200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23576900</v>
+      </c>
+      <c r="F66" s="3">
         <v>25073000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>25784700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>25369000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21339600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19382000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19002400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>20923200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17947000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19039000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21376300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21713500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23288300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>22436200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>22579500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>24545600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>25619100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3721,8 +4042,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3777,8 +4100,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3833,8 +4162,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3889,8 +4224,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3945,64 +4286,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4043400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3398600</v>
+      </c>
+      <c r="F72" s="3">
         <v>3216400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2985500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2978700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4941100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4799200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3986200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3044700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4623800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4086800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3708300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2652600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3163800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2067600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1746600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1329000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1390300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4057,8 +4410,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4113,8 +4472,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4169,64 +4534,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>14721600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14065700</v>
+      </c>
+      <c r="F76" s="3">
         <v>14422800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13945700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14195200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>15231300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15986900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14779400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13683900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14875500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14409100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>15098700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13857600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15327600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>14769700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14442700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>14013600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>14412400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4281,125 +4658,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>833200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>182300</v>
+      </c>
+      <c r="F81" s="3">
         <v>230900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>35900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1082400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>813000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>941500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>741000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>688300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>749200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1840300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>784400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1096500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>321100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>417500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>283500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>61400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4420,64 +4815,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>621600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>672800</v>
+      </c>
+      <c r="F83" s="3">
         <v>620700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>618200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>602000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>615000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>595600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>565200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>537500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>497000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>559000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1112400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>537300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>588000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>713800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>683300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>660300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>634300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4532,8 +4935,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4588,8 +4997,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4644,8 +5059,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4700,8 +5121,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4756,64 +5183,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>792000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1440500</v>
+      </c>
+      <c r="F89" s="3">
         <v>952200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-606900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>694600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2042500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2513500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1620900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1305300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1176500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2309500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2794100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1401900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2033100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1494000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>478900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1425500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1328000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4834,64 +5273,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-229500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-462500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-360900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-313100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-222200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-400500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-324300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-196700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-161900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-358000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-220300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-333000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-133100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-305300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-200100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-90800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-743300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4946,8 +5393,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5002,64 +5455,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-186800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-594800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-45900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1428800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-233300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1228500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-712600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-475200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-293400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>130100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-973300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-623200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1472300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-834500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5080,64 +5545,72 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-941600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-785800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-515900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-115000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1028700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-832000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-89800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-36500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-494600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-736600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-73500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-63900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-327100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-36600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-105500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5192,8 +5665,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5248,8 +5727,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5304,172 +5789,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-210300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1459900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1292500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2319600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-277000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1309800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-954100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-274300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-273900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-877700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-278100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-294000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-314200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-127300</v>
+      </c>
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-162200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>280500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-40300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>108200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>30500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-28500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>107900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>51800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-60100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-72400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>9800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-78800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>69600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-93500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>51000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>433400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-741500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-383200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>121700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>464800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-536100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>955000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-921700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>709100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-210300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>211400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-482500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-23800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>30000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>513900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-613900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-78600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>230300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,282 +662,295 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4645600</v>
+        <v>5055500</v>
       </c>
       <c r="E8" s="3">
-        <v>3831300</v>
+        <v>4473600</v>
       </c>
       <c r="F8" s="3">
-        <v>3327200</v>
+        <v>3689400</v>
       </c>
       <c r="G8" s="3">
-        <v>2279300</v>
+        <v>3203900</v>
       </c>
       <c r="H8" s="3">
-        <v>4069400</v>
+        <v>2194800</v>
       </c>
       <c r="I8" s="3">
-        <v>5016900</v>
+        <v>3918700</v>
       </c>
       <c r="J8" s="3">
+        <v>4831100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4863900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4943300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4304500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4761700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4826500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9488900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4392800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4916200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4263900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4208300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4278900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4393300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2838200</v>
+        <v>2972200</v>
       </c>
       <c r="E9" s="3">
-        <v>2782800</v>
+        <v>2733100</v>
       </c>
       <c r="F9" s="3">
-        <v>2252800</v>
+        <v>2679700</v>
       </c>
       <c r="G9" s="3">
-        <v>2056100</v>
+        <v>2169400</v>
       </c>
       <c r="H9" s="3">
-        <v>3047400</v>
+        <v>1980000</v>
       </c>
       <c r="I9" s="3">
-        <v>3312900</v>
+        <v>2934600</v>
       </c>
       <c r="J9" s="3">
+        <v>3190200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3034900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3027600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2763200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3105100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2868100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5581200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2654000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3118400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2808700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2952200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2926600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3202400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1807400</v>
+        <v>2083300</v>
       </c>
       <c r="E10" s="3">
-        <v>1048500</v>
+        <v>1740400</v>
       </c>
       <c r="F10" s="3">
-        <v>1074400</v>
+        <v>1009700</v>
       </c>
       <c r="G10" s="3">
-        <v>223100</v>
+        <v>1034600</v>
       </c>
       <c r="H10" s="3">
-        <v>1022000</v>
+        <v>214800</v>
       </c>
       <c r="I10" s="3">
-        <v>1704100</v>
+        <v>984100</v>
       </c>
       <c r="J10" s="3">
+        <v>1641000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1829000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1915700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1541300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1656600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1958400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3907700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1738700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1797800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1455200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1256100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1352300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1190900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,70 +973,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45400</v>
+        <v>17500</v>
       </c>
       <c r="E12" s="3">
-        <v>111300</v>
+        <v>43700</v>
       </c>
       <c r="F12" s="3">
-        <v>26800</v>
+        <v>107200</v>
       </c>
       <c r="G12" s="3">
-        <v>37800</v>
+        <v>25800</v>
       </c>
       <c r="H12" s="3">
-        <v>10200</v>
+        <v>36400</v>
       </c>
       <c r="I12" s="3">
-        <v>107000</v>
+        <v>9800</v>
       </c>
       <c r="J12" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K12" s="3">
         <v>15700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>66900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>50300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>271600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>56400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>292200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>103900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>96800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,70 +1101,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>-149800</v>
+        <v>3400</v>
       </c>
       <c r="F14" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>-369900</v>
-      </c>
       <c r="H14" s="3">
-        <v>326300</v>
+        <v>-356200</v>
       </c>
       <c r="I14" s="3">
-        <v>194800</v>
+        <v>314200</v>
       </c>
       <c r="J14" s="3">
+        <v>187600</v>
+      </c>
+      <c r="K14" s="3">
         <v>10400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>149000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-26200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-14700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-556400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-12900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>244000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1155,61 +1178,64 @@
         <v>17500</v>
       </c>
       <c r="E15" s="3">
-        <v>51600</v>
+        <v>16800</v>
       </c>
       <c r="F15" s="3">
-        <v>3500</v>
+        <v>49700</v>
       </c>
       <c r="G15" s="3">
-        <v>14500</v>
+        <v>3300</v>
       </c>
       <c r="H15" s="3">
-        <v>20700</v>
+        <v>14000</v>
       </c>
       <c r="I15" s="3">
-        <v>47700</v>
+        <v>20000</v>
       </c>
       <c r="J15" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K15" s="3">
         <v>10700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>11500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>16400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3157000</v>
+        <v>3350800</v>
       </c>
       <c r="E17" s="3">
-        <v>3283400</v>
+        <v>3040100</v>
       </c>
       <c r="F17" s="3">
-        <v>2609800</v>
+        <v>3161800</v>
       </c>
       <c r="G17" s="3">
-        <v>2055800</v>
+        <v>2513100</v>
       </c>
       <c r="H17" s="3">
-        <v>3664900</v>
+        <v>1979600</v>
       </c>
       <c r="I17" s="3">
-        <v>3993900</v>
+        <v>3529200</v>
       </c>
       <c r="J17" s="3">
+        <v>3845900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3321700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3334800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2966200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3593200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3300300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6019600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2838800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3111000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3162600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3223200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3854400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1488600</v>
+        <v>1704700</v>
       </c>
       <c r="E18" s="3">
-        <v>547900</v>
+        <v>1433500</v>
       </c>
       <c r="F18" s="3">
-        <v>717400</v>
+        <v>527600</v>
       </c>
       <c r="G18" s="3">
-        <v>223500</v>
+        <v>690800</v>
       </c>
       <c r="H18" s="3">
-        <v>404500</v>
+        <v>215200</v>
       </c>
       <c r="I18" s="3">
-        <v>1023100</v>
+        <v>389600</v>
       </c>
       <c r="J18" s="3">
+        <v>985200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1542100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1608600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1338300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1168600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1526200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3469300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1554000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1805100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1063300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1045700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1055600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>538900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,318 +1410,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-10800</v>
+        <v>-42200</v>
       </c>
       <c r="E20" s="3">
-        <v>90300</v>
+        <v>-10400</v>
       </c>
       <c r="F20" s="3">
-        <v>-79400</v>
+        <v>87000</v>
       </c>
       <c r="G20" s="3">
-        <v>35500</v>
+        <v>-76400</v>
       </c>
       <c r="H20" s="3">
-        <v>-48800</v>
+        <v>34200</v>
       </c>
       <c r="I20" s="3">
-        <v>83100</v>
+        <v>-47000</v>
       </c>
       <c r="J20" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-31700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>43400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>61300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>83200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>45700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-58800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>117200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-111000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>291700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2099400</v>
+        <v>2285300</v>
       </c>
       <c r="E21" s="3">
-        <v>1310900</v>
+        <v>2021600</v>
       </c>
       <c r="F21" s="3">
-        <v>1258700</v>
+        <v>1262400</v>
       </c>
       <c r="G21" s="3">
-        <v>877100</v>
+        <v>1212100</v>
       </c>
       <c r="H21" s="3">
-        <v>957700</v>
+        <v>844600</v>
       </c>
       <c r="I21" s="3">
-        <v>1721200</v>
+        <v>922300</v>
       </c>
       <c r="J21" s="3">
+        <v>1657500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2106000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2217200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1937100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1748700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2104600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4627400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2118200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2411200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1718300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1846200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1604900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1464900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>150900</v>
+        <v>157900</v>
       </c>
       <c r="E22" s="3">
-        <v>161600</v>
+        <v>145300</v>
       </c>
       <c r="F22" s="3">
-        <v>174800</v>
+        <v>155600</v>
       </c>
       <c r="G22" s="3">
-        <v>176300</v>
+        <v>168300</v>
       </c>
       <c r="H22" s="3">
-        <v>131100</v>
+        <v>169800</v>
       </c>
       <c r="I22" s="3">
-        <v>131900</v>
+        <v>126200</v>
       </c>
       <c r="J22" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K22" s="3">
         <v>128100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>129500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>122000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>183100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>144600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>347900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>171800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>206800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>198200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>153300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>205200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>226800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1327000</v>
+        <v>1504500</v>
       </c>
       <c r="E23" s="3">
-        <v>476600</v>
+        <v>1277800</v>
       </c>
       <c r="F23" s="3">
-        <v>463200</v>
+        <v>459000</v>
       </c>
       <c r="G23" s="3">
-        <v>82700</v>
+        <v>446100</v>
       </c>
       <c r="H23" s="3">
-        <v>224700</v>
+        <v>79600</v>
       </c>
       <c r="I23" s="3">
-        <v>974300</v>
+        <v>216300</v>
       </c>
       <c r="J23" s="3">
+        <v>938200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1382300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1522500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1277600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1068600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1401000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3167100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1409100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1616500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>806300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1009600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>739400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>603800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>414900</v>
+        <v>459600</v>
       </c>
       <c r="E24" s="3">
-        <v>229300</v>
+        <v>399500</v>
       </c>
       <c r="F24" s="3">
-        <v>154200</v>
+        <v>220800</v>
       </c>
       <c r="G24" s="3">
-        <v>1200</v>
+        <v>148500</v>
       </c>
       <c r="H24" s="3">
-        <v>95000</v>
+        <v>1100</v>
       </c>
       <c r="I24" s="3">
-        <v>-194000</v>
+        <v>91500</v>
       </c>
       <c r="J24" s="3">
+        <v>-186900</v>
+      </c>
+      <c r="K24" s="3">
         <v>477900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>505400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>451800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>303400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>589000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1192000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>564000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>457200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>414600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>535100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>396300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>485600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>912000</v>
+        <v>1045000</v>
       </c>
       <c r="E26" s="3">
-        <v>247300</v>
+        <v>878300</v>
       </c>
       <c r="F26" s="3">
-        <v>309000</v>
+        <v>238200</v>
       </c>
       <c r="G26" s="3">
-        <v>81500</v>
+        <v>297500</v>
       </c>
       <c r="H26" s="3">
-        <v>129600</v>
+        <v>78400</v>
       </c>
       <c r="I26" s="3">
-        <v>1168400</v>
+        <v>124800</v>
       </c>
       <c r="J26" s="3">
+        <v>1125100</v>
+      </c>
+      <c r="K26" s="3">
         <v>904500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1017100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>825800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>765200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>811900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1975100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>845100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1159300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>391700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>474500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>343200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>118200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>833200</v>
+        <v>968300</v>
       </c>
       <c r="E27" s="3">
-        <v>182300</v>
+        <v>802300</v>
       </c>
       <c r="F27" s="3">
-        <v>230900</v>
+        <v>175500</v>
       </c>
       <c r="G27" s="3">
-        <v>6800</v>
+        <v>222300</v>
       </c>
       <c r="H27" s="3">
-        <v>35900</v>
+        <v>6500</v>
       </c>
       <c r="I27" s="3">
-        <v>1082400</v>
+        <v>34600</v>
       </c>
       <c r="J27" s="3">
+        <v>1042300</v>
+      </c>
+      <c r="K27" s="3">
         <v>813000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>941500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>741000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>688300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>749200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1840300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>784400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1096500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>321100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>417500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>283500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>61400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1935,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2058,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>10800</v>
+        <v>42200</v>
       </c>
       <c r="E32" s="3">
-        <v>-90300</v>
+        <v>10400</v>
       </c>
       <c r="F32" s="3">
-        <v>79400</v>
+        <v>-87000</v>
       </c>
       <c r="G32" s="3">
-        <v>-35500</v>
+        <v>76400</v>
       </c>
       <c r="H32" s="3">
-        <v>48800</v>
+        <v>-34200</v>
       </c>
       <c r="I32" s="3">
-        <v>-83100</v>
+        <v>47000</v>
       </c>
       <c r="J32" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="K32" s="3">
         <v>31700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-43400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-61300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-83200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-45700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>58800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-117200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>111000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-291700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>833200</v>
+        <v>968300</v>
       </c>
       <c r="E33" s="3">
-        <v>182300</v>
+        <v>802300</v>
       </c>
       <c r="F33" s="3">
-        <v>230900</v>
+        <v>175500</v>
       </c>
       <c r="G33" s="3">
-        <v>6800</v>
+        <v>222300</v>
       </c>
       <c r="H33" s="3">
-        <v>35900</v>
+        <v>6500</v>
       </c>
       <c r="I33" s="3">
-        <v>1082400</v>
+        <v>34600</v>
       </c>
       <c r="J33" s="3">
+        <v>1042300</v>
+      </c>
+      <c r="K33" s="3">
         <v>813000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>941500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>741000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>688300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>749200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1840300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>784400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1096500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>321100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>417500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>283500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>61400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2307,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>833200</v>
+        <v>968300</v>
       </c>
       <c r="E35" s="3">
-        <v>182300</v>
+        <v>802300</v>
       </c>
       <c r="F35" s="3">
-        <v>230900</v>
+        <v>175500</v>
       </c>
       <c r="G35" s="3">
-        <v>6800</v>
+        <v>222300</v>
       </c>
       <c r="H35" s="3">
-        <v>35900</v>
+        <v>6500</v>
       </c>
       <c r="I35" s="3">
-        <v>1082400</v>
+        <v>34600</v>
       </c>
       <c r="J35" s="3">
+        <v>1042300</v>
+      </c>
+      <c r="K35" s="3">
         <v>813000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>941500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>741000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>688300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>749200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1840300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>784400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1096500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>321100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>417500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>283500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>61400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2460,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2484,566 +2570,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1805600</v>
+        <v>1305600</v>
       </c>
       <c r="E41" s="3">
-        <v>1372200</v>
+        <v>1738800</v>
       </c>
       <c r="F41" s="3">
-        <v>2113700</v>
+        <v>1321400</v>
       </c>
       <c r="G41" s="3">
-        <v>2496900</v>
+        <v>2035500</v>
       </c>
       <c r="H41" s="3">
-        <v>2375200</v>
+        <v>2404500</v>
       </c>
       <c r="I41" s="3">
-        <v>1910500</v>
+        <v>2287300</v>
       </c>
       <c r="J41" s="3">
+        <v>1839700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2446500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1491500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2413200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1641100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1922600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1901200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2359900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1755700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1832500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1501600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1561700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1095700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>201600</v>
+        <v>126800</v>
       </c>
       <c r="E42" s="3">
-        <v>651500</v>
+        <v>194200</v>
       </c>
       <c r="F42" s="3">
-        <v>944000</v>
+        <v>627300</v>
       </c>
       <c r="G42" s="3">
-        <v>1124800</v>
+        <v>909100</v>
       </c>
       <c r="H42" s="3">
-        <v>257200</v>
+        <v>1083100</v>
       </c>
       <c r="I42" s="3">
-        <v>477600</v>
+        <v>247600</v>
       </c>
       <c r="J42" s="3">
+        <v>459900</v>
+      </c>
+      <c r="K42" s="3">
         <v>662000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>906600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1349100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1383500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2042100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1878800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1325000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1736700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1560200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1118400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3310400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3450900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3285100</v>
+        <v>4093800</v>
       </c>
       <c r="E43" s="3">
-        <v>2520900</v>
+        <v>3163400</v>
       </c>
       <c r="F43" s="3">
-        <v>2360100</v>
+        <v>2427500</v>
       </c>
       <c r="G43" s="3">
-        <v>2316900</v>
+        <v>2272700</v>
       </c>
       <c r="H43" s="3">
-        <v>1876400</v>
+        <v>2231100</v>
       </c>
       <c r="I43" s="3">
-        <v>2213500</v>
+        <v>1806900</v>
       </c>
       <c r="J43" s="3">
+        <v>2131500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2049800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2634900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2725700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2538700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2350500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2628100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2269200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2341000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1978600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1905300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1705700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2007700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1730100</v>
+        <v>1866100</v>
       </c>
       <c r="E44" s="3">
-        <v>1364600</v>
+        <v>1666000</v>
       </c>
       <c r="F44" s="3">
-        <v>1487800</v>
+        <v>1314000</v>
       </c>
       <c r="G44" s="3">
-        <v>1359400</v>
+        <v>1432700</v>
       </c>
       <c r="H44" s="3">
-        <v>1569200</v>
+        <v>1309100</v>
       </c>
       <c r="I44" s="3">
-        <v>1527700</v>
+        <v>1511100</v>
       </c>
       <c r="J44" s="3">
+        <v>1471100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1594800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1580600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1479100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1326100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1461500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1641500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1478800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1472400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1512100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1366100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1385800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1267800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>288100</v>
+        <v>217800</v>
       </c>
       <c r="E45" s="3">
-        <v>256100</v>
+        <v>277400</v>
       </c>
       <c r="F45" s="3">
-        <v>318200</v>
+        <v>246700</v>
       </c>
       <c r="G45" s="3">
-        <v>244000</v>
+        <v>306400</v>
       </c>
       <c r="H45" s="3">
-        <v>316300</v>
+        <v>235000</v>
       </c>
       <c r="I45" s="3">
-        <v>179200</v>
+        <v>304500</v>
       </c>
       <c r="J45" s="3">
+        <v>172500</v>
+      </c>
+      <c r="K45" s="3">
         <v>196300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>144400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>146700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>138600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>125000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>131300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>125800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>180600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>191400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>169900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>140500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7310500</v>
+        <v>7610100</v>
       </c>
       <c r="E46" s="3">
-        <v>6165300</v>
+        <v>7039800</v>
       </c>
       <c r="F46" s="3">
-        <v>7223900</v>
+        <v>5936900</v>
       </c>
       <c r="G46" s="3">
-        <v>7542100</v>
+        <v>6956300</v>
       </c>
       <c r="H46" s="3">
-        <v>6394300</v>
+        <v>7262700</v>
       </c>
       <c r="I46" s="3">
-        <v>6308400</v>
+        <v>6157500</v>
       </c>
       <c r="J46" s="3">
+        <v>6074800</v>
+      </c>
+      <c r="K46" s="3">
         <v>6949500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6758000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8113900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7028000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7907800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8174700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7564200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7431700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7064000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6082800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8133400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7962600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1305200</v>
+        <v>1363000</v>
       </c>
       <c r="E47" s="3">
-        <v>1276600</v>
+        <v>1256800</v>
       </c>
       <c r="F47" s="3">
-        <v>1360100</v>
+        <v>1229300</v>
       </c>
       <c r="G47" s="3">
-        <v>1632500</v>
+        <v>1309700</v>
       </c>
       <c r="H47" s="3">
-        <v>1705800</v>
+        <v>1572000</v>
       </c>
       <c r="I47" s="3">
-        <v>1994500</v>
+        <v>1642600</v>
       </c>
       <c r="J47" s="3">
+        <v>1920700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1956400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1743300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1335500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1410900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1531900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1627300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1929500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1815500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1384000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1419900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1466400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1205600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>27417600</v>
+        <v>26771900</v>
       </c>
       <c r="E48" s="3">
-        <v>26681500</v>
+        <v>26402200</v>
       </c>
       <c r="F48" s="3">
-        <v>27103900</v>
+        <v>25693300</v>
       </c>
       <c r="G48" s="3">
-        <v>26975000</v>
+        <v>26100100</v>
       </c>
       <c r="H48" s="3">
-        <v>27621600</v>
+        <v>25975900</v>
       </c>
       <c r="I48" s="3">
-        <v>25306800</v>
+        <v>26598600</v>
       </c>
       <c r="J48" s="3">
+        <v>24369500</v>
+      </c>
+      <c r="K48" s="3">
         <v>24227100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23212000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23085100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22319900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22118800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24635700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24041100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26453800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25781800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26507600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>26236200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27921300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>517800</v>
+        <v>505000</v>
       </c>
       <c r="E49" s="3">
-        <v>515400</v>
+        <v>498600</v>
       </c>
       <c r="F49" s="3">
-        <v>518500</v>
+        <v>496300</v>
       </c>
       <c r="G49" s="3">
-        <v>401900</v>
+        <v>499300</v>
       </c>
       <c r="H49" s="3">
-        <v>412700</v>
+        <v>387000</v>
       </c>
       <c r="I49" s="3">
-        <v>378700</v>
+        <v>397400</v>
       </c>
       <c r="J49" s="3">
+        <v>364700</v>
+      </c>
+      <c r="K49" s="3">
         <v>355300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>354900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>361500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>345800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>354300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>383600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>384100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>415900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>404900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>375200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>380300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>393200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3166,70 +3283,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3120700</v>
+        <v>3076100</v>
       </c>
       <c r="E52" s="3">
-        <v>3003800</v>
+        <v>3005100</v>
       </c>
       <c r="F52" s="3">
-        <v>3289400</v>
+        <v>2892600</v>
       </c>
       <c r="G52" s="3">
-        <v>3179000</v>
+        <v>3167500</v>
       </c>
       <c r="H52" s="3">
-        <v>3429900</v>
+        <v>3061300</v>
       </c>
       <c r="I52" s="3">
-        <v>2582500</v>
+        <v>3302800</v>
       </c>
       <c r="J52" s="3">
+        <v>2486900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1880600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1713700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1711100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1717900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1535300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1653700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1652100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2499000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2571300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2636600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2342900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2548600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3290,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>39671800</v>
+        <v>39326100</v>
       </c>
       <c r="E54" s="3">
-        <v>37642600</v>
+        <v>38202500</v>
       </c>
       <c r="F54" s="3">
-        <v>39495800</v>
+        <v>36248500</v>
       </c>
       <c r="G54" s="3">
-        <v>39730400</v>
+        <v>38033000</v>
       </c>
       <c r="H54" s="3">
-        <v>39564200</v>
+        <v>38258900</v>
       </c>
       <c r="I54" s="3">
-        <v>36571000</v>
+        <v>38098900</v>
       </c>
       <c r="J54" s="3">
+        <v>35216500</v>
+      </c>
+      <c r="K54" s="3">
         <v>35368900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33781800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34607100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32822600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33448100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36475000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35571100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38615900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37205900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37022200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38559200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40031400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3376,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3400,380 +3530,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1813300</v>
+        <v>1874100</v>
       </c>
       <c r="E57" s="3">
-        <v>1752800</v>
+        <v>1746100</v>
       </c>
       <c r="F57" s="3">
-        <v>1453700</v>
+        <v>1687900</v>
       </c>
       <c r="G57" s="3">
-        <v>1272500</v>
+        <v>1399800</v>
       </c>
       <c r="H57" s="3">
-        <v>1821200</v>
+        <v>1225400</v>
       </c>
       <c r="I57" s="3">
-        <v>2191100</v>
+        <v>1753800</v>
       </c>
       <c r="J57" s="3">
+        <v>2109900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1923100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1823000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1658600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1788400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1669000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1569200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1386700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1628500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1347100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1319700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1235200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1540900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1405900</v>
+        <v>1384100</v>
       </c>
       <c r="E58" s="3">
-        <v>1329300</v>
+        <v>1353800</v>
       </c>
       <c r="F58" s="3">
-        <v>1685000</v>
+        <v>1280100</v>
       </c>
       <c r="G58" s="3">
-        <v>2567100</v>
+        <v>1622600</v>
       </c>
       <c r="H58" s="3">
-        <v>1654300</v>
+        <v>2472000</v>
       </c>
       <c r="I58" s="3">
-        <v>1353300</v>
+        <v>1593000</v>
       </c>
       <c r="J58" s="3">
+        <v>1303200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1221700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1103800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1091500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1045200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2169300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1703100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1479900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1646200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1636800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1254200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1310400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1361600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2170900</v>
+        <v>1767600</v>
       </c>
       <c r="E59" s="3">
-        <v>1854100</v>
+        <v>2090500</v>
       </c>
       <c r="F59" s="3">
-        <v>2619000</v>
+        <v>1785500</v>
       </c>
       <c r="G59" s="3">
-        <v>3347400</v>
+        <v>2522000</v>
       </c>
       <c r="H59" s="3">
-        <v>4330500</v>
+        <v>3223500</v>
       </c>
       <c r="I59" s="3">
-        <v>2326100</v>
+        <v>4170100</v>
       </c>
       <c r="J59" s="3">
+        <v>2239900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1948300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2444200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4481500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2086300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2384800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3290800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2116200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2184600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2070100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2920300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2505200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5390100</v>
+        <v>5025700</v>
       </c>
       <c r="E60" s="3">
-        <v>4936300</v>
+        <v>5190400</v>
       </c>
       <c r="F60" s="3">
-        <v>5757700</v>
+        <v>4753400</v>
       </c>
       <c r="G60" s="3">
-        <v>7187000</v>
+        <v>5544400</v>
       </c>
       <c r="H60" s="3">
-        <v>7806100</v>
+        <v>6920800</v>
       </c>
       <c r="I60" s="3">
-        <v>5870400</v>
+        <v>7517000</v>
       </c>
       <c r="J60" s="3">
+        <v>5653000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5093100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5371000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7231700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4634400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5924600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5657100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6157300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5390900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5168500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4644100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5465900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5407800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>12065500</v>
+        <v>11631600</v>
       </c>
       <c r="E61" s="3">
-        <v>11288300</v>
+        <v>11618700</v>
       </c>
       <c r="F61" s="3">
-        <v>12753200</v>
+        <v>10870200</v>
       </c>
       <c r="G61" s="3">
-        <v>11923700</v>
+        <v>12280900</v>
       </c>
       <c r="H61" s="3">
-        <v>10888500</v>
+        <v>11482100</v>
       </c>
       <c r="I61" s="3">
-        <v>8971300</v>
+        <v>10485200</v>
       </c>
       <c r="J61" s="3">
+        <v>8639000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9688200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9012400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9095000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8851100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8601200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10695600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10807900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12289100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12638500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13502000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14821200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15871600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6515200</v>
+        <v>6394000</v>
       </c>
       <c r="E62" s="3">
-        <v>6346900</v>
+        <v>6273900</v>
       </c>
       <c r="F62" s="3">
-        <v>5548100</v>
+        <v>6111800</v>
       </c>
       <c r="G62" s="3">
-        <v>5597800</v>
+        <v>5342700</v>
       </c>
       <c r="H62" s="3">
-        <v>5647100</v>
+        <v>5390400</v>
       </c>
       <c r="I62" s="3">
-        <v>5436400</v>
+        <v>5437900</v>
       </c>
       <c r="J62" s="3">
+        <v>5235000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4019500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4026100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4060300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3917900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4026500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4451000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4256600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5005900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4070100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3843000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3738900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3796500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3834,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>24950200</v>
+        <v>24027400</v>
       </c>
       <c r="E66" s="3">
-        <v>23576900</v>
+        <v>24026100</v>
       </c>
       <c r="F66" s="3">
-        <v>25073000</v>
+        <v>22703700</v>
       </c>
       <c r="G66" s="3">
-        <v>25784700</v>
+        <v>24144300</v>
       </c>
       <c r="H66" s="3">
-        <v>25369000</v>
+        <v>24829700</v>
       </c>
       <c r="I66" s="3">
-        <v>21339600</v>
+        <v>24429400</v>
       </c>
       <c r="J66" s="3">
+        <v>20549300</v>
+      </c>
+      <c r="K66" s="3">
         <v>19382000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19002400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20923200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17947000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19039000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21376300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21713500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23288300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22436200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22579500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24545600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25619100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4044,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4106,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4168,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4230,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4292,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4043400</v>
+        <v>4862400</v>
       </c>
       <c r="E72" s="3">
-        <v>3398600</v>
+        <v>3893600</v>
       </c>
       <c r="F72" s="3">
-        <v>3216400</v>
+        <v>3272700</v>
       </c>
       <c r="G72" s="3">
-        <v>2985500</v>
+        <v>3097200</v>
       </c>
       <c r="H72" s="3">
-        <v>2978700</v>
+        <v>2874900</v>
       </c>
       <c r="I72" s="3">
-        <v>4941100</v>
+        <v>2868400</v>
       </c>
       <c r="J72" s="3">
+        <v>4758100</v>
+      </c>
+      <c r="K72" s="3">
         <v>4799200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3986200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3044700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4623800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4086800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3708300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2652600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3163800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2067600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1746600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1329000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1390300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4416,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4478,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4540,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>14721600</v>
+        <v>15298700</v>
       </c>
       <c r="E76" s="3">
-        <v>14065700</v>
+        <v>14176400</v>
       </c>
       <c r="F76" s="3">
-        <v>14422800</v>
+        <v>13544800</v>
       </c>
       <c r="G76" s="3">
-        <v>13945700</v>
+        <v>13888600</v>
       </c>
       <c r="H76" s="3">
-        <v>14195200</v>
+        <v>13429200</v>
       </c>
       <c r="I76" s="3">
-        <v>15231300</v>
+        <v>13669400</v>
       </c>
       <c r="J76" s="3">
+        <v>14667200</v>
+      </c>
+      <c r="K76" s="3">
         <v>15986900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14779400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13683900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14875500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14409100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15098700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13857600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15327600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14769700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14442700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14013600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14412400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4664,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>833200</v>
+        <v>968300</v>
       </c>
       <c r="E81" s="3">
-        <v>182300</v>
+        <v>802300</v>
       </c>
       <c r="F81" s="3">
-        <v>230900</v>
+        <v>175500</v>
       </c>
       <c r="G81" s="3">
-        <v>6800</v>
+        <v>222300</v>
       </c>
       <c r="H81" s="3">
-        <v>35900</v>
+        <v>6500</v>
       </c>
       <c r="I81" s="3">
-        <v>1082400</v>
+        <v>34600</v>
       </c>
       <c r="J81" s="3">
+        <v>1042300</v>
+      </c>
+      <c r="K81" s="3">
         <v>813000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>941500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>741000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>688300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>749200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1840300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>784400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1096500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>321100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>417500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>283500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>61400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4817,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>621600</v>
+        <v>622800</v>
       </c>
       <c r="E83" s="3">
-        <v>672800</v>
+        <v>598500</v>
       </c>
       <c r="F83" s="3">
-        <v>620700</v>
+        <v>647800</v>
       </c>
       <c r="G83" s="3">
-        <v>618200</v>
+        <v>597700</v>
       </c>
       <c r="H83" s="3">
-        <v>602000</v>
+        <v>595300</v>
       </c>
       <c r="I83" s="3">
-        <v>615000</v>
+        <v>579700</v>
       </c>
       <c r="J83" s="3">
+        <v>592200</v>
+      </c>
+      <c r="K83" s="3">
         <v>595600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>565200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>537500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>497000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>559000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1112400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>537300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>588000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>713800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>683300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>660300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>634300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4941,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5003,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5065,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5127,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5189,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>792000</v>
+        <v>861500</v>
       </c>
       <c r="E89" s="3">
-        <v>1440500</v>
+        <v>762700</v>
       </c>
       <c r="F89" s="3">
-        <v>952200</v>
+        <v>1387200</v>
       </c>
       <c r="G89" s="3">
-        <v>-606900</v>
+        <v>917000</v>
       </c>
       <c r="H89" s="3">
-        <v>694600</v>
+        <v>-584400</v>
       </c>
       <c r="I89" s="3">
-        <v>2042500</v>
+        <v>668800</v>
       </c>
       <c r="J89" s="3">
+        <v>1966900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2513500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1620900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1305300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1176500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2309500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2794100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1401900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2033100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1494000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>478900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1425500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1328000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5275,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-229500</v>
+        <v>-366100</v>
       </c>
       <c r="E91" s="3">
-        <v>-462500</v>
+        <v>-221000</v>
       </c>
       <c r="F91" s="3">
-        <v>-360900</v>
+        <v>-445400</v>
       </c>
       <c r="G91" s="3">
-        <v>-313100</v>
+        <v>-347600</v>
       </c>
       <c r="H91" s="3">
-        <v>-222200</v>
+        <v>-301500</v>
       </c>
       <c r="I91" s="3">
-        <v>-400500</v>
+        <v>-214000</v>
       </c>
       <c r="J91" s="3">
+        <v>-385700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-324300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-196700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-161900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-358000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-220300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-333000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-133100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-305300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-160000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-90800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-743300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5399,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5461,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-186800</v>
+        <v>-683500</v>
       </c>
       <c r="E94" s="3">
-        <v>-594800</v>
+        <v>-179900</v>
       </c>
       <c r="F94" s="3">
-        <v>-45900</v>
+        <v>-572800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1428800</v>
+        <v>-44200</v>
       </c>
       <c r="H94" s="3">
-        <v>-233300</v>
+        <v>-1375900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1228500</v>
+        <v>-224600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1183000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-712600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-475200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-293400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>130100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-973300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-623200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1472300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-834500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5547,70 +5780,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-45400</v>
+        <v>-255400</v>
       </c>
       <c r="E96" s="3">
-        <v>-941600</v>
+        <v>-43700</v>
       </c>
       <c r="F96" s="3">
-        <v>-785800</v>
+        <v>-906700</v>
       </c>
       <c r="G96" s="3">
-        <v>-515900</v>
+        <v>-756700</v>
       </c>
       <c r="H96" s="3">
-        <v>-115000</v>
+        <v>-496800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1028700</v>
+        <v>-110700</v>
       </c>
       <c r="J96" s="3">
+        <v>-990600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-832000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-89800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-36500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-494600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-736600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-73500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-63900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-53900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-327100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-36600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-105500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5733,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5795,190 +6038,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-210300</v>
+        <v>-628200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1459900</v>
+        <v>-202500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1292500</v>
+        <v>-1405800</v>
       </c>
       <c r="G100" s="3">
-        <v>2319600</v>
+        <v>-1244600</v>
       </c>
       <c r="H100" s="3">
-        <v>-277000</v>
+        <v>2233600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1309800</v>
+        <v>-266700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1261300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-954100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-274300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-273900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-877700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-278100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-294000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-314200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>38600</v>
+        <v>17000</v>
       </c>
       <c r="E101" s="3">
-        <v>-127300</v>
+        <v>37100</v>
       </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>-122600</v>
       </c>
       <c r="G101" s="3">
-        <v>-162200</v>
+        <v>2900</v>
       </c>
       <c r="H101" s="3">
-        <v>280500</v>
+        <v>-156200</v>
       </c>
       <c r="I101" s="3">
-        <v>-40300</v>
+        <v>270100</v>
       </c>
       <c r="J101" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="K101" s="3">
         <v>108200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>30500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-28500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>107900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>51800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-60100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-72400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-78800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>69600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-93500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>51000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>433400</v>
+        <v>-433200</v>
       </c>
       <c r="E102" s="3">
-        <v>-741500</v>
+        <v>417400</v>
       </c>
       <c r="F102" s="3">
-        <v>-383200</v>
+        <v>-714100</v>
       </c>
       <c r="G102" s="3">
-        <v>121700</v>
+        <v>-369000</v>
       </c>
       <c r="H102" s="3">
-        <v>464800</v>
+        <v>117200</v>
       </c>
       <c r="I102" s="3">
-        <v>-536100</v>
+        <v>447600</v>
       </c>
       <c r="J102" s="3">
+        <v>-516200</v>
+      </c>
+      <c r="K102" s="3">
         <v>955000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-921700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>709100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-210300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>211400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-482500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>513900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-613900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-78600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>230300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,295 +662,308 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5055500</v>
+        <v>5833200</v>
       </c>
       <c r="E8" s="3">
-        <v>4473600</v>
+        <v>4861100</v>
       </c>
       <c r="F8" s="3">
-        <v>3689400</v>
+        <v>4301500</v>
       </c>
       <c r="G8" s="3">
-        <v>3203900</v>
+        <v>3547500</v>
       </c>
       <c r="H8" s="3">
-        <v>2194800</v>
+        <v>3080700</v>
       </c>
       <c r="I8" s="3">
-        <v>3918700</v>
+        <v>2110400</v>
       </c>
       <c r="J8" s="3">
+        <v>3768000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4831100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4863900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4943300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4304500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4761700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4826500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9488900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4392800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4916200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4263900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4208300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4278900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4393300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2972200</v>
+        <v>3626500</v>
       </c>
       <c r="E9" s="3">
-        <v>2733100</v>
+        <v>2857900</v>
       </c>
       <c r="F9" s="3">
-        <v>2679700</v>
+        <v>2628000</v>
       </c>
       <c r="G9" s="3">
-        <v>2169400</v>
+        <v>2576700</v>
       </c>
       <c r="H9" s="3">
-        <v>1980000</v>
+        <v>2085900</v>
       </c>
       <c r="I9" s="3">
-        <v>2934600</v>
+        <v>1903800</v>
       </c>
       <c r="J9" s="3">
+        <v>2821700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3190200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3034900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3027600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2763200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3105100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2868100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5581200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2654000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3118400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2808700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2952200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2926600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3202400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2083300</v>
+        <v>2206700</v>
       </c>
       <c r="E10" s="3">
-        <v>1740400</v>
+        <v>2003200</v>
       </c>
       <c r="F10" s="3">
-        <v>1009700</v>
+        <v>1673500</v>
       </c>
       <c r="G10" s="3">
-        <v>1034600</v>
+        <v>970800</v>
       </c>
       <c r="H10" s="3">
-        <v>214800</v>
+        <v>994800</v>
       </c>
       <c r="I10" s="3">
-        <v>984100</v>
+        <v>206600</v>
       </c>
       <c r="J10" s="3">
+        <v>946300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1641000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1829000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1915700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1541300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1656600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1958400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3907700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1738700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1797800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1455200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1256100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1352300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1190900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,73 +987,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>17500</v>
+        <v>75200</v>
       </c>
       <c r="E12" s="3">
-        <v>43700</v>
+        <v>16800</v>
       </c>
       <c r="F12" s="3">
-        <v>107200</v>
+        <v>42000</v>
       </c>
       <c r="G12" s="3">
-        <v>25800</v>
+        <v>103100</v>
       </c>
       <c r="H12" s="3">
-        <v>36400</v>
+        <v>24800</v>
       </c>
       <c r="I12" s="3">
-        <v>9800</v>
+        <v>35000</v>
       </c>
       <c r="J12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K12" s="3">
         <v>103000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>66900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>50300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>271600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>56400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>292200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>103900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>24700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>96800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,138 +1121,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>3400</v>
-      </c>
       <c r="F14" s="3">
-        <v>-144300</v>
+        <v>3300</v>
       </c>
       <c r="G14" s="3">
+        <v>-138700</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>-356200</v>
-      </c>
       <c r="I14" s="3">
-        <v>314200</v>
+        <v>-342500</v>
       </c>
       <c r="J14" s="3">
+        <v>302200</v>
+      </c>
+      <c r="K14" s="3">
         <v>187600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>149000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-26200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-34600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-556400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-12900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>244000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>17500</v>
+        <v>14300</v>
       </c>
       <c r="E15" s="3">
         <v>16800</v>
       </c>
       <c r="F15" s="3">
-        <v>49700</v>
+        <v>16200</v>
       </c>
       <c r="G15" s="3">
-        <v>3300</v>
+        <v>47800</v>
       </c>
       <c r="H15" s="3">
-        <v>14000</v>
+        <v>3200</v>
       </c>
       <c r="I15" s="3">
-        <v>20000</v>
+        <v>13400</v>
       </c>
       <c r="J15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K15" s="3">
         <v>46000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>15000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>16400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3350800</v>
+        <v>4057600</v>
       </c>
       <c r="E17" s="3">
-        <v>3040100</v>
+        <v>3221900</v>
       </c>
       <c r="F17" s="3">
-        <v>3161800</v>
+        <v>2923200</v>
       </c>
       <c r="G17" s="3">
-        <v>2513100</v>
+        <v>3040200</v>
       </c>
       <c r="H17" s="3">
-        <v>1979600</v>
+        <v>2416400</v>
       </c>
       <c r="I17" s="3">
-        <v>3529200</v>
+        <v>1903500</v>
       </c>
       <c r="J17" s="3">
+        <v>3393400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3845900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3321700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3334800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2966200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3593200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6019600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2838800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3111000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3162600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3223200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3854400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1704700</v>
+        <v>1775600</v>
       </c>
       <c r="E18" s="3">
-        <v>1433500</v>
+        <v>1639100</v>
       </c>
       <c r="F18" s="3">
-        <v>527600</v>
+        <v>1378300</v>
       </c>
       <c r="G18" s="3">
-        <v>690800</v>
+        <v>507300</v>
       </c>
       <c r="H18" s="3">
-        <v>215200</v>
+        <v>664300</v>
       </c>
       <c r="I18" s="3">
-        <v>389600</v>
+        <v>206900</v>
       </c>
       <c r="J18" s="3">
+        <v>374600</v>
+      </c>
+      <c r="K18" s="3">
         <v>985200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1542100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1608600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1338300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1168600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1526200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3469300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1554000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1805100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1063300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1045700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1055600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>538900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,333 +1444,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-42200</v>
+        <v>28900</v>
       </c>
       <c r="E20" s="3">
-        <v>-10400</v>
+        <v>-40600</v>
       </c>
       <c r="F20" s="3">
-        <v>87000</v>
+        <v>-10000</v>
       </c>
       <c r="G20" s="3">
-        <v>-76400</v>
+        <v>83600</v>
       </c>
       <c r="H20" s="3">
-        <v>34200</v>
+        <v>-73500</v>
       </c>
       <c r="I20" s="3">
-        <v>-47000</v>
+        <v>32900</v>
       </c>
       <c r="J20" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K20" s="3">
         <v>80100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-31700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>43400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>61300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>83200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>45700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-58800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>117200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-111000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>291700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2285300</v>
+        <v>2476100</v>
       </c>
       <c r="E21" s="3">
-        <v>2021600</v>
+        <v>2197400</v>
       </c>
       <c r="F21" s="3">
-        <v>1262400</v>
+        <v>1943900</v>
       </c>
       <c r="G21" s="3">
-        <v>1212100</v>
+        <v>1213800</v>
       </c>
       <c r="H21" s="3">
-        <v>844600</v>
+        <v>1165500</v>
       </c>
       <c r="I21" s="3">
-        <v>922300</v>
+        <v>812200</v>
       </c>
       <c r="J21" s="3">
+        <v>886800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1657500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2106000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2217200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1937100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1748700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2104600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4627400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2118200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2411200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1718300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1846200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1604900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1464900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>157900</v>
+        <v>175400</v>
       </c>
       <c r="E22" s="3">
-        <v>145300</v>
+        <v>151800</v>
       </c>
       <c r="F22" s="3">
-        <v>155600</v>
+        <v>139700</v>
       </c>
       <c r="G22" s="3">
-        <v>168300</v>
+        <v>149600</v>
       </c>
       <c r="H22" s="3">
-        <v>169800</v>
+        <v>161900</v>
       </c>
       <c r="I22" s="3">
-        <v>126200</v>
+        <v>163300</v>
       </c>
       <c r="J22" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K22" s="3">
         <v>127000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>128100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>129500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>122000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>183100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>144600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>347900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>171800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>206800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>198200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>153300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>205200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>226800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1504500</v>
+        <v>1629100</v>
       </c>
       <c r="E23" s="3">
-        <v>1277800</v>
+        <v>1446700</v>
       </c>
       <c r="F23" s="3">
-        <v>459000</v>
+        <v>1228700</v>
       </c>
       <c r="G23" s="3">
-        <v>446100</v>
+        <v>441300</v>
       </c>
       <c r="H23" s="3">
-        <v>79600</v>
+        <v>428900</v>
       </c>
       <c r="I23" s="3">
-        <v>216300</v>
+        <v>76500</v>
       </c>
       <c r="J23" s="3">
+        <v>208000</v>
+      </c>
+      <c r="K23" s="3">
         <v>938200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1382300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1522500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1277600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1068600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1401000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3167100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1409100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1616500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>806300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1009600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>739400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>603800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>459600</v>
+        <v>548500</v>
       </c>
       <c r="E24" s="3">
-        <v>399500</v>
+        <v>441900</v>
       </c>
       <c r="F24" s="3">
-        <v>220800</v>
+        <v>384200</v>
       </c>
       <c r="G24" s="3">
-        <v>148500</v>
+        <v>212300</v>
       </c>
       <c r="H24" s="3">
+        <v>142800</v>
+      </c>
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
-        <v>91500</v>
-      </c>
       <c r="J24" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-186900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>477900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>505400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>451800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>303400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>589000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1192000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>564000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>457200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>414600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>535100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>396300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>485600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1045000</v>
+        <v>1080600</v>
       </c>
       <c r="E26" s="3">
-        <v>878300</v>
+        <v>1004800</v>
       </c>
       <c r="F26" s="3">
-        <v>238200</v>
+        <v>844500</v>
       </c>
       <c r="G26" s="3">
-        <v>297500</v>
+        <v>229000</v>
       </c>
       <c r="H26" s="3">
-        <v>78400</v>
+        <v>286100</v>
       </c>
       <c r="I26" s="3">
-        <v>124800</v>
+        <v>75400</v>
       </c>
       <c r="J26" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1125100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>904500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1017100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>825800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>765200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>811900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1975100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>845100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1159300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>391700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>474500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>343200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>118200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>968300</v>
+        <v>951800</v>
       </c>
       <c r="E27" s="3">
-        <v>802300</v>
+        <v>931100</v>
       </c>
       <c r="F27" s="3">
-        <v>175500</v>
+        <v>771500</v>
       </c>
       <c r="G27" s="3">
-        <v>222300</v>
+        <v>168800</v>
       </c>
       <c r="H27" s="3">
-        <v>6500</v>
+        <v>213800</v>
       </c>
       <c r="I27" s="3">
-        <v>34600</v>
+        <v>6300</v>
       </c>
       <c r="J27" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1042300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>813000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>941500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>741000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>688300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>749200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1840300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>784400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1096500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>321100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>417500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>283500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>61400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2122,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>42200</v>
+        <v>-28900</v>
       </c>
       <c r="E32" s="3">
-        <v>10400</v>
+        <v>40600</v>
       </c>
       <c r="F32" s="3">
-        <v>-87000</v>
+        <v>10000</v>
       </c>
       <c r="G32" s="3">
-        <v>76400</v>
+        <v>-83600</v>
       </c>
       <c r="H32" s="3">
-        <v>-34200</v>
+        <v>73500</v>
       </c>
       <c r="I32" s="3">
-        <v>47000</v>
+        <v>-32900</v>
       </c>
       <c r="J32" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-80100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>31700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-43400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-61300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-83200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>58800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-117200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>111000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-291700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>968300</v>
+        <v>951800</v>
       </c>
       <c r="E33" s="3">
-        <v>802300</v>
+        <v>931100</v>
       </c>
       <c r="F33" s="3">
-        <v>175500</v>
+        <v>771500</v>
       </c>
       <c r="G33" s="3">
-        <v>222300</v>
+        <v>168800</v>
       </c>
       <c r="H33" s="3">
-        <v>6500</v>
+        <v>213800</v>
       </c>
       <c r="I33" s="3">
-        <v>34600</v>
+        <v>6300</v>
       </c>
       <c r="J33" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1042300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>813000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>941500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>741000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>688300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>749200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1840300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>784400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1096500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>321100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>417500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>283500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>61400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2386,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>968300</v>
+        <v>951800</v>
       </c>
       <c r="E35" s="3">
-        <v>802300</v>
+        <v>931100</v>
       </c>
       <c r="F35" s="3">
-        <v>175500</v>
+        <v>771500</v>
       </c>
       <c r="G35" s="3">
-        <v>222300</v>
+        <v>168800</v>
       </c>
       <c r="H35" s="3">
-        <v>6500</v>
+        <v>213800</v>
       </c>
       <c r="I35" s="3">
-        <v>34600</v>
+        <v>6300</v>
       </c>
       <c r="J35" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1042300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>813000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>941500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>741000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>688300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>749200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1840300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>784400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1096500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>321100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>417500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>283500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>61400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2546,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2571,593 +2657,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1305600</v>
+        <v>2521700</v>
       </c>
       <c r="E41" s="3">
-        <v>1738800</v>
+        <v>1255400</v>
       </c>
       <c r="F41" s="3">
-        <v>1321400</v>
+        <v>1671900</v>
       </c>
       <c r="G41" s="3">
-        <v>2035500</v>
+        <v>1270600</v>
       </c>
       <c r="H41" s="3">
-        <v>2404500</v>
+        <v>1957200</v>
       </c>
       <c r="I41" s="3">
-        <v>2287300</v>
+        <v>2312000</v>
       </c>
       <c r="J41" s="3">
+        <v>2199300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1839700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2446500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1491500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2413200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1641100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1922600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1901200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2359900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1755700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1832500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1501600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1561700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1095700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>126800</v>
+        <v>531000</v>
       </c>
       <c r="E42" s="3">
-        <v>194200</v>
+        <v>121900</v>
       </c>
       <c r="F42" s="3">
-        <v>627300</v>
+        <v>186700</v>
       </c>
       <c r="G42" s="3">
-        <v>909100</v>
+        <v>603200</v>
       </c>
       <c r="H42" s="3">
-        <v>1083100</v>
+        <v>874100</v>
       </c>
       <c r="I42" s="3">
-        <v>247600</v>
+        <v>1041500</v>
       </c>
       <c r="J42" s="3">
+        <v>238100</v>
+      </c>
+      <c r="K42" s="3">
         <v>459900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>662000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>906600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1349100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1383500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2042100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1878800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1325000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1736700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1560200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1118400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3310400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3450900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4093800</v>
+        <v>6024300</v>
       </c>
       <c r="E43" s="3">
-        <v>3163400</v>
+        <v>3936300</v>
       </c>
       <c r="F43" s="3">
-        <v>2427500</v>
+        <v>3041800</v>
       </c>
       <c r="G43" s="3">
-        <v>2272700</v>
+        <v>2334200</v>
       </c>
       <c r="H43" s="3">
-        <v>2231100</v>
+        <v>2185300</v>
       </c>
       <c r="I43" s="3">
-        <v>1806900</v>
+        <v>2145300</v>
       </c>
       <c r="J43" s="3">
+        <v>1737400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2131500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2049800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2634900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2725700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2538700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2350500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2628100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2269200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2341000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1978600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1905300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1705700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2007700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1866100</v>
+        <v>2269600</v>
       </c>
       <c r="E44" s="3">
-        <v>1666000</v>
+        <v>1794300</v>
       </c>
       <c r="F44" s="3">
-        <v>1314000</v>
+        <v>1601900</v>
       </c>
       <c r="G44" s="3">
-        <v>1432700</v>
+        <v>1263500</v>
       </c>
       <c r="H44" s="3">
-        <v>1309100</v>
+        <v>1377600</v>
       </c>
       <c r="I44" s="3">
-        <v>1511100</v>
+        <v>1258700</v>
       </c>
       <c r="J44" s="3">
+        <v>1452900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1471100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1594800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1580600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1479100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1326100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1461500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1641500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1478800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1472400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1512100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1366100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1385800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1267800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>217800</v>
+        <v>407500</v>
       </c>
       <c r="E45" s="3">
-        <v>277400</v>
+        <v>209400</v>
       </c>
       <c r="F45" s="3">
-        <v>246700</v>
+        <v>266700</v>
       </c>
       <c r="G45" s="3">
-        <v>306400</v>
+        <v>237200</v>
       </c>
       <c r="H45" s="3">
-        <v>235000</v>
+        <v>294700</v>
       </c>
       <c r="I45" s="3">
-        <v>304500</v>
+        <v>225900</v>
       </c>
       <c r="J45" s="3">
+        <v>292800</v>
+      </c>
+      <c r="K45" s="3">
         <v>172500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>196300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>144400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>146700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>138600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>131000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>125000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>131300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>125800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>180600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>191400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>169900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>140500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7610100</v>
+        <v>11754100</v>
       </c>
       <c r="E46" s="3">
-        <v>7039800</v>
+        <v>7317400</v>
       </c>
       <c r="F46" s="3">
-        <v>5936900</v>
+        <v>6769000</v>
       </c>
       <c r="G46" s="3">
-        <v>6956300</v>
+        <v>5708600</v>
       </c>
       <c r="H46" s="3">
-        <v>7262700</v>
+        <v>6688800</v>
       </c>
       <c r="I46" s="3">
-        <v>6157500</v>
+        <v>6983400</v>
       </c>
       <c r="J46" s="3">
+        <v>5920600</v>
+      </c>
+      <c r="K46" s="3">
         <v>6074800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6949500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6758000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8113900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7028000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7907800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8174700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7564200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7431700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7064000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6082800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8133400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7962600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1363000</v>
+        <v>8231900</v>
       </c>
       <c r="E47" s="3">
-        <v>1256800</v>
+        <v>1310600</v>
       </c>
       <c r="F47" s="3">
-        <v>1229300</v>
+        <v>1208500</v>
       </c>
       <c r="G47" s="3">
-        <v>1309700</v>
+        <v>1182100</v>
       </c>
       <c r="H47" s="3">
-        <v>1572000</v>
+        <v>1259300</v>
       </c>
       <c r="I47" s="3">
-        <v>1642600</v>
+        <v>1511500</v>
       </c>
       <c r="J47" s="3">
+        <v>1579400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1920700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1956400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1743300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1335500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1410900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1531900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1627300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1929500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1815500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1384000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1419900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1466400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1205600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>26771900</v>
+        <v>29210100</v>
       </c>
       <c r="E48" s="3">
-        <v>26402200</v>
+        <v>25742200</v>
       </c>
       <c r="F48" s="3">
-        <v>25693300</v>
+        <v>25386700</v>
       </c>
       <c r="G48" s="3">
-        <v>26100100</v>
+        <v>24705100</v>
       </c>
       <c r="H48" s="3">
-        <v>25975900</v>
+        <v>25096200</v>
       </c>
       <c r="I48" s="3">
-        <v>26598600</v>
+        <v>24976900</v>
       </c>
       <c r="J48" s="3">
+        <v>25575500</v>
+      </c>
+      <c r="K48" s="3">
         <v>24369500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24227100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23212000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23085100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22319900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22118800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24635700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24041100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26453800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>25781800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>26507600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>26236200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27921300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>505000</v>
+        <v>7541400</v>
       </c>
       <c r="E49" s="3">
-        <v>498600</v>
+        <v>485500</v>
       </c>
       <c r="F49" s="3">
-        <v>496300</v>
+        <v>479500</v>
       </c>
       <c r="G49" s="3">
-        <v>499300</v>
+        <v>477200</v>
       </c>
       <c r="H49" s="3">
-        <v>387000</v>
+        <v>480100</v>
       </c>
       <c r="I49" s="3">
-        <v>397400</v>
+        <v>372100</v>
       </c>
       <c r="J49" s="3">
+        <v>382100</v>
+      </c>
+      <c r="K49" s="3">
         <v>364700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>355300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>354900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>361500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>345800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>354300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>383600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>384100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>415900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>404900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>375200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>380300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>393200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3221,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3286,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3076100</v>
+        <v>3570900</v>
       </c>
       <c r="E52" s="3">
-        <v>3005100</v>
+        <v>2957800</v>
       </c>
       <c r="F52" s="3">
-        <v>2892600</v>
+        <v>2889500</v>
       </c>
       <c r="G52" s="3">
-        <v>3167500</v>
+        <v>2781300</v>
       </c>
       <c r="H52" s="3">
-        <v>3061300</v>
+        <v>3045700</v>
       </c>
       <c r="I52" s="3">
-        <v>3302800</v>
+        <v>2943500</v>
       </c>
       <c r="J52" s="3">
+        <v>3175800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2486900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1880600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1713700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1711100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1717900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1535300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1653700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1652100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2499000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2571300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2636600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2342900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2548600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3416,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>39326100</v>
+        <v>60308400</v>
       </c>
       <c r="E54" s="3">
-        <v>38202500</v>
+        <v>37813600</v>
       </c>
       <c r="F54" s="3">
-        <v>36248500</v>
+        <v>36733100</v>
       </c>
       <c r="G54" s="3">
-        <v>38033000</v>
+        <v>34854300</v>
       </c>
       <c r="H54" s="3">
-        <v>38258900</v>
+        <v>36570100</v>
       </c>
       <c r="I54" s="3">
-        <v>38098900</v>
+        <v>36787500</v>
       </c>
       <c r="J54" s="3">
+        <v>36633500</v>
+      </c>
+      <c r="K54" s="3">
         <v>35216500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35368900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33781800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34607100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32822600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33448100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36475000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35571100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38615900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37205900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37022200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38559200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40031400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3506,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3531,398 +3661,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1874100</v>
+        <v>2100700</v>
       </c>
       <c r="E57" s="3">
-        <v>1746100</v>
+        <v>1802000</v>
       </c>
       <c r="F57" s="3">
-        <v>1687900</v>
+        <v>1679000</v>
       </c>
       <c r="G57" s="3">
-        <v>1399800</v>
+        <v>1623000</v>
       </c>
       <c r="H57" s="3">
-        <v>1225400</v>
+        <v>1346000</v>
       </c>
       <c r="I57" s="3">
-        <v>1753800</v>
+        <v>1178200</v>
       </c>
       <c r="J57" s="3">
+        <v>1686300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2109900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1923100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1823000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1658600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1788400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1669000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1569200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1386700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1628500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1347100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1319700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1235200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1540900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1384100</v>
+        <v>2163500</v>
       </c>
       <c r="E58" s="3">
-        <v>1353800</v>
+        <v>1330900</v>
       </c>
       <c r="F58" s="3">
-        <v>1280100</v>
+        <v>1301700</v>
       </c>
       <c r="G58" s="3">
-        <v>1622600</v>
+        <v>1230800</v>
       </c>
       <c r="H58" s="3">
-        <v>2472000</v>
+        <v>1560200</v>
       </c>
       <c r="I58" s="3">
-        <v>1593000</v>
+        <v>2376900</v>
       </c>
       <c r="J58" s="3">
+        <v>1531800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1303200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1221700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1103800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1091500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1045200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2169300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1703100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1479900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1646200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1636800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1254200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1310400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1361600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1767600</v>
+        <v>2706000</v>
       </c>
       <c r="E59" s="3">
-        <v>2090500</v>
+        <v>1699600</v>
       </c>
       <c r="F59" s="3">
-        <v>1785500</v>
+        <v>2010100</v>
       </c>
       <c r="G59" s="3">
-        <v>2522000</v>
+        <v>1716800</v>
       </c>
       <c r="H59" s="3">
-        <v>3223500</v>
+        <v>2425000</v>
       </c>
       <c r="I59" s="3">
-        <v>4170100</v>
+        <v>3099500</v>
       </c>
       <c r="J59" s="3">
+        <v>4009700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2239900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1948300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2444200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4481500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2086300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2384800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3290800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2116200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2184600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2070100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2920300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2505200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5025700</v>
+        <v>6970200</v>
       </c>
       <c r="E60" s="3">
-        <v>5190400</v>
+        <v>4832400</v>
       </c>
       <c r="F60" s="3">
-        <v>4753400</v>
+        <v>4990800</v>
       </c>
       <c r="G60" s="3">
-        <v>5544400</v>
+        <v>4570600</v>
       </c>
       <c r="H60" s="3">
-        <v>6920800</v>
+        <v>5331200</v>
       </c>
       <c r="I60" s="3">
-        <v>7517000</v>
+        <v>6654700</v>
       </c>
       <c r="J60" s="3">
+        <v>7227800</v>
+      </c>
+      <c r="K60" s="3">
         <v>5653000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5093100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5371000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7231700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4634400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5924600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5657100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6157300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5390900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5168500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4644100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5465900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5407800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>11631600</v>
+        <v>20806200</v>
       </c>
       <c r="E61" s="3">
-        <v>11618700</v>
+        <v>11184300</v>
       </c>
       <c r="F61" s="3">
-        <v>10870200</v>
+        <v>11171800</v>
       </c>
       <c r="G61" s="3">
-        <v>12280900</v>
+        <v>10452100</v>
       </c>
       <c r="H61" s="3">
-        <v>11482100</v>
+        <v>11808500</v>
       </c>
       <c r="I61" s="3">
-        <v>10485200</v>
+        <v>11040500</v>
       </c>
       <c r="J61" s="3">
+        <v>10081900</v>
+      </c>
+      <c r="K61" s="3">
         <v>8639000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9688200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9012400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9095000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8851100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8601200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10695600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10807900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12289100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12638500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13502000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14821200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15871600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>6394000</v>
+        <v>9085000</v>
       </c>
       <c r="E62" s="3">
-        <v>6273900</v>
+        <v>6148100</v>
       </c>
       <c r="F62" s="3">
-        <v>6111800</v>
+        <v>6032600</v>
       </c>
       <c r="G62" s="3">
-        <v>5342700</v>
+        <v>5876700</v>
       </c>
       <c r="H62" s="3">
-        <v>5390400</v>
+        <v>5137200</v>
       </c>
       <c r="I62" s="3">
-        <v>5437900</v>
+        <v>5183100</v>
       </c>
       <c r="J62" s="3">
+        <v>5228800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5235000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4019500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4026100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4060300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3917900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4026500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4451000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4256600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5005900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4070100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3843000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3738900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3796500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3986,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4116,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>24027400</v>
+        <v>44559700</v>
       </c>
       <c r="E66" s="3">
-        <v>24026100</v>
+        <v>23103300</v>
       </c>
       <c r="F66" s="3">
-        <v>22703700</v>
+        <v>23102000</v>
       </c>
       <c r="G66" s="3">
-        <v>24144300</v>
+        <v>21830500</v>
       </c>
       <c r="H66" s="3">
-        <v>24829700</v>
+        <v>23215700</v>
       </c>
       <c r="I66" s="3">
-        <v>24429400</v>
+        <v>23874700</v>
       </c>
       <c r="J66" s="3">
+        <v>23489800</v>
+      </c>
+      <c r="K66" s="3">
         <v>20549300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19382000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19002400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20923200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17947000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19039000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21376300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21713500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23288300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22436200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22579500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24545600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25619100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4206,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4271,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4336,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4401,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4466,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4862400</v>
+        <v>5627200</v>
       </c>
       <c r="E72" s="3">
-        <v>3893600</v>
+        <v>4675400</v>
       </c>
       <c r="F72" s="3">
-        <v>3272700</v>
+        <v>3743800</v>
       </c>
       <c r="G72" s="3">
-        <v>3097200</v>
+        <v>3146900</v>
       </c>
       <c r="H72" s="3">
-        <v>2874900</v>
+        <v>2978100</v>
       </c>
       <c r="I72" s="3">
-        <v>2868400</v>
+        <v>2764400</v>
       </c>
       <c r="J72" s="3">
+        <v>2758100</v>
+      </c>
+      <c r="K72" s="3">
         <v>4758100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4799200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3986200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3044700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4623800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4086800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3708300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2652600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3163800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2067600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1746600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1329000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1390300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4596,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4661,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4726,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>15298700</v>
+        <v>15748700</v>
       </c>
       <c r="E76" s="3">
-        <v>14176400</v>
+        <v>14710300</v>
       </c>
       <c r="F76" s="3">
-        <v>13544800</v>
+        <v>13631100</v>
       </c>
       <c r="G76" s="3">
-        <v>13888600</v>
+        <v>13023800</v>
       </c>
       <c r="H76" s="3">
-        <v>13429200</v>
+        <v>13354500</v>
       </c>
       <c r="I76" s="3">
-        <v>13669400</v>
+        <v>12912700</v>
       </c>
       <c r="J76" s="3">
+        <v>13143700</v>
+      </c>
+      <c r="K76" s="3">
         <v>14667200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15986900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14779400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13683900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14875500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14409100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15098700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13857600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15327600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14769700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14442700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14013600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14412400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4856,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>968300</v>
+        <v>951800</v>
       </c>
       <c r="E81" s="3">
-        <v>802300</v>
+        <v>931100</v>
       </c>
       <c r="F81" s="3">
-        <v>175500</v>
+        <v>771500</v>
       </c>
       <c r="G81" s="3">
-        <v>222300</v>
+        <v>168800</v>
       </c>
       <c r="H81" s="3">
-        <v>6500</v>
+        <v>213800</v>
       </c>
       <c r="I81" s="3">
-        <v>34600</v>
+        <v>6300</v>
       </c>
       <c r="J81" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1042300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>813000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>941500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>741000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>688300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>749200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1840300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>784400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1096500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>321100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>417500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>283500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>61400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5016,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>622800</v>
+        <v>671600</v>
       </c>
       <c r="E83" s="3">
-        <v>598500</v>
+        <v>598900</v>
       </c>
       <c r="F83" s="3">
-        <v>647800</v>
+        <v>575500</v>
       </c>
       <c r="G83" s="3">
-        <v>597700</v>
+        <v>622900</v>
       </c>
       <c r="H83" s="3">
-        <v>595300</v>
+        <v>574700</v>
       </c>
       <c r="I83" s="3">
-        <v>579700</v>
+        <v>572400</v>
       </c>
       <c r="J83" s="3">
+        <v>557400</v>
+      </c>
+      <c r="K83" s="3">
         <v>592200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>595600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>565200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>537500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>497000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>559000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1112400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>537300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>588000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>713800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>683300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>660300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>634300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5146,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5211,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5276,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5341,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5406,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>861500</v>
+        <v>1319900</v>
       </c>
       <c r="E89" s="3">
-        <v>762700</v>
+        <v>828400</v>
       </c>
       <c r="F89" s="3">
-        <v>1387200</v>
+        <v>733300</v>
       </c>
       <c r="G89" s="3">
-        <v>917000</v>
+        <v>1333800</v>
       </c>
       <c r="H89" s="3">
-        <v>-584400</v>
+        <v>881700</v>
       </c>
       <c r="I89" s="3">
-        <v>668800</v>
+        <v>-562000</v>
       </c>
       <c r="J89" s="3">
+        <v>643100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1966900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2513500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1620900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1305300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1176500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2309500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2794100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1401900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2033100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1494000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>478900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1425500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1328000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5496,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-366100</v>
+        <v>-431300</v>
       </c>
       <c r="E91" s="3">
-        <v>-221000</v>
+        <v>-352000</v>
       </c>
       <c r="F91" s="3">
-        <v>-445400</v>
+        <v>-212500</v>
       </c>
       <c r="G91" s="3">
-        <v>-347600</v>
+        <v>-428200</v>
       </c>
       <c r="H91" s="3">
-        <v>-301500</v>
+        <v>-334200</v>
       </c>
       <c r="I91" s="3">
-        <v>-214000</v>
+        <v>-289900</v>
       </c>
       <c r="J91" s="3">
+        <v>-205700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-385700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-324300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-196700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-161900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-358000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-220300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-333000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-133100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-305300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-160000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-90800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-743300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5626,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5691,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-683500</v>
+        <v>-3344400</v>
       </c>
       <c r="E94" s="3">
-        <v>-179900</v>
+        <v>-657200</v>
       </c>
       <c r="F94" s="3">
-        <v>-572800</v>
+        <v>-173000</v>
       </c>
       <c r="G94" s="3">
-        <v>-44200</v>
+        <v>-550700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1375900</v>
+        <v>-42500</v>
       </c>
       <c r="I94" s="3">
-        <v>-224600</v>
+        <v>-1322900</v>
       </c>
       <c r="J94" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1183000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-712600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-475200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-293400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>130100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-973300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-623200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1472300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-834500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5781,73 +6014,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-255400</v>
+        <v>-68500</v>
       </c>
       <c r="E96" s="3">
-        <v>-43700</v>
+        <v>-245600</v>
       </c>
       <c r="F96" s="3">
-        <v>-906700</v>
+        <v>-42000</v>
       </c>
       <c r="G96" s="3">
-        <v>-756700</v>
+        <v>-871900</v>
       </c>
       <c r="H96" s="3">
-        <v>-496800</v>
+        <v>-727600</v>
       </c>
       <c r="I96" s="3">
-        <v>-110700</v>
+        <v>-477700</v>
       </c>
       <c r="J96" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-990600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-832000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-89800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-36500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-494600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-736600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-73500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-63900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-53900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-327100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-36600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-105500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5911,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5976,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6041,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-628200</v>
+        <v>3303000</v>
       </c>
       <c r="E100" s="3">
-        <v>-202500</v>
+        <v>-604100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1405800</v>
+        <v>-194800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1244600</v>
+        <v>-1351800</v>
       </c>
       <c r="H100" s="3">
-        <v>2233600</v>
+        <v>-1196800</v>
       </c>
       <c r="I100" s="3">
-        <v>-266700</v>
+        <v>2147700</v>
       </c>
       <c r="J100" s="3">
+        <v>-256500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1261300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-954100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-274300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-273900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-877700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-278100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-294000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-314200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>17000</v>
+        <v>-12200</v>
       </c>
       <c r="E101" s="3">
-        <v>37100</v>
+        <v>16300</v>
       </c>
       <c r="F101" s="3">
-        <v>-122600</v>
+        <v>35700</v>
       </c>
       <c r="G101" s="3">
-        <v>2900</v>
+        <v>-117900</v>
       </c>
       <c r="H101" s="3">
-        <v>-156200</v>
+        <v>2800</v>
       </c>
       <c r="I101" s="3">
-        <v>270100</v>
+        <v>-150100</v>
       </c>
       <c r="J101" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-38800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>108200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>30500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>107900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>51800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-60100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-72400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-78800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>69600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-93500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>51000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-433200</v>
+        <v>1266300</v>
       </c>
       <c r="E102" s="3">
-        <v>417400</v>
+        <v>-416500</v>
       </c>
       <c r="F102" s="3">
-        <v>-714100</v>
+        <v>401300</v>
       </c>
       <c r="G102" s="3">
-        <v>-369000</v>
+        <v>-686600</v>
       </c>
       <c r="H102" s="3">
-        <v>117200</v>
+        <v>-354800</v>
       </c>
       <c r="I102" s="3">
-        <v>447600</v>
+        <v>112700</v>
       </c>
       <c r="J102" s="3">
+        <v>430400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-516200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>955000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-921700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>709100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-210300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>211400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-482500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>30000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>513900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-613900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-78600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>230300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -764,25 +764,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5833200</v>
+        <v>6066500</v>
       </c>
       <c r="E8" s="3">
-        <v>4861100</v>
+        <v>5055500</v>
       </c>
       <c r="F8" s="3">
-        <v>4301500</v>
+        <v>4473600</v>
       </c>
       <c r="G8" s="3">
-        <v>3547500</v>
+        <v>3689400</v>
       </c>
       <c r="H8" s="3">
-        <v>3080700</v>
+        <v>3203900</v>
       </c>
       <c r="I8" s="3">
-        <v>2110400</v>
+        <v>2194800</v>
       </c>
       <c r="J8" s="3">
-        <v>3768000</v>
+        <v>3918700</v>
       </c>
       <c r="K8" s="3">
         <v>4831100</v>
@@ -832,25 +832,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3626500</v>
+        <v>3771600</v>
       </c>
       <c r="E9" s="3">
-        <v>2857900</v>
+        <v>2972200</v>
       </c>
       <c r="F9" s="3">
-        <v>2628000</v>
+        <v>2733100</v>
       </c>
       <c r="G9" s="3">
-        <v>2576700</v>
+        <v>2679700</v>
       </c>
       <c r="H9" s="3">
-        <v>2085900</v>
+        <v>2169400</v>
       </c>
       <c r="I9" s="3">
-        <v>1903800</v>
+        <v>1980000</v>
       </c>
       <c r="J9" s="3">
-        <v>2821700</v>
+        <v>2934600</v>
       </c>
       <c r="K9" s="3">
         <v>3190200</v>
@@ -900,25 +900,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2206700</v>
+        <v>2295000</v>
       </c>
       <c r="E10" s="3">
-        <v>2003200</v>
+        <v>2083300</v>
       </c>
       <c r="F10" s="3">
-        <v>1673500</v>
+        <v>1740400</v>
       </c>
       <c r="G10" s="3">
-        <v>970800</v>
+        <v>1009700</v>
       </c>
       <c r="H10" s="3">
-        <v>994800</v>
+        <v>1034600</v>
       </c>
       <c r="I10" s="3">
-        <v>206600</v>
+        <v>214800</v>
       </c>
       <c r="J10" s="3">
-        <v>946300</v>
+        <v>984100</v>
       </c>
       <c r="K10" s="3">
         <v>1641000</v>
@@ -994,25 +994,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>75200</v>
+        <v>78200</v>
       </c>
       <c r="E12" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="F12" s="3">
-        <v>42000</v>
+        <v>43700</v>
       </c>
       <c r="G12" s="3">
-        <v>103100</v>
+        <v>107200</v>
       </c>
       <c r="H12" s="3">
-        <v>24800</v>
+        <v>25800</v>
       </c>
       <c r="I12" s="3">
-        <v>35000</v>
+        <v>36400</v>
       </c>
       <c r="J12" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="K12" s="3">
         <v>103000</v>
@@ -1136,19 +1136,19 @@
         <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G14" s="3">
-        <v>-138700</v>
+        <v>-144300</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
       <c r="I14" s="3">
-        <v>-342500</v>
+        <v>-356200</v>
       </c>
       <c r="J14" s="3">
-        <v>302200</v>
+        <v>314200</v>
       </c>
       <c r="K14" s="3">
         <v>187600</v>
@@ -1198,25 +1198,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="E15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F15" s="3">
         <v>16800</v>
       </c>
-      <c r="F15" s="3">
-        <v>16200</v>
-      </c>
       <c r="G15" s="3">
-        <v>47800</v>
+        <v>49700</v>
       </c>
       <c r="H15" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I15" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="J15" s="3">
-        <v>19200</v>
+        <v>20000</v>
       </c>
       <c r="K15" s="3">
         <v>46000</v>
@@ -1289,25 +1289,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4057600</v>
+        <v>4219900</v>
       </c>
       <c r="E17" s="3">
-        <v>3221900</v>
+        <v>3350800</v>
       </c>
       <c r="F17" s="3">
-        <v>2923200</v>
+        <v>3040100</v>
       </c>
       <c r="G17" s="3">
-        <v>3040200</v>
+        <v>3161800</v>
       </c>
       <c r="H17" s="3">
-        <v>2416400</v>
+        <v>2513100</v>
       </c>
       <c r="I17" s="3">
-        <v>1903500</v>
+        <v>1979600</v>
       </c>
       <c r="J17" s="3">
-        <v>3393400</v>
+        <v>3529200</v>
       </c>
       <c r="K17" s="3">
         <v>3845900</v>
@@ -1357,25 +1357,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1775600</v>
+        <v>1846600</v>
       </c>
       <c r="E18" s="3">
-        <v>1639100</v>
+        <v>1704700</v>
       </c>
       <c r="F18" s="3">
-        <v>1378300</v>
+        <v>1433500</v>
       </c>
       <c r="G18" s="3">
-        <v>507300</v>
+        <v>527600</v>
       </c>
       <c r="H18" s="3">
-        <v>664300</v>
+        <v>690800</v>
       </c>
       <c r="I18" s="3">
-        <v>206900</v>
+        <v>215200</v>
       </c>
       <c r="J18" s="3">
-        <v>374600</v>
+        <v>389600</v>
       </c>
       <c r="K18" s="3">
         <v>985200</v>
@@ -1451,25 +1451,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>28900</v>
+        <v>30100</v>
       </c>
       <c r="E20" s="3">
-        <v>-40600</v>
+        <v>-42200</v>
       </c>
       <c r="F20" s="3">
-        <v>-10000</v>
+        <v>-10400</v>
       </c>
       <c r="G20" s="3">
-        <v>83600</v>
+        <v>87000</v>
       </c>
       <c r="H20" s="3">
-        <v>-73500</v>
+        <v>-76400</v>
       </c>
       <c r="I20" s="3">
-        <v>32900</v>
+        <v>34200</v>
       </c>
       <c r="J20" s="3">
-        <v>-45200</v>
+        <v>-47000</v>
       </c>
       <c r="K20" s="3">
         <v>80100</v>
@@ -1519,25 +1519,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2476100</v>
+        <v>2575200</v>
       </c>
       <c r="E21" s="3">
-        <v>2197400</v>
+        <v>2285300</v>
       </c>
       <c r="F21" s="3">
-        <v>1943900</v>
+        <v>2021600</v>
       </c>
       <c r="G21" s="3">
-        <v>1213800</v>
+        <v>1262400</v>
       </c>
       <c r="H21" s="3">
-        <v>1165500</v>
+        <v>1212100</v>
       </c>
       <c r="I21" s="3">
-        <v>812200</v>
+        <v>844600</v>
       </c>
       <c r="J21" s="3">
-        <v>886800</v>
+        <v>922300</v>
       </c>
       <c r="K21" s="3">
         <v>1657500</v>
@@ -1587,25 +1587,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>175400</v>
+        <v>182400</v>
       </c>
       <c r="E22" s="3">
-        <v>151800</v>
+        <v>157900</v>
       </c>
       <c r="F22" s="3">
-        <v>139700</v>
+        <v>145300</v>
       </c>
       <c r="G22" s="3">
-        <v>149600</v>
+        <v>155600</v>
       </c>
       <c r="H22" s="3">
-        <v>161900</v>
+        <v>168300</v>
       </c>
       <c r="I22" s="3">
-        <v>163300</v>
+        <v>169800</v>
       </c>
       <c r="J22" s="3">
-        <v>121400</v>
+        <v>126200</v>
       </c>
       <c r="K22" s="3">
         <v>127000</v>
@@ -1655,25 +1655,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1629100</v>
+        <v>1694300</v>
       </c>
       <c r="E23" s="3">
-        <v>1446700</v>
+        <v>1504500</v>
       </c>
       <c r="F23" s="3">
-        <v>1228700</v>
+        <v>1277800</v>
       </c>
       <c r="G23" s="3">
-        <v>441300</v>
+        <v>459000</v>
       </c>
       <c r="H23" s="3">
-        <v>428900</v>
+        <v>446100</v>
       </c>
       <c r="I23" s="3">
-        <v>76500</v>
+        <v>79600</v>
       </c>
       <c r="J23" s="3">
-        <v>208000</v>
+        <v>216300</v>
       </c>
       <c r="K23" s="3">
         <v>938200</v>
@@ -1723,25 +1723,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>548500</v>
+        <v>570400</v>
       </c>
       <c r="E24" s="3">
-        <v>441900</v>
+        <v>459600</v>
       </c>
       <c r="F24" s="3">
-        <v>384200</v>
+        <v>399500</v>
       </c>
       <c r="G24" s="3">
-        <v>212300</v>
+        <v>220800</v>
       </c>
       <c r="H24" s="3">
-        <v>142800</v>
+        <v>148500</v>
       </c>
       <c r="I24" s="3">
         <v>1100</v>
       </c>
       <c r="J24" s="3">
-        <v>88000</v>
+        <v>91500</v>
       </c>
       <c r="K24" s="3">
         <v>-186900</v>
@@ -1859,25 +1859,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1080600</v>
+        <v>1123900</v>
       </c>
       <c r="E26" s="3">
-        <v>1004800</v>
+        <v>1045000</v>
       </c>
       <c r="F26" s="3">
-        <v>844500</v>
+        <v>878300</v>
       </c>
       <c r="G26" s="3">
-        <v>229000</v>
+        <v>238200</v>
       </c>
       <c r="H26" s="3">
-        <v>286100</v>
+        <v>297500</v>
       </c>
       <c r="I26" s="3">
-        <v>75400</v>
+        <v>78400</v>
       </c>
       <c r="J26" s="3">
-        <v>120000</v>
+        <v>124800</v>
       </c>
       <c r="K26" s="3">
         <v>1125100</v>
@@ -1927,25 +1927,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>951800</v>
+        <v>989900</v>
       </c>
       <c r="E27" s="3">
-        <v>931100</v>
+        <v>968300</v>
       </c>
       <c r="F27" s="3">
-        <v>771500</v>
+        <v>802300</v>
       </c>
       <c r="G27" s="3">
-        <v>168800</v>
+        <v>175500</v>
       </c>
       <c r="H27" s="3">
-        <v>213800</v>
+        <v>222300</v>
       </c>
       <c r="I27" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J27" s="3">
-        <v>33200</v>
+        <v>34600</v>
       </c>
       <c r="K27" s="3">
         <v>1042300</v>
@@ -2267,25 +2267,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-28900</v>
+        <v>-30100</v>
       </c>
       <c r="E32" s="3">
-        <v>40600</v>
+        <v>42200</v>
       </c>
       <c r="F32" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="G32" s="3">
-        <v>-83600</v>
+        <v>-87000</v>
       </c>
       <c r="H32" s="3">
-        <v>73500</v>
+        <v>76400</v>
       </c>
       <c r="I32" s="3">
-        <v>-32900</v>
+        <v>-34200</v>
       </c>
       <c r="J32" s="3">
-        <v>45200</v>
+        <v>47000</v>
       </c>
       <c r="K32" s="3">
         <v>-80100</v>
@@ -2335,25 +2335,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>951800</v>
+        <v>989900</v>
       </c>
       <c r="E33" s="3">
-        <v>931100</v>
+        <v>968300</v>
       </c>
       <c r="F33" s="3">
-        <v>771500</v>
+        <v>802300</v>
       </c>
       <c r="G33" s="3">
-        <v>168800</v>
+        <v>175500</v>
       </c>
       <c r="H33" s="3">
-        <v>213800</v>
+        <v>222300</v>
       </c>
       <c r="I33" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J33" s="3">
-        <v>33200</v>
+        <v>34600</v>
       </c>
       <c r="K33" s="3">
         <v>1042300</v>
@@ -2471,25 +2471,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>951800</v>
+        <v>989900</v>
       </c>
       <c r="E35" s="3">
-        <v>931100</v>
+        <v>968300</v>
       </c>
       <c r="F35" s="3">
-        <v>771500</v>
+        <v>802300</v>
       </c>
       <c r="G35" s="3">
-        <v>168800</v>
+        <v>175500</v>
       </c>
       <c r="H35" s="3">
-        <v>213800</v>
+        <v>222300</v>
       </c>
       <c r="I35" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J35" s="3">
-        <v>33200</v>
+        <v>34600</v>
       </c>
       <c r="K35" s="3">
         <v>1042300</v>
@@ -2664,25 +2664,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2521700</v>
+        <v>2622600</v>
       </c>
       <c r="E41" s="3">
-        <v>1255400</v>
+        <v>1305600</v>
       </c>
       <c r="F41" s="3">
-        <v>1671900</v>
+        <v>1738800</v>
       </c>
       <c r="G41" s="3">
-        <v>1270600</v>
+        <v>1321400</v>
       </c>
       <c r="H41" s="3">
-        <v>1957200</v>
+        <v>2035500</v>
       </c>
       <c r="I41" s="3">
-        <v>2312000</v>
+        <v>2404500</v>
       </c>
       <c r="J41" s="3">
-        <v>2199300</v>
+        <v>2287300</v>
       </c>
       <c r="K41" s="3">
         <v>1839700</v>
@@ -2732,25 +2732,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>531000</v>
+        <v>552300</v>
       </c>
       <c r="E42" s="3">
-        <v>121900</v>
+        <v>126800</v>
       </c>
       <c r="F42" s="3">
-        <v>186700</v>
+        <v>194200</v>
       </c>
       <c r="G42" s="3">
-        <v>603200</v>
+        <v>627300</v>
       </c>
       <c r="H42" s="3">
-        <v>874100</v>
+        <v>909100</v>
       </c>
       <c r="I42" s="3">
-        <v>1041500</v>
+        <v>1083100</v>
       </c>
       <c r="J42" s="3">
-        <v>238100</v>
+        <v>247600</v>
       </c>
       <c r="K42" s="3">
         <v>459900</v>
@@ -2800,25 +2800,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6024300</v>
+        <v>6265300</v>
       </c>
       <c r="E43" s="3">
-        <v>3936300</v>
+        <v>4093800</v>
       </c>
       <c r="F43" s="3">
-        <v>3041800</v>
+        <v>3163400</v>
       </c>
       <c r="G43" s="3">
-        <v>2334200</v>
+        <v>2427500</v>
       </c>
       <c r="H43" s="3">
-        <v>2185300</v>
+        <v>2272700</v>
       </c>
       <c r="I43" s="3">
-        <v>2145300</v>
+        <v>2231100</v>
       </c>
       <c r="J43" s="3">
-        <v>1737400</v>
+        <v>1806900</v>
       </c>
       <c r="K43" s="3">
         <v>2131500</v>
@@ -2868,25 +2868,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2269600</v>
+        <v>2360300</v>
       </c>
       <c r="E44" s="3">
-        <v>1794300</v>
+        <v>1866100</v>
       </c>
       <c r="F44" s="3">
-        <v>1601900</v>
+        <v>1666000</v>
       </c>
       <c r="G44" s="3">
-        <v>1263500</v>
+        <v>1314000</v>
       </c>
       <c r="H44" s="3">
-        <v>1377600</v>
+        <v>1432700</v>
       </c>
       <c r="I44" s="3">
-        <v>1258700</v>
+        <v>1309100</v>
       </c>
       <c r="J44" s="3">
-        <v>1452900</v>
+        <v>1511100</v>
       </c>
       <c r="K44" s="3">
         <v>1471100</v>
@@ -2936,25 +2936,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>407500</v>
+        <v>423800</v>
       </c>
       <c r="E45" s="3">
-        <v>209400</v>
+        <v>217800</v>
       </c>
       <c r="F45" s="3">
-        <v>266700</v>
+        <v>277400</v>
       </c>
       <c r="G45" s="3">
-        <v>237200</v>
+        <v>246700</v>
       </c>
       <c r="H45" s="3">
-        <v>294700</v>
+        <v>306400</v>
       </c>
       <c r="I45" s="3">
-        <v>225900</v>
+        <v>235000</v>
       </c>
       <c r="J45" s="3">
-        <v>292800</v>
+        <v>304500</v>
       </c>
       <c r="K45" s="3">
         <v>172500</v>
@@ -3004,25 +3004,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11754100</v>
+        <v>12224200</v>
       </c>
       <c r="E46" s="3">
-        <v>7317400</v>
+        <v>7610100</v>
       </c>
       <c r="F46" s="3">
-        <v>6769000</v>
+        <v>7039800</v>
       </c>
       <c r="G46" s="3">
-        <v>5708600</v>
+        <v>5936900</v>
       </c>
       <c r="H46" s="3">
-        <v>6688800</v>
+        <v>6956300</v>
       </c>
       <c r="I46" s="3">
-        <v>6983400</v>
+        <v>7262700</v>
       </c>
       <c r="J46" s="3">
-        <v>5920600</v>
+        <v>6157500</v>
       </c>
       <c r="K46" s="3">
         <v>6074800</v>
@@ -3072,25 +3072,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>8231900</v>
+        <v>8561200</v>
       </c>
       <c r="E47" s="3">
-        <v>1310600</v>
+        <v>1363000</v>
       </c>
       <c r="F47" s="3">
-        <v>1208500</v>
+        <v>1256800</v>
       </c>
       <c r="G47" s="3">
-        <v>1182100</v>
+        <v>1229300</v>
       </c>
       <c r="H47" s="3">
-        <v>1259300</v>
+        <v>1309700</v>
       </c>
       <c r="I47" s="3">
-        <v>1511500</v>
+        <v>1572000</v>
       </c>
       <c r="J47" s="3">
-        <v>1579400</v>
+        <v>1642600</v>
       </c>
       <c r="K47" s="3">
         <v>1920700</v>
@@ -3140,25 +3140,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>29210100</v>
+        <v>30378600</v>
       </c>
       <c r="E48" s="3">
-        <v>25742200</v>
+        <v>26771900</v>
       </c>
       <c r="F48" s="3">
-        <v>25386700</v>
+        <v>26402200</v>
       </c>
       <c r="G48" s="3">
-        <v>24705100</v>
+        <v>25693300</v>
       </c>
       <c r="H48" s="3">
-        <v>25096200</v>
+        <v>26100100</v>
       </c>
       <c r="I48" s="3">
-        <v>24976900</v>
+        <v>25975900</v>
       </c>
       <c r="J48" s="3">
-        <v>25575500</v>
+        <v>26598600</v>
       </c>
       <c r="K48" s="3">
         <v>24369500</v>
@@ -3208,25 +3208,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7541400</v>
+        <v>7843000</v>
       </c>
       <c r="E49" s="3">
-        <v>485500</v>
+        <v>505000</v>
       </c>
       <c r="F49" s="3">
-        <v>479500</v>
+        <v>498600</v>
       </c>
       <c r="G49" s="3">
-        <v>477200</v>
+        <v>496300</v>
       </c>
       <c r="H49" s="3">
-        <v>480100</v>
+        <v>499300</v>
       </c>
       <c r="I49" s="3">
-        <v>372100</v>
+        <v>387000</v>
       </c>
       <c r="J49" s="3">
-        <v>382100</v>
+        <v>397400</v>
       </c>
       <c r="K49" s="3">
         <v>364700</v>
@@ -3412,25 +3412,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3570900</v>
+        <v>3713800</v>
       </c>
       <c r="E52" s="3">
-        <v>2957800</v>
+        <v>3076100</v>
       </c>
       <c r="F52" s="3">
-        <v>2889500</v>
+        <v>3005100</v>
       </c>
       <c r="G52" s="3">
-        <v>2781300</v>
+        <v>2892600</v>
       </c>
       <c r="H52" s="3">
-        <v>3045700</v>
+        <v>3167500</v>
       </c>
       <c r="I52" s="3">
-        <v>2943500</v>
+        <v>3061300</v>
       </c>
       <c r="J52" s="3">
-        <v>3175800</v>
+        <v>3302800</v>
       </c>
       <c r="K52" s="3">
         <v>2486900</v>
@@ -3548,25 +3548,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>60308400</v>
+        <v>62720800</v>
       </c>
       <c r="E54" s="3">
-        <v>37813600</v>
+        <v>39326100</v>
       </c>
       <c r="F54" s="3">
-        <v>36733100</v>
+        <v>38202500</v>
       </c>
       <c r="G54" s="3">
-        <v>34854300</v>
+        <v>36248500</v>
       </c>
       <c r="H54" s="3">
-        <v>36570100</v>
+        <v>38033000</v>
       </c>
       <c r="I54" s="3">
-        <v>36787500</v>
+        <v>38258900</v>
       </c>
       <c r="J54" s="3">
-        <v>36633500</v>
+        <v>38098900</v>
       </c>
       <c r="K54" s="3">
         <v>35216500</v>
@@ -3668,25 +3668,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2100700</v>
+        <v>2184700</v>
       </c>
       <c r="E57" s="3">
-        <v>1802000</v>
+        <v>1874100</v>
       </c>
       <c r="F57" s="3">
-        <v>1679000</v>
+        <v>1746100</v>
       </c>
       <c r="G57" s="3">
-        <v>1623000</v>
+        <v>1687900</v>
       </c>
       <c r="H57" s="3">
-        <v>1346000</v>
+        <v>1399800</v>
       </c>
       <c r="I57" s="3">
-        <v>1178200</v>
+        <v>1225400</v>
       </c>
       <c r="J57" s="3">
-        <v>1686300</v>
+        <v>1753800</v>
       </c>
       <c r="K57" s="3">
         <v>2109900</v>
@@ -3736,25 +3736,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2163500</v>
+        <v>2250000</v>
       </c>
       <c r="E58" s="3">
-        <v>1330900</v>
+        <v>1384100</v>
       </c>
       <c r="F58" s="3">
-        <v>1301700</v>
+        <v>1353800</v>
       </c>
       <c r="G58" s="3">
-        <v>1230800</v>
+        <v>1280100</v>
       </c>
       <c r="H58" s="3">
-        <v>1560200</v>
+        <v>1622600</v>
       </c>
       <c r="I58" s="3">
-        <v>2376900</v>
+        <v>2472000</v>
       </c>
       <c r="J58" s="3">
-        <v>1531800</v>
+        <v>1593000</v>
       </c>
       <c r="K58" s="3">
         <v>1303200</v>
@@ -3804,25 +3804,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2706000</v>
+        <v>2814300</v>
       </c>
       <c r="E59" s="3">
-        <v>1699600</v>
+        <v>1767600</v>
       </c>
       <c r="F59" s="3">
-        <v>2010100</v>
+        <v>2090500</v>
       </c>
       <c r="G59" s="3">
-        <v>1716800</v>
+        <v>1785500</v>
       </c>
       <c r="H59" s="3">
-        <v>2425000</v>
+        <v>2522000</v>
       </c>
       <c r="I59" s="3">
-        <v>3099500</v>
+        <v>3223500</v>
       </c>
       <c r="J59" s="3">
-        <v>4009700</v>
+        <v>4170100</v>
       </c>
       <c r="K59" s="3">
         <v>2239900</v>
@@ -3872,25 +3872,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6970200</v>
+        <v>7249100</v>
       </c>
       <c r="E60" s="3">
-        <v>4832400</v>
+        <v>5025700</v>
       </c>
       <c r="F60" s="3">
-        <v>4990800</v>
+        <v>5190400</v>
       </c>
       <c r="G60" s="3">
-        <v>4570600</v>
+        <v>4753400</v>
       </c>
       <c r="H60" s="3">
-        <v>5331200</v>
+        <v>5544400</v>
       </c>
       <c r="I60" s="3">
-        <v>6654700</v>
+        <v>6920800</v>
       </c>
       <c r="J60" s="3">
-        <v>7227800</v>
+        <v>7517000</v>
       </c>
       <c r="K60" s="3">
         <v>5653000</v>
@@ -3940,25 +3940,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>20806200</v>
+        <v>21638500</v>
       </c>
       <c r="E61" s="3">
-        <v>11184300</v>
+        <v>11631600</v>
       </c>
       <c r="F61" s="3">
-        <v>11171800</v>
+        <v>11618700</v>
       </c>
       <c r="G61" s="3">
-        <v>10452100</v>
+        <v>10870200</v>
       </c>
       <c r="H61" s="3">
-        <v>11808500</v>
+        <v>12280900</v>
       </c>
       <c r="I61" s="3">
-        <v>11040500</v>
+        <v>11482100</v>
       </c>
       <c r="J61" s="3">
-        <v>10081900</v>
+        <v>10485200</v>
       </c>
       <c r="K61" s="3">
         <v>8639000</v>
@@ -4008,25 +4008,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>9085000</v>
+        <v>9448400</v>
       </c>
       <c r="E62" s="3">
-        <v>6148100</v>
+        <v>6394000</v>
       </c>
       <c r="F62" s="3">
-        <v>6032600</v>
+        <v>6273900</v>
       </c>
       <c r="G62" s="3">
-        <v>5876700</v>
+        <v>6111800</v>
       </c>
       <c r="H62" s="3">
-        <v>5137200</v>
+        <v>5342700</v>
       </c>
       <c r="I62" s="3">
-        <v>5183100</v>
+        <v>5390400</v>
       </c>
       <c r="J62" s="3">
-        <v>5228800</v>
+        <v>5437900</v>
       </c>
       <c r="K62" s="3">
         <v>5235000</v>
@@ -4280,25 +4280,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>44559700</v>
+        <v>46342100</v>
       </c>
       <c r="E66" s="3">
-        <v>23103300</v>
+        <v>24027400</v>
       </c>
       <c r="F66" s="3">
-        <v>23102000</v>
+        <v>24026100</v>
       </c>
       <c r="G66" s="3">
-        <v>21830500</v>
+        <v>22703700</v>
       </c>
       <c r="H66" s="3">
-        <v>23215700</v>
+        <v>24144300</v>
       </c>
       <c r="I66" s="3">
-        <v>23874700</v>
+        <v>24829700</v>
       </c>
       <c r="J66" s="3">
-        <v>23489800</v>
+        <v>24429400</v>
       </c>
       <c r="K66" s="3">
         <v>20549300</v>
@@ -4646,25 +4646,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5627200</v>
+        <v>5852300</v>
       </c>
       <c r="E72" s="3">
-        <v>4675400</v>
+        <v>4862400</v>
       </c>
       <c r="F72" s="3">
-        <v>3743800</v>
+        <v>3893600</v>
       </c>
       <c r="G72" s="3">
-        <v>3146900</v>
+        <v>3272700</v>
       </c>
       <c r="H72" s="3">
-        <v>2978100</v>
+        <v>3097200</v>
       </c>
       <c r="I72" s="3">
-        <v>2764400</v>
+        <v>2874900</v>
       </c>
       <c r="J72" s="3">
-        <v>2758100</v>
+        <v>2868400</v>
       </c>
       <c r="K72" s="3">
         <v>4758100</v>
@@ -4918,25 +4918,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>15748700</v>
+        <v>16378600</v>
       </c>
       <c r="E76" s="3">
-        <v>14710300</v>
+        <v>15298700</v>
       </c>
       <c r="F76" s="3">
-        <v>13631100</v>
+        <v>14176400</v>
       </c>
       <c r="G76" s="3">
-        <v>13023800</v>
+        <v>13544800</v>
       </c>
       <c r="H76" s="3">
-        <v>13354500</v>
+        <v>13888600</v>
       </c>
       <c r="I76" s="3">
-        <v>12912700</v>
+        <v>13429200</v>
       </c>
       <c r="J76" s="3">
-        <v>13143700</v>
+        <v>13669400</v>
       </c>
       <c r="K76" s="3">
         <v>14667200</v>
@@ -5127,25 +5127,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>951800</v>
+        <v>989900</v>
       </c>
       <c r="E81" s="3">
-        <v>931100</v>
+        <v>968300</v>
       </c>
       <c r="F81" s="3">
-        <v>771500</v>
+        <v>802300</v>
       </c>
       <c r="G81" s="3">
-        <v>168800</v>
+        <v>175500</v>
       </c>
       <c r="H81" s="3">
-        <v>213800</v>
+        <v>222300</v>
       </c>
       <c r="I81" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J81" s="3">
-        <v>33200</v>
+        <v>34600</v>
       </c>
       <c r="K81" s="3">
         <v>1042300</v>
@@ -5221,25 +5221,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>671600</v>
+        <v>698500</v>
       </c>
       <c r="E83" s="3">
-        <v>598900</v>
+        <v>622800</v>
       </c>
       <c r="F83" s="3">
-        <v>575500</v>
+        <v>598500</v>
       </c>
       <c r="G83" s="3">
-        <v>622900</v>
+        <v>647800</v>
       </c>
       <c r="H83" s="3">
-        <v>574700</v>
+        <v>597700</v>
       </c>
       <c r="I83" s="3">
-        <v>572400</v>
+        <v>595300</v>
       </c>
       <c r="J83" s="3">
-        <v>557400</v>
+        <v>579700</v>
       </c>
       <c r="K83" s="3">
         <v>592200</v>
@@ -5629,25 +5629,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1319900</v>
+        <v>1372700</v>
       </c>
       <c r="E89" s="3">
-        <v>828400</v>
+        <v>861500</v>
       </c>
       <c r="F89" s="3">
-        <v>733300</v>
+        <v>762700</v>
       </c>
       <c r="G89" s="3">
-        <v>1333800</v>
+        <v>1387200</v>
       </c>
       <c r="H89" s="3">
-        <v>881700</v>
+        <v>917000</v>
       </c>
       <c r="I89" s="3">
-        <v>-562000</v>
+        <v>-584400</v>
       </c>
       <c r="J89" s="3">
-        <v>643100</v>
+        <v>668800</v>
       </c>
       <c r="K89" s="3">
         <v>1966900</v>
@@ -5723,25 +5723,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-431300</v>
+        <v>-448500</v>
       </c>
       <c r="E91" s="3">
-        <v>-352000</v>
+        <v>-366100</v>
       </c>
       <c r="F91" s="3">
-        <v>-212500</v>
+        <v>-221000</v>
       </c>
       <c r="G91" s="3">
-        <v>-428200</v>
+        <v>-445400</v>
       </c>
       <c r="H91" s="3">
-        <v>-334200</v>
+        <v>-347600</v>
       </c>
       <c r="I91" s="3">
-        <v>-289900</v>
+        <v>-301500</v>
       </c>
       <c r="J91" s="3">
-        <v>-205700</v>
+        <v>-214000</v>
       </c>
       <c r="K91" s="3">
         <v>-385700</v>
@@ -5927,25 +5927,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3344400</v>
+        <v>-3478200</v>
       </c>
       <c r="E94" s="3">
-        <v>-657200</v>
+        <v>-683500</v>
       </c>
       <c r="F94" s="3">
-        <v>-173000</v>
+        <v>-179900</v>
       </c>
       <c r="G94" s="3">
-        <v>-550700</v>
+        <v>-572800</v>
       </c>
       <c r="H94" s="3">
-        <v>-42500</v>
+        <v>-44200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1322900</v>
+        <v>-1375900</v>
       </c>
       <c r="J94" s="3">
-        <v>-216000</v>
+        <v>-224600</v>
       </c>
       <c r="K94" s="3">
         <v>-1183000</v>
@@ -6021,25 +6021,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-68500</v>
+        <v>-71200</v>
       </c>
       <c r="E96" s="3">
-        <v>-245600</v>
+        <v>-255400</v>
       </c>
       <c r="F96" s="3">
-        <v>-42000</v>
+        <v>-43700</v>
       </c>
       <c r="G96" s="3">
-        <v>-871900</v>
+        <v>-906700</v>
       </c>
       <c r="H96" s="3">
-        <v>-727600</v>
+        <v>-756700</v>
       </c>
       <c r="I96" s="3">
-        <v>-477700</v>
+        <v>-496800</v>
       </c>
       <c r="J96" s="3">
-        <v>-106500</v>
+        <v>-110700</v>
       </c>
       <c r="K96" s="3">
         <v>-990600</v>
@@ -6293,25 +6293,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>3303000</v>
+        <v>3435100</v>
       </c>
       <c r="E100" s="3">
-        <v>-604100</v>
+        <v>-628200</v>
       </c>
       <c r="F100" s="3">
-        <v>-194800</v>
+        <v>-202500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1351800</v>
+        <v>-1405800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1196800</v>
+        <v>-1244600</v>
       </c>
       <c r="I100" s="3">
-        <v>2147700</v>
+        <v>2233600</v>
       </c>
       <c r="J100" s="3">
-        <v>-256500</v>
+        <v>-266700</v>
       </c>
       <c r="K100" s="3">
         <v>-1261300</v>
@@ -6361,25 +6361,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-12200</v>
+        <v>-12700</v>
       </c>
       <c r="E101" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="F101" s="3">
-        <v>35700</v>
+        <v>37100</v>
       </c>
       <c r="G101" s="3">
-        <v>-117900</v>
+        <v>-122600</v>
       </c>
       <c r="H101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-150100</v>
+        <v>-156200</v>
       </c>
       <c r="J101" s="3">
-        <v>259700</v>
+        <v>270100</v>
       </c>
       <c r="K101" s="3">
         <v>-38800</v>
@@ -6429,25 +6429,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1266300</v>
+        <v>1317000</v>
       </c>
       <c r="E102" s="3">
-        <v>-416500</v>
+        <v>-433200</v>
       </c>
       <c r="F102" s="3">
-        <v>401300</v>
+        <v>417400</v>
       </c>
       <c r="G102" s="3">
-        <v>-686600</v>
+        <v>-714100</v>
       </c>
       <c r="H102" s="3">
-        <v>-354800</v>
+        <v>-369000</v>
       </c>
       <c r="I102" s="3">
-        <v>112700</v>
+        <v>117200</v>
       </c>
       <c r="J102" s="3">
-        <v>430400</v>
+        <v>447600</v>
       </c>
       <c r="K102" s="3">
         <v>-516200</v>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,308 +662,320 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6066500</v>
+        <v>7622700</v>
       </c>
       <c r="E8" s="3">
-        <v>5055500</v>
+        <v>5599900</v>
       </c>
       <c r="F8" s="3">
-        <v>4473600</v>
+        <v>4666600</v>
       </c>
       <c r="G8" s="3">
-        <v>3689400</v>
+        <v>4129400</v>
       </c>
       <c r="H8" s="3">
-        <v>3203900</v>
+        <v>3405600</v>
       </c>
       <c r="I8" s="3">
-        <v>2194800</v>
+        <v>2957500</v>
       </c>
       <c r="J8" s="3">
+        <v>2026000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3918700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4831100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4863900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4943300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4304500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4761700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4826500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9488900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4392800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4916200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4263900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4208300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4278900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4393300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3771600</v>
+        <v>4591800</v>
       </c>
       <c r="E9" s="3">
-        <v>2972200</v>
+        <v>3481400</v>
       </c>
       <c r="F9" s="3">
-        <v>2733100</v>
+        <v>2743500</v>
       </c>
       <c r="G9" s="3">
-        <v>2679700</v>
+        <v>2522900</v>
       </c>
       <c r="H9" s="3">
-        <v>2169400</v>
+        <v>2473600</v>
       </c>
       <c r="I9" s="3">
-        <v>1980000</v>
+        <v>2002500</v>
       </c>
       <c r="J9" s="3">
+        <v>1827700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2934600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3190200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3034900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3027600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2763200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3105100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2868100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5581200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2654000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3118400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2808700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2952200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2926600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3202400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2295000</v>
+        <v>3030900</v>
       </c>
       <c r="E10" s="3">
-        <v>2083300</v>
+        <v>2118400</v>
       </c>
       <c r="F10" s="3">
-        <v>1740400</v>
+        <v>1923100</v>
       </c>
       <c r="G10" s="3">
-        <v>1009700</v>
+        <v>1606500</v>
       </c>
       <c r="H10" s="3">
-        <v>1034600</v>
+        <v>932000</v>
       </c>
       <c r="I10" s="3">
-        <v>214800</v>
+        <v>955000</v>
       </c>
       <c r="J10" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K10" s="3">
         <v>984100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1641000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1829000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1915700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1541300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1656600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1958400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3907700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1738700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1797800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1455200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1256100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1352300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1190900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,76 +1000,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>78200</v>
+        <v>101600</v>
       </c>
       <c r="E12" s="3">
-        <v>17500</v>
+        <v>72200</v>
       </c>
       <c r="F12" s="3">
-        <v>43700</v>
+        <v>16200</v>
       </c>
       <c r="G12" s="3">
-        <v>107200</v>
+        <v>40300</v>
       </c>
       <c r="H12" s="3">
-        <v>25800</v>
+        <v>98900</v>
       </c>
       <c r="I12" s="3">
-        <v>36400</v>
+        <v>23800</v>
       </c>
       <c r="J12" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>103000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>66900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>50300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>271600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>56400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>292200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>103900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>24700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>96800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,144 +1140,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>600</v>
-      </c>
       <c r="F14" s="3">
-        <v>3400</v>
+        <v>500</v>
       </c>
       <c r="G14" s="3">
-        <v>-144300</v>
+        <v>3100</v>
       </c>
       <c r="H14" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>-356200</v>
-      </c>
       <c r="J14" s="3">
+        <v>-328800</v>
+      </c>
+      <c r="K14" s="3">
         <v>314200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>187600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>149000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-14700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-34600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-556400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-12900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>244000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>14900</v>
+        <v>89200</v>
       </c>
       <c r="E15" s="3">
-        <v>17500</v>
+        <v>13700</v>
       </c>
       <c r="F15" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="G15" s="3">
-        <v>49700</v>
+        <v>15500</v>
       </c>
       <c r="H15" s="3">
-        <v>3300</v>
+        <v>45900</v>
       </c>
       <c r="I15" s="3">
-        <v>14000</v>
+        <v>3100</v>
       </c>
       <c r="J15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K15" s="3">
         <v>20000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>46000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>11200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>16400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4219900</v>
+        <v>5129400</v>
       </c>
       <c r="E17" s="3">
-        <v>3350800</v>
+        <v>3895300</v>
       </c>
       <c r="F17" s="3">
-        <v>3040100</v>
+        <v>3093100</v>
       </c>
       <c r="G17" s="3">
-        <v>3161800</v>
+        <v>2806200</v>
       </c>
       <c r="H17" s="3">
-        <v>2513100</v>
+        <v>2918600</v>
       </c>
       <c r="I17" s="3">
-        <v>1979600</v>
+        <v>2319800</v>
       </c>
       <c r="J17" s="3">
+        <v>1827300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3529200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3845900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3321700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3334800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2966200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3593200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3300300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6019600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2838800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3111000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3162600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3223200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3854400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1846600</v>
+        <v>2493200</v>
       </c>
       <c r="E18" s="3">
-        <v>1704700</v>
+        <v>1704600</v>
       </c>
       <c r="F18" s="3">
-        <v>1433500</v>
+        <v>1573500</v>
       </c>
       <c r="G18" s="3">
-        <v>527600</v>
+        <v>1323200</v>
       </c>
       <c r="H18" s="3">
-        <v>690800</v>
+        <v>487000</v>
       </c>
       <c r="I18" s="3">
-        <v>215200</v>
+        <v>637700</v>
       </c>
       <c r="J18" s="3">
+        <v>198700</v>
+      </c>
+      <c r="K18" s="3">
         <v>389600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>985200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1542100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1608600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1338300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1168600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1526200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3469300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1554000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1805100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1063300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1045700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1055600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>538900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,348 +1477,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>30100</v>
+        <v>-21600</v>
       </c>
       <c r="E20" s="3">
-        <v>-42200</v>
+        <v>27800</v>
       </c>
       <c r="F20" s="3">
-        <v>-10400</v>
+        <v>-39000</v>
       </c>
       <c r="G20" s="3">
-        <v>87000</v>
+        <v>-9600</v>
       </c>
       <c r="H20" s="3">
-        <v>-76400</v>
+        <v>80300</v>
       </c>
       <c r="I20" s="3">
-        <v>34200</v>
+        <v>-70500</v>
       </c>
       <c r="J20" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-47000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>80100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-31700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>43400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>61300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>83200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>45700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-58800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>117200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-111000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>291700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2575200</v>
+        <v>3137800</v>
       </c>
       <c r="E21" s="3">
-        <v>2285300</v>
+        <v>2377100</v>
       </c>
       <c r="F21" s="3">
-        <v>2021600</v>
+        <v>2109500</v>
       </c>
       <c r="G21" s="3">
-        <v>1262400</v>
+        <v>1866100</v>
       </c>
       <c r="H21" s="3">
-        <v>1212100</v>
+        <v>1165300</v>
       </c>
       <c r="I21" s="3">
-        <v>844600</v>
+        <v>1118900</v>
       </c>
       <c r="J21" s="3">
+        <v>779700</v>
+      </c>
+      <c r="K21" s="3">
         <v>922300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1657500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2106000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2217200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1937100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1748700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2104600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4627400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2118200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2411200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1718300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1846200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1604900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1464900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>182400</v>
+        <v>294600</v>
       </c>
       <c r="E22" s="3">
-        <v>157900</v>
+        <v>168400</v>
       </c>
       <c r="F22" s="3">
-        <v>145300</v>
+        <v>145800</v>
       </c>
       <c r="G22" s="3">
-        <v>155600</v>
+        <v>134100</v>
       </c>
       <c r="H22" s="3">
-        <v>168300</v>
+        <v>143600</v>
       </c>
       <c r="I22" s="3">
-        <v>169800</v>
+        <v>155400</v>
       </c>
       <c r="J22" s="3">
+        <v>156700</v>
+      </c>
+      <c r="K22" s="3">
         <v>126200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>127000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>128100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>129500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>122000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>183100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>144600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>347900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>171800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>206800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>198200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>153300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>205200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>226800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1694300</v>
+        <v>2177000</v>
       </c>
       <c r="E23" s="3">
-        <v>1504500</v>
+        <v>1564000</v>
       </c>
       <c r="F23" s="3">
-        <v>1277800</v>
+        <v>1388800</v>
       </c>
       <c r="G23" s="3">
-        <v>459000</v>
+        <v>1179500</v>
       </c>
       <c r="H23" s="3">
-        <v>446100</v>
+        <v>423700</v>
       </c>
       <c r="I23" s="3">
-        <v>79600</v>
+        <v>411700</v>
       </c>
       <c r="J23" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K23" s="3">
         <v>216300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>938200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1382300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1522500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1277600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1068600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1401000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3167100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1409100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1616500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>806300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1009600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>739400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>603800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>570400</v>
+        <v>495300</v>
       </c>
       <c r="E24" s="3">
-        <v>459600</v>
+        <v>526500</v>
       </c>
       <c r="F24" s="3">
-        <v>399500</v>
+        <v>424200</v>
       </c>
       <c r="G24" s="3">
-        <v>220800</v>
+        <v>368800</v>
       </c>
       <c r="H24" s="3">
-        <v>148500</v>
+        <v>203800</v>
       </c>
       <c r="I24" s="3">
+        <v>137100</v>
+      </c>
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>91500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-186900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>477900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>505400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>451800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>303400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>589000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1192000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>564000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>457200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>414600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>535100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>396300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>485600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1853,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1123900</v>
+        <v>1681700</v>
       </c>
       <c r="E26" s="3">
-        <v>1045000</v>
+        <v>1037400</v>
       </c>
       <c r="F26" s="3">
-        <v>878300</v>
+        <v>964600</v>
       </c>
       <c r="G26" s="3">
-        <v>238200</v>
+        <v>810700</v>
       </c>
       <c r="H26" s="3">
-        <v>297500</v>
+        <v>219900</v>
       </c>
       <c r="I26" s="3">
-        <v>78400</v>
+        <v>274600</v>
       </c>
       <c r="J26" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K26" s="3">
         <v>124800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1125100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>904500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1017100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>825800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>765200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>811900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1975100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>845100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1159300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>391700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>474500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>343200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>118200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>989900</v>
+        <v>1458500</v>
       </c>
       <c r="E27" s="3">
-        <v>968300</v>
+        <v>913700</v>
       </c>
       <c r="F27" s="3">
-        <v>802300</v>
+        <v>893800</v>
       </c>
       <c r="G27" s="3">
-        <v>175500</v>
+        <v>740600</v>
       </c>
       <c r="H27" s="3">
-        <v>222300</v>
+        <v>162000</v>
       </c>
       <c r="I27" s="3">
-        <v>6500</v>
+        <v>205200</v>
       </c>
       <c r="J27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K27" s="3">
         <v>34600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1042300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>813000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>941500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>741000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>688300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>749200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1840300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>784400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1096500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>321100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>417500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>283500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>61400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2057,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2125,8 +2185,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-30100</v>
+        <v>21600</v>
       </c>
       <c r="E32" s="3">
-        <v>42200</v>
+        <v>-27800</v>
       </c>
       <c r="F32" s="3">
-        <v>10400</v>
+        <v>39000</v>
       </c>
       <c r="G32" s="3">
-        <v>-87000</v>
+        <v>9600</v>
       </c>
       <c r="H32" s="3">
-        <v>76400</v>
+        <v>-80300</v>
       </c>
       <c r="I32" s="3">
-        <v>-34200</v>
+        <v>70500</v>
       </c>
       <c r="J32" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K32" s="3">
         <v>47000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-80100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-43400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-61300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-83200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-45700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>58800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-117200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>111000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-291700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>989900</v>
+        <v>1458500</v>
       </c>
       <c r="E33" s="3">
-        <v>968300</v>
+        <v>913700</v>
       </c>
       <c r="F33" s="3">
-        <v>802300</v>
+        <v>893800</v>
       </c>
       <c r="G33" s="3">
-        <v>175500</v>
+        <v>740600</v>
       </c>
       <c r="H33" s="3">
-        <v>222300</v>
+        <v>162000</v>
       </c>
       <c r="I33" s="3">
-        <v>6500</v>
+        <v>205200</v>
       </c>
       <c r="J33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K33" s="3">
         <v>34600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1042300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>813000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>941500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>741000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>688300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>749200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1840300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>784400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1096500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>321100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>417500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>283500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>61400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2465,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>989900</v>
+        <v>1458500</v>
       </c>
       <c r="E35" s="3">
-        <v>968300</v>
+        <v>913700</v>
       </c>
       <c r="F35" s="3">
-        <v>802300</v>
+        <v>893800</v>
       </c>
       <c r="G35" s="3">
-        <v>175500</v>
+        <v>740600</v>
       </c>
       <c r="H35" s="3">
-        <v>222300</v>
+        <v>162000</v>
       </c>
       <c r="I35" s="3">
-        <v>6500</v>
+        <v>205200</v>
       </c>
       <c r="J35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K35" s="3">
         <v>34600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1042300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>813000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>941500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>741000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>688300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>749200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1840300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>784400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1096500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>321100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>417500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>283500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>61400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2632,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2658,620 +2743,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2622600</v>
+        <v>3492000</v>
       </c>
       <c r="E41" s="3">
-        <v>1305600</v>
+        <v>2420800</v>
       </c>
       <c r="F41" s="3">
-        <v>1738800</v>
+        <v>1205200</v>
       </c>
       <c r="G41" s="3">
-        <v>1321400</v>
+        <v>1605000</v>
       </c>
       <c r="H41" s="3">
-        <v>2035500</v>
+        <v>1219800</v>
       </c>
       <c r="I41" s="3">
-        <v>2404500</v>
+        <v>1878900</v>
       </c>
       <c r="J41" s="3">
+        <v>2219500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2287300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1839700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2446500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1491500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2413200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1641100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1922600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1901200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2359900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1755700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1832500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1501600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1561700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1095700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>552300</v>
+        <v>517100</v>
       </c>
       <c r="E42" s="3">
-        <v>126800</v>
+        <v>509800</v>
       </c>
       <c r="F42" s="3">
-        <v>194200</v>
+        <v>117000</v>
       </c>
       <c r="G42" s="3">
-        <v>627300</v>
+        <v>179200</v>
       </c>
       <c r="H42" s="3">
-        <v>909100</v>
+        <v>579100</v>
       </c>
       <c r="I42" s="3">
-        <v>1083100</v>
+        <v>839200</v>
       </c>
       <c r="J42" s="3">
+        <v>999800</v>
+      </c>
+      <c r="K42" s="3">
         <v>247600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>459900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>662000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>906600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1349100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1383500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2042100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1878800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1325000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1736700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1560200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1118400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3310400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3450900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6265300</v>
+        <v>6087200</v>
       </c>
       <c r="E43" s="3">
-        <v>4093800</v>
+        <v>5783300</v>
       </c>
       <c r="F43" s="3">
-        <v>3163400</v>
+        <v>3778900</v>
       </c>
       <c r="G43" s="3">
-        <v>2427500</v>
+        <v>2920100</v>
       </c>
       <c r="H43" s="3">
-        <v>2272700</v>
+        <v>2240800</v>
       </c>
       <c r="I43" s="3">
-        <v>2231100</v>
+        <v>2097900</v>
       </c>
       <c r="J43" s="3">
+        <v>2059500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1806900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2131500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2049800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2634900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2725700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2538700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2350500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2628100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2269200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2341000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1978600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1905300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1705700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2007700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2360300</v>
+        <v>2015600</v>
       </c>
       <c r="E44" s="3">
-        <v>1866100</v>
+        <v>2178800</v>
       </c>
       <c r="F44" s="3">
-        <v>1666000</v>
+        <v>1722600</v>
       </c>
       <c r="G44" s="3">
-        <v>1314000</v>
+        <v>1537800</v>
       </c>
       <c r="H44" s="3">
-        <v>1432700</v>
+        <v>1213000</v>
       </c>
       <c r="I44" s="3">
-        <v>1309100</v>
+        <v>1322500</v>
       </c>
       <c r="J44" s="3">
+        <v>1208400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1511100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1471100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1594800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1580600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1479100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1326100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1461500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1641500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1478800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1472400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1512100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1366100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1385800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1267800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>423800</v>
+        <v>295100</v>
       </c>
       <c r="E45" s="3">
-        <v>217800</v>
+        <v>391200</v>
       </c>
       <c r="F45" s="3">
-        <v>277400</v>
+        <v>201000</v>
       </c>
       <c r="G45" s="3">
-        <v>246700</v>
+        <v>256100</v>
       </c>
       <c r="H45" s="3">
-        <v>306400</v>
+        <v>227700</v>
       </c>
       <c r="I45" s="3">
-        <v>235000</v>
+        <v>282900</v>
       </c>
       <c r="J45" s="3">
+        <v>216900</v>
+      </c>
+      <c r="K45" s="3">
         <v>304500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>196300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>144400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>146700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>138600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>131000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>125000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>131300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>125800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>180600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>191400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>169900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>140500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>12224200</v>
+        <v>12407000</v>
       </c>
       <c r="E46" s="3">
-        <v>7610100</v>
+        <v>11283900</v>
       </c>
       <c r="F46" s="3">
-        <v>7039800</v>
+        <v>7024700</v>
       </c>
       <c r="G46" s="3">
-        <v>5936900</v>
+        <v>6498200</v>
       </c>
       <c r="H46" s="3">
-        <v>6956300</v>
+        <v>5480200</v>
       </c>
       <c r="I46" s="3">
-        <v>7262700</v>
+        <v>6421200</v>
       </c>
       <c r="J46" s="3">
+        <v>6704100</v>
+      </c>
+      <c r="K46" s="3">
         <v>6157500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6074800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6949500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6758000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8113900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7028000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7907800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8174700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7564200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7431700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7064000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6082800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8133400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7962600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>8561200</v>
+        <v>8117900</v>
       </c>
       <c r="E47" s="3">
-        <v>1363000</v>
+        <v>7902600</v>
       </c>
       <c r="F47" s="3">
-        <v>1256800</v>
+        <v>1258200</v>
       </c>
       <c r="G47" s="3">
-        <v>1229300</v>
+        <v>1160100</v>
       </c>
       <c r="H47" s="3">
-        <v>1309700</v>
+        <v>1134800</v>
       </c>
       <c r="I47" s="3">
-        <v>1572000</v>
+        <v>1208900</v>
       </c>
       <c r="J47" s="3">
+        <v>1451100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1642600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1920700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1956400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1743300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1335500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1410900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1531900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1627300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1929500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1815500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1384000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1419900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1466400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1205600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>30378600</v>
+        <v>30365200</v>
       </c>
       <c r="E48" s="3">
-        <v>26771900</v>
+        <v>28041700</v>
       </c>
       <c r="F48" s="3">
-        <v>26402200</v>
+        <v>24712500</v>
       </c>
       <c r="G48" s="3">
-        <v>25693300</v>
+        <v>24371200</v>
       </c>
       <c r="H48" s="3">
-        <v>26100100</v>
+        <v>23716900</v>
       </c>
       <c r="I48" s="3">
-        <v>25975900</v>
+        <v>24092400</v>
       </c>
       <c r="J48" s="3">
+        <v>23977800</v>
+      </c>
+      <c r="K48" s="3">
         <v>26598600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24369500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24227100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23212000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23085100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22319900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22118800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24635700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24041100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26453800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>25781800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>26507600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>26236200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27921300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7843000</v>
+        <v>4626800</v>
       </c>
       <c r="E49" s="3">
-        <v>505000</v>
+        <v>7239700</v>
       </c>
       <c r="F49" s="3">
-        <v>498600</v>
+        <v>466100</v>
       </c>
       <c r="G49" s="3">
-        <v>496300</v>
+        <v>460300</v>
       </c>
       <c r="H49" s="3">
-        <v>499300</v>
+        <v>458100</v>
       </c>
       <c r="I49" s="3">
-        <v>387000</v>
+        <v>460900</v>
       </c>
       <c r="J49" s="3">
+        <v>357200</v>
+      </c>
+      <c r="K49" s="3">
         <v>397400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>364700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>355300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>354900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>361500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>345800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>354300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>383600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>384100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>415900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>404900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>375200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>380300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>393200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3338,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3406,76 +3522,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3713800</v>
+        <v>3103100</v>
       </c>
       <c r="E52" s="3">
-        <v>3076100</v>
+        <v>3428100</v>
       </c>
       <c r="F52" s="3">
-        <v>3005100</v>
+        <v>2839500</v>
       </c>
       <c r="G52" s="3">
-        <v>2892600</v>
+        <v>2773900</v>
       </c>
       <c r="H52" s="3">
-        <v>3167500</v>
+        <v>2670100</v>
       </c>
       <c r="I52" s="3">
-        <v>3061300</v>
+        <v>2923900</v>
       </c>
       <c r="J52" s="3">
+        <v>2825800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3302800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2486900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1880600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1713700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1711100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1717900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1535300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1653700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1652100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2499000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2571300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2636600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2342900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2548600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3542,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>62720800</v>
+        <v>58620000</v>
       </c>
       <c r="E54" s="3">
-        <v>39326100</v>
+        <v>57896100</v>
       </c>
       <c r="F54" s="3">
-        <v>38202500</v>
+        <v>36301000</v>
       </c>
       <c r="G54" s="3">
-        <v>36248500</v>
+        <v>35263800</v>
       </c>
       <c r="H54" s="3">
-        <v>38033000</v>
+        <v>33460100</v>
       </c>
       <c r="I54" s="3">
-        <v>38258900</v>
+        <v>35107300</v>
       </c>
       <c r="J54" s="3">
+        <v>35316000</v>
+      </c>
+      <c r="K54" s="3">
         <v>38098900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35216500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35368900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33781800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34607100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32822600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33448100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36475000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35571100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>38615900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37205900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37022200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38559200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>40031400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3636,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3662,416 +3791,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2184700</v>
+        <v>2512900</v>
       </c>
       <c r="E57" s="3">
-        <v>1874100</v>
+        <v>2016700</v>
       </c>
       <c r="F57" s="3">
-        <v>1746100</v>
+        <v>1729900</v>
       </c>
       <c r="G57" s="3">
-        <v>1687900</v>
+        <v>1611800</v>
       </c>
       <c r="H57" s="3">
-        <v>1399800</v>
+        <v>1558100</v>
       </c>
       <c r="I57" s="3">
-        <v>1225400</v>
+        <v>1292100</v>
       </c>
       <c r="J57" s="3">
+        <v>1131100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1753800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2109900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1923100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1823000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1658600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1788400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1669000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1569200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1386700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1628500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1347100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1319700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1235200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1540900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2250000</v>
+        <v>2209500</v>
       </c>
       <c r="E58" s="3">
-        <v>1384100</v>
+        <v>2077000</v>
       </c>
       <c r="F58" s="3">
-        <v>1353800</v>
+        <v>1277600</v>
       </c>
       <c r="G58" s="3">
-        <v>1280100</v>
+        <v>1249700</v>
       </c>
       <c r="H58" s="3">
-        <v>1622600</v>
+        <v>1181600</v>
       </c>
       <c r="I58" s="3">
-        <v>2472000</v>
+        <v>1497800</v>
       </c>
       <c r="J58" s="3">
+        <v>2281900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1593000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1303200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1221700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1103800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1091500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1045200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2169300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1703100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1479900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1646200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1636800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1254200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1310400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1361600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2814300</v>
+        <v>2537300</v>
       </c>
       <c r="E59" s="3">
-        <v>1767600</v>
+        <v>2597800</v>
       </c>
       <c r="F59" s="3">
-        <v>2090500</v>
+        <v>1631600</v>
       </c>
       <c r="G59" s="3">
-        <v>1785500</v>
+        <v>1929700</v>
       </c>
       <c r="H59" s="3">
-        <v>2522000</v>
+        <v>1648100</v>
       </c>
       <c r="I59" s="3">
-        <v>3223500</v>
+        <v>2328000</v>
       </c>
       <c r="J59" s="3">
+        <v>2975500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4170100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2239900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1948300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2444200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4481500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2086300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2384800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3290800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2116200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2184600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2070100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2920300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2505200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>7249100</v>
+        <v>7259700</v>
       </c>
       <c r="E60" s="3">
-        <v>5025700</v>
+        <v>6691400</v>
       </c>
       <c r="F60" s="3">
-        <v>5190400</v>
+        <v>4639100</v>
       </c>
       <c r="G60" s="3">
-        <v>4753400</v>
+        <v>4791200</v>
       </c>
       <c r="H60" s="3">
-        <v>5544400</v>
+        <v>4387800</v>
       </c>
       <c r="I60" s="3">
-        <v>6920800</v>
+        <v>5117900</v>
       </c>
       <c r="J60" s="3">
+        <v>6388500</v>
+      </c>
+      <c r="K60" s="3">
         <v>7517000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5653000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5093100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5371000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7231700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4634400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5924600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5657100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6157300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5390900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5168500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4644100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5465900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5407800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>21638500</v>
+        <v>20605100</v>
       </c>
       <c r="E61" s="3">
-        <v>11631600</v>
+        <v>19974000</v>
       </c>
       <c r="F61" s="3">
-        <v>11618700</v>
+        <v>10736900</v>
       </c>
       <c r="G61" s="3">
-        <v>10870200</v>
+        <v>10724900</v>
       </c>
       <c r="H61" s="3">
-        <v>12280900</v>
+        <v>10034000</v>
       </c>
       <c r="I61" s="3">
-        <v>11482100</v>
+        <v>11336200</v>
       </c>
       <c r="J61" s="3">
+        <v>10598900</v>
+      </c>
+      <c r="K61" s="3">
         <v>10485200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8639000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9688200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9012400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9095000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8851100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8601200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10695600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10807900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12289100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12638500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13502000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14821200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15871600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>9448400</v>
+        <v>8254700</v>
       </c>
       <c r="E62" s="3">
-        <v>6394000</v>
+        <v>8721600</v>
       </c>
       <c r="F62" s="3">
-        <v>6273900</v>
+        <v>5902200</v>
       </c>
       <c r="G62" s="3">
-        <v>6111800</v>
+        <v>5791300</v>
       </c>
       <c r="H62" s="3">
-        <v>5342700</v>
+        <v>5641700</v>
       </c>
       <c r="I62" s="3">
-        <v>5390400</v>
+        <v>4931700</v>
       </c>
       <c r="J62" s="3">
+        <v>4975800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5437900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5235000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4019500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4026100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4060300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3917900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4026500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4451000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4256600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5005900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4070100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3843000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3738900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3796500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4138,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4206,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4274,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>46342100</v>
+        <v>41404100</v>
       </c>
       <c r="E66" s="3">
-        <v>24027400</v>
+        <v>42777300</v>
       </c>
       <c r="F66" s="3">
-        <v>24026100</v>
+        <v>22179200</v>
       </c>
       <c r="G66" s="3">
-        <v>22703700</v>
+        <v>22177900</v>
       </c>
       <c r="H66" s="3">
-        <v>24144300</v>
+        <v>20957200</v>
       </c>
       <c r="I66" s="3">
-        <v>24829700</v>
+        <v>22287100</v>
       </c>
       <c r="J66" s="3">
+        <v>22919800</v>
+      </c>
+      <c r="K66" s="3">
         <v>24429400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20549300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19382000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19002400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20923200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17947000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19039000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21376300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21713500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23288300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22436200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22579500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24545600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25619100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4368,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4436,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4504,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4572,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4640,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5852300</v>
+        <v>6914900</v>
       </c>
       <c r="E72" s="3">
-        <v>4862400</v>
+        <v>5402100</v>
       </c>
       <c r="F72" s="3">
-        <v>3893600</v>
+        <v>4488400</v>
       </c>
       <c r="G72" s="3">
-        <v>3272700</v>
+        <v>3594100</v>
       </c>
       <c r="H72" s="3">
-        <v>3097200</v>
+        <v>3021000</v>
       </c>
       <c r="I72" s="3">
-        <v>2874900</v>
+        <v>2859000</v>
       </c>
       <c r="J72" s="3">
+        <v>2653800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2868400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4758100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4799200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3986200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3044700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4623800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4086800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3708300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2652600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3163800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2067600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1746600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1329000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1390300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4776,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4844,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4912,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>16378600</v>
+        <v>17215900</v>
       </c>
       <c r="E76" s="3">
-        <v>15298700</v>
+        <v>15118700</v>
       </c>
       <c r="F76" s="3">
-        <v>14176400</v>
+        <v>14121800</v>
       </c>
       <c r="G76" s="3">
-        <v>13544800</v>
+        <v>13085900</v>
       </c>
       <c r="H76" s="3">
-        <v>13888600</v>
+        <v>12502900</v>
       </c>
       <c r="I76" s="3">
-        <v>13429200</v>
+        <v>12820300</v>
       </c>
       <c r="J76" s="3">
+        <v>12396200</v>
+      </c>
+      <c r="K76" s="3">
         <v>13669400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14667200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15986900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14779400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13683900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14875500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14409100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15098700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13857600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15327600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14769700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14442700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14013600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14412400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5048,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>989900</v>
+        <v>1458500</v>
       </c>
       <c r="E81" s="3">
-        <v>968300</v>
+        <v>913700</v>
       </c>
       <c r="F81" s="3">
-        <v>802300</v>
+        <v>893800</v>
       </c>
       <c r="G81" s="3">
-        <v>175500</v>
+        <v>740600</v>
       </c>
       <c r="H81" s="3">
-        <v>222300</v>
+        <v>162000</v>
       </c>
       <c r="I81" s="3">
-        <v>6500</v>
+        <v>205200</v>
       </c>
       <c r="J81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K81" s="3">
         <v>34600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1042300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>813000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>941500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>741000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>688300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>749200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1840300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>784400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1096500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>321100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>417500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>283500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>61400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5215,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>698500</v>
+        <v>666200</v>
       </c>
       <c r="E83" s="3">
-        <v>622800</v>
+        <v>644800</v>
       </c>
       <c r="F83" s="3">
-        <v>598500</v>
+        <v>574900</v>
       </c>
       <c r="G83" s="3">
-        <v>647800</v>
+        <v>552500</v>
       </c>
       <c r="H83" s="3">
-        <v>597700</v>
+        <v>598000</v>
       </c>
       <c r="I83" s="3">
-        <v>595300</v>
+        <v>551700</v>
       </c>
       <c r="J83" s="3">
+        <v>549500</v>
+      </c>
+      <c r="K83" s="3">
         <v>579700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>592200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>595600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>565200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>537500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>497000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>559000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1112400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>537300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>588000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>713800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>683300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>660300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>634300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5351,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5419,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5487,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5555,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5623,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1372700</v>
+        <v>2642300</v>
       </c>
       <c r="E89" s="3">
-        <v>861500</v>
+        <v>1267100</v>
       </c>
       <c r="F89" s="3">
-        <v>762700</v>
+        <v>795300</v>
       </c>
       <c r="G89" s="3">
-        <v>1387200</v>
+        <v>704000</v>
       </c>
       <c r="H89" s="3">
-        <v>917000</v>
+        <v>1280500</v>
       </c>
       <c r="I89" s="3">
-        <v>-584400</v>
+        <v>846400</v>
       </c>
       <c r="J89" s="3">
+        <v>-539500</v>
+      </c>
+      <c r="K89" s="3">
         <v>668800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1966900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2513500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1620900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1305300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1176500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2309500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2794100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1401900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2033100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1494000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>478900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1425500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1328000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5717,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-448500</v>
+        <v>-512300</v>
       </c>
       <c r="E91" s="3">
-        <v>-366100</v>
+        <v>-414000</v>
       </c>
       <c r="F91" s="3">
-        <v>-221000</v>
+        <v>-337900</v>
       </c>
       <c r="G91" s="3">
-        <v>-445400</v>
+        <v>-204000</v>
       </c>
       <c r="H91" s="3">
-        <v>-347600</v>
+        <v>-411100</v>
       </c>
       <c r="I91" s="3">
-        <v>-301500</v>
+        <v>-320800</v>
       </c>
       <c r="J91" s="3">
+        <v>-278300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-214000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-385700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-324300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-196700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-161900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-358000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-220300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-333000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-133100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-305300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-160000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-90800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-743300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5853,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5921,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3478200</v>
+        <v>-916800</v>
       </c>
       <c r="E94" s="3">
-        <v>-683500</v>
+        <v>-3210700</v>
       </c>
       <c r="F94" s="3">
-        <v>-179900</v>
+        <v>-630900</v>
       </c>
       <c r="G94" s="3">
-        <v>-572800</v>
+        <v>-166000</v>
       </c>
       <c r="H94" s="3">
-        <v>-44200</v>
+        <v>-528700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1375900</v>
+        <v>-40800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1270000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-224600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1183000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-712600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-475200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-293400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>130100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-973300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-623200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1472300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-834500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6015,76 +6247,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-71200</v>
+        <v>-323200</v>
       </c>
       <c r="E96" s="3">
-        <v>-255400</v>
+        <v>-65700</v>
       </c>
       <c r="F96" s="3">
-        <v>-43700</v>
+        <v>-235800</v>
       </c>
       <c r="G96" s="3">
-        <v>-906700</v>
+        <v>-40300</v>
       </c>
       <c r="H96" s="3">
-        <v>-756700</v>
+        <v>-837000</v>
       </c>
       <c r="I96" s="3">
-        <v>-496800</v>
+        <v>-698500</v>
       </c>
       <c r="J96" s="3">
+        <v>-458600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-110700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-990600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-832000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-89800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-36500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-494600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-736600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-73500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-63900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-53900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-327100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-36600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-105500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6151,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6219,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6287,208 +6529,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>3435100</v>
+        <v>-734000</v>
       </c>
       <c r="E100" s="3">
-        <v>-628200</v>
+        <v>3170900</v>
       </c>
       <c r="F100" s="3">
-        <v>-202500</v>
+        <v>-579900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1405800</v>
+        <v>-187000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1244600</v>
+        <v>-1297700</v>
       </c>
       <c r="I100" s="3">
-        <v>2233600</v>
+        <v>-1148900</v>
       </c>
       <c r="J100" s="3">
+        <v>2061800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-266700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1261300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-954100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-274300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-273900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-877700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-278100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-294000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-314200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-12700</v>
+        <v>79700</v>
       </c>
       <c r="E101" s="3">
-        <v>17000</v>
+        <v>-11700</v>
       </c>
       <c r="F101" s="3">
-        <v>37100</v>
+        <v>15700</v>
       </c>
       <c r="G101" s="3">
-        <v>-122600</v>
+        <v>34300</v>
       </c>
       <c r="H101" s="3">
-        <v>2900</v>
+        <v>-113200</v>
       </c>
       <c r="I101" s="3">
-        <v>-156200</v>
+        <v>2700</v>
       </c>
       <c r="J101" s="3">
+        <v>-144100</v>
+      </c>
+      <c r="K101" s="3">
         <v>270100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-38800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>108200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>30500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-28500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>107900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>51800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-60100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-72400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-78800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>69600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-93500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>51000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1317000</v>
+        <v>1071100</v>
       </c>
       <c r="E102" s="3">
-        <v>-433200</v>
+        <v>1215700</v>
       </c>
       <c r="F102" s="3">
-        <v>417400</v>
+        <v>-399800</v>
       </c>
       <c r="G102" s="3">
-        <v>-714100</v>
+        <v>385300</v>
       </c>
       <c r="H102" s="3">
-        <v>-369000</v>
+        <v>-659100</v>
       </c>
       <c r="I102" s="3">
-        <v>117200</v>
+        <v>-340600</v>
       </c>
       <c r="J102" s="3">
+        <v>108200</v>
+      </c>
+      <c r="K102" s="3">
         <v>447600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-516200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>955000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-921700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>709100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-210300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>211400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-482500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>30000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>513900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-613900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-78600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>230300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,320 +662,346 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7622700</v>
+        <v>10093500</v>
       </c>
       <c r="E8" s="3">
-        <v>5599900</v>
+        <v>7468700</v>
       </c>
       <c r="F8" s="3">
-        <v>4666600</v>
+        <v>7305100</v>
       </c>
       <c r="G8" s="3">
-        <v>4129400</v>
+        <v>5366500</v>
       </c>
       <c r="H8" s="3">
-        <v>3405600</v>
+        <v>4472200</v>
       </c>
       <c r="I8" s="3">
+        <v>3957400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3263700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2957500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2026000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3918700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4831100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4863900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4943300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4304500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4761700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4826500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9488900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4392800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4916200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4263900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4208300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4278900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4393300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4591800</v>
+        <v>5307900</v>
       </c>
       <c r="E9" s="3">
-        <v>3481400</v>
+        <v>4125700</v>
       </c>
       <c r="F9" s="3">
-        <v>2743500</v>
+        <v>4400400</v>
       </c>
       <c r="G9" s="3">
-        <v>2522900</v>
+        <v>3336400</v>
       </c>
       <c r="H9" s="3">
-        <v>2473600</v>
+        <v>2629200</v>
       </c>
       <c r="I9" s="3">
+        <v>2417800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2370500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2002500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1827700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2934600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3190200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3034900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3027600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2763200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3105100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2868100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5581200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2654000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3118400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2808700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2952200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2926600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3202400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3030900</v>
+        <v>4785700</v>
       </c>
       <c r="E10" s="3">
-        <v>2118400</v>
+        <v>3343000</v>
       </c>
       <c r="F10" s="3">
-        <v>1923100</v>
+        <v>2904600</v>
       </c>
       <c r="G10" s="3">
-        <v>1606500</v>
+        <v>2030200</v>
       </c>
       <c r="H10" s="3">
-        <v>932000</v>
+        <v>1842900</v>
       </c>
       <c r="I10" s="3">
+        <v>1539600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>893200</v>
+      </c>
+      <c r="K10" s="3">
         <v>955000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>198300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>984100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1641000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1829000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1915700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1541300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1656600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1958400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3907700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1738700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1797800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1455200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1256100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1352300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1190900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,79 +1027,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>101600</v>
+        <v>102300</v>
       </c>
       <c r="E12" s="3">
-        <v>72200</v>
+        <v>21400</v>
       </c>
       <c r="F12" s="3">
-        <v>16200</v>
+        <v>97400</v>
       </c>
       <c r="G12" s="3">
-        <v>40300</v>
+        <v>69200</v>
       </c>
       <c r="H12" s="3">
-        <v>98900</v>
+        <v>15500</v>
       </c>
       <c r="I12" s="3">
+        <v>38700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K12" s="3">
         <v>23800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>33600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>103000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>15700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>66900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>16600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>50300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>271600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>56400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>21200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>292200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>103900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>24700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>8600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>96800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,150 +1177,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>24000</v>
+        <v>3400</v>
       </c>
       <c r="E14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-133200</v>
-      </c>
       <c r="I14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-328800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>314200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>187600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>4100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>149000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-26200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-14700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-34600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-556400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>7900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-12900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>244000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>89200</v>
+        <v>30000</v>
       </c>
       <c r="E15" s="3">
-        <v>13700</v>
+        <v>29900</v>
       </c>
       <c r="F15" s="3">
-        <v>16200</v>
+        <v>85500</v>
       </c>
       <c r="G15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H15" s="3">
         <v>15500</v>
       </c>
-      <c r="H15" s="3">
-        <v>45900</v>
-      </c>
       <c r="I15" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K15" s="3">
         <v>3100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>12900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>20000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>46000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>10700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>11200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>5400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>7800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>4500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>11500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>6100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>8700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>15000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>10900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>13300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>16400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1361,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5129400</v>
+        <v>5813800</v>
       </c>
       <c r="E17" s="3">
-        <v>3895300</v>
+        <v>4586900</v>
       </c>
       <c r="F17" s="3">
-        <v>3093100</v>
+        <v>4915700</v>
       </c>
       <c r="G17" s="3">
-        <v>2806200</v>
+        <v>3733000</v>
       </c>
       <c r="H17" s="3">
-        <v>2918600</v>
+        <v>2964200</v>
       </c>
       <c r="I17" s="3">
+        <v>2689300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2797000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2319800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1827300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3529200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3845900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3321700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3334800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2966200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3593200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3300300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6019600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2838800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3111000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3200600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3162600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3223200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3854400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2493200</v>
+        <v>4279700</v>
       </c>
       <c r="E18" s="3">
-        <v>1704600</v>
+        <v>2881800</v>
       </c>
       <c r="F18" s="3">
-        <v>1573500</v>
+        <v>2389400</v>
       </c>
       <c r="G18" s="3">
-        <v>1323200</v>
+        <v>1633500</v>
       </c>
       <c r="H18" s="3">
-        <v>487000</v>
+        <v>1508000</v>
       </c>
       <c r="I18" s="3">
+        <v>1268100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>466700</v>
+      </c>
+      <c r="K18" s="3">
         <v>637700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>198700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>389600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>985200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1542100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1608600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1338300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1168600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1526200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3469300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1554000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1805100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1063300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1045700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1055600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>538900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1478,363 +1544,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-21600</v>
+        <v>-96800</v>
       </c>
       <c r="E20" s="3">
-        <v>27800</v>
+        <v>-51400</v>
       </c>
       <c r="F20" s="3">
-        <v>-39000</v>
+        <v>-20700</v>
       </c>
       <c r="G20" s="3">
-        <v>-9600</v>
+        <v>26600</v>
       </c>
       <c r="H20" s="3">
-        <v>80300</v>
+        <v>-37300</v>
       </c>
       <c r="I20" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-70500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>31500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-47000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>80100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-31700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>43400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>61300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>83200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>19300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>45700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>26900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>18100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-58800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>117200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-111000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>291700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3137800</v>
+        <v>4839800</v>
       </c>
       <c r="E21" s="3">
-        <v>2377100</v>
+        <v>3453600</v>
       </c>
       <c r="F21" s="3">
-        <v>2109500</v>
+        <v>3007000</v>
       </c>
       <c r="G21" s="3">
-        <v>1866100</v>
+        <v>2278100</v>
       </c>
       <c r="H21" s="3">
-        <v>1165300</v>
+        <v>2021600</v>
       </c>
       <c r="I21" s="3">
+        <v>1788400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1116700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1118900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>779700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>922300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1657500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2106000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2217200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1937100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1748700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2104600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4627400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2118200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2411200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1718300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1846200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1604900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1464900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>294600</v>
+        <v>306400</v>
       </c>
       <c r="E22" s="3">
-        <v>168400</v>
+        <v>252700</v>
       </c>
       <c r="F22" s="3">
-        <v>145800</v>
+        <v>282300</v>
       </c>
       <c r="G22" s="3">
-        <v>134100</v>
+        <v>161400</v>
       </c>
       <c r="H22" s="3">
-        <v>143600</v>
+        <v>139700</v>
       </c>
       <c r="I22" s="3">
+        <v>128500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K22" s="3">
         <v>155400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>156700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>126200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>127000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>128100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>129500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>122000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>183100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>144600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>347900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>171800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>206800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>198200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>153300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>205200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>226800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2177000</v>
+        <v>3876500</v>
       </c>
       <c r="E23" s="3">
-        <v>1564000</v>
+        <v>2577800</v>
       </c>
       <c r="F23" s="3">
-        <v>1388800</v>
+        <v>2086300</v>
       </c>
       <c r="G23" s="3">
-        <v>1179500</v>
+        <v>1498800</v>
       </c>
       <c r="H23" s="3">
-        <v>423700</v>
+        <v>1330900</v>
       </c>
       <c r="I23" s="3">
+        <v>1130400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>406000</v>
+      </c>
+      <c r="K23" s="3">
         <v>411700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>73500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>216300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>938200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1382300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1522500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1277600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1068600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1401000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3167100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1409100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1616500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>806300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1009600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>739400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>603800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>495300</v>
+        <v>1221200</v>
       </c>
       <c r="E24" s="3">
-        <v>526500</v>
+        <v>893300</v>
       </c>
       <c r="F24" s="3">
-        <v>424200</v>
+        <v>474700</v>
       </c>
       <c r="G24" s="3">
-        <v>368800</v>
+        <v>504600</v>
       </c>
       <c r="H24" s="3">
-        <v>203800</v>
+        <v>406600</v>
       </c>
       <c r="I24" s="3">
+        <v>353400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>195300</v>
+      </c>
+      <c r="K24" s="3">
         <v>137100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>91500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-186900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>477900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>505400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>451800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>303400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>589000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1192000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>564000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>457200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>414600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>535100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>396300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>485600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,150 +2002,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1681700</v>
+        <v>2655300</v>
       </c>
       <c r="E26" s="3">
-        <v>1037400</v>
+        <v>1684500</v>
       </c>
       <c r="F26" s="3">
-        <v>964600</v>
+        <v>1611600</v>
       </c>
       <c r="G26" s="3">
-        <v>810700</v>
+        <v>994200</v>
       </c>
       <c r="H26" s="3">
-        <v>219900</v>
+        <v>924400</v>
       </c>
       <c r="I26" s="3">
+        <v>776900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>210700</v>
+      </c>
+      <c r="K26" s="3">
         <v>274600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>72400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>124800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1125100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>904500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1017100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>825800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>765200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>811900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1975100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>845100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1159300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>391700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>474500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>343200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>118200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1458500</v>
+        <v>2408100</v>
       </c>
       <c r="E27" s="3">
-        <v>913700</v>
+        <v>1511700</v>
       </c>
       <c r="F27" s="3">
-        <v>893800</v>
+        <v>1397800</v>
       </c>
       <c r="G27" s="3">
-        <v>740600</v>
+        <v>875700</v>
       </c>
       <c r="H27" s="3">
-        <v>162000</v>
+        <v>856600</v>
       </c>
       <c r="I27" s="3">
+        <v>709800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K27" s="3">
         <v>205200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>34600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1042300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>813000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>941500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>741000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>688300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>749200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1840300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>784400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1096500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>321100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>417500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>283500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>61400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2117,8 +2233,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2188,8 +2310,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2259,8 +2387,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,150 +2464,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>21600</v>
+        <v>96800</v>
       </c>
       <c r="E32" s="3">
-        <v>-27800</v>
+        <v>51400</v>
       </c>
       <c r="F32" s="3">
-        <v>39000</v>
+        <v>20700</v>
       </c>
       <c r="G32" s="3">
-        <v>9600</v>
+        <v>-26600</v>
       </c>
       <c r="H32" s="3">
-        <v>-80300</v>
+        <v>37300</v>
       </c>
       <c r="I32" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K32" s="3">
         <v>70500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-31500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>47000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-80100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>31700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-43400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-61300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-83200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-19300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-45700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-26900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-18100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>58800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-117200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>111000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-291700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1458500</v>
+        <v>2408100</v>
       </c>
       <c r="E33" s="3">
-        <v>913700</v>
+        <v>1511700</v>
       </c>
       <c r="F33" s="3">
-        <v>893800</v>
+        <v>1397800</v>
       </c>
       <c r="G33" s="3">
-        <v>740600</v>
+        <v>875700</v>
       </c>
       <c r="H33" s="3">
-        <v>162000</v>
+        <v>856600</v>
       </c>
       <c r="I33" s="3">
+        <v>709800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K33" s="3">
         <v>205200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>34600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1042300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>813000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>941500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>741000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>688300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>749200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1840300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>784400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1096500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>321100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>417500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>283500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>61400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2543,155 +2695,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1458500</v>
+        <v>2408100</v>
       </c>
       <c r="E35" s="3">
-        <v>913700</v>
+        <v>1511700</v>
       </c>
       <c r="F35" s="3">
-        <v>893800</v>
+        <v>1397800</v>
       </c>
       <c r="G35" s="3">
-        <v>740600</v>
+        <v>875700</v>
       </c>
       <c r="H35" s="3">
-        <v>162000</v>
+        <v>856600</v>
       </c>
       <c r="I35" s="3">
+        <v>709800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K35" s="3">
         <v>205200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>34600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1042300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>813000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>941500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>741000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>688300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>749200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1840300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>784400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1096500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>321100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>417500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>283500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>61400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2717,8 +2887,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2744,647 +2916,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3492000</v>
+        <v>2323800</v>
       </c>
       <c r="E41" s="3">
-        <v>2420800</v>
+        <v>3219800</v>
       </c>
       <c r="F41" s="3">
-        <v>1205200</v>
+        <v>3346500</v>
       </c>
       <c r="G41" s="3">
-        <v>1605000</v>
+        <v>2320000</v>
       </c>
       <c r="H41" s="3">
-        <v>1219800</v>
+        <v>1155000</v>
       </c>
       <c r="I41" s="3">
+        <v>1538100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1168900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1878900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2219500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2287300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1839700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2446500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1491500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2413200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1641100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1922600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1901200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2359900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1755700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1832500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1501600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1561700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1095700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>517100</v>
+        <v>381400</v>
       </c>
       <c r="E42" s="3">
-        <v>509800</v>
+        <v>495400</v>
       </c>
       <c r="F42" s="3">
-        <v>117000</v>
+        <v>495600</v>
       </c>
       <c r="G42" s="3">
-        <v>179200</v>
+        <v>488500</v>
       </c>
       <c r="H42" s="3">
-        <v>579100</v>
+        <v>112200</v>
       </c>
       <c r="I42" s="3">
+        <v>171800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K42" s="3">
         <v>839200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>999800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>247600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>459900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>662000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>906600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1349100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1383500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2042100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1878800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1325000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1736700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1560200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1118400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3310400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>3450900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6087200</v>
+        <v>8255500</v>
       </c>
       <c r="E43" s="3">
-        <v>5783300</v>
+        <v>7063600</v>
       </c>
       <c r="F43" s="3">
-        <v>3778900</v>
+        <v>5833600</v>
       </c>
       <c r="G43" s="3">
-        <v>2920100</v>
+        <v>5542400</v>
       </c>
       <c r="H43" s="3">
-        <v>2240800</v>
+        <v>3621400</v>
       </c>
       <c r="I43" s="3">
+        <v>2798400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2147400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2097900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2059500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1806900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2131500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2049800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2634900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2725700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2538700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2350500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2628100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2269200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2341000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1978600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1905300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1705700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2007700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2015600</v>
+        <v>2800600</v>
       </c>
       <c r="E44" s="3">
-        <v>2178800</v>
+        <v>2523500</v>
       </c>
       <c r="F44" s="3">
-        <v>1722600</v>
+        <v>1931600</v>
       </c>
       <c r="G44" s="3">
-        <v>1537800</v>
+        <v>2088000</v>
       </c>
       <c r="H44" s="3">
-        <v>1213000</v>
+        <v>1650800</v>
       </c>
       <c r="I44" s="3">
+        <v>1473800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1162400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1322500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1208400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1511100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1471100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1594800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1580600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1479100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1326100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1461500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1641500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1478800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1472400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1512100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1366100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1385800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1267800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>295100</v>
+        <v>271000</v>
       </c>
       <c r="E45" s="3">
-        <v>391200</v>
+        <v>302000</v>
       </c>
       <c r="F45" s="3">
-        <v>201000</v>
+        <v>282800</v>
       </c>
       <c r="G45" s="3">
-        <v>256100</v>
+        <v>374900</v>
       </c>
       <c r="H45" s="3">
-        <v>227700</v>
+        <v>192700</v>
       </c>
       <c r="I45" s="3">
+        <v>245400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>218200</v>
+      </c>
+      <c r="K45" s="3">
         <v>282900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>216900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>304500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>172500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>196300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>144400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>146700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>138600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>131000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>125000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>131300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>125800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>180600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>191400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>169900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>140500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>12407000</v>
+        <v>14032400</v>
       </c>
       <c r="E46" s="3">
-        <v>11283900</v>
+        <v>13604300</v>
       </c>
       <c r="F46" s="3">
-        <v>7024700</v>
+        <v>11890000</v>
       </c>
       <c r="G46" s="3">
-        <v>6498200</v>
+        <v>10813700</v>
       </c>
       <c r="H46" s="3">
-        <v>5480200</v>
+        <v>6732000</v>
       </c>
       <c r="I46" s="3">
+        <v>6227500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5251900</v>
+      </c>
+      <c r="K46" s="3">
         <v>6421200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6704100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6157500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6074800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6949500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6758000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8113900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7028000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7907800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8174700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7564200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7431700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7064000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6082800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8133400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7962600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>8117900</v>
+        <v>8328800</v>
       </c>
       <c r="E47" s="3">
-        <v>7902600</v>
+        <v>8303700</v>
       </c>
       <c r="F47" s="3">
-        <v>1258200</v>
+        <v>7779600</v>
       </c>
       <c r="G47" s="3">
-        <v>1160100</v>
+        <v>7573400</v>
       </c>
       <c r="H47" s="3">
-        <v>1134800</v>
+        <v>1205700</v>
       </c>
       <c r="I47" s="3">
+        <v>1111800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1087500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1208900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1451100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1642600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1920700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1956400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1743300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1335500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1410900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1531900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1627300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1929500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1815500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1384000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1419900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1466400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1205600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>30365200</v>
+        <v>30042300</v>
       </c>
       <c r="E48" s="3">
-        <v>28041700</v>
+        <v>28593400</v>
       </c>
       <c r="F48" s="3">
-        <v>24712500</v>
+        <v>29100000</v>
       </c>
       <c r="G48" s="3">
-        <v>24371200</v>
+        <v>26873300</v>
       </c>
       <c r="H48" s="3">
-        <v>23716900</v>
+        <v>23682800</v>
       </c>
       <c r="I48" s="3">
+        <v>23355800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>22728700</v>
+      </c>
+      <c r="K48" s="3">
         <v>24092400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>23977800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>26598600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>24369500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>24227100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>23212000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>23085100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>22319900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>22118800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>24635700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>24041100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>26453800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>25781800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>26507600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>26236200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>27921300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4626800</v>
+        <v>4716500</v>
       </c>
       <c r="E49" s="3">
-        <v>7239700</v>
+        <v>4407600</v>
       </c>
       <c r="F49" s="3">
-        <v>466100</v>
+        <v>4434000</v>
       </c>
       <c r="G49" s="3">
-        <v>460300</v>
+        <v>6938100</v>
       </c>
       <c r="H49" s="3">
-        <v>458100</v>
+        <v>446700</v>
       </c>
       <c r="I49" s="3">
+        <v>441100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>439000</v>
+      </c>
+      <c r="K49" s="3">
         <v>460900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>357200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>397400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>364700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>355300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>354900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>361500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>345800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>354300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>383600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>384100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>415900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>404900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>375200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>380300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>393200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3454,8 +3682,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3525,79 +3759,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3103100</v>
+        <v>3341800</v>
       </c>
       <c r="E52" s="3">
-        <v>3428100</v>
+        <v>2782000</v>
       </c>
       <c r="F52" s="3">
-        <v>2839500</v>
+        <v>2973800</v>
       </c>
       <c r="G52" s="3">
-        <v>2773900</v>
+        <v>3285300</v>
       </c>
       <c r="H52" s="3">
-        <v>2670100</v>
+        <v>2721200</v>
       </c>
       <c r="I52" s="3">
+        <v>2658400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2558800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2923900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2825800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3302800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2486900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1880600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1713700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1711100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1717900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1535300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1653700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1652100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2499000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2571300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2636600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2342900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2548600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3667,79 +3913,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>58620000</v>
+        <v>60461700</v>
       </c>
       <c r="E54" s="3">
-        <v>57896100</v>
+        <v>57691000</v>
       </c>
       <c r="F54" s="3">
-        <v>36301000</v>
+        <v>56177500</v>
       </c>
       <c r="G54" s="3">
-        <v>35263800</v>
+        <v>55483800</v>
       </c>
       <c r="H54" s="3">
-        <v>33460100</v>
+        <v>34788500</v>
       </c>
       <c r="I54" s="3">
+        <v>33794500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>32065900</v>
+      </c>
+      <c r="K54" s="3">
         <v>35107300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>35316000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>38098900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>35216500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>35368900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>33781800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>34607100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>32822600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>33448100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>36475000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>35571100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>38615900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>37205900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>37022200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>38559200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>40031400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3765,8 +4023,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3792,434 +4052,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2512900</v>
+        <v>3034500</v>
       </c>
       <c r="E57" s="3">
-        <v>2016700</v>
+        <v>2534100</v>
       </c>
       <c r="F57" s="3">
-        <v>1729900</v>
+        <v>2408200</v>
       </c>
       <c r="G57" s="3">
-        <v>1611800</v>
+        <v>1932600</v>
       </c>
       <c r="H57" s="3">
-        <v>1558100</v>
+        <v>1657800</v>
       </c>
       <c r="I57" s="3">
+        <v>1544600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1493100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1292100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1131100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1753800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2109900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1923100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1823000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1658600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1788400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1669000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1569200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1386700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1628500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1347100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1319700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1235200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1540900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2209500</v>
+        <v>2245500</v>
       </c>
       <c r="E58" s="3">
-        <v>2077000</v>
+        <v>2009900</v>
       </c>
       <c r="F58" s="3">
-        <v>1277600</v>
+        <v>2117400</v>
       </c>
       <c r="G58" s="3">
-        <v>1249700</v>
+        <v>1990400</v>
       </c>
       <c r="H58" s="3">
-        <v>1181600</v>
+        <v>1224400</v>
       </c>
       <c r="I58" s="3">
+        <v>1197600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1132400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1497800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2281900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1593000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1303200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1221700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1103800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1091500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1045200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2169300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1703100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1479900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1646200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1636800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1254200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1310400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1361600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2537300</v>
+        <v>4322900</v>
       </c>
       <c r="E59" s="3">
-        <v>2597800</v>
+        <v>5294000</v>
       </c>
       <c r="F59" s="3">
-        <v>1631600</v>
+        <v>2431600</v>
       </c>
       <c r="G59" s="3">
-        <v>1929700</v>
+        <v>2489600</v>
       </c>
       <c r="H59" s="3">
-        <v>1648100</v>
+        <v>1563600</v>
       </c>
       <c r="I59" s="3">
+        <v>1849300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1579500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2328000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2975500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4170100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2239900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1948300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2444200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4481500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1800800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2086300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2384800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3290800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2116200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2184600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2070100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2920300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2505200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>7259700</v>
+        <v>9602900</v>
       </c>
       <c r="E60" s="3">
-        <v>6691400</v>
+        <v>9838000</v>
       </c>
       <c r="F60" s="3">
-        <v>4639100</v>
+        <v>6957200</v>
       </c>
       <c r="G60" s="3">
-        <v>4791200</v>
+        <v>6412600</v>
       </c>
       <c r="H60" s="3">
-        <v>4387800</v>
+        <v>4445800</v>
       </c>
       <c r="I60" s="3">
+        <v>4591500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4205000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5117900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6388500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7517000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5653000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5093100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5371000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7231700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4634400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5924600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5657100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6157300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5390900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5168500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4644100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5465900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5407800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>20605100</v>
+        <v>20466200</v>
       </c>
       <c r="E61" s="3">
-        <v>19974000</v>
+        <v>19062300</v>
       </c>
       <c r="F61" s="3">
-        <v>10736900</v>
+        <v>19746600</v>
       </c>
       <c r="G61" s="3">
-        <v>10724900</v>
+        <v>19141700</v>
       </c>
       <c r="H61" s="3">
-        <v>10034000</v>
+        <v>10289500</v>
       </c>
       <c r="I61" s="3">
+        <v>10278000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9615900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11336200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10598900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10485200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8639000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9688200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9012400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>9095000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8851100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>8601200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>10695600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>10807900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>12289100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>12638500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>13502000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>14821200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>15871600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>8254700</v>
+        <v>8616800</v>
       </c>
       <c r="E62" s="3">
-        <v>8721600</v>
+        <v>8287600</v>
       </c>
       <c r="F62" s="3">
-        <v>5902200</v>
+        <v>7910800</v>
       </c>
       <c r="G62" s="3">
-        <v>5791300</v>
+        <v>8358200</v>
       </c>
       <c r="H62" s="3">
-        <v>5641700</v>
+        <v>5656300</v>
       </c>
       <c r="I62" s="3">
+        <v>5550000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5406600</v>
+      </c>
+      <c r="K62" s="3">
         <v>4931700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4975800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5437900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5235000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4019500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4026100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4060300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3917900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4026500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4451000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>4256600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>5005900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>4070100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>3843000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>3738900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>3796500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4289,8 +4587,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4360,8 +4664,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4431,79 +4741,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>41404100</v>
+        <v>44222000</v>
       </c>
       <c r="E66" s="3">
-        <v>42777300</v>
+        <v>42406300</v>
       </c>
       <c r="F66" s="3">
-        <v>22179200</v>
+        <v>39678900</v>
       </c>
       <c r="G66" s="3">
-        <v>22177900</v>
+        <v>40995000</v>
       </c>
       <c r="H66" s="3">
-        <v>20957200</v>
+        <v>21255000</v>
       </c>
       <c r="I66" s="3">
+        <v>21253900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20084000</v>
+      </c>
+      <c r="K66" s="3">
         <v>22287100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22919800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24429400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20549300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19382000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19002400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20923200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>17947000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19039000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21376300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>21713500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>23288300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>22436200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>22579500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>24545600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>25619100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4529,8 +4851,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4600,8 +4924,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4671,8 +5001,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4742,8 +5078,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4813,79 +5155,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6914900</v>
+        <v>6319500</v>
       </c>
       <c r="E72" s="3">
-        <v>5402100</v>
+        <v>5500200</v>
       </c>
       <c r="F72" s="3">
-        <v>4488400</v>
+        <v>6626700</v>
       </c>
       <c r="G72" s="3">
-        <v>3594100</v>
+        <v>5177000</v>
       </c>
       <c r="H72" s="3">
-        <v>3021000</v>
+        <v>4301300</v>
       </c>
       <c r="I72" s="3">
+        <v>3444300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2895100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2859000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2653800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2868400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4758100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4799200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3986200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3044700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4623800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4086800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>3708300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>2652600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>3163800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>2067600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1746600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1329000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1390300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4955,8 +5309,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5026,8 +5386,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5097,79 +5463,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>17215900</v>
+        <v>16239700</v>
       </c>
       <c r="E76" s="3">
-        <v>15118700</v>
+        <v>15284700</v>
       </c>
       <c r="F76" s="3">
-        <v>14121800</v>
+        <v>16498600</v>
       </c>
       <c r="G76" s="3">
-        <v>13085900</v>
+        <v>14488800</v>
       </c>
       <c r="H76" s="3">
-        <v>12502900</v>
+        <v>13533400</v>
       </c>
       <c r="I76" s="3">
+        <v>12540600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11981900</v>
+      </c>
+      <c r="K76" s="3">
         <v>12820300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12396200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13669400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14667200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>15986900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14779400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13683900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>14875500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14409100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>15098700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>13857600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>15327600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>14769700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>14442700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>14013600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>14412400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5239,155 +5617,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1458500</v>
+        <v>2408100</v>
       </c>
       <c r="E81" s="3">
-        <v>913700</v>
+        <v>1511700</v>
       </c>
       <c r="F81" s="3">
-        <v>893800</v>
+        <v>1397800</v>
       </c>
       <c r="G81" s="3">
-        <v>740600</v>
+        <v>875700</v>
       </c>
       <c r="H81" s="3">
-        <v>162000</v>
+        <v>856600</v>
       </c>
       <c r="I81" s="3">
+        <v>709800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K81" s="3">
         <v>205200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>34600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1042300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>813000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>941500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>741000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>688300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>749200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1840300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>784400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1096500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>321100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>417500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>283500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>61400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5413,79 +5809,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>666200</v>
+        <v>656900</v>
       </c>
       <c r="E83" s="3">
-        <v>644800</v>
+        <v>623200</v>
       </c>
       <c r="F83" s="3">
-        <v>574900</v>
+        <v>638400</v>
       </c>
       <c r="G83" s="3">
-        <v>552500</v>
+        <v>617900</v>
       </c>
       <c r="H83" s="3">
-        <v>598000</v>
+        <v>551000</v>
       </c>
       <c r="I83" s="3">
+        <v>529500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>573100</v>
+      </c>
+      <c r="K83" s="3">
         <v>551700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>549500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>579700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>592200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>595600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>565200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>537500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>497000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>559000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1112400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>537300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>588000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>713800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>683300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>660300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>634300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5555,8 +5959,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5626,8 +6036,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5697,8 +6113,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5768,8 +6190,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5839,79 +6267,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2642300</v>
+        <v>1415400</v>
       </c>
       <c r="E89" s="3">
-        <v>1267100</v>
+        <v>870900</v>
       </c>
       <c r="F89" s="3">
-        <v>795300</v>
+        <v>2532200</v>
       </c>
       <c r="G89" s="3">
-        <v>704000</v>
+        <v>1214300</v>
       </c>
       <c r="H89" s="3">
-        <v>1280500</v>
+        <v>762100</v>
       </c>
       <c r="I89" s="3">
+        <v>674700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1227100</v>
+      </c>
+      <c r="K89" s="3">
         <v>846400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-539500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>668800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1966900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2513500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1620900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1305300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1176500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2309500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2794100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1401900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2033100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1494000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>478900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1425500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1328000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5937,79 +6377,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-512300</v>
+        <v>-429400</v>
       </c>
       <c r="E91" s="3">
-        <v>-414000</v>
+        <v>-282100</v>
       </c>
       <c r="F91" s="3">
-        <v>-337900</v>
+        <v>-491000</v>
       </c>
       <c r="G91" s="3">
-        <v>-204000</v>
+        <v>-396800</v>
       </c>
       <c r="H91" s="3">
-        <v>-411100</v>
+        <v>-323800</v>
       </c>
       <c r="I91" s="3">
+        <v>-195500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-394000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-320800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-278300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-214000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-385700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-324300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-196700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-161900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-358000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-220300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-333000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-133100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-305300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-160000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-200100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-90800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-743300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6079,8 +6527,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6150,79 +6604,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-916800</v>
+        <v>-796400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3210700</v>
+        <v>-639000</v>
       </c>
       <c r="F94" s="3">
-        <v>-630900</v>
+        <v>-878600</v>
       </c>
       <c r="G94" s="3">
-        <v>-166000</v>
+        <v>-3076900</v>
       </c>
       <c r="H94" s="3">
-        <v>-528700</v>
+        <v>-604600</v>
       </c>
       <c r="I94" s="3">
+        <v>-159100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-506700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-40800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-224600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1183000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-712600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-475200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-293400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>130100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-973300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-623200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1472300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-834500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6248,79 +6714,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-323200</v>
+        <v>-1309100</v>
       </c>
       <c r="E96" s="3">
-        <v>-65700</v>
+        <v>-62900</v>
       </c>
       <c r="F96" s="3">
-        <v>-235800</v>
+        <v>-309800</v>
       </c>
       <c r="G96" s="3">
-        <v>-40300</v>
+        <v>-63000</v>
       </c>
       <c r="H96" s="3">
-        <v>-837000</v>
+        <v>-226000</v>
       </c>
       <c r="I96" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-802100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-698500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-458600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-110700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-990600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-832000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-89800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-494600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-736600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-73500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-63900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-53900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-327100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-36600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-105500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6390,8 +6864,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6461,8 +6941,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6532,217 +7018,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-734000</v>
+        <v>-1702100</v>
       </c>
       <c r="E100" s="3">
-        <v>3170900</v>
+        <v>-355700</v>
       </c>
       <c r="F100" s="3">
-        <v>-579900</v>
+        <v>-703400</v>
       </c>
       <c r="G100" s="3">
-        <v>-187000</v>
+        <v>3038800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1297700</v>
+        <v>-555700</v>
       </c>
       <c r="I100" s="3">
+        <v>-179200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1243600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1148900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2061800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-266700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1261300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-954100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-274300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-273900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-877700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-278100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-294000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-314200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>79700</v>
+        <v>187200</v>
       </c>
       <c r="E101" s="3">
-        <v>-11700</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>15700</v>
+        <v>76300</v>
       </c>
       <c r="G101" s="3">
-        <v>34300</v>
+        <v>-11200</v>
       </c>
       <c r="H101" s="3">
-        <v>-113200</v>
+        <v>15000</v>
       </c>
       <c r="I101" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-144100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>270100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-38800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>108200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>30500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-28500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>107900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>51800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-60100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-72400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>9800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-78800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>69600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-93500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>51000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1071100</v>
+        <v>-896000</v>
       </c>
       <c r="E102" s="3">
-        <v>1215700</v>
+        <v>-126700</v>
       </c>
       <c r="F102" s="3">
-        <v>-399800</v>
+        <v>1026500</v>
       </c>
       <c r="G102" s="3">
-        <v>385300</v>
+        <v>1165000</v>
       </c>
       <c r="H102" s="3">
-        <v>-659100</v>
+        <v>-383200</v>
       </c>
       <c r="I102" s="3">
+        <v>369200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-631700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-340600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>108200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>447600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-516200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>955000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-921700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>709100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-210300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>211400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-482500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-23800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>30000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>513900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-613900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-78600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>230300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -775,25 +775,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10093500</v>
+        <v>9215800</v>
       </c>
       <c r="E8" s="3">
-        <v>7468700</v>
+        <v>6819300</v>
       </c>
       <c r="F8" s="3">
-        <v>7305100</v>
+        <v>6669800</v>
       </c>
       <c r="G8" s="3">
-        <v>5366500</v>
+        <v>4899900</v>
       </c>
       <c r="H8" s="3">
-        <v>4472200</v>
+        <v>4083300</v>
       </c>
       <c r="I8" s="3">
-        <v>3957400</v>
+        <v>3613300</v>
       </c>
       <c r="J8" s="3">
-        <v>3263700</v>
+        <v>2979900</v>
       </c>
       <c r="K8" s="3">
         <v>2957500</v>
@@ -852,25 +852,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5307900</v>
+        <v>4846300</v>
       </c>
       <c r="E9" s="3">
-        <v>4125700</v>
+        <v>3766900</v>
       </c>
       <c r="F9" s="3">
-        <v>4400400</v>
+        <v>4017800</v>
       </c>
       <c r="G9" s="3">
-        <v>3336400</v>
+        <v>3046300</v>
       </c>
       <c r="H9" s="3">
-        <v>2629200</v>
+        <v>2400600</v>
       </c>
       <c r="I9" s="3">
-        <v>2417800</v>
+        <v>2207500</v>
       </c>
       <c r="J9" s="3">
-        <v>2370500</v>
+        <v>2164400</v>
       </c>
       <c r="K9" s="3">
         <v>2002500</v>
@@ -929,25 +929,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4785700</v>
+        <v>4369500</v>
       </c>
       <c r="E10" s="3">
-        <v>3343000</v>
+        <v>3052300</v>
       </c>
       <c r="F10" s="3">
-        <v>2904600</v>
+        <v>2652000</v>
       </c>
       <c r="G10" s="3">
-        <v>2030200</v>
+        <v>1853600</v>
       </c>
       <c r="H10" s="3">
-        <v>1842900</v>
+        <v>1682700</v>
       </c>
       <c r="I10" s="3">
-        <v>1539600</v>
+        <v>1405700</v>
       </c>
       <c r="J10" s="3">
-        <v>893200</v>
+        <v>815500</v>
       </c>
       <c r="K10" s="3">
         <v>955000</v>
@@ -1035,25 +1035,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>102300</v>
+        <v>93400</v>
       </c>
       <c r="E12" s="3">
-        <v>21400</v>
+        <v>19500</v>
       </c>
       <c r="F12" s="3">
-        <v>97400</v>
+        <v>88900</v>
       </c>
       <c r="G12" s="3">
-        <v>69200</v>
+        <v>63200</v>
       </c>
       <c r="H12" s="3">
-        <v>15500</v>
+        <v>14100</v>
       </c>
       <c r="I12" s="3">
-        <v>38700</v>
+        <v>35300</v>
       </c>
       <c r="J12" s="3">
-        <v>94800</v>
+        <v>86600</v>
       </c>
       <c r="K12" s="3">
         <v>23800</v>
@@ -1189,25 +1189,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="F14" s="3">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="G14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H14" s="3">
         <v>500</v>
       </c>
       <c r="I14" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J14" s="3">
-        <v>-127600</v>
+        <v>-116500</v>
       </c>
       <c r="K14" s="3">
         <v>300</v>
@@ -1266,25 +1266,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>30000</v>
+        <v>27400</v>
       </c>
       <c r="E15" s="3">
-        <v>29900</v>
+        <v>27300</v>
       </c>
       <c r="F15" s="3">
-        <v>85500</v>
+        <v>78100</v>
       </c>
       <c r="G15" s="3">
-        <v>13200</v>
+        <v>12000</v>
       </c>
       <c r="H15" s="3">
-        <v>15500</v>
+        <v>14100</v>
       </c>
       <c r="I15" s="3">
-        <v>14900</v>
+        <v>13600</v>
       </c>
       <c r="J15" s="3">
-        <v>44000</v>
+        <v>40200</v>
       </c>
       <c r="K15" s="3">
         <v>3100</v>
@@ -1369,25 +1369,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5813800</v>
+        <v>5308200</v>
       </c>
       <c r="E17" s="3">
-        <v>4586900</v>
+        <v>4188100</v>
       </c>
       <c r="F17" s="3">
-        <v>4915700</v>
+        <v>4488300</v>
       </c>
       <c r="G17" s="3">
-        <v>3733000</v>
+        <v>3408400</v>
       </c>
       <c r="H17" s="3">
-        <v>2964200</v>
+        <v>2706400</v>
       </c>
       <c r="I17" s="3">
-        <v>2689300</v>
+        <v>2455500</v>
       </c>
       <c r="J17" s="3">
-        <v>2797000</v>
+        <v>2553800</v>
       </c>
       <c r="K17" s="3">
         <v>2319800</v>
@@ -1446,25 +1446,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4279700</v>
+        <v>3907600</v>
       </c>
       <c r="E18" s="3">
-        <v>2881800</v>
+        <v>2631200</v>
       </c>
       <c r="F18" s="3">
-        <v>2389400</v>
+        <v>2181600</v>
       </c>
       <c r="G18" s="3">
-        <v>1633500</v>
+        <v>1491500</v>
       </c>
       <c r="H18" s="3">
-        <v>1508000</v>
+        <v>1376900</v>
       </c>
       <c r="I18" s="3">
-        <v>1268100</v>
+        <v>1157800</v>
       </c>
       <c r="J18" s="3">
-        <v>466700</v>
+        <v>426100</v>
       </c>
       <c r="K18" s="3">
         <v>637700</v>
@@ -1552,25 +1552,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-96800</v>
+        <v>-88400</v>
       </c>
       <c r="E20" s="3">
-        <v>-51400</v>
+        <v>-46900</v>
       </c>
       <c r="F20" s="3">
-        <v>-20700</v>
+        <v>-18900</v>
       </c>
       <c r="G20" s="3">
-        <v>26600</v>
+        <v>24300</v>
       </c>
       <c r="H20" s="3">
-        <v>-37300</v>
+        <v>-34100</v>
       </c>
       <c r="I20" s="3">
-        <v>-9200</v>
+        <v>-8400</v>
       </c>
       <c r="J20" s="3">
-        <v>76900</v>
+        <v>70200</v>
       </c>
       <c r="K20" s="3">
         <v>-70500</v>
@@ -1629,25 +1629,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4839800</v>
+        <v>4419000</v>
       </c>
       <c r="E21" s="3">
-        <v>3453600</v>
+        <v>3153300</v>
       </c>
       <c r="F21" s="3">
-        <v>3007000</v>
+        <v>2745600</v>
       </c>
       <c r="G21" s="3">
-        <v>2278100</v>
+        <v>2080000</v>
       </c>
       <c r="H21" s="3">
-        <v>2021600</v>
+        <v>1845800</v>
       </c>
       <c r="I21" s="3">
-        <v>1788400</v>
+        <v>1632900</v>
       </c>
       <c r="J21" s="3">
-        <v>1116700</v>
+        <v>1019600</v>
       </c>
       <c r="K21" s="3">
         <v>1118900</v>
@@ -1706,25 +1706,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>306400</v>
+        <v>279800</v>
       </c>
       <c r="E22" s="3">
-        <v>252700</v>
+        <v>230700</v>
       </c>
       <c r="F22" s="3">
-        <v>282300</v>
+        <v>257800</v>
       </c>
       <c r="G22" s="3">
-        <v>161400</v>
+        <v>147300</v>
       </c>
       <c r="H22" s="3">
-        <v>139700</v>
+        <v>127500</v>
       </c>
       <c r="I22" s="3">
-        <v>128500</v>
+        <v>117300</v>
       </c>
       <c r="J22" s="3">
-        <v>137600</v>
+        <v>125700</v>
       </c>
       <c r="K22" s="3">
         <v>155400</v>
@@ -1783,25 +1783,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3876500</v>
+        <v>3539400</v>
       </c>
       <c r="E23" s="3">
-        <v>2577800</v>
+        <v>2353600</v>
       </c>
       <c r="F23" s="3">
-        <v>2086300</v>
+        <v>1904900</v>
       </c>
       <c r="G23" s="3">
-        <v>1498800</v>
+        <v>1368500</v>
       </c>
       <c r="H23" s="3">
-        <v>1330900</v>
+        <v>1215200</v>
       </c>
       <c r="I23" s="3">
-        <v>1130400</v>
+        <v>1032100</v>
       </c>
       <c r="J23" s="3">
-        <v>406000</v>
+        <v>370700</v>
       </c>
       <c r="K23" s="3">
         <v>411700</v>
@@ -1860,25 +1860,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1221200</v>
+        <v>1115000</v>
       </c>
       <c r="E24" s="3">
-        <v>893300</v>
+        <v>815600</v>
       </c>
       <c r="F24" s="3">
-        <v>474700</v>
+        <v>433400</v>
       </c>
       <c r="G24" s="3">
-        <v>504600</v>
+        <v>460700</v>
       </c>
       <c r="H24" s="3">
-        <v>406600</v>
+        <v>371200</v>
       </c>
       <c r="I24" s="3">
-        <v>353400</v>
+        <v>322700</v>
       </c>
       <c r="J24" s="3">
-        <v>195300</v>
+        <v>178300</v>
       </c>
       <c r="K24" s="3">
         <v>137100</v>
@@ -2014,25 +2014,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2655300</v>
+        <v>2424400</v>
       </c>
       <c r="E26" s="3">
-        <v>1684500</v>
+        <v>1538000</v>
       </c>
       <c r="F26" s="3">
-        <v>1611600</v>
+        <v>1471500</v>
       </c>
       <c r="G26" s="3">
-        <v>994200</v>
+        <v>907700</v>
       </c>
       <c r="H26" s="3">
-        <v>924400</v>
+        <v>844000</v>
       </c>
       <c r="I26" s="3">
-        <v>776900</v>
+        <v>709400</v>
       </c>
       <c r="J26" s="3">
-        <v>210700</v>
+        <v>192400</v>
       </c>
       <c r="K26" s="3">
         <v>274600</v>
@@ -2091,25 +2091,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2408100</v>
+        <v>2198700</v>
       </c>
       <c r="E27" s="3">
-        <v>1511700</v>
+        <v>1380300</v>
       </c>
       <c r="F27" s="3">
-        <v>1397800</v>
+        <v>1276200</v>
       </c>
       <c r="G27" s="3">
-        <v>875700</v>
+        <v>799500</v>
       </c>
       <c r="H27" s="3">
-        <v>856600</v>
+        <v>782100</v>
       </c>
       <c r="I27" s="3">
-        <v>709800</v>
+        <v>648000</v>
       </c>
       <c r="J27" s="3">
-        <v>155300</v>
+        <v>141800</v>
       </c>
       <c r="K27" s="3">
         <v>205200</v>
@@ -2476,25 +2476,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>96800</v>
+        <v>88400</v>
       </c>
       <c r="E32" s="3">
-        <v>51400</v>
+        <v>46900</v>
       </c>
       <c r="F32" s="3">
-        <v>20700</v>
+        <v>18900</v>
       </c>
       <c r="G32" s="3">
-        <v>-26600</v>
+        <v>-24300</v>
       </c>
       <c r="H32" s="3">
-        <v>37300</v>
+        <v>34100</v>
       </c>
       <c r="I32" s="3">
-        <v>9200</v>
+        <v>8400</v>
       </c>
       <c r="J32" s="3">
-        <v>-76900</v>
+        <v>-70200</v>
       </c>
       <c r="K32" s="3">
         <v>70500</v>
@@ -2553,25 +2553,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2408100</v>
+        <v>2198700</v>
       </c>
       <c r="E33" s="3">
-        <v>1511700</v>
+        <v>1380300</v>
       </c>
       <c r="F33" s="3">
-        <v>1397800</v>
+        <v>1276200</v>
       </c>
       <c r="G33" s="3">
-        <v>875700</v>
+        <v>799500</v>
       </c>
       <c r="H33" s="3">
-        <v>856600</v>
+        <v>782100</v>
       </c>
       <c r="I33" s="3">
-        <v>709800</v>
+        <v>648000</v>
       </c>
       <c r="J33" s="3">
-        <v>155300</v>
+        <v>141800</v>
       </c>
       <c r="K33" s="3">
         <v>205200</v>
@@ -2707,25 +2707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2408100</v>
+        <v>2198700</v>
       </c>
       <c r="E35" s="3">
-        <v>1511700</v>
+        <v>1380300</v>
       </c>
       <c r="F35" s="3">
-        <v>1397800</v>
+        <v>1276200</v>
       </c>
       <c r="G35" s="3">
-        <v>875700</v>
+        <v>799500</v>
       </c>
       <c r="H35" s="3">
-        <v>856600</v>
+        <v>782100</v>
       </c>
       <c r="I35" s="3">
-        <v>709800</v>
+        <v>648000</v>
       </c>
       <c r="J35" s="3">
-        <v>155300</v>
+        <v>141800</v>
       </c>
       <c r="K35" s="3">
         <v>205200</v>
@@ -2924,25 +2924,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2323800</v>
+        <v>2121800</v>
       </c>
       <c r="E41" s="3">
-        <v>3219800</v>
+        <v>2939800</v>
       </c>
       <c r="F41" s="3">
-        <v>3346500</v>
+        <v>3055500</v>
       </c>
       <c r="G41" s="3">
-        <v>2320000</v>
+        <v>2118200</v>
       </c>
       <c r="H41" s="3">
-        <v>1155000</v>
+        <v>1054500</v>
       </c>
       <c r="I41" s="3">
-        <v>1538100</v>
+        <v>1404400</v>
       </c>
       <c r="J41" s="3">
-        <v>1168900</v>
+        <v>1067300</v>
       </c>
       <c r="K41" s="3">
         <v>1878900</v>
@@ -3001,25 +3001,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>381400</v>
+        <v>348300</v>
       </c>
       <c r="E42" s="3">
-        <v>495400</v>
+        <v>452300</v>
       </c>
       <c r="F42" s="3">
-        <v>495600</v>
+        <v>452500</v>
       </c>
       <c r="G42" s="3">
-        <v>488500</v>
+        <v>446100</v>
       </c>
       <c r="H42" s="3">
-        <v>112200</v>
+        <v>102400</v>
       </c>
       <c r="I42" s="3">
-        <v>171800</v>
+        <v>156800</v>
       </c>
       <c r="J42" s="3">
-        <v>554900</v>
+        <v>506700</v>
       </c>
       <c r="K42" s="3">
         <v>839200</v>
@@ -3078,25 +3078,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8255500</v>
+        <v>7537600</v>
       </c>
       <c r="E43" s="3">
-        <v>7063600</v>
+        <v>6449400</v>
       </c>
       <c r="F43" s="3">
-        <v>5833600</v>
+        <v>5326300</v>
       </c>
       <c r="G43" s="3">
-        <v>5542400</v>
+        <v>5060400</v>
       </c>
       <c r="H43" s="3">
-        <v>3621400</v>
+        <v>3306500</v>
       </c>
       <c r="I43" s="3">
-        <v>2798400</v>
+        <v>2555100</v>
       </c>
       <c r="J43" s="3">
-        <v>2147400</v>
+        <v>1960700</v>
       </c>
       <c r="K43" s="3">
         <v>2097900</v>
@@ -3155,25 +3155,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2800600</v>
+        <v>2557100</v>
       </c>
       <c r="E44" s="3">
-        <v>2523500</v>
+        <v>2304100</v>
       </c>
       <c r="F44" s="3">
-        <v>1931600</v>
+        <v>1763600</v>
       </c>
       <c r="G44" s="3">
-        <v>2088000</v>
+        <v>1906400</v>
       </c>
       <c r="H44" s="3">
-        <v>1650800</v>
+        <v>1507200</v>
       </c>
       <c r="I44" s="3">
-        <v>1473800</v>
+        <v>1345600</v>
       </c>
       <c r="J44" s="3">
-        <v>1162400</v>
+        <v>1061300</v>
       </c>
       <c r="K44" s="3">
         <v>1322500</v>
@@ -3232,25 +3232,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>271000</v>
+        <v>247500</v>
       </c>
       <c r="E45" s="3">
-        <v>302000</v>
+        <v>275800</v>
       </c>
       <c r="F45" s="3">
-        <v>282800</v>
+        <v>258200</v>
       </c>
       <c r="G45" s="3">
-        <v>374900</v>
+        <v>342300</v>
       </c>
       <c r="H45" s="3">
-        <v>192700</v>
+        <v>175900</v>
       </c>
       <c r="I45" s="3">
-        <v>245400</v>
+        <v>224100</v>
       </c>
       <c r="J45" s="3">
-        <v>218200</v>
+        <v>199200</v>
       </c>
       <c r="K45" s="3">
         <v>282900</v>
@@ -3309,25 +3309,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>14032400</v>
+        <v>12812200</v>
       </c>
       <c r="E46" s="3">
-        <v>13604300</v>
+        <v>12421400</v>
       </c>
       <c r="F46" s="3">
-        <v>11890000</v>
+        <v>10856100</v>
       </c>
       <c r="G46" s="3">
-        <v>10813700</v>
+        <v>9873400</v>
       </c>
       <c r="H46" s="3">
-        <v>6732000</v>
+        <v>6146600</v>
       </c>
       <c r="I46" s="3">
-        <v>6227500</v>
+        <v>5686000</v>
       </c>
       <c r="J46" s="3">
-        <v>5251900</v>
+        <v>4795200</v>
       </c>
       <c r="K46" s="3">
         <v>6421200</v>
@@ -3386,25 +3386,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>8328800</v>
+        <v>7604500</v>
       </c>
       <c r="E47" s="3">
-        <v>8303700</v>
+        <v>7581600</v>
       </c>
       <c r="F47" s="3">
-        <v>7779600</v>
+        <v>7103100</v>
       </c>
       <c r="G47" s="3">
-        <v>7573400</v>
+        <v>6914800</v>
       </c>
       <c r="H47" s="3">
-        <v>1205700</v>
+        <v>1100900</v>
       </c>
       <c r="I47" s="3">
-        <v>1111800</v>
+        <v>1015100</v>
       </c>
       <c r="J47" s="3">
-        <v>1087500</v>
+        <v>992900</v>
       </c>
       <c r="K47" s="3">
         <v>1208900</v>
@@ -3463,25 +3463,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>30042300</v>
+        <v>27429900</v>
       </c>
       <c r="E48" s="3">
-        <v>28593400</v>
+        <v>26107000</v>
       </c>
       <c r="F48" s="3">
-        <v>29100000</v>
+        <v>26569600</v>
       </c>
       <c r="G48" s="3">
-        <v>26873300</v>
+        <v>24536500</v>
       </c>
       <c r="H48" s="3">
-        <v>23682800</v>
+        <v>21623400</v>
       </c>
       <c r="I48" s="3">
-        <v>23355800</v>
+        <v>21324800</v>
       </c>
       <c r="J48" s="3">
-        <v>22728700</v>
+        <v>20752300</v>
       </c>
       <c r="K48" s="3">
         <v>24092400</v>
@@ -3540,25 +3540,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4716500</v>
+        <v>4306400</v>
       </c>
       <c r="E49" s="3">
-        <v>4407600</v>
+        <v>4024300</v>
       </c>
       <c r="F49" s="3">
-        <v>4434000</v>
+        <v>4048500</v>
       </c>
       <c r="G49" s="3">
-        <v>6938100</v>
+        <v>6334800</v>
       </c>
       <c r="H49" s="3">
-        <v>446700</v>
+        <v>407900</v>
       </c>
       <c r="I49" s="3">
-        <v>441100</v>
+        <v>402700</v>
       </c>
       <c r="J49" s="3">
-        <v>439000</v>
+        <v>400900</v>
       </c>
       <c r="K49" s="3">
         <v>460900</v>
@@ -3771,25 +3771,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3341800</v>
+        <v>3051200</v>
       </c>
       <c r="E52" s="3">
-        <v>2782000</v>
+        <v>2540100</v>
       </c>
       <c r="F52" s="3">
-        <v>2973800</v>
+        <v>2715200</v>
       </c>
       <c r="G52" s="3">
-        <v>3285300</v>
+        <v>2999600</v>
       </c>
       <c r="H52" s="3">
-        <v>2721200</v>
+        <v>2484600</v>
       </c>
       <c r="I52" s="3">
-        <v>2658400</v>
+        <v>2427200</v>
       </c>
       <c r="J52" s="3">
-        <v>2558800</v>
+        <v>2336300</v>
       </c>
       <c r="K52" s="3">
         <v>2923900</v>
@@ -3925,25 +3925,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>60461700</v>
+        <v>55204200</v>
       </c>
       <c r="E54" s="3">
-        <v>57691000</v>
+        <v>52674400</v>
       </c>
       <c r="F54" s="3">
-        <v>56177500</v>
+        <v>51292500</v>
       </c>
       <c r="G54" s="3">
-        <v>55483800</v>
+        <v>50659100</v>
       </c>
       <c r="H54" s="3">
-        <v>34788500</v>
+        <v>31763400</v>
       </c>
       <c r="I54" s="3">
-        <v>33794500</v>
+        <v>30855800</v>
       </c>
       <c r="J54" s="3">
-        <v>32065900</v>
+        <v>29277600</v>
       </c>
       <c r="K54" s="3">
         <v>35107300</v>
@@ -4060,25 +4060,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3034500</v>
+        <v>2770700</v>
       </c>
       <c r="E57" s="3">
-        <v>2534100</v>
+        <v>2313700</v>
       </c>
       <c r="F57" s="3">
-        <v>2408200</v>
+        <v>2198800</v>
       </c>
       <c r="G57" s="3">
-        <v>1932600</v>
+        <v>1764600</v>
       </c>
       <c r="H57" s="3">
-        <v>1657800</v>
+        <v>1513700</v>
       </c>
       <c r="I57" s="3">
-        <v>1544600</v>
+        <v>1410300</v>
       </c>
       <c r="J57" s="3">
-        <v>1493100</v>
+        <v>1363300</v>
       </c>
       <c r="K57" s="3">
         <v>1292100</v>
@@ -4137,25 +4137,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2245500</v>
+        <v>2050200</v>
       </c>
       <c r="E58" s="3">
-        <v>2009900</v>
+        <v>1835200</v>
       </c>
       <c r="F58" s="3">
-        <v>2117400</v>
+        <v>1933300</v>
       </c>
       <c r="G58" s="3">
-        <v>1990400</v>
+        <v>1817300</v>
       </c>
       <c r="H58" s="3">
-        <v>1224400</v>
+        <v>1117900</v>
       </c>
       <c r="I58" s="3">
-        <v>1197600</v>
+        <v>1093400</v>
       </c>
       <c r="J58" s="3">
-        <v>1132400</v>
+        <v>1033900</v>
       </c>
       <c r="K58" s="3">
         <v>1497800</v>
@@ -4214,25 +4214,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4322900</v>
+        <v>3947000</v>
       </c>
       <c r="E59" s="3">
-        <v>5294000</v>
+        <v>4833600</v>
       </c>
       <c r="F59" s="3">
-        <v>2431600</v>
+        <v>2220200</v>
       </c>
       <c r="G59" s="3">
-        <v>2489600</v>
+        <v>2273100</v>
       </c>
       <c r="H59" s="3">
-        <v>1563600</v>
+        <v>1427600</v>
       </c>
       <c r="I59" s="3">
-        <v>1849300</v>
+        <v>1688500</v>
       </c>
       <c r="J59" s="3">
-        <v>1579500</v>
+        <v>1442100</v>
       </c>
       <c r="K59" s="3">
         <v>2328000</v>
@@ -4291,25 +4291,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>9602900</v>
+        <v>8767900</v>
       </c>
       <c r="E60" s="3">
-        <v>9838000</v>
+        <v>8982500</v>
       </c>
       <c r="F60" s="3">
-        <v>6957200</v>
+        <v>6352200</v>
       </c>
       <c r="G60" s="3">
-        <v>6412600</v>
+        <v>5855000</v>
       </c>
       <c r="H60" s="3">
-        <v>4445800</v>
+        <v>4059200</v>
       </c>
       <c r="I60" s="3">
-        <v>4591500</v>
+        <v>4192300</v>
       </c>
       <c r="J60" s="3">
-        <v>4205000</v>
+        <v>3839300</v>
       </c>
       <c r="K60" s="3">
         <v>5117900</v>
@@ -4368,25 +4368,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>20466200</v>
+        <v>18686500</v>
       </c>
       <c r="E61" s="3">
-        <v>19062300</v>
+        <v>17404700</v>
       </c>
       <c r="F61" s="3">
-        <v>19746600</v>
+        <v>18029500</v>
       </c>
       <c r="G61" s="3">
-        <v>19141700</v>
+        <v>17477200</v>
       </c>
       <c r="H61" s="3">
-        <v>10289500</v>
+        <v>9394800</v>
       </c>
       <c r="I61" s="3">
-        <v>10278000</v>
+        <v>9384300</v>
       </c>
       <c r="J61" s="3">
-        <v>9615900</v>
+        <v>8779800</v>
       </c>
       <c r="K61" s="3">
         <v>11336200</v>
@@ -4445,25 +4445,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>8616800</v>
+        <v>7867600</v>
       </c>
       <c r="E62" s="3">
-        <v>8287600</v>
+        <v>7566900</v>
       </c>
       <c r="F62" s="3">
-        <v>7910800</v>
+        <v>7222900</v>
       </c>
       <c r="G62" s="3">
-        <v>8358200</v>
+        <v>7631400</v>
       </c>
       <c r="H62" s="3">
-        <v>5656300</v>
+        <v>5164400</v>
       </c>
       <c r="I62" s="3">
-        <v>5550000</v>
+        <v>5067400</v>
       </c>
       <c r="J62" s="3">
-        <v>5406600</v>
+        <v>4936500</v>
       </c>
       <c r="K62" s="3">
         <v>4931700</v>
@@ -4753,25 +4753,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>44222000</v>
+        <v>40376600</v>
       </c>
       <c r="E66" s="3">
-        <v>42406300</v>
+        <v>38718800</v>
       </c>
       <c r="F66" s="3">
-        <v>39678900</v>
+        <v>36228600</v>
       </c>
       <c r="G66" s="3">
-        <v>40995000</v>
+        <v>37430200</v>
       </c>
       <c r="H66" s="3">
-        <v>21255000</v>
+        <v>19406800</v>
       </c>
       <c r="I66" s="3">
-        <v>21253900</v>
+        <v>19405700</v>
       </c>
       <c r="J66" s="3">
-        <v>20084000</v>
+        <v>18337600</v>
       </c>
       <c r="K66" s="3">
         <v>22287100</v>
@@ -5167,25 +5167,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6319500</v>
+        <v>5770000</v>
       </c>
       <c r="E72" s="3">
-        <v>5500200</v>
+        <v>5021900</v>
       </c>
       <c r="F72" s="3">
-        <v>6626700</v>
+        <v>6050500</v>
       </c>
       <c r="G72" s="3">
-        <v>5177000</v>
+        <v>4726800</v>
       </c>
       <c r="H72" s="3">
-        <v>4301300</v>
+        <v>3927300</v>
       </c>
       <c r="I72" s="3">
-        <v>3444300</v>
+        <v>3144800</v>
       </c>
       <c r="J72" s="3">
-        <v>2895100</v>
+        <v>2643400</v>
       </c>
       <c r="K72" s="3">
         <v>2859000</v>
@@ -5475,25 +5475,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>16239700</v>
+        <v>14827600</v>
       </c>
       <c r="E76" s="3">
-        <v>15284700</v>
+        <v>13955600</v>
       </c>
       <c r="F76" s="3">
-        <v>16498600</v>
+        <v>15063900</v>
       </c>
       <c r="G76" s="3">
-        <v>14488800</v>
+        <v>13228900</v>
       </c>
       <c r="H76" s="3">
-        <v>13533400</v>
+        <v>12356600</v>
       </c>
       <c r="I76" s="3">
-        <v>12540600</v>
+        <v>11450100</v>
       </c>
       <c r="J76" s="3">
-        <v>11981900</v>
+        <v>10940000</v>
       </c>
       <c r="K76" s="3">
         <v>12820300</v>
@@ -5711,25 +5711,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2408100</v>
+        <v>2198700</v>
       </c>
       <c r="E81" s="3">
-        <v>1511700</v>
+        <v>1380300</v>
       </c>
       <c r="F81" s="3">
-        <v>1397800</v>
+        <v>1276200</v>
       </c>
       <c r="G81" s="3">
-        <v>875700</v>
+        <v>799500</v>
       </c>
       <c r="H81" s="3">
-        <v>856600</v>
+        <v>782100</v>
       </c>
       <c r="I81" s="3">
-        <v>709800</v>
+        <v>648000</v>
       </c>
       <c r="J81" s="3">
-        <v>155300</v>
+        <v>141800</v>
       </c>
       <c r="K81" s="3">
         <v>205200</v>
@@ -5817,25 +5817,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>656900</v>
+        <v>599800</v>
       </c>
       <c r="E83" s="3">
-        <v>623200</v>
+        <v>569000</v>
       </c>
       <c r="F83" s="3">
-        <v>638400</v>
+        <v>582900</v>
       </c>
       <c r="G83" s="3">
-        <v>617900</v>
+        <v>564200</v>
       </c>
       <c r="H83" s="3">
-        <v>551000</v>
+        <v>503100</v>
       </c>
       <c r="I83" s="3">
-        <v>529500</v>
+        <v>483400</v>
       </c>
       <c r="J83" s="3">
-        <v>573100</v>
+        <v>523300</v>
       </c>
       <c r="K83" s="3">
         <v>551700</v>
@@ -6279,25 +6279,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1415400</v>
+        <v>1292300</v>
       </c>
       <c r="E89" s="3">
-        <v>870900</v>
+        <v>795100</v>
       </c>
       <c r="F89" s="3">
-        <v>2532200</v>
+        <v>2312000</v>
       </c>
       <c r="G89" s="3">
-        <v>1214300</v>
+        <v>1108700</v>
       </c>
       <c r="H89" s="3">
-        <v>762100</v>
+        <v>695900</v>
       </c>
       <c r="I89" s="3">
-        <v>674700</v>
+        <v>616000</v>
       </c>
       <c r="J89" s="3">
-        <v>1227100</v>
+        <v>1120400</v>
       </c>
       <c r="K89" s="3">
         <v>846400</v>
@@ -6385,25 +6385,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-429400</v>
+        <v>-392100</v>
       </c>
       <c r="E91" s="3">
-        <v>-282100</v>
+        <v>-257600</v>
       </c>
       <c r="F91" s="3">
-        <v>-491000</v>
+        <v>-448300</v>
       </c>
       <c r="G91" s="3">
-        <v>-396800</v>
+        <v>-362300</v>
       </c>
       <c r="H91" s="3">
-        <v>-323800</v>
+        <v>-295700</v>
       </c>
       <c r="I91" s="3">
-        <v>-195500</v>
+        <v>-178500</v>
       </c>
       <c r="J91" s="3">
-        <v>-394000</v>
+        <v>-359700</v>
       </c>
       <c r="K91" s="3">
         <v>-320800</v>
@@ -6616,25 +6616,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-796400</v>
+        <v>-727100</v>
       </c>
       <c r="E94" s="3">
-        <v>-639000</v>
+        <v>-583400</v>
       </c>
       <c r="F94" s="3">
-        <v>-878600</v>
+        <v>-802200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3076900</v>
+        <v>-2809300</v>
       </c>
       <c r="H94" s="3">
-        <v>-604600</v>
+        <v>-552000</v>
       </c>
       <c r="I94" s="3">
-        <v>-159100</v>
+        <v>-145300</v>
       </c>
       <c r="J94" s="3">
-        <v>-506700</v>
+        <v>-462600</v>
       </c>
       <c r="K94" s="3">
         <v>-40800</v>
@@ -6722,25 +6722,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1309100</v>
+        <v>-1195300</v>
       </c>
       <c r="E96" s="3">
-        <v>-62900</v>
+        <v>-57500</v>
       </c>
       <c r="F96" s="3">
-        <v>-309800</v>
+        <v>-282800</v>
       </c>
       <c r="G96" s="3">
-        <v>-63000</v>
+        <v>-57500</v>
       </c>
       <c r="H96" s="3">
-        <v>-226000</v>
+        <v>-206300</v>
       </c>
       <c r="I96" s="3">
-        <v>-38700</v>
+        <v>-35300</v>
       </c>
       <c r="J96" s="3">
-        <v>-802100</v>
+        <v>-732400</v>
       </c>
       <c r="K96" s="3">
         <v>-698500</v>
@@ -7030,25 +7030,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1702100</v>
+        <v>-1554100</v>
       </c>
       <c r="E100" s="3">
-        <v>-355700</v>
+        <v>-324800</v>
       </c>
       <c r="F100" s="3">
-        <v>-703400</v>
+        <v>-642300</v>
       </c>
       <c r="G100" s="3">
-        <v>3038800</v>
+        <v>2774500</v>
       </c>
       <c r="H100" s="3">
-        <v>-555700</v>
+        <v>-507400</v>
       </c>
       <c r="I100" s="3">
-        <v>-179200</v>
+        <v>-163600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1243600</v>
+        <v>-1135500</v>
       </c>
       <c r="K100" s="3">
         <v>-1148900</v>
@@ -7107,25 +7107,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>187200</v>
+        <v>170900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>-2600</v>
       </c>
       <c r="F101" s="3">
-        <v>76300</v>
+        <v>69700</v>
       </c>
       <c r="G101" s="3">
-        <v>-11200</v>
+        <v>-10200</v>
       </c>
       <c r="H101" s="3">
-        <v>15000</v>
+        <v>13700</v>
       </c>
       <c r="I101" s="3">
-        <v>32800</v>
+        <v>30000</v>
       </c>
       <c r="J101" s="3">
-        <v>-108500</v>
+        <v>-99000</v>
       </c>
       <c r="K101" s="3">
         <v>2700</v>
@@ -7184,25 +7184,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-896000</v>
+        <v>-818000</v>
       </c>
       <c r="E102" s="3">
-        <v>-126700</v>
+        <v>-115700</v>
       </c>
       <c r="F102" s="3">
-        <v>1026500</v>
+        <v>937300</v>
       </c>
       <c r="G102" s="3">
-        <v>1165000</v>
+        <v>1063700</v>
       </c>
       <c r="H102" s="3">
-        <v>-383200</v>
+        <v>-349900</v>
       </c>
       <c r="I102" s="3">
-        <v>369200</v>
+        <v>337100</v>
       </c>
       <c r="J102" s="3">
-        <v>-631700</v>
+        <v>-576700</v>
       </c>
       <c r="K102" s="3">
         <v>-340600</v>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,346 +662,359 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9122100</v>
+      </c>
+      <c r="E8" s="3">
         <v>9215800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6819300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6669800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4899900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4083300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3613300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2979900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2957500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2026000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3918700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4831100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4863900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4943300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4304500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4761700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4826500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9488900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4392800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4916200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4263900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4208300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4278900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4393300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5131400</v>
+      </c>
+      <c r="E9" s="3">
         <v>4846300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3766900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4017800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3046300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2207500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2164400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2002500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1827700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2934600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3190200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3034900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3027600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2763200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3105100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2868100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5581200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2654000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3118400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2808700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2952200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2926600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3202400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3990600</v>
+      </c>
+      <c r="E10" s="3">
         <v>4369500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3052300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2652000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1853600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1682700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1405700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>815500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>955000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>198300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>984100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1641000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1829000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1915700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1541300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1656600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1958400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3907700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1738700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1797800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1455200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1256100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1352300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1190900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,85 +1042,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E12" s="3">
         <v>93400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>88900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>63200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>86600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>103000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>66900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>50300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>271600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>56400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>292200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>103900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>96800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,162 +1200,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-116500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-328800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>314200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>187600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>149000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-26200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-14700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-34600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-556400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>244000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E15" s="3">
         <v>27400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>27300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>78100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>40200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>46000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>15000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>10900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>16400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5505500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5308200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4188100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4488300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3408400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2706400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2455500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2553800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2319800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1827300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3529200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3845900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3321700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3334800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2966200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3593200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6019600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2838800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3111000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3200600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3162600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3223200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3854400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3616500</v>
+      </c>
+      <c r="E18" s="3">
         <v>3907600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2631200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2181600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1491500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1376900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1157800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>426100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>637700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>198700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>389600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>985200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1542100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1608600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1338300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1168600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1526200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3469300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1554000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1805100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1063300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1045700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1055600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>538900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,393 +1579,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-88400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-46900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>24300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>70200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-70500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>31500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-47000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>80100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-31700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>43400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>61300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>83200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>45700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>26900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>18100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-58800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>117200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-111000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>291700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4247600</v>
+      </c>
+      <c r="E21" s="3">
         <v>4419000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3153300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2745600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2080000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1845800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1632900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1019600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1118900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>779700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>922300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1657500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2106000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2217200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1937100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1748700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2104600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4627400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2118200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2411200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1718300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1846200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1604900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1464900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>305700</v>
+      </c>
+      <c r="E22" s="3">
         <v>279800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>230700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>257800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>147300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>127500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>117300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>125700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>155400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>156700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>126200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>127000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>128100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>129500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>122000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>183100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>144600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>347900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>171800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>206800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>198200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>153300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>205200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>226800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3273300</v>
+      </c>
+      <c r="E23" s="3">
         <v>3539400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2353600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1904900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1368500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1215200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1032100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>370700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>411700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>216300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>938200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1382300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1522500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1277600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1068600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1401000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3167100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1409100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1616500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>806300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1009600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>739400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>603800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1074300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1115000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>815600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>433400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>460700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>371200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>322700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>178300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>137100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>91500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-186900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>477900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>505400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>451800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>303400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>589000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1192000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>564000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>457200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>414600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>535100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>396300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>485600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2008,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2199100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2424400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1538000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1471500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>907700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>844000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>709400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>192400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>274600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>72400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>124800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1125100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>904500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1017100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>825800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>765200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>811900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1975100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>845100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1159300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>391700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>474500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>343200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>118200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1997700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2198700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1380300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1276200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>799500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>782100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>648000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>141800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1042300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>813000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>941500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>741000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>688300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>749200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1840300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>784400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1096500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>321100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>417500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>283500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>61400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2239,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2316,8 +2377,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2393,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2470,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E32" s="3">
         <v>88400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>46900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-24300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-70200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>70500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-31500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>47000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-80100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>31700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-61300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-83200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-45700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-26900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-18100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>58800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-117200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>111000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-291700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1997700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2198700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1380300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1276200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>799500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>782100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>648000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>141800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>205200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1042300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>813000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>941500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>741000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>688300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>749200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1840300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>784400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1096500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>321100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>417500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>283500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>61400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2701,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1997700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2198700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1380300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1276200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>799500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>782100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>648000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>141800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>205200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1042300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>813000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>941500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>741000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>688300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>749200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1840300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>784400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1096500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>321100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>417500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>283500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>61400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2889,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2918,701 +3004,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2712700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2121800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2939800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3055500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2118200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1054500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1404400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1067300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1878900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2219500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2287300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1839700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2446500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1491500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2413200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1641100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1922600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1901200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2359900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1755700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1832500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1501600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1561700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1095700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>565100</v>
+      </c>
+      <c r="E42" s="3">
         <v>348300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>452300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>452500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>446100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>102400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>156800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>506700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>839200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>999800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>247600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>459900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>662000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>906600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1349100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1383500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2042100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1878800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1325000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1736700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1560200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1118400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3310400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3450900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>8399900</v>
+      </c>
+      <c r="E43" s="3">
         <v>7537600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6449400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5326300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5060400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3306500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2555100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1960700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2097900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2059500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1806900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2131500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2049800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2634900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2725700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2538700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2350500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2628100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2269200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2341000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1978600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1905300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1705700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2007700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2264500</v>
+      </c>
+      <c r="E44" s="3">
         <v>2557100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2304100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1763600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1906400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1507200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1345600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1061300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1322500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1208400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1511100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1471100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1594800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1580600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1479100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1326100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1461500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1641500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1478800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1472400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1512100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1366100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1385800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1267800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>340400</v>
+      </c>
+      <c r="E45" s="3">
         <v>247500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>275800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>258200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>342300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>175900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>224100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>199200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>282900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>216900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>304500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>172500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>196300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>144400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>146700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>138600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>131000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>125000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>131300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>125800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>180600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>191400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>169900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>140500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>14282600</v>
+      </c>
+      <c r="E46" s="3">
         <v>12812200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12421400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10856100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9873400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6146600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5686000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4795200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6421200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6704100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6157500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6074800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6949500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6758000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8113900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7028000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7907800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8174700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7564200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7431700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7064000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6082800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8133400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7962600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>8062000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7604500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7581600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7103100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6914800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1100900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1015100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>992900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1208900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1451100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1642600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1920700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1956400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1743300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1335500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1410900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1531900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1627300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1929500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1815500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1384000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1419900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1466400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1205600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>29006700</v>
+      </c>
+      <c r="E48" s="3">
         <v>27429900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26107000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26569600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24536500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21623400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21324800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20752300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24092400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23977800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26598600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24369500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24227100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23212000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23085100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22319900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22118800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24635700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>24041100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>26453800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>25781800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>26507600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>26236200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>27921300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4675000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4306400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4024300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4048500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6334800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>407900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>402700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>400900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>460900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>357200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>397400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>364700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>355300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>354900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>361500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>345800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>354300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>383600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>384100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>415900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>404900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>375200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>380300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>393200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3688,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3765,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3431500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3051200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2540100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2715200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2999600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2484600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2427200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2336300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2923900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2825800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3302800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2486900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1880600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1713700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1711100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1717900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1535300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1653700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1652100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2499000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2571300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2636600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2342900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2548600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3919,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>59457700</v>
+      </c>
+      <c r="E54" s="3">
         <v>55204200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>52674400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51292500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>50659100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31763400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>30855800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29277600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35107300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35316000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38098900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35216500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35368900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33781800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34607100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32822600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33448100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36475000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35571100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38615900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37205900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37022200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>38559200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>40031400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4025,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4054,470 +4184,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2770700</v>
+        <v>2473900</v>
       </c>
       <c r="E57" s="3">
+        <v>2569600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2313700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2198800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1764600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1513700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1410300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1363300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1292100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1131100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1753800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2109900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1923100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1823000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1658600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1788400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1669000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1569200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1386700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1628500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1347100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1319700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1235200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1540900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>4749000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2050200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1835200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1933300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1817300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1117900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1093400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1033900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1497800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2281900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1593000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1303200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1221700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1103800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1091500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1045200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2169300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1703100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1479900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1646200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1636800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1254200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1310400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1361600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3947000</v>
+        <v>3568700</v>
       </c>
       <c r="E59" s="3">
+        <v>4148100</v>
+      </c>
+      <c r="F59" s="3">
         <v>4833600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2220200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2273100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1427600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1688500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1442100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2328000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2975500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4170100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2239900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1948300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2444200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4481500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2086300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2384800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3290800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2116200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2184600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2070100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2920300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2505200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>10791600</v>
+      </c>
+      <c r="E60" s="3">
         <v>8767900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8982500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6352200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5855000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4059200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4192300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3839300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5117900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6388500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7517000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5653000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5093100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5371000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7231700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4634400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5924600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5657100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6157300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5390900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5168500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4644100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5465900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5407800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>17876400</v>
+      </c>
+      <c r="E61" s="3">
         <v>18686500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17404700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18029500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17477200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9394800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9384300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8779800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11336200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10598900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10485200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8639000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9688200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9012400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9095000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8851100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8601200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10695600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10807900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12289100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12638500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13502000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14821200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15871600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>8143600</v>
+      </c>
+      <c r="E62" s="3">
         <v>7867600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7566900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7222900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7631400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5164400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5067400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4936500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4931700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4975800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5437900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5235000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4019500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4026100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4060300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3917900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4026500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4451000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4256600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5005900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4070100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3843000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3738900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3796500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4593,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4670,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>42266000</v>
+      </c>
+      <c r="E66" s="3">
         <v>40376600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38718800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36228600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37430200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19406800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19405700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18337600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22287100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22919800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24429400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20549300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19382000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19002400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20923200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17947000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19039000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21376300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21713500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23288300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>22436200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>22579500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24545600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25619100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4853,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4930,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5007,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5084,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5161,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>7767700</v>
+      </c>
+      <c r="E72" s="3">
         <v>5770000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5021900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6050500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4726800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3927300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3144800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2643400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2859000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2653800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2868400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4758100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4799200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3986200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3044700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4623800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4086800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3708300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2652600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3163800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2067600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1746600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1329000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1390300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5315,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5392,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5469,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>17191700</v>
+      </c>
+      <c r="E76" s="3">
         <v>14827600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13955600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15063900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13228900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12356600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11450100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10940000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12820300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12396200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13669400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14667200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15986900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14779400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13683900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14875500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14409100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15098700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13857600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15327600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14769700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14442700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14013600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14412400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5623,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1997700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2198700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1380300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1276200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>799500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>782100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>648000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>141800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>205200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1042300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>813000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>941500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>741000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>688300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>749200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1840300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>784400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1096500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>321100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>417500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>283500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>61400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5811,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>668600</v>
+      </c>
+      <c r="E83" s="3">
         <v>599800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>569000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>582900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>564200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>503100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>483400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>523300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>551700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>549500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>579700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>592200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>595600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>565200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>537500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>497000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>559000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1112400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>537300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>588000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>713800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>683300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>660300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>634300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5965,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6042,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6119,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6196,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6273,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>3136400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1292300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>795100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2312000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1108700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>695900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>616000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1120400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>846400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-539500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>668800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1966900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2513500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1620900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1305300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1176500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2309500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2794100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1401900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2033100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1494000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>478900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1425500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1328000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6379,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-454900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-392100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-257600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-448300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-362300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-295700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-178500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-359700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-320800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-278300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-214000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-385700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-324300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-196700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-161900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-358000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-220300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-333000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-133100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-305300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-160000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-90800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-743300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6533,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6610,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1011300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-727100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-583400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-802200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2809300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-552000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-145300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-462600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-224600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1183000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-712600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-475200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-293400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>130100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-973300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-623200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1472300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-834500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6716,85 +6949,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-1096500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1195300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-57500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-282800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-57500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-206300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-732400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-698500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-458600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-110700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-990600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-832000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-89800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-36500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-494600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-736600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-73500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-63900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-53900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-327100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-36600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-105500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6870,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6947,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7024,235 +7267,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-1548000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1554100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-324800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-642300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2774500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-507400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-163600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1135500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1148900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2061800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-266700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1261300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-954100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-274300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-273900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-877700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-278100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-294000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-314200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E101" s="3">
         <v>170900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>69700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>30000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-99000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-144100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>270100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-38800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>108200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>30500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>107900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>51800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-60100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-72400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-78800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>69600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-93500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>51000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>591000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-818000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-115700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>937300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1063700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-349900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>337100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-576700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-340600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>108200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>447600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-516200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>955000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-921700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>709100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-210300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>211400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-482500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>30000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>513900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-613900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-78600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>230300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,359 +662,380 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9122100</v>
+        <v>8547800</v>
       </c>
       <c r="E8" s="3">
-        <v>9215800</v>
+        <v>8729200</v>
       </c>
       <c r="F8" s="3">
-        <v>6819300</v>
+        <v>9556400</v>
       </c>
       <c r="G8" s="3">
-        <v>6669800</v>
+        <v>9654700</v>
       </c>
       <c r="H8" s="3">
-        <v>4899900</v>
+        <v>7144000</v>
       </c>
       <c r="I8" s="3">
+        <v>6987400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5133200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4083300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3613300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2979900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2957500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2026000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3918700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4831100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4863900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4943300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4304500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4761700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4826500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>9488900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4392800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4916200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4263900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4208300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>4278900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>4393300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5131400</v>
+        <v>5011200</v>
       </c>
       <c r="E9" s="3">
-        <v>4846300</v>
+        <v>5281600</v>
       </c>
       <c r="F9" s="3">
-        <v>3766900</v>
+        <v>5375800</v>
       </c>
       <c r="G9" s="3">
-        <v>4017800</v>
+        <v>5077100</v>
       </c>
       <c r="H9" s="3">
-        <v>3046300</v>
+        <v>3946300</v>
       </c>
       <c r="I9" s="3">
+        <v>4209100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3191300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2400600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2207500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2164400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2002500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1827700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2934600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3190200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3034900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3027600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2763200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3105100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2868100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>5581200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2654000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3118400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2808700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2952200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2926600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>3202400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3990600</v>
+        <v>3536600</v>
       </c>
       <c r="E10" s="3">
-        <v>4369500</v>
+        <v>3447500</v>
       </c>
       <c r="F10" s="3">
-        <v>3052300</v>
+        <v>4180700</v>
       </c>
       <c r="G10" s="3">
-        <v>2652000</v>
+        <v>4577600</v>
       </c>
       <c r="H10" s="3">
-        <v>1853600</v>
+        <v>3197700</v>
       </c>
       <c r="I10" s="3">
+        <v>2778300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1941900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1682700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1405700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>815500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>955000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>198300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>984100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1641000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1829000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1915700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1541300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1656600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1958400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>3907700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1738700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1797800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1455200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1256100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1352300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1190900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,88 +1064,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20900</v>
+        <v>54800</v>
       </c>
       <c r="E12" s="3">
-        <v>93400</v>
+        <v>192400</v>
       </c>
       <c r="F12" s="3">
-        <v>19500</v>
+        <v>21900</v>
       </c>
       <c r="G12" s="3">
-        <v>88900</v>
+        <v>97900</v>
       </c>
       <c r="H12" s="3">
-        <v>63200</v>
+        <v>20500</v>
       </c>
       <c r="I12" s="3">
+        <v>93100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K12" s="3">
         <v>14100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>35300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>86600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>23800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>33600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>103000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>15700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>66900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>16600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>50300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>271600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>56400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>21200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>292200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>103900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>24700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>8600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>96800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1203,168 +1232,186 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>5100</v>
       </c>
       <c r="E14" s="3">
-        <v>3100</v>
+        <v>74300</v>
       </c>
       <c r="F14" s="3">
-        <v>5500</v>
+        <v>2400</v>
       </c>
       <c r="G14" s="3">
-        <v>21000</v>
+        <v>3200</v>
       </c>
       <c r="H14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>400</v>
+      </c>
+      <c r="K14" s="3">
+        <v>500</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-116500</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-116500</v>
-      </c>
-      <c r="L14" s="3">
-        <v>300</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-328800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>314200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>187600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>10400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>5700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>4100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>149000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-26200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-14700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-34600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>-556400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>7900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>244000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>26800</v>
+        <v>33700</v>
       </c>
       <c r="E15" s="3">
-        <v>27400</v>
+        <v>72700</v>
       </c>
       <c r="F15" s="3">
-        <v>27300</v>
+        <v>28100</v>
       </c>
       <c r="G15" s="3">
-        <v>78100</v>
+        <v>28700</v>
       </c>
       <c r="H15" s="3">
-        <v>12000</v>
+        <v>28600</v>
       </c>
       <c r="I15" s="3">
+        <v>81800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K15" s="3">
         <v>14100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>13600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>40200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>12900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>20000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>46000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>10700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>11200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>5400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>7800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>4500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>11500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>6100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>8700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>15000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>10900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>13300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>16400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1437,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5505500</v>
+        <v>5529200</v>
       </c>
       <c r="E17" s="3">
-        <v>5308200</v>
+        <v>6147700</v>
       </c>
       <c r="F17" s="3">
-        <v>4188100</v>
+        <v>5767700</v>
       </c>
       <c r="G17" s="3">
-        <v>4488300</v>
+        <v>5561000</v>
       </c>
       <c r="H17" s="3">
-        <v>3408400</v>
+        <v>4387500</v>
       </c>
       <c r="I17" s="3">
+        <v>4702000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3570700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2706400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2455500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2553800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2319800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1827300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3529200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3845900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3321700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3334800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2966200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3593200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3300300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6019600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2838800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3111000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3200600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3162600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3223200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3854400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3616500</v>
+        <v>3018600</v>
       </c>
       <c r="E18" s="3">
-        <v>3907600</v>
+        <v>2581400</v>
       </c>
       <c r="F18" s="3">
-        <v>2631200</v>
+        <v>3788800</v>
       </c>
       <c r="G18" s="3">
-        <v>2181600</v>
+        <v>4093700</v>
       </c>
       <c r="H18" s="3">
-        <v>1491500</v>
+        <v>2756500</v>
       </c>
       <c r="I18" s="3">
+        <v>2285500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1562500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1376900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1157800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>426100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>637700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>198700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>389600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>985200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1542100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1608600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1338300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1168600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1526200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3469300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1554000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1805100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1063300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1045700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>1055600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>538900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1580,408 +1641,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-37500</v>
+        <v>126400</v>
       </c>
       <c r="E20" s="3">
-        <v>-88400</v>
+        <v>60300</v>
       </c>
       <c r="F20" s="3">
-        <v>-46900</v>
+        <v>-39300</v>
       </c>
       <c r="G20" s="3">
-        <v>-18900</v>
+        <v>-92600</v>
       </c>
       <c r="H20" s="3">
-        <v>24300</v>
+        <v>-49100</v>
       </c>
       <c r="I20" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-34100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>70200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-70500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>31500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-47000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>80100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>43400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>61300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>83200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>19300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>45700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>26900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>18100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-58800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>117200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-111000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>291700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4247600</v>
+        <v>3840800</v>
       </c>
       <c r="E21" s="3">
-        <v>4419000</v>
+        <v>3385200</v>
       </c>
       <c r="F21" s="3">
-        <v>3153300</v>
+        <v>4449900</v>
       </c>
       <c r="G21" s="3">
-        <v>2745600</v>
+        <v>4629400</v>
       </c>
       <c r="H21" s="3">
-        <v>2080000</v>
+        <v>3303500</v>
       </c>
       <c r="I21" s="3">
+        <v>2876300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2179000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1845800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1632900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1019600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1118900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>779700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>922300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1657500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2106000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2217200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1937100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1748700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2104600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>4627400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2118200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2411200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1718300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1846200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1604900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1464900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>305700</v>
+        <v>382500</v>
       </c>
       <c r="E22" s="3">
-        <v>279800</v>
+        <v>358800</v>
       </c>
       <c r="F22" s="3">
-        <v>230700</v>
+        <v>320200</v>
       </c>
       <c r="G22" s="3">
-        <v>257800</v>
+        <v>293100</v>
       </c>
       <c r="H22" s="3">
-        <v>147300</v>
+        <v>241700</v>
       </c>
       <c r="I22" s="3">
+        <v>270100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>154300</v>
+      </c>
+      <c r="K22" s="3">
         <v>127500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>117300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>125700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>155400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>156700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>126200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>127000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>128100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>129500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>122000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>183100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>144600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>347900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>171800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>206800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>198200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>153300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>205200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>226800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3273300</v>
+        <v>2762500</v>
       </c>
       <c r="E23" s="3">
-        <v>3539400</v>
+        <v>2282900</v>
       </c>
       <c r="F23" s="3">
-        <v>2353600</v>
+        <v>3429200</v>
       </c>
       <c r="G23" s="3">
-        <v>1904900</v>
+        <v>3708000</v>
       </c>
       <c r="H23" s="3">
-        <v>1368500</v>
+        <v>2465700</v>
       </c>
       <c r="I23" s="3">
+        <v>1995600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1433600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1215200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1032100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>370700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>411700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>73500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>216300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>938200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1382300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1522500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1277600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1068600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1401000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3167100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1409100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1616500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>806300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1009600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>739400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>603800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1074300</v>
+        <v>1230400</v>
       </c>
       <c r="E24" s="3">
-        <v>1115000</v>
+        <v>589900</v>
       </c>
       <c r="F24" s="3">
-        <v>815600</v>
+        <v>1125400</v>
       </c>
       <c r="G24" s="3">
-        <v>433400</v>
+        <v>1168100</v>
       </c>
       <c r="H24" s="3">
-        <v>460700</v>
+        <v>854500</v>
       </c>
       <c r="I24" s="3">
+        <v>454100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>482700</v>
+      </c>
+      <c r="K24" s="3">
         <v>371200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>322700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>178300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>137100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>91500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-186900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>477900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>505400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>451800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>303400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>589000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1192000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>564000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>457200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>414600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>535100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>396300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>485600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2060,168 +2153,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2199100</v>
+        <v>1532100</v>
       </c>
       <c r="E26" s="3">
-        <v>2424400</v>
+        <v>1692900</v>
       </c>
       <c r="F26" s="3">
-        <v>1538000</v>
+        <v>2303800</v>
       </c>
       <c r="G26" s="3">
-        <v>1471500</v>
+        <v>2539900</v>
       </c>
       <c r="H26" s="3">
-        <v>907700</v>
+        <v>1611300</v>
       </c>
       <c r="I26" s="3">
+        <v>1541500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>951000</v>
+      </c>
+      <c r="K26" s="3">
         <v>844000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>709400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>192400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>274600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>72400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>124800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1125100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>904500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1017100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>825800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>765200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>811900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1975100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>845100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1159300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>391700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>474500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>343200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>118200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1997700</v>
+        <v>1245300</v>
       </c>
       <c r="E27" s="3">
-        <v>2198700</v>
+        <v>1507200</v>
       </c>
       <c r="F27" s="3">
-        <v>1380300</v>
+        <v>2092800</v>
       </c>
       <c r="G27" s="3">
-        <v>1276200</v>
+        <v>2303400</v>
       </c>
       <c r="H27" s="3">
-        <v>799500</v>
+        <v>1446000</v>
       </c>
       <c r="I27" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>837600</v>
+      </c>
+      <c r="K27" s="3">
         <v>782100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>648000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>141800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>205200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>34600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1042300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>813000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>941500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>741000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>688300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>749200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1840300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>784400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1096500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>321100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>417500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>283500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>61400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2300,8 +2411,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2380,8 +2497,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2460,8 +2583,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2540,168 +2669,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>37500</v>
+        <v>-126400</v>
       </c>
       <c r="E32" s="3">
-        <v>88400</v>
+        <v>-60300</v>
       </c>
       <c r="F32" s="3">
-        <v>46900</v>
+        <v>39300</v>
       </c>
       <c r="G32" s="3">
-        <v>18900</v>
+        <v>92600</v>
       </c>
       <c r="H32" s="3">
-        <v>-24300</v>
+        <v>49100</v>
       </c>
       <c r="I32" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K32" s="3">
         <v>34100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-70200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>70500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-31500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>47000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-80100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>31700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-43400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-61300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-83200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-19300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-45700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-26900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-18100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>58800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-117200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>111000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-291700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1997700</v>
+        <v>1245300</v>
       </c>
       <c r="E33" s="3">
-        <v>2198700</v>
+        <v>1507200</v>
       </c>
       <c r="F33" s="3">
-        <v>1380300</v>
+        <v>2092800</v>
       </c>
       <c r="G33" s="3">
-        <v>1276200</v>
+        <v>2303400</v>
       </c>
       <c r="H33" s="3">
-        <v>799500</v>
+        <v>1446000</v>
       </c>
       <c r="I33" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>837600</v>
+      </c>
+      <c r="K33" s="3">
         <v>782100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>648000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>141800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>205200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>34600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1042300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>813000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>941500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>741000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>688300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>749200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1840300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>784400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1096500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>321100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>417500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>283500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>61400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2780,173 +2927,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1997700</v>
+        <v>1245300</v>
       </c>
       <c r="E35" s="3">
-        <v>2198700</v>
+        <v>1507200</v>
       </c>
       <c r="F35" s="3">
-        <v>1380300</v>
+        <v>2092800</v>
       </c>
       <c r="G35" s="3">
-        <v>1276200</v>
+        <v>2303400</v>
       </c>
       <c r="H35" s="3">
-        <v>799500</v>
+        <v>1446000</v>
       </c>
       <c r="I35" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>837600</v>
+      </c>
+      <c r="K35" s="3">
         <v>782100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>648000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>141800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>205200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>34600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1042300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>813000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>941500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>741000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>688300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>749200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1840300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>784400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1096500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>321100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>417500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>283500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>61400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2975,8 +3140,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3005,728 +3172,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2712700</v>
+        <v>3409400</v>
       </c>
       <c r="E41" s="3">
-        <v>2121800</v>
+        <v>3388200</v>
       </c>
       <c r="F41" s="3">
-        <v>2939800</v>
+        <v>2841900</v>
       </c>
       <c r="G41" s="3">
-        <v>3055500</v>
+        <v>2222800</v>
       </c>
       <c r="H41" s="3">
-        <v>2118200</v>
+        <v>3079800</v>
       </c>
       <c r="I41" s="3">
+        <v>3201000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2219100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1054500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1404400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1067300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1878900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2219500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2287300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1839700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2446500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1491500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2413200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1641100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1922600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1901200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2359900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1755700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1832500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1501600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1561700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1095700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>565100</v>
+        <v>481700</v>
       </c>
       <c r="E42" s="3">
-        <v>348300</v>
+        <v>367200</v>
       </c>
       <c r="F42" s="3">
-        <v>452300</v>
+        <v>592000</v>
       </c>
       <c r="G42" s="3">
-        <v>452500</v>
+        <v>364900</v>
       </c>
       <c r="H42" s="3">
-        <v>446100</v>
+        <v>473900</v>
       </c>
       <c r="I42" s="3">
+        <v>474000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>467300</v>
+      </c>
+      <c r="K42" s="3">
         <v>102400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>156800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>506700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>839200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>999800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>247600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>459900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>662000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>906600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1349100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1383500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2042100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1878800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1325000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1736700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1560200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1118400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>3310400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>3450900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8399900</v>
+        <v>12266100</v>
       </c>
       <c r="E43" s="3">
-        <v>7537600</v>
+        <v>10314000</v>
       </c>
       <c r="F43" s="3">
-        <v>6449400</v>
+        <v>8799900</v>
       </c>
       <c r="G43" s="3">
-        <v>5326300</v>
+        <v>7896500</v>
       </c>
       <c r="H43" s="3">
-        <v>5060400</v>
+        <v>6756500</v>
       </c>
       <c r="I43" s="3">
+        <v>5579900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5301400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3306500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2555100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1960700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2097900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2059500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1806900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2131500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2049800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2634900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2725700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2538700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2350500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2628100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2269200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2341000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1978600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1905300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1705700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>2007700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2264500</v>
+        <v>2447100</v>
       </c>
       <c r="E44" s="3">
-        <v>2557100</v>
+        <v>2613600</v>
       </c>
       <c r="F44" s="3">
-        <v>2304100</v>
+        <v>2372400</v>
       </c>
       <c r="G44" s="3">
-        <v>1763600</v>
+        <v>2678900</v>
       </c>
       <c r="H44" s="3">
-        <v>1906400</v>
+        <v>2413800</v>
       </c>
       <c r="I44" s="3">
+        <v>1847600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1997200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1507200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1345600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1061300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1322500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1208400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1511100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1471100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1594800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1580600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1479100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1326100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1461500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1641500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1478800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1472400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1512100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1366100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1385800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1267800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>340400</v>
+        <v>390200</v>
       </c>
       <c r="E45" s="3">
-        <v>247500</v>
+        <v>317800</v>
       </c>
       <c r="F45" s="3">
-        <v>275800</v>
+        <v>356600</v>
       </c>
       <c r="G45" s="3">
-        <v>258200</v>
+        <v>259200</v>
       </c>
       <c r="H45" s="3">
-        <v>342300</v>
+        <v>288900</v>
       </c>
       <c r="I45" s="3">
+        <v>270500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>358600</v>
+      </c>
+      <c r="K45" s="3">
         <v>175900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>224100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>199200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>282900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>216900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>304500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>172500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>196300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>144400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>146700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>138600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>131000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>125000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>131300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>125800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>180600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>191400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>169900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>140500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>14282600</v>
+        <v>18994500</v>
       </c>
       <c r="E46" s="3">
-        <v>12812200</v>
+        <v>17000900</v>
       </c>
       <c r="F46" s="3">
-        <v>12421400</v>
+        <v>14962700</v>
       </c>
       <c r="G46" s="3">
-        <v>10856100</v>
+        <v>13422300</v>
       </c>
       <c r="H46" s="3">
-        <v>9873400</v>
+        <v>13012800</v>
       </c>
       <c r="I46" s="3">
+        <v>11373100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10343600</v>
+      </c>
+      <c r="K46" s="3">
         <v>6146600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5686000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4795200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6421200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6704100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6157500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6074800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6949500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6758000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8113900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7028000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7907800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8174700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7564200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7431700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7064000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>6082800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>8133400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>7962600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>8062000</v>
+        <v>9424400</v>
       </c>
       <c r="E47" s="3">
-        <v>7604500</v>
+        <v>9507400</v>
       </c>
       <c r="F47" s="3">
-        <v>7581600</v>
+        <v>8445900</v>
       </c>
       <c r="G47" s="3">
-        <v>7103100</v>
+        <v>7966600</v>
       </c>
       <c r="H47" s="3">
-        <v>6914800</v>
+        <v>7942700</v>
       </c>
       <c r="I47" s="3">
+        <v>7441400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7244100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1100900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1015100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>992900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1208900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1451100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1642600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1920700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1956400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1743300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1335500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1410900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1531900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1627300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1929500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1815500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1384000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>1419900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1466400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1205600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>29006700</v>
+        <v>31638700</v>
       </c>
       <c r="E48" s="3">
-        <v>27429900</v>
+        <v>31668800</v>
       </c>
       <c r="F48" s="3">
-        <v>26107000</v>
+        <v>30387900</v>
       </c>
       <c r="G48" s="3">
-        <v>26569600</v>
+        <v>28736100</v>
       </c>
       <c r="H48" s="3">
-        <v>24536500</v>
+        <v>27350200</v>
       </c>
       <c r="I48" s="3">
+        <v>27834800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>25704900</v>
+      </c>
+      <c r="K48" s="3">
         <v>21623400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>21324800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>20752300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>24092400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>23977800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>26598600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>24369500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>24227100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>23212000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>23085100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>22319900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>22118800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>24635700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>24041100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>26453800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>25781800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>26507600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>26236200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>27921300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4675000</v>
+        <v>4965200</v>
       </c>
       <c r="E49" s="3">
-        <v>4306400</v>
+        <v>5116400</v>
       </c>
       <c r="F49" s="3">
-        <v>4024300</v>
+        <v>4897600</v>
       </c>
       <c r="G49" s="3">
-        <v>4048500</v>
+        <v>4511400</v>
       </c>
       <c r="H49" s="3">
-        <v>6334800</v>
+        <v>4216000</v>
       </c>
       <c r="I49" s="3">
+        <v>4241300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6636400</v>
+      </c>
+      <c r="K49" s="3">
         <v>407900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>402700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>400900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>460900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>357200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>397400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>364700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>355300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>354900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>361500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>345800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>354300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>383600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>384100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>415900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>404900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>375200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>380300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>393200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3805,8 +4028,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3885,88 +4114,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3431500</v>
+        <v>3696800</v>
       </c>
       <c r="E52" s="3">
-        <v>3051200</v>
+        <v>4107800</v>
       </c>
       <c r="F52" s="3">
-        <v>2540100</v>
+        <v>3594900</v>
       </c>
       <c r="G52" s="3">
-        <v>2715200</v>
+        <v>3196500</v>
       </c>
       <c r="H52" s="3">
-        <v>2999600</v>
+        <v>2661000</v>
       </c>
       <c r="I52" s="3">
+        <v>2844500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3142400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2484600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2427200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2336300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2923900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2825800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3302800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2486900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1880600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1713700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1711100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1717900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1535300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1653700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1652100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2499000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2571300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>2636600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>2342900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>2548600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4045,88 +4286,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>59457700</v>
+        <v>68719600</v>
       </c>
       <c r="E54" s="3">
-        <v>55204200</v>
+        <v>67401300</v>
       </c>
       <c r="F54" s="3">
-        <v>52674400</v>
+        <v>62289000</v>
       </c>
       <c r="G54" s="3">
-        <v>51292500</v>
+        <v>57832900</v>
       </c>
       <c r="H54" s="3">
-        <v>50659100</v>
+        <v>55182700</v>
       </c>
       <c r="I54" s="3">
+        <v>53735000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>53071400</v>
+      </c>
+      <c r="K54" s="3">
         <v>31763400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30855800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29277600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>35107300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>35316000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>38098900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>35216500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>35368900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>33781800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>34607100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>32822600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>33448100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>36475000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>35571100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>38615900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>37205900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>37022200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>38559200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>40031400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4155,8 +4408,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4185,488 +4440,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2473900</v>
+        <v>2844100</v>
       </c>
       <c r="E57" s="3">
-        <v>2569600</v>
+        <v>3307600</v>
       </c>
       <c r="F57" s="3">
-        <v>2313700</v>
+        <v>2591700</v>
       </c>
       <c r="G57" s="3">
-        <v>2198800</v>
+        <v>2691900</v>
       </c>
       <c r="H57" s="3">
-        <v>1764600</v>
+        <v>2423900</v>
       </c>
       <c r="I57" s="3">
+        <v>2303500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1848600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1513700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1410300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1363300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1292100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1131100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1753800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2109900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1923100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1823000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1658600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1788400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1669000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1569200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1386700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1628500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1347100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1319700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1235200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1540900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4749000</v>
+        <v>3576600</v>
       </c>
       <c r="E58" s="3">
-        <v>2050200</v>
+        <v>4883700</v>
       </c>
       <c r="F58" s="3">
-        <v>1835200</v>
+        <v>4975200</v>
       </c>
       <c r="G58" s="3">
-        <v>1933300</v>
+        <v>2147800</v>
       </c>
       <c r="H58" s="3">
-        <v>1817300</v>
+        <v>1922500</v>
       </c>
       <c r="I58" s="3">
+        <v>2025400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1903900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1117900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1093400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1033900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1497800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2281900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1593000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1303200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1221700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1103800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1091500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1045200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2169300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1703100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1479900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1646200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1636800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1254200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1310400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1361600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3568700</v>
+        <v>10192900</v>
       </c>
       <c r="E59" s="3">
-        <v>4148100</v>
+        <v>4300800</v>
       </c>
       <c r="F59" s="3">
-        <v>4833600</v>
+        <v>3738700</v>
       </c>
       <c r="G59" s="3">
-        <v>2220200</v>
+        <v>4345700</v>
       </c>
       <c r="H59" s="3">
-        <v>2273100</v>
+        <v>5063800</v>
       </c>
       <c r="I59" s="3">
+        <v>2325900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2381300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1427600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1688500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1442100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2328000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2975500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4170100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2239900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1948300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2444200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4481500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1800800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2086300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2384800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3290800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2116200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2184600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2070100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2920300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2505200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>10791600</v>
+        <v>16613700</v>
       </c>
       <c r="E60" s="3">
-        <v>8767900</v>
+        <v>12492100</v>
       </c>
       <c r="F60" s="3">
-        <v>8982500</v>
+        <v>11305500</v>
       </c>
       <c r="G60" s="3">
-        <v>6352200</v>
+        <v>9185400</v>
       </c>
       <c r="H60" s="3">
-        <v>5855000</v>
+        <v>9410200</v>
       </c>
       <c r="I60" s="3">
+        <v>6654700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6133800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4059200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4192300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3839300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5117900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6388500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7517000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5653000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5093100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5371000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7231700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4634400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5924600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5657100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6157300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5390900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5168500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4644100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>5465900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>5407800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>17876400</v>
+        <v>22023100</v>
       </c>
       <c r="E61" s="3">
-        <v>18686500</v>
+        <v>20446000</v>
       </c>
       <c r="F61" s="3">
-        <v>17404700</v>
+        <v>18727600</v>
       </c>
       <c r="G61" s="3">
-        <v>18029500</v>
+        <v>19576300</v>
       </c>
       <c r="H61" s="3">
-        <v>17477200</v>
+        <v>18233500</v>
       </c>
       <c r="I61" s="3">
+        <v>18888000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>18309500</v>
+      </c>
+      <c r="K61" s="3">
         <v>9394800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9384300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8779800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>11336200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10598900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>10485200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>8639000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>9688200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>9012400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>9095000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>8851100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>8601200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>10695600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>10807900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>12289100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>12638500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>13502000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>14821200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>15871600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>8143600</v>
+        <v>8154100</v>
       </c>
       <c r="E62" s="3">
-        <v>7867600</v>
+        <v>8264000</v>
       </c>
       <c r="F62" s="3">
-        <v>7566900</v>
+        <v>8531300</v>
       </c>
       <c r="G62" s="3">
-        <v>7222900</v>
+        <v>8242200</v>
       </c>
       <c r="H62" s="3">
-        <v>7631400</v>
+        <v>7927300</v>
       </c>
       <c r="I62" s="3">
+        <v>7566800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7994800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5164400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5067400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4936500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4931700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4975800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5437900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5235000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4019500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4026100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4060300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3917900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>4026500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>4451000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>4256600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>5005900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>4070100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>3843000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>3738900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>3796500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4745,8 +5038,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4825,8 +5124,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4905,88 +5210,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>42266000</v>
+        <v>52745700</v>
       </c>
       <c r="E66" s="3">
-        <v>40376600</v>
+        <v>47373700</v>
       </c>
       <c r="F66" s="3">
-        <v>38718800</v>
+        <v>44278600</v>
       </c>
       <c r="G66" s="3">
-        <v>36228600</v>
+        <v>42299300</v>
       </c>
       <c r="H66" s="3">
-        <v>37430200</v>
+        <v>40562600</v>
       </c>
       <c r="I66" s="3">
+        <v>37953800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>39212600</v>
+      </c>
+      <c r="K66" s="3">
         <v>19406800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19405700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18337600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22287100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>22919800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>24429400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20549300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19382000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19002400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>20923200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>17947000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19039000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>21376300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>21713500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>23288300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>22436200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>22579500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>24545600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>25619100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5015,8 +5332,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5095,8 +5414,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5175,8 +5500,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5255,8 +5586,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5335,88 +5672,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>7767700</v>
+        <v>5526000</v>
       </c>
       <c r="E72" s="3">
-        <v>5770000</v>
+        <v>9644800</v>
       </c>
       <c r="F72" s="3">
-        <v>5021900</v>
+        <v>8137600</v>
       </c>
       <c r="G72" s="3">
-        <v>6050500</v>
+        <v>6044800</v>
       </c>
       <c r="H72" s="3">
-        <v>4726800</v>
+        <v>5261100</v>
       </c>
       <c r="I72" s="3">
+        <v>6338600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4951900</v>
+      </c>
+      <c r="K72" s="3">
         <v>3927300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3144800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2643400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2859000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2653800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2868400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4758100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4799200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3986200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>3044700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4623800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4086800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3708300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2652600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>3163800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2067600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1746600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1329000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1390300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5495,8 +5844,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5575,8 +5930,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5655,88 +6016,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>17191700</v>
+        <v>15973900</v>
       </c>
       <c r="E76" s="3">
-        <v>14827600</v>
+        <v>20027600</v>
       </c>
       <c r="F76" s="3">
-        <v>13955600</v>
+        <v>18010400</v>
       </c>
       <c r="G76" s="3">
-        <v>15063900</v>
+        <v>15533700</v>
       </c>
       <c r="H76" s="3">
-        <v>13228900</v>
+        <v>14620200</v>
       </c>
       <c r="I76" s="3">
+        <v>15781300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>13858900</v>
+      </c>
+      <c r="K76" s="3">
         <v>12356600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11450100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10940000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12820300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12396200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13669400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14667200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>15986900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14779400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>13683900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>14875500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>14409100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>15098700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>13857600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>15327600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>14769700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>14442700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>14013600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>14412400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5815,173 +6188,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1997700</v>
+        <v>1245300</v>
       </c>
       <c r="E81" s="3">
-        <v>2198700</v>
+        <v>1507200</v>
       </c>
       <c r="F81" s="3">
-        <v>1380300</v>
+        <v>2092800</v>
       </c>
       <c r="G81" s="3">
-        <v>1276200</v>
+        <v>2303400</v>
       </c>
       <c r="H81" s="3">
-        <v>799500</v>
+        <v>1446000</v>
       </c>
       <c r="I81" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>837600</v>
+      </c>
+      <c r="K81" s="3">
         <v>782100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>648000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>141800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>205200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>34600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1042300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>813000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>941500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>741000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>688300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>749200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1840300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>784400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1096500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>321100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>417500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>283500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>61400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6010,88 +6401,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>668600</v>
+        <v>695800</v>
       </c>
       <c r="E83" s="3">
-        <v>599800</v>
+        <v>743500</v>
       </c>
       <c r="F83" s="3">
-        <v>569000</v>
+        <v>700500</v>
       </c>
       <c r="G83" s="3">
-        <v>582900</v>
+        <v>628300</v>
       </c>
       <c r="H83" s="3">
-        <v>564200</v>
+        <v>596100</v>
       </c>
       <c r="I83" s="3">
+        <v>610700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>591000</v>
+      </c>
+      <c r="K83" s="3">
         <v>503100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>483400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>523300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>551700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>549500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>579700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>592200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>595600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>565200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>537500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>497000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>559000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>1112400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>537300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>588000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>713800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>683300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>660300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>634300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6170,8 +6569,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6250,8 +6655,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6330,8 +6741,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6410,8 +6827,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6490,88 +6913,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3136400</v>
+        <v>455600</v>
       </c>
       <c r="E89" s="3">
-        <v>1292300</v>
+        <v>2499000</v>
       </c>
       <c r="F89" s="3">
-        <v>795100</v>
+        <v>3285700</v>
       </c>
       <c r="G89" s="3">
-        <v>2312000</v>
+        <v>1353800</v>
       </c>
       <c r="H89" s="3">
-        <v>1108700</v>
+        <v>833000</v>
       </c>
       <c r="I89" s="3">
+        <v>2422100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1161500</v>
+      </c>
+      <c r="K89" s="3">
         <v>695900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>616000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1120400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>846400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-539500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>668800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1966900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2513500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1620900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1305300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1176500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2309500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2794100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1401900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2033100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1494000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>478900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1425500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1328000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6600,88 +7035,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-454900</v>
+        <v>-5153955000</v>
       </c>
       <c r="E91" s="3">
-        <v>-392100</v>
+        <v>-8443313000</v>
       </c>
       <c r="F91" s="3">
-        <v>-257600</v>
+        <v>-5493938000</v>
       </c>
       <c r="G91" s="3">
-        <v>-448300</v>
+        <v>-4586132000</v>
       </c>
       <c r="H91" s="3">
-        <v>-362300</v>
+        <v>-3354387000</v>
       </c>
       <c r="I91" s="3">
+        <v>-4542147000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3564839000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-295700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-178500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-359700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-320800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-278300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-214000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-385700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-324300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-196700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-161900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-358000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-220300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-333000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-133100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-305300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-160000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-200100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-90800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-743300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6760,8 +7203,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6840,88 +7289,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1011300</v>
+        <v>-822300</v>
       </c>
       <c r="E94" s="3">
-        <v>-727100</v>
+        <v>-1548500</v>
       </c>
       <c r="F94" s="3">
-        <v>-583400</v>
+        <v>-1059400</v>
       </c>
       <c r="G94" s="3">
-        <v>-802200</v>
+        <v>-761800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2809300</v>
+        <v>-611200</v>
       </c>
       <c r="I94" s="3">
+        <v>-840400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2943100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-552000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-145300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-462600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-40800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-224600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1183000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-712600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-475200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-293400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>130100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-973300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-623200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>1472300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-834500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6950,88 +7411,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1096500</v>
+        <v>-49900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1195300</v>
+        <v>-477400</v>
       </c>
       <c r="F96" s="3">
-        <v>-57500</v>
+        <v>-1148700</v>
       </c>
       <c r="G96" s="3">
-        <v>-282800</v>
+        <v>-1252200</v>
       </c>
       <c r="H96" s="3">
-        <v>-57500</v>
+        <v>-60200</v>
       </c>
       <c r="I96" s="3">
+        <v>-296300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-206300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-35300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-732400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-698500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-458600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-110700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-990600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-832000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-89800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-36500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-494600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-736600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-73500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-63900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-53900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-327100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-36600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-105500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7110,8 +7579,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7190,8 +7665,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7270,244 +7751,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1548000</v>
+        <v>415100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1554100</v>
+        <v>-575500</v>
       </c>
       <c r="F100" s="3">
-        <v>-324800</v>
+        <v>-1621700</v>
       </c>
       <c r="G100" s="3">
-        <v>-642300</v>
+        <v>-1628100</v>
       </c>
       <c r="H100" s="3">
-        <v>2774500</v>
+        <v>-340200</v>
       </c>
       <c r="I100" s="3">
+        <v>-672800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2906600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-507400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-163600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1135500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1148900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2061800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-266700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1261300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-954100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-274300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-273900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-877700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-278100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-294000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-314200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>13800</v>
+        <v>-27200</v>
       </c>
       <c r="E101" s="3">
-        <v>170900</v>
+        <v>171300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2600</v>
+        <v>14500</v>
       </c>
       <c r="G101" s="3">
-        <v>69700</v>
+        <v>179000</v>
       </c>
       <c r="H101" s="3">
-        <v>-10200</v>
+        <v>-2700</v>
       </c>
       <c r="I101" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K101" s="3">
         <v>13700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>30000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-99000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-144100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>270100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-38800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>108200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>30500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-28500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>107900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>51800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-60100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-72400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>9800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-78800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>69600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-93500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>51000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>591000</v>
+        <v>21200</v>
       </c>
       <c r="E102" s="3">
-        <v>-818000</v>
+        <v>546300</v>
       </c>
       <c r="F102" s="3">
-        <v>-115700</v>
+        <v>619100</v>
       </c>
       <c r="G102" s="3">
-        <v>937300</v>
+        <v>-857000</v>
       </c>
       <c r="H102" s="3">
-        <v>1063700</v>
+        <v>-121200</v>
       </c>
       <c r="I102" s="3">
+        <v>981900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1114400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-349900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>337100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-576700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-340600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>108200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>447600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-516200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>955000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-921700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>709100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-210300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>211400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-482500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-23800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>30000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>513900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-613900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-78600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>230300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,380 +662,392 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8547800</v>
+        <v>8232000</v>
       </c>
       <c r="E8" s="3">
-        <v>8729200</v>
+        <v>9324900</v>
       </c>
       <c r="F8" s="3">
-        <v>9556400</v>
+        <v>9522700</v>
       </c>
       <c r="G8" s="3">
-        <v>9654700</v>
+        <v>10425200</v>
       </c>
       <c r="H8" s="3">
-        <v>7144000</v>
+        <v>10532400</v>
       </c>
       <c r="I8" s="3">
-        <v>6987400</v>
+        <v>7793500</v>
       </c>
       <c r="J8" s="3">
+        <v>7622700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5133200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4083300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3613300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2979900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2957500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2026000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3918700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4831100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4863900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4943300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4304500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4761700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4826500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9488900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4392800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4916200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4263900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4208300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4278900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4393300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5011200</v>
+        <v>5156900</v>
       </c>
       <c r="E9" s="3">
-        <v>5281600</v>
+        <v>5466800</v>
       </c>
       <c r="F9" s="3">
-        <v>5375800</v>
+        <v>5761800</v>
       </c>
       <c r="G9" s="3">
-        <v>5077100</v>
+        <v>5864500</v>
       </c>
       <c r="H9" s="3">
-        <v>3946300</v>
+        <v>5538600</v>
       </c>
       <c r="I9" s="3">
-        <v>4209100</v>
+        <v>4305100</v>
       </c>
       <c r="J9" s="3">
+        <v>4591800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3191300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2207500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2164400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2002500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1827700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2934600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3190200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3034900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3027600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2763200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3105100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2868100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5581200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2654000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3118400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2808700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2952200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2926600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3202400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3536600</v>
+        <v>3075100</v>
       </c>
       <c r="E10" s="3">
-        <v>3447500</v>
+        <v>3858100</v>
       </c>
       <c r="F10" s="3">
-        <v>4180700</v>
+        <v>3760900</v>
       </c>
       <c r="G10" s="3">
-        <v>4577600</v>
+        <v>4560700</v>
       </c>
       <c r="H10" s="3">
-        <v>3197700</v>
+        <v>4993700</v>
       </c>
       <c r="I10" s="3">
-        <v>2778300</v>
+        <v>3488400</v>
       </c>
       <c r="J10" s="3">
+        <v>3030900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1941900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1682700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1405700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>815500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>955000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>198300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>984100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1641000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1829000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1915700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1541300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1656600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1958400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3907700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1738700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1797800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1455200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1256100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1352300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1190900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,94 +1078,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>54800</v>
+        <v>59900</v>
       </c>
       <c r="E12" s="3">
-        <v>192400</v>
+        <v>59800</v>
       </c>
       <c r="F12" s="3">
-        <v>21900</v>
+        <v>209900</v>
       </c>
       <c r="G12" s="3">
-        <v>97900</v>
+        <v>23900</v>
       </c>
       <c r="H12" s="3">
-        <v>20500</v>
+        <v>106800</v>
       </c>
       <c r="I12" s="3">
-        <v>93100</v>
+        <v>22300</v>
       </c>
       <c r="J12" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K12" s="3">
         <v>66200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>35300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>86600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>103000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>66900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>50300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>271600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>56400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>292200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>103900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>24700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>8600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>96800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1238,180 +1254,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5100</v>
+        <v>8800</v>
       </c>
       <c r="E14" s="3">
-        <v>74300</v>
+        <v>5600</v>
       </c>
       <c r="F14" s="3">
-        <v>2400</v>
+        <v>81100</v>
       </c>
       <c r="G14" s="3">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="H14" s="3">
-        <v>5800</v>
+        <v>3500</v>
       </c>
       <c r="I14" s="3">
-        <v>22000</v>
+        <v>6300</v>
       </c>
       <c r="J14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-116500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-328800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>314200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>187600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>149000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-26200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-14700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-34600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-556400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>7900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>244000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>33700</v>
+        <v>29500</v>
       </c>
       <c r="E15" s="3">
-        <v>72700</v>
+        <v>36800</v>
       </c>
       <c r="F15" s="3">
-        <v>28100</v>
+        <v>79300</v>
       </c>
       <c r="G15" s="3">
-        <v>28700</v>
+        <v>30600</v>
       </c>
       <c r="H15" s="3">
-        <v>28600</v>
+        <v>31400</v>
       </c>
       <c r="I15" s="3">
-        <v>81800</v>
+        <v>31200</v>
       </c>
       <c r="J15" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K15" s="3">
         <v>12600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>46000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>11200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>6100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>15000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>10900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>13300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>16400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1439,180 +1464,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5529200</v>
+        <v>5712400</v>
       </c>
       <c r="E17" s="3">
-        <v>6147700</v>
+        <v>6031900</v>
       </c>
       <c r="F17" s="3">
-        <v>5767700</v>
+        <v>6706600</v>
       </c>
       <c r="G17" s="3">
-        <v>5561000</v>
+        <v>6292000</v>
       </c>
       <c r="H17" s="3">
-        <v>4387500</v>
+        <v>6066500</v>
       </c>
       <c r="I17" s="3">
-        <v>4702000</v>
+        <v>4786300</v>
       </c>
       <c r="J17" s="3">
+        <v>5129400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3570700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2706400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2455500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2553800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2319800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1827300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3529200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3845900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3321700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3334800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2966200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3593200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3300300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6019600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2838800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3111000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3200600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3162600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3223200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3854400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3018600</v>
+        <v>2519600</v>
       </c>
       <c r="E18" s="3">
-        <v>2581400</v>
+        <v>3293000</v>
       </c>
       <c r="F18" s="3">
-        <v>3788800</v>
+        <v>2816100</v>
       </c>
       <c r="G18" s="3">
-        <v>4093700</v>
+        <v>4133200</v>
       </c>
       <c r="H18" s="3">
-        <v>2756500</v>
+        <v>4465800</v>
       </c>
       <c r="I18" s="3">
-        <v>2285500</v>
+        <v>3007100</v>
       </c>
       <c r="J18" s="3">
+        <v>2493200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1562500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1376900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1157800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>426100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>637700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>198700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>389600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>985200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1542100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1608600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1338300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1168600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1526200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3469300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1554000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1805100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1063300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1045700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1055600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>538900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1643,438 +1675,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>126400</v>
+        <v>-47700</v>
       </c>
       <c r="E20" s="3">
-        <v>60300</v>
+        <v>137900</v>
       </c>
       <c r="F20" s="3">
-        <v>-39300</v>
+        <v>65800</v>
       </c>
       <c r="G20" s="3">
-        <v>-92600</v>
+        <v>-42900</v>
       </c>
       <c r="H20" s="3">
-        <v>-49100</v>
+        <v>-101000</v>
       </c>
       <c r="I20" s="3">
-        <v>-19800</v>
+        <v>-53600</v>
       </c>
       <c r="J20" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K20" s="3">
         <v>25500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>70200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-70500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>31500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>80100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-31700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>43400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>61300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>83200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>45700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>26900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-58800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>117200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-111000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>291700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3840800</v>
+        <v>3278700</v>
       </c>
       <c r="E21" s="3">
-        <v>3385200</v>
+        <v>4190000</v>
       </c>
       <c r="F21" s="3">
-        <v>4449900</v>
+        <v>3693000</v>
       </c>
       <c r="G21" s="3">
-        <v>4629400</v>
+        <v>4854500</v>
       </c>
       <c r="H21" s="3">
-        <v>3303500</v>
+        <v>5050200</v>
       </c>
       <c r="I21" s="3">
-        <v>2876300</v>
+        <v>3603800</v>
       </c>
       <c r="J21" s="3">
+        <v>3137800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2179000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1845800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1632900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1019600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1118900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>779700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>922300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1657500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2106000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2217200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1937100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1748700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2104600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4627400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2118200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2411200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1718300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1846200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1604900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1464900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>382500</v>
+        <v>405500</v>
       </c>
       <c r="E22" s="3">
-        <v>358800</v>
+        <v>417200</v>
       </c>
       <c r="F22" s="3">
-        <v>320200</v>
+        <v>391500</v>
       </c>
       <c r="G22" s="3">
-        <v>293100</v>
+        <v>349400</v>
       </c>
       <c r="H22" s="3">
-        <v>241700</v>
+        <v>319700</v>
       </c>
       <c r="I22" s="3">
-        <v>270100</v>
+        <v>263600</v>
       </c>
       <c r="J22" s="3">
+        <v>294600</v>
+      </c>
+      <c r="K22" s="3">
         <v>154300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>127500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>117300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>125700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>155400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>156700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>126200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>127000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>128100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>129500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>122000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>183100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>144600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>347900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>171800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>206800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>198200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>153300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>205200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>226800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2762500</v>
+        <v>2066400</v>
       </c>
       <c r="E23" s="3">
-        <v>2282900</v>
+        <v>3013700</v>
       </c>
       <c r="F23" s="3">
-        <v>3429200</v>
+        <v>2490400</v>
       </c>
       <c r="G23" s="3">
-        <v>3708000</v>
+        <v>3741000</v>
       </c>
       <c r="H23" s="3">
-        <v>2465700</v>
+        <v>4045100</v>
       </c>
       <c r="I23" s="3">
-        <v>1995600</v>
+        <v>2689900</v>
       </c>
       <c r="J23" s="3">
+        <v>2177000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1433600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1215200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1032100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>370700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>411700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>73500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>216300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>938200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1382300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1522500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1277600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1068600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1401000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3167100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1409100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1616500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>806300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1009600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>739400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>603800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1230400</v>
+        <v>800600</v>
       </c>
       <c r="E24" s="3">
-        <v>589900</v>
+        <v>1342300</v>
       </c>
       <c r="F24" s="3">
-        <v>1125400</v>
+        <v>643600</v>
       </c>
       <c r="G24" s="3">
-        <v>1168100</v>
+        <v>1227700</v>
       </c>
       <c r="H24" s="3">
-        <v>854500</v>
+        <v>1274300</v>
       </c>
       <c r="I24" s="3">
-        <v>454100</v>
+        <v>932100</v>
       </c>
       <c r="J24" s="3">
+        <v>495300</v>
+      </c>
+      <c r="K24" s="3">
         <v>482700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>371200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>322700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>178300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>137100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>91500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-186900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>477900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>505400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>451800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>303400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>589000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1192000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>564000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>457200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>414600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>535100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>396300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>485600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2159,180 +2207,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1532100</v>
+        <v>1265800</v>
       </c>
       <c r="E26" s="3">
-        <v>1692900</v>
+        <v>1671400</v>
       </c>
       <c r="F26" s="3">
-        <v>2303800</v>
+        <v>1846800</v>
       </c>
       <c r="G26" s="3">
-        <v>2539900</v>
+        <v>2513200</v>
       </c>
       <c r="H26" s="3">
-        <v>1611300</v>
+        <v>2770800</v>
       </c>
       <c r="I26" s="3">
-        <v>1541500</v>
+        <v>1757700</v>
       </c>
       <c r="J26" s="3">
+        <v>1681700</v>
+      </c>
+      <c r="K26" s="3">
         <v>951000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>844000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>709400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>192400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>274600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>72400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>124800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1125100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>904500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1017100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>825800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>765200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>811900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1975100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>845100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1159300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>391700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>474500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>343200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>118200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1245300</v>
+        <v>981000</v>
       </c>
       <c r="E27" s="3">
-        <v>1507200</v>
+        <v>1358500</v>
       </c>
       <c r="F27" s="3">
-        <v>2092800</v>
+        <v>1644200</v>
       </c>
       <c r="G27" s="3">
-        <v>2303400</v>
+        <v>2283100</v>
       </c>
       <c r="H27" s="3">
-        <v>1446000</v>
+        <v>2512800</v>
       </c>
       <c r="I27" s="3">
-        <v>1337000</v>
+        <v>1577400</v>
       </c>
       <c r="J27" s="3">
+        <v>1458500</v>
+      </c>
+      <c r="K27" s="3">
         <v>837600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>782100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>648000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>141800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>205200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1042300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>813000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>941500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>741000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>688300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>749200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1840300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>784400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1096500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>321100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>417500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>283500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>61400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2417,8 +2474,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2503,8 +2563,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2589,8 +2652,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2675,180 +2741,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-126400</v>
+        <v>47700</v>
       </c>
       <c r="E32" s="3">
-        <v>-60300</v>
+        <v>-137900</v>
       </c>
       <c r="F32" s="3">
-        <v>39300</v>
+        <v>-65800</v>
       </c>
       <c r="G32" s="3">
-        <v>92600</v>
+        <v>42900</v>
       </c>
       <c r="H32" s="3">
-        <v>49100</v>
+        <v>101000</v>
       </c>
       <c r="I32" s="3">
-        <v>19800</v>
+        <v>53600</v>
       </c>
       <c r="J32" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-25500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-70200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>70500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-31500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>47000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-80100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>31700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-43400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-61300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-83200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-45700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>58800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-117200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>111000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-291700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1245300</v>
+        <v>981000</v>
       </c>
       <c r="E33" s="3">
-        <v>1507200</v>
+        <v>1358500</v>
       </c>
       <c r="F33" s="3">
-        <v>2092800</v>
+        <v>1644200</v>
       </c>
       <c r="G33" s="3">
-        <v>2303400</v>
+        <v>2283100</v>
       </c>
       <c r="H33" s="3">
-        <v>1446000</v>
+        <v>2512800</v>
       </c>
       <c r="I33" s="3">
-        <v>1337000</v>
+        <v>1577400</v>
       </c>
       <c r="J33" s="3">
+        <v>1458500</v>
+      </c>
+      <c r="K33" s="3">
         <v>837600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>782100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>648000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>141800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>205200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1042300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>813000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>941500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>741000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>688300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>749200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1840300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>784400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1096500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>321100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>417500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>283500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>61400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2933,185 +3008,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1245300</v>
+        <v>981000</v>
       </c>
       <c r="E35" s="3">
-        <v>1507200</v>
+        <v>1358500</v>
       </c>
       <c r="F35" s="3">
-        <v>2092800</v>
+        <v>1644200</v>
       </c>
       <c r="G35" s="3">
-        <v>2303400</v>
+        <v>2283100</v>
       </c>
       <c r="H35" s="3">
-        <v>1446000</v>
+        <v>2512800</v>
       </c>
       <c r="I35" s="3">
-        <v>1337000</v>
+        <v>1577400</v>
       </c>
       <c r="J35" s="3">
+        <v>1458500</v>
+      </c>
+      <c r="K35" s="3">
         <v>837600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>782100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>648000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>141800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>205200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1042300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>813000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>941500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>741000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>688300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>749200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1840300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>784400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1096500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>321100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>417500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>283500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>61400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3142,8 +3226,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3174,782 +3259,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3409400</v>
+        <v>2718000</v>
       </c>
       <c r="E41" s="3">
-        <v>3388200</v>
+        <v>3719400</v>
       </c>
       <c r="F41" s="3">
-        <v>2841900</v>
+        <v>3696300</v>
       </c>
       <c r="G41" s="3">
-        <v>2222800</v>
+        <v>3100300</v>
       </c>
       <c r="H41" s="3">
-        <v>3079800</v>
+        <v>2424900</v>
       </c>
       <c r="I41" s="3">
-        <v>3201000</v>
+        <v>3359800</v>
       </c>
       <c r="J41" s="3">
+        <v>3492000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2219100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1054500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1404400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1067300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1878900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2219500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2287300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1839700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2446500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1491500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2413200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1641100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1922600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1901200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2359900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1755700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1832500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1501600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1561700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1095700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>481700</v>
+        <v>328600</v>
       </c>
       <c r="E42" s="3">
-        <v>367200</v>
+        <v>525500</v>
       </c>
       <c r="F42" s="3">
-        <v>592000</v>
+        <v>400600</v>
       </c>
       <c r="G42" s="3">
-        <v>364900</v>
+        <v>645800</v>
       </c>
       <c r="H42" s="3">
-        <v>473900</v>
+        <v>398000</v>
       </c>
       <c r="I42" s="3">
-        <v>474000</v>
+        <v>517000</v>
       </c>
       <c r="J42" s="3">
+        <v>517100</v>
+      </c>
+      <c r="K42" s="3">
         <v>467300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>156800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>506700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>839200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>999800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>247600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>459900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>662000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>906600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1349100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1383500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2042100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1878800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1325000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1736700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1560200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1118400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3310400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3450900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>12266100</v>
+        <v>12482700</v>
       </c>
       <c r="E43" s="3">
-        <v>10314000</v>
+        <v>13381200</v>
       </c>
       <c r="F43" s="3">
-        <v>8799900</v>
+        <v>11251700</v>
       </c>
       <c r="G43" s="3">
-        <v>7896500</v>
+        <v>9599900</v>
       </c>
       <c r="H43" s="3">
-        <v>6756500</v>
+        <v>8614400</v>
       </c>
       <c r="I43" s="3">
-        <v>5579900</v>
+        <v>7370700</v>
       </c>
       <c r="J43" s="3">
+        <v>6087200</v>
+      </c>
+      <c r="K43" s="3">
         <v>5301400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3306500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2555100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1960700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2097900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2059500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1806900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2131500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2049800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2634900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2725700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2538700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2350500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2628100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2269200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2341000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1978600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1905300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1705700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2007700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2447100</v>
+        <v>2470900</v>
       </c>
       <c r="E44" s="3">
-        <v>2613600</v>
+        <v>2669500</v>
       </c>
       <c r="F44" s="3">
-        <v>2372400</v>
+        <v>2851200</v>
       </c>
       <c r="G44" s="3">
-        <v>2678900</v>
+        <v>2588000</v>
       </c>
       <c r="H44" s="3">
-        <v>2413800</v>
+        <v>2922400</v>
       </c>
       <c r="I44" s="3">
-        <v>1847600</v>
+        <v>2633200</v>
       </c>
       <c r="J44" s="3">
+        <v>2015600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1997200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1507200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1345600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1061300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1322500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1208400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1511100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1471100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1594800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1580600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1479100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1326100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1461500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1641500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1478800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1472400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1512100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1366100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1385800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1267800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>390200</v>
+        <v>392800</v>
       </c>
       <c r="E45" s="3">
-        <v>317800</v>
+        <v>425700</v>
       </c>
       <c r="F45" s="3">
-        <v>356600</v>
+        <v>346700</v>
       </c>
       <c r="G45" s="3">
-        <v>259200</v>
+        <v>389000</v>
       </c>
       <c r="H45" s="3">
-        <v>288900</v>
+        <v>282800</v>
       </c>
       <c r="I45" s="3">
-        <v>270500</v>
+        <v>315200</v>
       </c>
       <c r="J45" s="3">
+        <v>295100</v>
+      </c>
+      <c r="K45" s="3">
         <v>358600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>175900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>224100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>199200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>282900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>216900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>304500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>172500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>196300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>144400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>146700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>138600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>131000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>125000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>131300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>125800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>180600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>191400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>169900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>140500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>18994500</v>
+        <v>18393000</v>
       </c>
       <c r="E46" s="3">
-        <v>17000900</v>
+        <v>20721300</v>
       </c>
       <c r="F46" s="3">
-        <v>14962700</v>
+        <v>18546400</v>
       </c>
       <c r="G46" s="3">
-        <v>13422300</v>
+        <v>16322900</v>
       </c>
       <c r="H46" s="3">
-        <v>13012800</v>
+        <v>14642500</v>
       </c>
       <c r="I46" s="3">
-        <v>11373100</v>
+        <v>14195800</v>
       </c>
       <c r="J46" s="3">
+        <v>12407000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10343600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6146600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5686000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4795200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6421200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6704100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6157500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6074800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6949500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6758000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8113900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7028000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7907800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8174700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7564200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7431700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7064000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6082800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8133400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7962600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>9424400</v>
+        <v>10036300</v>
       </c>
       <c r="E47" s="3">
-        <v>9507400</v>
+        <v>10281200</v>
       </c>
       <c r="F47" s="3">
-        <v>8445900</v>
+        <v>10371700</v>
       </c>
       <c r="G47" s="3">
-        <v>7966600</v>
+        <v>9213700</v>
       </c>
       <c r="H47" s="3">
-        <v>7942700</v>
+        <v>8690900</v>
       </c>
       <c r="I47" s="3">
-        <v>7441400</v>
+        <v>8664700</v>
       </c>
       <c r="J47" s="3">
+        <v>8117900</v>
+      </c>
+      <c r="K47" s="3">
         <v>7244100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1100900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1015100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>992900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1208900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1451100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1642600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1920700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1956400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1743300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1335500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1410900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1531900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1627300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1929500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1815500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1384000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1419900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1466400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1205600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>31638700</v>
+        <v>33590900</v>
       </c>
       <c r="E48" s="3">
-        <v>31668800</v>
+        <v>34514900</v>
       </c>
       <c r="F48" s="3">
-        <v>30387900</v>
+        <v>34547700</v>
       </c>
       <c r="G48" s="3">
-        <v>28736100</v>
+        <v>33150500</v>
       </c>
       <c r="H48" s="3">
-        <v>27350200</v>
+        <v>31348500</v>
       </c>
       <c r="I48" s="3">
-        <v>27834800</v>
+        <v>29836600</v>
       </c>
       <c r="J48" s="3">
+        <v>30365200</v>
+      </c>
+      <c r="K48" s="3">
         <v>25704900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21623400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21324800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20752300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24092400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23977800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26598600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24369500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24227100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23212000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23085100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22319900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22118800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>24635700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>24041100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>26453800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>25781800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>26507600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>26236200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>27921300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4965200</v>
+        <v>5020500</v>
       </c>
       <c r="E49" s="3">
-        <v>5116400</v>
+        <v>5416500</v>
       </c>
       <c r="F49" s="3">
-        <v>4897600</v>
+        <v>5581500</v>
       </c>
       <c r="G49" s="3">
-        <v>4511400</v>
+        <v>5342800</v>
       </c>
       <c r="H49" s="3">
-        <v>4216000</v>
+        <v>4921600</v>
       </c>
       <c r="I49" s="3">
-        <v>4241300</v>
+        <v>4599200</v>
       </c>
       <c r="J49" s="3">
+        <v>4626800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6636400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>407900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>402700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>400900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>460900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>357200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>397400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>364700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>355300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>354900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>361500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>345800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>354300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>383600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>384100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>415900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>404900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>375200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>380300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>393200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4034,8 +4147,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4120,94 +4236,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3696800</v>
+        <v>3290200</v>
       </c>
       <c r="E52" s="3">
-        <v>4107800</v>
+        <v>4032900</v>
       </c>
       <c r="F52" s="3">
-        <v>3594900</v>
+        <v>4481300</v>
       </c>
       <c r="G52" s="3">
-        <v>3196500</v>
+        <v>3921700</v>
       </c>
       <c r="H52" s="3">
-        <v>2661000</v>
+        <v>3487100</v>
       </c>
       <c r="I52" s="3">
-        <v>2844500</v>
+        <v>2902900</v>
       </c>
       <c r="J52" s="3">
+        <v>3103100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3142400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2484600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2427200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2336300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2923900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2825800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3302800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2486900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1880600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1713700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1711100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1717900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1535300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1653700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1652100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2499000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2571300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2636600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2342900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2548600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4292,94 +4414,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>68719600</v>
+        <v>70330900</v>
       </c>
       <c r="E54" s="3">
-        <v>67401300</v>
+        <v>74966800</v>
       </c>
       <c r="F54" s="3">
-        <v>62289000</v>
+        <v>73528700</v>
       </c>
       <c r="G54" s="3">
-        <v>57832900</v>
+        <v>67951600</v>
       </c>
       <c r="H54" s="3">
-        <v>55182700</v>
+        <v>63090500</v>
       </c>
       <c r="I54" s="3">
-        <v>53735000</v>
+        <v>60199300</v>
       </c>
       <c r="J54" s="3">
+        <v>58620000</v>
+      </c>
+      <c r="K54" s="3">
         <v>53071400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31763400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30855800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29277600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35107300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35316000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38098900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35216500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35368900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33781800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34607100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32822600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>33448100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36475000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>35571100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>38615900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37205900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37022200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>38559200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>40031400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4410,8 +4538,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4442,524 +4571,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2844100</v>
+        <v>2773400</v>
       </c>
       <c r="E57" s="3">
-        <v>3307600</v>
+        <v>3102600</v>
       </c>
       <c r="F57" s="3">
-        <v>2591700</v>
+        <v>3608300</v>
       </c>
       <c r="G57" s="3">
-        <v>2691900</v>
+        <v>2827300</v>
       </c>
       <c r="H57" s="3">
-        <v>2423900</v>
+        <v>2936600</v>
       </c>
       <c r="I57" s="3">
-        <v>2303500</v>
+        <v>2644200</v>
       </c>
       <c r="J57" s="3">
+        <v>2512900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1848600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1513700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1410300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1363300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1292100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1131100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1753800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2109900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1923100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1823000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1658600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1788400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1669000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1569200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1386700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1628500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1347100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1319700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1235200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1540900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3576600</v>
+        <v>4104300</v>
       </c>
       <c r="E58" s="3">
-        <v>4883700</v>
+        <v>3901800</v>
       </c>
       <c r="F58" s="3">
-        <v>4975200</v>
+        <v>5327700</v>
       </c>
       <c r="G58" s="3">
-        <v>2147800</v>
+        <v>5427500</v>
       </c>
       <c r="H58" s="3">
-        <v>1922500</v>
+        <v>2343100</v>
       </c>
       <c r="I58" s="3">
-        <v>2025400</v>
+        <v>2097300</v>
       </c>
       <c r="J58" s="3">
+        <v>2209500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1903900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1117900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1093400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1033900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1497800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2281900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1593000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1303200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1221700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1103800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1091500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1045200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2169300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1703100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1479900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1646200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1636800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1254200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1310400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1361600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>10192900</v>
+        <v>8282900</v>
       </c>
       <c r="E59" s="3">
-        <v>4300800</v>
+        <v>11119600</v>
       </c>
       <c r="F59" s="3">
-        <v>3738700</v>
+        <v>4691800</v>
       </c>
       <c r="G59" s="3">
-        <v>4345700</v>
+        <v>4078600</v>
       </c>
       <c r="H59" s="3">
-        <v>5063800</v>
+        <v>4740700</v>
       </c>
       <c r="I59" s="3">
-        <v>2325900</v>
+        <v>5524200</v>
       </c>
       <c r="J59" s="3">
+        <v>2537300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2381300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1427600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1688500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1442100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2328000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2975500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4170100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2239900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1948300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2444200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4481500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2086300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2384800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3290800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2116200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2184600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2070100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2920300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2505200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>16613700</v>
+        <v>15160600</v>
       </c>
       <c r="E60" s="3">
-        <v>12492100</v>
+        <v>18124000</v>
       </c>
       <c r="F60" s="3">
-        <v>11305500</v>
+        <v>13627800</v>
       </c>
       <c r="G60" s="3">
-        <v>9185400</v>
+        <v>12333300</v>
       </c>
       <c r="H60" s="3">
-        <v>9410200</v>
+        <v>10020500</v>
       </c>
       <c r="I60" s="3">
-        <v>6654700</v>
+        <v>10265700</v>
       </c>
       <c r="J60" s="3">
+        <v>7259700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6133800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4059200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4192300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3839300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5117900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6388500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7517000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5653000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5093100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5371000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7231700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4634400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5924600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5657100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6157300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5390900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5168500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4644100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5465900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5407800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>22023100</v>
+        <v>21830200</v>
       </c>
       <c r="E61" s="3">
-        <v>20446000</v>
+        <v>24025200</v>
       </c>
       <c r="F61" s="3">
-        <v>18727600</v>
+        <v>22304700</v>
       </c>
       <c r="G61" s="3">
-        <v>19576300</v>
+        <v>20430100</v>
       </c>
       <c r="H61" s="3">
-        <v>18233500</v>
+        <v>21356000</v>
       </c>
       <c r="I61" s="3">
-        <v>18888000</v>
+        <v>19891100</v>
       </c>
       <c r="J61" s="3">
+        <v>20605100</v>
+      </c>
+      <c r="K61" s="3">
         <v>18309500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9394800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9384300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8779800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11336200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10598900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10485200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8639000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9688200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9012400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9095000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8851100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8601200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10695600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10807900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12289100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12638500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>13502000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>14821200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>15871600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>8154100</v>
+        <v>8981800</v>
       </c>
       <c r="E62" s="3">
-        <v>8264000</v>
+        <v>8895400</v>
       </c>
       <c r="F62" s="3">
-        <v>8531300</v>
+        <v>9015300</v>
       </c>
       <c r="G62" s="3">
-        <v>8242200</v>
+        <v>9306900</v>
       </c>
       <c r="H62" s="3">
-        <v>7927300</v>
+        <v>8991500</v>
       </c>
       <c r="I62" s="3">
-        <v>7566800</v>
+        <v>8647900</v>
       </c>
       <c r="J62" s="3">
+        <v>8254700</v>
+      </c>
+      <c r="K62" s="3">
         <v>7994800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5164400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5067400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4936500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4931700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4975800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5437900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5235000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4019500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4026100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4060300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3917900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4026500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4451000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4256600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5005900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4070100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3843000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3738900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3796500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5044,8 +5192,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5130,8 +5281,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5216,94 +5370,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>52745700</v>
+        <v>52371200</v>
       </c>
       <c r="E66" s="3">
-        <v>47373700</v>
+        <v>57540800</v>
       </c>
       <c r="F66" s="3">
-        <v>44278600</v>
+        <v>51680400</v>
       </c>
       <c r="G66" s="3">
-        <v>42299300</v>
+        <v>48304000</v>
       </c>
       <c r="H66" s="3">
-        <v>40562600</v>
+        <v>46144700</v>
       </c>
       <c r="I66" s="3">
-        <v>37953800</v>
+        <v>44250100</v>
       </c>
       <c r="J66" s="3">
+        <v>41404100</v>
+      </c>
+      <c r="K66" s="3">
         <v>39212600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19406800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19405700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18337600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22287100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22919800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24429400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20549300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19382000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19002400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20923200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17947000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19039000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21376300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21713500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>23288300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>22436200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>22579500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>24545600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>25619100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5334,8 +5494,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5420,8 +5581,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5506,8 +5670,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5592,8 +5759,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5678,94 +5848,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5526000</v>
+        <v>7009400</v>
       </c>
       <c r="E72" s="3">
-        <v>9644800</v>
+        <v>6028400</v>
       </c>
       <c r="F72" s="3">
-        <v>8137600</v>
+        <v>10521600</v>
       </c>
       <c r="G72" s="3">
-        <v>6044800</v>
+        <v>8877400</v>
       </c>
       <c r="H72" s="3">
-        <v>5261100</v>
+        <v>6594300</v>
       </c>
       <c r="I72" s="3">
-        <v>6338600</v>
+        <v>5739300</v>
       </c>
       <c r="J72" s="3">
+        <v>6914900</v>
+      </c>
+      <c r="K72" s="3">
         <v>4951900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3927300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3144800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2643400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2859000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2653800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2868400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4758100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4799200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3986200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3044700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4623800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4086800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3708300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2652600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3163800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2067600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1746600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1329000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1390300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5850,8 +6026,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5936,8 +6115,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6022,94 +6204,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>15973900</v>
+        <v>17959700</v>
       </c>
       <c r="E76" s="3">
-        <v>20027600</v>
+        <v>17426000</v>
       </c>
       <c r="F76" s="3">
-        <v>18010400</v>
+        <v>21848300</v>
       </c>
       <c r="G76" s="3">
-        <v>15533700</v>
+        <v>19647700</v>
       </c>
       <c r="H76" s="3">
-        <v>14620200</v>
+        <v>16945800</v>
       </c>
       <c r="I76" s="3">
-        <v>15781300</v>
+        <v>15949300</v>
       </c>
       <c r="J76" s="3">
+        <v>17215900</v>
+      </c>
+      <c r="K76" s="3">
         <v>13858900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12356600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11450100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10940000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12820300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12396200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13669400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14667200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15986900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14779400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13683900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14875500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14409100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15098700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13857600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15327600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14769700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14442700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14013600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14412400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6194,185 +6382,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1245300</v>
+        <v>981000</v>
       </c>
       <c r="E81" s="3">
-        <v>1507200</v>
+        <v>1358500</v>
       </c>
       <c r="F81" s="3">
-        <v>2092800</v>
+        <v>1644200</v>
       </c>
       <c r="G81" s="3">
-        <v>2303400</v>
+        <v>2283100</v>
       </c>
       <c r="H81" s="3">
-        <v>1446000</v>
+        <v>2512800</v>
       </c>
       <c r="I81" s="3">
-        <v>1337000</v>
+        <v>1577400</v>
       </c>
       <c r="J81" s="3">
+        <v>1458500</v>
+      </c>
+      <c r="K81" s="3">
         <v>837600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>782100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>648000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>141800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>205200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1042300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>813000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>941500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>741000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>688300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>749200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1840300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>784400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1096500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>321100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>417500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>283500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>61400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6403,94 +6600,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>695800</v>
+        <v>806800</v>
       </c>
       <c r="E83" s="3">
-        <v>743500</v>
+        <v>759100</v>
       </c>
       <c r="F83" s="3">
-        <v>700500</v>
+        <v>811100</v>
       </c>
       <c r="G83" s="3">
-        <v>628300</v>
+        <v>764100</v>
       </c>
       <c r="H83" s="3">
-        <v>596100</v>
+        <v>685400</v>
       </c>
       <c r="I83" s="3">
-        <v>610700</v>
+        <v>650300</v>
       </c>
       <c r="J83" s="3">
+        <v>666200</v>
+      </c>
+      <c r="K83" s="3">
         <v>591000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>503100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>483400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>523300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>551700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>549500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>579700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>592200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>595600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>565200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>537500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>497000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>559000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1112400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>537300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>588000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>713800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>683300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>660300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>634300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6575,8 +6776,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6661,8 +6865,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6747,8 +6954,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6833,8 +7043,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6919,94 +7132,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>455600</v>
+        <v>753100</v>
       </c>
       <c r="E89" s="3">
-        <v>2499000</v>
+        <v>497000</v>
       </c>
       <c r="F89" s="3">
-        <v>3285700</v>
+        <v>2726200</v>
       </c>
       <c r="G89" s="3">
-        <v>1353800</v>
+        <v>3584400</v>
       </c>
       <c r="H89" s="3">
-        <v>833000</v>
+        <v>1476900</v>
       </c>
       <c r="I89" s="3">
-        <v>2422100</v>
+        <v>908700</v>
       </c>
       <c r="J89" s="3">
+        <v>2642300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1161500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>695900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>616000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1120400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>846400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-539500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>668800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1966900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2513500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1620900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1305300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1176500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2309500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2794100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1401900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2033100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1494000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>478900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1425500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1328000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7037,94 +7256,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-5554360000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5153955000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8443313000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5493938000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4586132000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3354387000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4542147000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3564839000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-295700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-178500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-359700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-320800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-278300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-214000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-385700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-324300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-196700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-161900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-358000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-220300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-333000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-133100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-305300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-160000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-90800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-743300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7209,8 +7432,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7295,94 +7521,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-822300</v>
+        <v>-1081100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1548500</v>
+        <v>-897000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1059400</v>
+        <v>-1689300</v>
       </c>
       <c r="G94" s="3">
-        <v>-761800</v>
+        <v>-1155700</v>
       </c>
       <c r="H94" s="3">
-        <v>-611200</v>
+        <v>-831000</v>
       </c>
       <c r="I94" s="3">
-        <v>-840400</v>
+        <v>-666800</v>
       </c>
       <c r="J94" s="3">
+        <v>-916800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2943100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-552000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-145300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-462600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-224600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1183000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-712600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-475200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-293400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>130100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-973300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-623200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1472300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-834500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7413,94 +7645,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-49900</v>
+        <v>-560100</v>
       </c>
       <c r="E96" s="3">
-        <v>-477400</v>
+        <v>-54500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1148700</v>
+        <v>-520800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1252200</v>
+        <v>-1253200</v>
       </c>
       <c r="H96" s="3">
-        <v>-60200</v>
+        <v>-1366000</v>
       </c>
       <c r="I96" s="3">
-        <v>-296300</v>
+        <v>-65700</v>
       </c>
       <c r="J96" s="3">
+        <v>-323200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-60300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-206300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-35300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-732400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-698500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-458600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-110700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-990600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-832000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-89800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-36500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-494600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-736600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-73500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-63900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-53900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-327100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-36600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-105500</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7585,8 +7821,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7671,8 +7910,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7757,262 +7999,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>415100</v>
+        <v>-537200</v>
       </c>
       <c r="E100" s="3">
-        <v>-575500</v>
+        <v>452800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1621700</v>
+        <v>-627800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1628100</v>
+        <v>-1769100</v>
       </c>
       <c r="H100" s="3">
-        <v>-340200</v>
+        <v>-1776100</v>
       </c>
       <c r="I100" s="3">
-        <v>-672800</v>
+        <v>-371100</v>
       </c>
       <c r="J100" s="3">
+        <v>-734000</v>
+      </c>
+      <c r="K100" s="3">
         <v>2906600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-507400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-163600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1135500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1148900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2061800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-266700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1261300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-954100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-274300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-273900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-877700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-278100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-294000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-314200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-27200</v>
+        <v>-136200</v>
       </c>
       <c r="E101" s="3">
-        <v>171300</v>
+        <v>-29700</v>
       </c>
       <c r="F101" s="3">
-        <v>14500</v>
+        <v>186800</v>
       </c>
       <c r="G101" s="3">
-        <v>179000</v>
+        <v>15800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2700</v>
+        <v>195300</v>
       </c>
       <c r="I101" s="3">
-        <v>73000</v>
+        <v>-3000</v>
       </c>
       <c r="J101" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>30000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-99000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-144100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>270100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-38800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>108200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>30500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-28500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>107900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>51800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-60100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-72400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>9800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-78800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>69600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-93500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>51000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>21200</v>
+        <v>-1001400</v>
       </c>
       <c r="E102" s="3">
-        <v>546300</v>
+        <v>23100</v>
       </c>
       <c r="F102" s="3">
-        <v>619100</v>
+        <v>596000</v>
       </c>
       <c r="G102" s="3">
-        <v>-857000</v>
+        <v>675400</v>
       </c>
       <c r="H102" s="3">
-        <v>-121200</v>
+        <v>-934900</v>
       </c>
       <c r="I102" s="3">
-        <v>981900</v>
+        <v>-132200</v>
       </c>
       <c r="J102" s="3">
+        <v>1071100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1114400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-349900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>337100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-576700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-340600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>108200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>447600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-516200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>955000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-921700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>709100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-210300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>211400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-482500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>30000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>513900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-613900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-78600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>230300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,392 +662,404 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8431300</v>
+      </c>
+      <c r="E8" s="3">
         <v>8232000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9324900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9522700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10425200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10532400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7793500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7622700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5133200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4083300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3613300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2979900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2957500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2026000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3918700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4831100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4863900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4943300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4304500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4761700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4826500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9488900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4392800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4916200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4263900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4208300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4278900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4393300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4945400</v>
+      </c>
+      <c r="E9" s="3">
         <v>5156900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5466800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5761800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5864500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5538600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4305100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4591800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3191300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2207500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2164400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2002500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1827700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2934600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3190200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3034900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3027600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2763200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3105100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2868100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5581200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2654000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3118400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2808700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2952200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2926600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3202400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3485900</v>
+      </c>
+      <c r="E10" s="3">
         <v>3075100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3858100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3760900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4560700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4993700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3488400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3030900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1941900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1682700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1405700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>815500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>955000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>198300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>984100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1641000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1829000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1915700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1541300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1656600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1958400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3907700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1738700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1797800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1455200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1256100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1352300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1190900</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1079,97 +1091,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>193100</v>
+      </c>
+      <c r="E12" s="3">
         <v>59900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>59800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>209900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>106800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>101600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>66200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>35300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>86600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>103000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>66900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>16600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>50300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>271600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>56400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>21200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>292200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>103900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>24700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>8600</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>96800</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1257,186 +1273,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3">
         <v>8800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>81100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-116500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-328800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>314200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>187600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>149000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-26200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-34600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-556400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>7900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>244000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E15" s="3">
         <v>29500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>36800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>79300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>30600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>31400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>89200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>14100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>40200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>46000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>11500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>6100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>15000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>10900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>13300</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>16400</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1465,186 +1490,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5595500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5712400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6031900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6706600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6292000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6066500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4786300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5129400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3570700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2706400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2455500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2553800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2319800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1827300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3529200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3845900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3321700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3334800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2966200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3593200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3300300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6019600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2838800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3111000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3200600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3162600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3223200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3854400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2835900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2519600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3293000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2816100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4133200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4465800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3007100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2493200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1562500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1376900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1157800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>426100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>637700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>198700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>389600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>985200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1542100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1608600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1338300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1168600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1526200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3469300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1554000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1805100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1063300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1045700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1055600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>538900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1676,453 +1708,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-47700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>137900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>65800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-101000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-53600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-21600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>70200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-70500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>31500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-47000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>80100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-31700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>43400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>61300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>83200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>45700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>26900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>18100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-58800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>117200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-111000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>291700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3973700</v>
+      </c>
+      <c r="E21" s="3">
         <v>3278700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4190000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3693000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4854500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5050200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3603800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3137800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2179000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1845800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1632900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1019600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1118900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>779700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>922300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1657500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2106000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2217200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1937100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1748700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2104600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4627400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2118200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2411200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1718300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1846200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1604900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1464900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>413500</v>
+      </c>
+      <c r="E22" s="3">
         <v>405500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>417200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>391500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>349400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>319700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>263600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>294600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>154300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>127500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>117300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>125700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>155400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>156700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>126200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>127000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>128100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>129500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>122000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>183100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>144600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>347900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>171800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>206800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>198200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>153300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>205200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>226800</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2710900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2066400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3013700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2490400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3741000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4045100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2689900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2177000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1433600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1215200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1032100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>370700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>411700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>73500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>216300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>938200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1382300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1522500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1277600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1068600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1401000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3167100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1409100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1616500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>806300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1009600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>739400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>603800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1273700</v>
+      </c>
+      <c r="E24" s="3">
         <v>800600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1342300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>643600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1227700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1274300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>932100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>495300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>482700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>371200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>322700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>178300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>137100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>91500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-186900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>477900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>505400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>451800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>303400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>589000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1192000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>564000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>457200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>414600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>535100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>396300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>485600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2210,186 +2258,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1437100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1265800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1671400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1846800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2513200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2770800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1757700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1681700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>951000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>844000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>709400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>192400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>274600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>72400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>124800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1125100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>904500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1017100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>825800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>765200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>811900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1975100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>845100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1159300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>391700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>474500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>343200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>118200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1220600</v>
+      </c>
+      <c r="E27" s="3">
         <v>981000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1358500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1644200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2283100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2512800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1577400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1458500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>837600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>782100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>648000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>141800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>205200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1042300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>813000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>941500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>741000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>688300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>749200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1840300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>784400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1096500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>321100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>417500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>283500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>61400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2477,8 +2534,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2566,8 +2626,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2655,8 +2718,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2744,186 +2810,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-288500</v>
+      </c>
+      <c r="E32" s="3">
         <v>47700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-137900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-65800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>101000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>53600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>21600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-70200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>70500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>47000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-80100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>31700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-43400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-61300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-83200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-45700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-26900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>58800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-117200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>111000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-291700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1220600</v>
+      </c>
+      <c r="E33" s="3">
         <v>981000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1358500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1644200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2283100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2512800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1577400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1458500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>837600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>782100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>648000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>141800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>205200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1042300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>813000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>941500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>741000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>688300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>749200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1840300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>784400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1096500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>321100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>417500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>283500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>61400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3011,191 +3086,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1220600</v>
+      </c>
+      <c r="E35" s="3">
         <v>981000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1358500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1644200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2283100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2512800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1577400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1458500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>837600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>782100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>648000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>141800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>205200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1042300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>813000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>941500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>741000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>688300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>749200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1840300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>784400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1096500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>321100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>417500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>283500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>61400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3227,8 +3311,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3260,809 +3345,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2897000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2718000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3719400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3696300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2424900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3359800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3492000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2219100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1054500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1404400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1067300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1878900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2219500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2287300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1839700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2446500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1491500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2413200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1641100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1922600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1901200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2359900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1755700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1832500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1501600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1561700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1095700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>529100</v>
+      </c>
+      <c r="E42" s="3">
         <v>328600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>525500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>400600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>645800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>398000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>517000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>517100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>467300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>102400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>156800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>506700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>839200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>999800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>247600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>459900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>662000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>906600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1349100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1383500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2042100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1878800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1325000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1736700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1560200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1118400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3310400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3450900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>11166900</v>
+      </c>
+      <c r="E43" s="3">
         <v>12482700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13381200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11251700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9599900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8614400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7370700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6087200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5301400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3306500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2555100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1960700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2097900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2059500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1806900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2131500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2049800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2634900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2725700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2538700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2350500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2628100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2269200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2341000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1978600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1905300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1705700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2007700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2725600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2470900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2669500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2851200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2588000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2922400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2633200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2015600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1997200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1507200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1345600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1061300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1322500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1208400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1511100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1471100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1594800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1580600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1479100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1326100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1461500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1641500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1478800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1472400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1512100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1366100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1385800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1267800</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>425700</v>
+      </c>
+      <c r="E45" s="3">
         <v>392800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>425700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>346700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>389000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>282800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>315200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>295100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>358600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>175900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>224100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>199200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>282900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>216900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>304500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>172500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>196300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>144400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>146700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>138600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>131000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>125000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>131300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>125800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>180600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>191400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>169900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>140500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>17744200</v>
+      </c>
+      <c r="E46" s="3">
         <v>18393000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20721300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18546400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16322900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14642500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14195800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12407000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10343600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6146600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5686000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4795200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6421200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6704100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6157500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6074800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6949500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6758000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8113900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7028000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7907800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8174700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7564200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7431700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7064000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6082800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8133400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7962600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>9391800</v>
+      </c>
+      <c r="E47" s="3">
         <v>10036300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10281200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10371700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9213700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8690900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8664700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8117900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7244100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1100900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1015100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>992900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1208900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1451100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1642600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1920700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1956400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1743300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1335500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1410900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1531900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1627300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1929500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1815500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1384000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1419900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1466400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1205600</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>33603000</v>
+      </c>
+      <c r="E48" s="3">
         <v>33590900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34514900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34547700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33150500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31348500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29836600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30365200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25704900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21623400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21324800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20752300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24092400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23977800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26598600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24369500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24227100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23212000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23085100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22319900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22118800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>24635700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>24041100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>26453800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>25781800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>26507600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>26236200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>27921300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4868300</v>
+      </c>
+      <c r="E49" s="3">
         <v>5020500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5416500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5581500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5342800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4921600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4599200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4626800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6636400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>407900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>402700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>400900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>460900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>357200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>397400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>364700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>355300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>354900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>361500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>345800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>354300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>383600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>384100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>415900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>404900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>375200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>380300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>393200</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4150,8 +4263,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4239,97 +4355,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2847400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3290200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4032900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4481300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3921700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3487100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2902900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3103100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3142400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2484600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2427200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2336300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2923900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2825800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3302800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2486900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1880600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1713700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1711100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1717900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1535300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1653700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1652100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2499000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2571300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2636600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2342900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2548600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4417,97 +4539,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>68454700</v>
+      </c>
+      <c r="E54" s="3">
         <v>70330900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74966800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73528700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67951600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63090500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60199300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58620000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53071400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31763400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30855800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29277600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35107300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35316000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38098900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35216500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35368900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33781800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34607100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>32822600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>33448100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>36475000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>35571100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>38615900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37205900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>37022200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>38559200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>40031400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4539,8 +4667,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4572,542 +4701,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2887200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2773400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3102600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3608300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2827300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2936600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2644200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2512900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1848600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1513700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1410300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1363300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1292100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1131100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1753800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2109900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1923100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1823000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1658600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1788400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1669000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1569200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1386700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1628500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1347100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1319700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1235200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1540900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>4228000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4104300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3901800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5327700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5427500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2343100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2097300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2209500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1903900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1117900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1093400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1033900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1497800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2281900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1593000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1303200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1221700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1103800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1091500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1045200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2169300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1703100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1479900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1646200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1636800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1254200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1310400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1361600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>5298000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8282900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11119600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4691800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4078600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4740700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5524200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2537300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2381300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1427600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1688500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1442100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2328000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2975500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4170100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2239900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1948300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2444200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4481500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1800800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2086300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2384800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3290800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2116200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2184600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2070100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2920300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2505200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>12413200</v>
+      </c>
+      <c r="E60" s="3">
         <v>15160600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18124000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13627800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12333300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10020500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10265700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7259700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6133800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4059200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4192300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3839300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5117900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6388500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7517000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5653000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5093100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5371000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7231700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4634400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5924600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5657100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6157300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5390900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5168500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4644100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5465900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5407800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>22106900</v>
+      </c>
+      <c r="E61" s="3">
         <v>21830200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24025200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22304700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20430100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21356000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19891100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20605100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18309500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9394800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9384300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8779800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11336200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10598900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10485200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8639000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9688200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9012400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9095000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8851100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8601200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10695600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10807900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12289100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12638500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>13502000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>14821200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>15871600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>8972000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8981800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8895400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9015300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9306900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8991500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8647900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8254700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7994800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5164400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5067400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4936500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4931700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4975800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5437900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5235000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4019500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4026100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4060300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3917900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4026500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4451000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4256600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5005900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4070100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3843000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3738900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3796500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5195,8 +5343,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5284,8 +5435,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5373,97 +5527,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>49705900</v>
+      </c>
+      <c r="E66" s="3">
         <v>52371200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57540800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51680400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48304000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46144700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44250100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41404100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39212600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19406800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19405700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18337600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22287100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22919800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24429400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20549300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19382000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19002400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20923200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17947000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19039000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21376300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21713500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>23288300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>22436200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>22579500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>24545600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>25619100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5495,8 +5655,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5584,8 +5745,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5673,8 +5837,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5762,8 +5929,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5851,97 +6021,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>8229900</v>
+      </c>
+      <c r="E72" s="3">
         <v>7009400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6028400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10521600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8877400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6594300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5739300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6914900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4951900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3927300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3144800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2643400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2859000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2653800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2868400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4758100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4799200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3986200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3044700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4623800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4086800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3708300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2652600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3163800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2067600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1746600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1329000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1390300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6029,8 +6205,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6118,8 +6297,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6207,97 +6389,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>18748700</v>
+      </c>
+      <c r="E76" s="3">
         <v>17959700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17426000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21848300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19647700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16945800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15949300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17215900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13858900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12356600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11450100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10940000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12820300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12396200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13669400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14667200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15986900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14779400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13683900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14875500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14409100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15098700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13857600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15327600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14769700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14442700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14013600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>14412400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6385,191 +6573,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1220600</v>
+      </c>
+      <c r="E81" s="3">
         <v>981000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1358500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1644200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2283100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2512800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1577400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1458500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>837600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>782100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>648000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>141800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>205200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1042300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>813000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>941500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>741000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>688300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>749200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1840300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>784400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1096500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>321100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>417500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>283500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>61400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6601,97 +6798,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>849300</v>
+      </c>
+      <c r="E83" s="3">
         <v>806800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>759100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>811100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>764100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>685400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>650300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>666200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>591000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>503100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>483400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>523300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>551700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>549500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>579700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>592200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>595600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>565200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>537500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>497000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>559000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1112400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>537300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>588000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>713800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>683300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>660300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>634300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6779,8 +6980,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6868,8 +7072,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6957,8 +7164,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7046,8 +7256,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7135,97 +7348,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1005600</v>
+      </c>
+      <c r="E89" s="3">
         <v>753100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>497000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2726200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3584400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1476900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>908700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2642300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1161500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>695900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>616000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1120400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>846400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-539500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>668800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1966900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2513500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1620900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1305300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1176500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2309500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2794100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1401900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2033100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1494000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>478900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1425500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1328000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7257,97 +7476,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-6158165000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5554360000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5153955000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8443313000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5493938000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4586132000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3354387000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4542147000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3564839000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-295700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-178500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-359700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-320800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-278300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-214000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-385700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-324300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-196700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-161900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-358000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-220300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-333000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-133100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-305300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-160000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-90800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-743300</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7435,8 +7658,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7524,97 +7750,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1251700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1081100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-897000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1689300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1155700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-831000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-666800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-916800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2943100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-552000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-145300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-462600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-224600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1183000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-712600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-475200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-293400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>130100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-973300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1661300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1079400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-623200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1472300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-834500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7646,97 +7878,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-311800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-560100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-54500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-520800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1253200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1366000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-65700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-323200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-60300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-206300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-35300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-732400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-698500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-458600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-110700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-990600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-832000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1793500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-89800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-36500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-494600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-736600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-73500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-63900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-53900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-327100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-36600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-105500</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7824,8 +8060,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7913,8 +8152,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8002,271 +8244,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-537200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>452800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-627800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1769100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1776100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-371100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-734000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2906600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-507400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-163600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1135500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1148900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2061800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-266700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1261300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-954100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2097800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-274300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1624700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1176600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1555200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-273900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-877700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-278100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-294000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-314200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-136200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-29700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>186800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>195300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>79700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>30000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-99000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>270100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-38800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>108200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>30500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-28500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>107900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>51800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-60100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-72400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-78800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>69600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-93500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>51000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1001400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>596000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>675400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-934900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-132200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1071100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1114400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-349900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>337100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-576700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-340600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>108200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>447600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-516200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>955000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-921700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>709100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-210300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>211400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-482500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>30000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>513900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-613900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-78600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>230300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-67900</v>
       </c>
     </row>
